--- a/src/test/java/com/born/xls/My Account.xlsx
+++ b/src/test/java/com/born/xls/My Account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6795" tabRatio="937"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="315">
   <si>
     <t>TCID</t>
   </si>
@@ -298,12 +298,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>pause</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Wait for Product to select</t>
   </si>
   <si>
@@ -316,9 +310,6 @@
     <t>Click on Write Review link</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Select rating for the product</t>
   </si>
   <si>
@@ -467,9 +458,6 @@
   </si>
   <si>
     <t>col|ReviewDescription</t>
-  </si>
-  <si>
-    <t>col|Name</t>
   </si>
   <si>
     <t>SortByFilter</t>
@@ -1586,7 +1574,10 @@
     <t>Verify that HamburgeMenu exist</t>
   </si>
   <si>
-    <t>Prakash</t>
+    <t>explicitwait</t>
+  </si>
+  <si>
+    <t>RandomString</t>
   </si>
 </sst>
 </file>
@@ -2196,19 +2187,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="74" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2219,40 +2210,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
@@ -2263,276 +2254,276 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>90</v>
@@ -2550,24 +2541,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J791"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="95" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
-    <col min="3" max="3" width="54.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.6328125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.1796875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="54.08984375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="9.140625" style="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2590,7 +2581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>36</v>
       </c>
@@ -2609,7 +2600,7 @@
       </c>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>36</v>
       </c>
@@ -2628,7 +2619,7 @@
       </c>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>36</v>
       </c>
@@ -2647,7 +2638,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
@@ -2666,7 +2657,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>36</v>
       </c>
@@ -2685,7 +2676,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>36</v>
       </c>
@@ -2702,7 +2693,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -2711,7 +2702,7 @@
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>40</v>
       </c>
@@ -2730,7 +2721,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
         <v>40</v>
       </c>
@@ -2749,7 +2740,7 @@
       </c>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
         <v>40</v>
       </c>
@@ -2768,7 +2759,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
         <v>40</v>
       </c>
@@ -2787,7 +2778,7 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>40</v>
       </c>
@@ -2806,7 +2797,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>40</v>
       </c>
@@ -2825,7 +2816,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>40</v>
       </c>
@@ -2846,7 +2837,7 @@
       </c>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
         <v>40</v>
       </c>
@@ -2863,7 +2854,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="34"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -2872,7 +2863,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
@@ -2891,7 +2882,7 @@
       </c>
       <c r="G18" s="33"/>
     </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>53</v>
       </c>
@@ -2910,7 +2901,7 @@
       </c>
       <c r="G19" s="33"/>
     </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>53</v>
       </c>
@@ -2929,7 +2920,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
     </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
@@ -2948,7 +2939,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>53</v>
       </c>
@@ -2967,7 +2958,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
     </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>53</v>
       </c>
@@ -2986,7 +2977,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
     </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
@@ -3005,7 +2996,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
     </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>53</v>
       </c>
@@ -3022,7 +3013,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="34"/>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>
@@ -3031,15 +3022,15 @@
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>30</v>
@@ -3050,15 +3041,15 @@
       </c>
       <c r="G27" s="33"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>10</v>
@@ -3069,15 +3060,15 @@
       </c>
       <c r="G28" s="33"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>43</v>
@@ -3088,15 +3079,15 @@
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>35</v>
@@ -3107,81 +3098,81 @@
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -3190,7 +3181,7 @@
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>64</v>
       </c>
@@ -3209,7 +3200,7 @@
       </c>
       <c r="G36" s="33"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>64</v>
       </c>
@@ -3228,7 +3219,7 @@
       </c>
       <c r="G37" s="33"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>64</v>
       </c>
@@ -3247,7 +3238,7 @@
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>64</v>
       </c>
@@ -3266,7 +3257,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>64</v>
       </c>
@@ -3285,7 +3276,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>64</v>
       </c>
@@ -3304,7 +3295,7 @@
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>64</v>
       </c>
@@ -3312,18 +3303,18 @@
         <v>22</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>92</v>
+        <v>313</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>64</v>
       </c>
@@ -3331,7 +3322,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>35</v>
@@ -3342,7 +3333,7 @@
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>64</v>
       </c>
@@ -3361,7 +3352,7 @@
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>64</v>
       </c>
@@ -3380,7 +3371,7 @@
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>64</v>
       </c>
@@ -3397,7 +3388,7 @@
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="34"/>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
@@ -3406,7 +3397,7 @@
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>71</v>
       </c>
@@ -3425,7 +3416,7 @@
       </c>
       <c r="G48" s="33"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>71</v>
       </c>
@@ -3444,7 +3435,7 @@
       </c>
       <c r="G49" s="33"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>71</v>
       </c>
@@ -3463,7 +3454,7 @@
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>71</v>
       </c>
@@ -3482,7 +3473,7 @@
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>71</v>
       </c>
@@ -3501,7 +3492,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>71</v>
       </c>
@@ -3520,7 +3511,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>71</v>
       </c>
@@ -3539,7 +3530,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>71</v>
       </c>
@@ -3558,7 +3549,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>71</v>
       </c>
@@ -3575,7 +3566,7 @@
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -3584,7 +3575,7 @@
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>78</v>
       </c>
@@ -3603,7 +3594,7 @@
       </c>
       <c r="G58" s="33"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>78</v>
       </c>
@@ -3611,7 +3602,7 @@
         <v>27</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D59" s="33" t="s">
         <v>10</v>
@@ -3622,7 +3613,7 @@
       </c>
       <c r="G59" s="33"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>78</v>
       </c>
@@ -3641,7 +3632,7 @@
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>78</v>
       </c>
@@ -3649,7 +3640,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D61" s="33" t="s">
         <v>12</v>
@@ -3662,7 +3653,7 @@
       </c>
       <c r="G61" s="33"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>78</v>
       </c>
@@ -3670,10 +3661,10 @@
         <v>24</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E62" s="33" t="s">
         <v>86</v>
@@ -3681,7 +3672,7 @@
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>78</v>
       </c>
@@ -3689,18 +3680,18 @@
         <v>23</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>92</v>
+        <v>313</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>78</v>
       </c>
@@ -3708,7 +3699,7 @@
         <v>22</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D64" s="33" t="s">
         <v>33</v>
@@ -3719,7 +3710,7 @@
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>78</v>
       </c>
@@ -3727,18 +3718,18 @@
         <v>21</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>92</v>
+        <v>313</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>78</v>
       </c>
@@ -3749,15 +3740,15 @@
         <v>79</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>78</v>
       </c>
@@ -3765,18 +3756,18 @@
         <v>13</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D67" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>78</v>
       </c>
@@ -3784,7 +3775,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D68" s="33" t="s">
         <v>12</v>
@@ -3793,11 +3784,11 @@
         <v>86</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G68" s="33"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>78</v>
       </c>
@@ -3805,10 +3796,10 @@
         <v>15</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>86</v>
@@ -3816,7 +3807,7 @@
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>78</v>
       </c>
@@ -3824,18 +3815,18 @@
         <v>16</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="35" t="s">
-        <v>92</v>
+        <v>313</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>78</v>
       </c>
@@ -3843,7 +3834,7 @@
         <v>17</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D71" s="33" t="s">
         <v>33</v>
@@ -3854,7 +3845,7 @@
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>78</v>
       </c>
@@ -3862,18 +3853,18 @@
         <v>18</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="35" t="s">
-        <v>92</v>
+        <v>313</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>78</v>
       </c>
@@ -3884,39 +3875,39 @@
         <v>79</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D74" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>80</v>
@@ -3925,17 +3916,17 @@
         <v>34</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>39</v>
@@ -3947,7 +3938,7 @@
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="34"/>
       <c r="C77" s="34"/>
@@ -3956,7 +3947,7 @@
       <c r="F77" s="34"/>
       <c r="G77" s="34"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>81</v>
       </c>
@@ -3975,7 +3966,7 @@
       </c>
       <c r="G78" s="33"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>81</v>
       </c>
@@ -3994,7 +3985,7 @@
       </c>
       <c r="G79" s="33"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>81</v>
       </c>
@@ -4013,7 +4004,7 @@
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>81</v>
       </c>
@@ -4034,7 +4025,7 @@
       </c>
       <c r="G81" s="33"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
@@ -4045,15 +4036,13 @@
         <v>84</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>86</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="E82" s="33"/>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>81</v>
       </c>
@@ -4061,18 +4050,18 @@
         <v>23</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="35" t="s">
-        <v>92</v>
+        <v>313</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>81</v>
       </c>
@@ -4091,7 +4080,7 @@
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>81</v>
       </c>
@@ -4108,7 +4097,7 @@
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
@@ -4117,9 +4106,9 @@
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B87" s="33" t="s">
         <v>28</v>
@@ -4136,15 +4125,15 @@
       </c>
       <c r="G87" s="33"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B88" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D88" s="33" t="s">
         <v>10</v>
@@ -4155,9 +4144,9 @@
       </c>
       <c r="G88" s="33"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B89" s="33" t="s">
         <v>26</v>
@@ -4174,9 +4163,9 @@
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B90" s="33" t="s">
         <v>25</v>
@@ -4193,9 +4182,9 @@
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B91" s="33" t="s">
         <v>24</v>
@@ -4212,9 +4201,9 @@
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B92" s="33" t="s">
         <v>23</v>
@@ -4231,227 +4220,225 @@
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B93" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93" s="35" t="s">
-        <v>92</v>
+        <v>313</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>129</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D95" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D96" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B97" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D97" s="33" t="s">
         <v>12</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G97" s="33"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B98" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D98" s="33" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G98" s="33"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B99" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="F99" s="33" t="s">
-        <v>148</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F99" s="33"/>
       <c r="G99" s="33"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B100" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B101" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D101" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B102" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D102" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D103" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C104" s="33" t="s">
         <v>39</v>
@@ -4463,7 +4450,7 @@
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
@@ -4472,9 +4459,9 @@
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B106" s="33" t="s">
         <v>28</v>
@@ -4491,9 +4478,9 @@
       </c>
       <c r="G106" s="33"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B107" s="33" t="s">
         <v>27</v>
@@ -4510,9 +4497,9 @@
       </c>
       <c r="G107" s="33"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B108" s="33" t="s">
         <v>26</v>
@@ -4529,9 +4516,9 @@
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B109" s="33" t="s">
         <v>25</v>
@@ -4548,9 +4535,9 @@
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B110" s="33" t="s">
         <v>24</v>
@@ -4567,34 +4554,34 @@
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B111" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C111" s="33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D111" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E111" s="35" t="s">
-        <v>92</v>
+        <v>313</v>
+      </c>
+      <c r="E111" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B112" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D112" s="33" t="s">
         <v>33</v>
@@ -4605,47 +4592,47 @@
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B113" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C113" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D113" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="E113" s="33" t="s">
         <v>109</v>
-      </c>
-      <c r="D113" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E113" s="35" t="s">
-        <v>92</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B114" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C114" s="33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D114" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E114" s="33" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B115" s="33" t="s">
         <v>13</v>
@@ -4660,7 +4647,7 @@
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="34"/>
       <c r="B116" s="34"/>
       <c r="C116" s="34"/>
@@ -4669,9 +4656,9 @@
       <c r="F116" s="34"/>
       <c r="G116" s="34"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B117" s="33" t="s">
         <v>28</v>
@@ -4688,9 +4675,9 @@
       </c>
       <c r="G117" s="33"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B118" s="33" t="s">
         <v>27</v>
@@ -4707,9 +4694,9 @@
       </c>
       <c r="G118" s="33"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B119" s="33" t="s">
         <v>26</v>
@@ -4726,9 +4713,9 @@
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B120" s="33" t="s">
         <v>25</v>
@@ -4745,9 +4732,9 @@
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B121" s="33" t="s">
         <v>24</v>
@@ -4764,9 +4751,9 @@
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B122" s="33" t="s">
         <v>23</v>
@@ -4783,28 +4770,28 @@
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B123" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E123" s="35" t="s">
-        <v>92</v>
+        <v>313</v>
+      </c>
+      <c r="E123" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B124" s="33" t="s">
         <v>21</v>
@@ -4821,9 +4808,9 @@
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B125" s="33" t="s">
         <v>20</v>
@@ -4840,9 +4827,9 @@
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B126" s="33" t="s">
         <v>13</v>
@@ -4859,9 +4846,9 @@
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B127" s="33" t="s">
         <v>14</v>
@@ -4876,7 +4863,7 @@
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="42"/>
       <c r="B128" s="43"/>
       <c r="C128" s="43"/>
@@ -4885,9 +4872,9 @@
       <c r="F128" s="43"/>
       <c r="G128" s="44"/>
     </row>
-    <row r="129" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B129" s="33" t="s">
         <v>28</v>
@@ -4904,9 +4891,9 @@
       </c>
       <c r="G129" s="33"/>
     </row>
-    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B130" s="33" t="s">
         <v>27</v>
@@ -4923,28 +4910,28 @@
       </c>
       <c r="G130" s="33"/>
     </row>
-    <row r="131" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A131" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B131" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D131" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
     </row>
-    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B132" s="33" t="s">
         <v>25</v>
@@ -4959,7 +4946,7 @@
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="42"/>
       <c r="B133" s="43"/>
       <c r="C133" s="43"/>
@@ -4968,9 +4955,9 @@
       <c r="F133" s="43"/>
       <c r="G133" s="44"/>
     </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B134" s="33" t="s">
         <v>28</v>
@@ -4987,9 +4974,9 @@
       </c>
       <c r="G134" s="33"/>
     </row>
-    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B135" s="33" t="s">
         <v>27</v>
@@ -5006,37 +4993,37 @@
       </c>
       <c r="G135" s="33"/>
     </row>
-    <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B136" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D136" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E136" s="33" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
     </row>
-    <row r="137" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B137" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E137" s="33"/>
       <c r="F137" s="33" t="s">
@@ -5044,9 +5031,9 @@
       </c>
       <c r="G137" s="33"/>
     </row>
-    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B138" s="33" t="s">
         <v>24</v>
@@ -5061,7 +5048,7 @@
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="34"/>
       <c r="B139" s="34"/>
       <c r="C139" s="34"/>
@@ -5070,9 +5057,9 @@
       <c r="F139" s="34"/>
       <c r="G139" s="34"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B140" s="33" t="s">
         <v>28</v>
@@ -5089,9 +5076,9 @@
       </c>
       <c r="G140" s="33"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B141" s="33" t="s">
         <v>27</v>
@@ -5108,45 +5095,45 @@
       </c>
       <c r="G141" s="33"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B142" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E142" s="33"/>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
     </row>
-    <row r="143" spans="1:7" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="27" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B143" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B144" s="33" t="s">
         <v>24</v>
@@ -5161,7 +5148,7 @@
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="34"/>
       <c r="B145" s="34"/>
       <c r="C145" s="34"/>
@@ -5170,9 +5157,9 @@
       <c r="F145" s="34"/>
       <c r="G145" s="34"/>
     </row>
-    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B146" s="33" t="s">
         <v>28</v>
@@ -5189,9 +5176,9 @@
       </c>
       <c r="G146" s="33"/>
     </row>
-    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B147" s="33" t="s">
         <v>27</v>
@@ -5208,15 +5195,15 @@
       </c>
       <c r="G147" s="33"/>
     </row>
-    <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B148" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>43</v>
@@ -5227,15 +5214,15 @@
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
     </row>
-    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B149" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D149" s="33" t="s">
         <v>35</v>
@@ -5246,85 +5233,85 @@
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
     </row>
-    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B150" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D150" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E150" s="35" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
     </row>
-    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B151" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D151" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="33"/>
     </row>
-    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B152" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C152" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D152" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
     </row>
-    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B153" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D153" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E153" s="35" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
     </row>
-    <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B154" s="33" t="s">
         <v>20</v>
@@ -5339,7 +5326,7 @@
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="34"/>
       <c r="B155" s="34"/>
       <c r="C155" s="34"/>
@@ -5348,9 +5335,9 @@
       <c r="F155" s="34"/>
       <c r="G155" s="34"/>
     </row>
-    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B156" s="33" t="s">
         <v>28</v>
@@ -5367,9 +5354,9 @@
       </c>
       <c r="G156" s="37"/>
     </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B157" s="33" t="s">
         <v>27</v>
@@ -5386,9 +5373,9 @@
       </c>
       <c r="G157" s="37"/>
     </row>
-    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B158" s="33" t="s">
         <v>26</v>
@@ -5405,9 +5392,9 @@
       <c r="F158" s="33"/>
       <c r="G158" s="37"/>
     </row>
-    <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B159" s="33" t="s">
         <v>25</v>
@@ -5424,9 +5411,9 @@
       <c r="F159" s="33"/>
       <c r="G159" s="37"/>
     </row>
-    <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B160" s="33" t="s">
         <v>24</v>
@@ -5443,34 +5430,34 @@
       <c r="F160" s="33"/>
       <c r="G160" s="37"/>
     </row>
-    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B161" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E161" s="35" t="s">
-        <v>92</v>
+        <v>313</v>
+      </c>
+      <c r="E161" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="37"/>
     </row>
-    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B162" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D162" s="33" t="s">
         <v>43</v>
@@ -5481,28 +5468,28 @@
       <c r="F162" s="33"/>
       <c r="G162" s="37"/>
     </row>
-    <row r="163" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A163" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B163" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D163" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E163" s="35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="37"/>
     </row>
-    <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B164" s="33" t="s">
         <v>20</v>
@@ -5517,7 +5504,7 @@
       <c r="F164" s="33"/>
       <c r="G164" s="37"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="34"/>
       <c r="B165" s="34"/>
       <c r="C165" s="34"/>
@@ -5526,9 +5513,9 @@
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B166" s="33" t="s">
         <v>28</v>
@@ -5545,9 +5532,9 @@
       </c>
       <c r="G166" s="33"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B167" s="33" t="s">
         <v>27</v>
@@ -5564,15 +5551,15 @@
       </c>
       <c r="G167" s="33"/>
     </row>
-    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B168" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D168" s="33" t="s">
         <v>43</v>
@@ -5583,15 +5570,15 @@
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B169" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D169" s="33" t="s">
         <v>35</v>
@@ -5602,47 +5589,47 @@
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B170" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C170" s="33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D170" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E170" s="35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B171" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C171" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D171" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E171" s="35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B172" s="33" t="s">
         <v>22</v>
@@ -5657,7 +5644,7 @@
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="34"/>
       <c r="B173" s="34"/>
       <c r="C173" s="34"/>
@@ -5666,9 +5653,9 @@
       <c r="F173" s="34"/>
       <c r="G173" s="34"/>
     </row>
-    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B174" s="33" t="s">
         <v>28</v>
@@ -5685,9 +5672,9 @@
       </c>
       <c r="G174" s="33"/>
     </row>
-    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B175" s="33" t="s">
         <v>27</v>
@@ -5704,15 +5691,15 @@
       </c>
       <c r="G175" s="33"/>
     </row>
-    <row r="176" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B176" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D176" s="33" t="s">
         <v>34</v>
@@ -5723,9 +5710,9 @@
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
     </row>
-    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B177" s="33" t="s">
         <v>25</v>
@@ -5740,7 +5727,7 @@
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="34"/>
       <c r="B178" s="34"/>
       <c r="C178" s="34"/>
@@ -5749,9 +5736,9 @@
       <c r="F178" s="34"/>
       <c r="G178" s="34"/>
     </row>
-    <row r="179" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A179" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B179" s="33" t="s">
         <v>28</v>
@@ -5768,9 +5755,9 @@
       </c>
       <c r="G179" s="33"/>
     </row>
-    <row r="180" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A180" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B180" s="33" t="s">
         <v>27</v>
@@ -5787,85 +5774,85 @@
       </c>
       <c r="G180" s="33"/>
     </row>
-    <row r="181" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A181" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B181" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D181" s="33" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E181" s="33"/>
       <c r="F181" s="33"/>
       <c r="G181" s="33"/>
     </row>
-    <row r="182" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B182" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D182" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E182" s="32" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F182" s="33"/>
       <c r="G182" s="33"/>
     </row>
-    <row r="183" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A183" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B183" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D183" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E183" s="32" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F183" s="32" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G183" s="33"/>
     </row>
-    <row r="184" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B184" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D184" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E184" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F184" s="33"/>
       <c r="G184" s="33"/>
     </row>
-    <row r="185" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A185" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B185" s="33" t="s">
         <v>22</v>
@@ -5880,20 +5867,20 @@
       <c r="F185" s="33"/>
       <c r="G185" s="33"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="34"/>
       <c r="B186" s="34"/>
       <c r="C186" s="34"/>
       <c r="D186" s="34"/>
       <c r="E186" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F186" s="34"/>
       <c r="G186" s="34"/>
     </row>
-    <row r="187" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B187" s="33" t="s">
         <v>28</v>
@@ -5910,9 +5897,9 @@
       </c>
       <c r="G187" s="33"/>
     </row>
-    <row r="188" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B188" s="33" t="s">
         <v>27</v>
@@ -5929,87 +5916,87 @@
       </c>
       <c r="G188" s="33"/>
     </row>
-    <row r="189" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B189" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D189" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
     </row>
-    <row r="190" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B190" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D190" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E190" s="35" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
     </row>
-    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A191" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B191" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D191" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E191" s="35" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F191" s="33" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G191" s="33"/>
     </row>
-    <row r="192" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B192" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D192" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
     </row>
-    <row r="193" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B193" s="33" t="s">
         <v>22</v>
@@ -6024,20 +6011,20 @@
       <c r="F193" s="33"/>
       <c r="G193" s="33"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="34"/>
       <c r="B194" s="34"/>
       <c r="C194" s="34"/>
       <c r="D194" s="34"/>
       <c r="E194" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F194" s="34"/>
       <c r="G194" s="34"/>
     </row>
-    <row r="195" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B195" s="33" t="s">
         <v>28</v>
@@ -6054,9 +6041,9 @@
       </c>
       <c r="G195" s="33"/>
     </row>
-    <row r="196" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B196" s="33" t="s">
         <v>27</v>
@@ -6073,47 +6060,47 @@
       </c>
       <c r="G196" s="33"/>
     </row>
-    <row r="197" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A197" s="25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B197" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D197" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E197" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="33"/>
     </row>
-    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A198" s="25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B198" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D198" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E198" s="35" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F198" s="33"/>
       <c r="G198" s="33"/>
     </row>
-    <row r="199" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B199" s="33" t="s">
         <v>24</v>
@@ -6128,20 +6115,20 @@
       <c r="F199" s="33"/>
       <c r="G199" s="33"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="34"/>
       <c r="B200" s="34"/>
       <c r="C200" s="34"/>
       <c r="D200" s="34"/>
       <c r="E200" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F200" s="34"/>
       <c r="G200" s="34"/>
     </row>
-    <row r="201" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B201" s="33" t="s">
         <v>28</v>
@@ -6158,9 +6145,9 @@
       </c>
       <c r="G201" s="33"/>
     </row>
-    <row r="202" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B202" s="33" t="s">
         <v>27</v>
@@ -6177,256 +6164,256 @@
       </c>
       <c r="G202" s="33"/>
     </row>
-    <row r="203" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B203" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D203" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E203" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F203" s="33"/>
       <c r="G203" s="33"/>
     </row>
-    <row r="204" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B204" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D204" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E204" s="35" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="33"/>
     </row>
-    <row r="205" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B205" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D205" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E205" s="33" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F205" s="33"/>
       <c r="G205" s="33"/>
     </row>
-    <row r="206" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B206" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D206" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E206" s="33" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F206" s="33"/>
       <c r="G206" s="33"/>
     </row>
-    <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B207" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D207" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E207" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="33"/>
     </row>
-    <row r="208" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B208" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D208" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E208" s="33" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F208" s="33"/>
       <c r="G208" s="33"/>
     </row>
-    <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B209" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D209" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E209" s="33" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="33"/>
     </row>
-    <row r="210" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B210" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D210" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E210" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="33"/>
     </row>
-    <row r="211" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B211" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D211" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E211" s="33" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="33"/>
     </row>
-    <row r="212" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B212" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D212" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
     </row>
-    <row r="213" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B213" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D213" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E213" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
     </row>
-    <row r="214" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B214" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D214" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E214" s="33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
     </row>
-    <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B215" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D215" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E215" s="33" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
     </row>
-    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B216" s="33" t="s">
         <v>19</v>
@@ -6441,20 +6428,20 @@
       <c r="F216" s="33"/>
       <c r="G216" s="33"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="34"/>
       <c r="B217" s="34"/>
       <c r="C217" s="34"/>
       <c r="D217" s="34"/>
       <c r="E217" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F217" s="34"/>
       <c r="G217" s="34"/>
     </row>
-    <row r="218" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A218" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B218" s="33" t="s">
         <v>28</v>
@@ -6471,9 +6458,9 @@
       </c>
       <c r="G218" s="33"/>
     </row>
-    <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A219" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B219" s="33" t="s">
         <v>27</v>
@@ -6490,104 +6477,104 @@
       </c>
       <c r="G219" s="33"/>
     </row>
-    <row r="220" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A220" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B220" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C220" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D220" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E220" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F220" s="33"/>
       <c r="G220" s="33"/>
     </row>
-    <row r="221" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A221" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B221" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D221" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E221" s="35" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F221" s="33"/>
       <c r="G221" s="33"/>
     </row>
-    <row r="222" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A222" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B222" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D222" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E222" s="33" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F222" s="33"/>
       <c r="G222" s="33"/>
     </row>
-    <row r="223" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A223" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B223" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D223" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E223" s="33" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F223" s="33"/>
       <c r="G223" s="33"/>
     </row>
-    <row r="224" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A224" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B224" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D224" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E224" s="33" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="33"/>
     </row>
-    <row r="225" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A225" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B225" s="33" t="s">
         <v>21</v>
@@ -6602,20 +6589,20 @@
       <c r="F225" s="33"/>
       <c r="G225" s="33"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="34"/>
       <c r="B226" s="34"/>
       <c r="C226" s="34"/>
       <c r="D226" s="34"/>
       <c r="E226" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F226" s="34"/>
       <c r="G226" s="34"/>
     </row>
-    <row r="227" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A227" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B227" s="33" t="s">
         <v>28</v>
@@ -6632,9 +6619,9 @@
       </c>
       <c r="G227" s="33"/>
     </row>
-    <row r="228" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A228" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B228" s="33" t="s">
         <v>27</v>
@@ -6651,85 +6638,85 @@
       </c>
       <c r="G228" s="33"/>
     </row>
-    <row r="229" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A229" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B229" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D229" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E229" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F229" s="33"/>
       <c r="G229" s="33"/>
     </row>
-    <row r="230" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A230" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B230" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D230" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E230" s="35" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F230" s="33"/>
       <c r="G230" s="33"/>
     </row>
-    <row r="231" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A231" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B231" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D231" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E231" s="33" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="33"/>
     </row>
-    <row r="232" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A232" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B232" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D232" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E232" s="33" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F232" s="33"/>
       <c r="G232" s="33"/>
     </row>
-    <row r="233" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A233" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B233" s="33" t="s">
         <v>22</v>
@@ -6744,20 +6731,20 @@
       <c r="F233" s="33"/>
       <c r="G233" s="33"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="34"/>
       <c r="B234" s="34"/>
       <c r="C234" s="34"/>
       <c r="D234" s="34"/>
       <c r="E234" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F234" s="34"/>
       <c r="G234" s="34"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B235" s="33" t="s">
         <v>28</v>
@@ -6774,9 +6761,9 @@
       </c>
       <c r="G235" s="33"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B236" s="33" t="s">
         <v>27</v>
@@ -6793,47 +6780,47 @@
       </c>
       <c r="G236" s="33"/>
     </row>
-    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B237" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D237" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E237" s="35" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F237" s="33"/>
       <c r="G237" s="33"/>
     </row>
-    <row r="238" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A238" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B238" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D238" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E238" s="35" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F238" s="33"/>
       <c r="G238" s="33"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B239" s="33" t="s">
         <v>24</v>
@@ -6848,20 +6835,20 @@
       <c r="F239" s="33"/>
       <c r="G239" s="33"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="34"/>
       <c r="B240" s="34"/>
       <c r="C240" s="34"/>
       <c r="D240" s="34"/>
       <c r="E240" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F240" s="34"/>
       <c r="G240" s="34"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B241" s="33" t="s">
         <v>28</v>
@@ -6878,9 +6865,9 @@
       </c>
       <c r="G241" s="33"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B242" s="33" t="s">
         <v>27</v>
@@ -6897,9 +6884,9 @@
       </c>
       <c r="G242" s="33"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B243" s="33" t="s">
         <v>26</v>
@@ -6916,9 +6903,9 @@
       <c r="F243" s="33"/>
       <c r="G243" s="33"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B244" s="33" t="s">
         <v>25</v>
@@ -6935,9 +6922,9 @@
       <c r="F244" s="33"/>
       <c r="G244" s="33"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B245" s="33" t="s">
         <v>24</v>
@@ -6954,9 +6941,9 @@
       <c r="F245" s="33"/>
       <c r="G245" s="33"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B246" s="33" t="s">
         <v>23</v>
@@ -6973,85 +6960,85 @@
       <c r="F246" s="33"/>
       <c r="G246" s="33"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B247" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C247" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D247" s="33" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c r="E247" s="35" t="s">
-        <v>92</v>
+        <v>259</v>
       </c>
       <c r="F247" s="33"/>
       <c r="G247" s="33"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B248" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C248" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D248" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E248" s="35" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F248" s="33"/>
       <c r="G248" s="33"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B249" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C249" s="33" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D249" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E249" s="33" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="33"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B250" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C250" s="33" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D250" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E250" s="33" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="33"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B251" s="33" t="s">
         <v>14</v>
@@ -7066,20 +7053,20 @@
       <c r="F251" s="33"/>
       <c r="G251" s="33"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="34"/>
       <c r="B252" s="34"/>
       <c r="C252" s="34"/>
       <c r="D252" s="34"/>
       <c r="E252" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F252" s="34"/>
       <c r="G252" s="34"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B253" s="33" t="s">
         <v>28</v>
@@ -7096,9 +7083,9 @@
       </c>
       <c r="G253" s="33"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B254" s="33" t="s">
         <v>27</v>
@@ -7115,70 +7102,70 @@
       </c>
       <c r="G254" s="33"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B255" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C255" s="33" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D255" s="33" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E255" s="33"/>
       <c r="F255" s="33"/>
       <c r="G255" s="33"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B256" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C256" s="33" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D256" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E256" s="33" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="33"/>
     </row>
-    <row r="257" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A257" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B257" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C257" s="32" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D257" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E257" s="35" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F257" s="33"/>
       <c r="G257" s="33"/>
     </row>
-    <row r="258" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B258" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C258" s="32" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D258" s="33" t="s">
         <v>34</v>
@@ -7189,9 +7176,9 @@
       <c r="F258" s="33"/>
       <c r="G258" s="33"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B259" s="33" t="s">
         <v>22</v>
@@ -7206,20 +7193,20 @@
       <c r="F259" s="33"/>
       <c r="G259" s="33"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="34"/>
       <c r="B260" s="34"/>
       <c r="C260" s="34"/>
       <c r="D260" s="34"/>
       <c r="E260" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F260" s="34"/>
       <c r="G260" s="34"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B261" s="33" t="s">
         <v>28</v>
@@ -7236,9 +7223,9 @@
       </c>
       <c r="G261" s="33"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B262" s="33" t="s">
         <v>27</v>
@@ -7255,64 +7242,64 @@
       </c>
       <c r="G262" s="33"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B263" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C263" s="33" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D263" s="33" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E263" s="33"/>
       <c r="F263" s="33"/>
       <c r="G263" s="33"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B264" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C264" s="33" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D264" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E264" s="33" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F264" s="33"/>
       <c r="G264" s="33"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B265" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C265" s="33" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D265" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E265" s="33" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F265" s="33"/>
       <c r="G265" s="33"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B266" s="33" t="s">
         <v>23</v>
@@ -7327,20 +7314,20 @@
       <c r="F266" s="33"/>
       <c r="G266" s="33"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="8"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
       <c r="E267" s="28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F267" s="8"/>
       <c r="G267" s="8"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>28</v>
@@ -7357,9 +7344,9 @@
       </c>
       <c r="G268" s="7"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>27</v>
@@ -7376,47 +7363,47 @@
       </c>
       <c r="G269" s="7"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B270" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D270" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E270" s="40" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F270" s="7"/>
       <c r="G270" s="7"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D271" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E271" s="40" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F271" s="7"/>
       <c r="G271" s="7"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B272" s="7" t="s">
         <v>24</v>
@@ -7431,7 +7418,7 @@
       <c r="F272" s="7"/>
       <c r="G272" s="7"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="12"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -7440,7 +7427,7 @@
       <c r="F273" s="12"/>
       <c r="G273" s="12"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="12"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -7449,7 +7436,7 @@
       <c r="F274" s="12"/>
       <c r="G274" s="12"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="41"/>
       <c r="B275" s="41"/>
       <c r="C275" s="41"/>
@@ -7458,7 +7445,7 @@
       <c r="F275" s="41"/>
       <c r="G275" s="41"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -7467,7 +7454,7 @@
       <c r="F276" s="12"/>
       <c r="G276" s="12"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="12"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -7476,7 +7463,7 @@
       <c r="F277" s="12"/>
       <c r="G277" s="12"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="12"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -7485,7 +7472,7 @@
       <c r="F278" s="12"/>
       <c r="G278" s="12"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -7494,7 +7481,7 @@
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -7503,7 +7490,7 @@
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="12"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -7512,7 +7499,7 @@
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="12"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -7521,7 +7508,7 @@
       <c r="F282" s="12"/>
       <c r="G282" s="12"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="12"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -7530,7 +7517,7 @@
       <c r="F283" s="12"/>
       <c r="G283" s="12"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="12"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -7539,7 +7526,7 @@
       <c r="F284" s="12"/>
       <c r="G284" s="12"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="12"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -7548,7 +7535,7 @@
       <c r="F285" s="12"/>
       <c r="G285" s="12"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="12"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -7557,7 +7544,7 @@
       <c r="F286" s="12"/>
       <c r="G286" s="12"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="12"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -7566,7 +7553,7 @@
       <c r="F287" s="12"/>
       <c r="G287" s="12"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="12"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -7575,7 +7562,7 @@
       <c r="F288" s="12"/>
       <c r="G288" s="12"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="12"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -7584,7 +7571,7 @@
       <c r="F289" s="12"/>
       <c r="G289" s="12"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="12"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -7593,7 +7580,7 @@
       <c r="F290" s="12"/>
       <c r="G290" s="12"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="12"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -7602,7 +7589,7 @@
       <c r="F291" s="12"/>
       <c r="G291" s="12"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="12"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -7611,7 +7598,7 @@
       <c r="F292" s="12"/>
       <c r="G292" s="12"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="12"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -7620,7 +7607,7 @@
       <c r="F293" s="12"/>
       <c r="G293" s="12"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="12"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -7629,7 +7616,7 @@
       <c r="F294" s="12"/>
       <c r="G294" s="12"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="12"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -7638,7 +7625,7 @@
       <c r="F295" s="12"/>
       <c r="G295" s="12"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="12"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -7647,7 +7634,7 @@
       <c r="F296" s="12"/>
       <c r="G296" s="12"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="12"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -7656,7 +7643,7 @@
       <c r="F297" s="12"/>
       <c r="G297" s="12"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="12"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -7665,7 +7652,7 @@
       <c r="F298" s="12"/>
       <c r="G298" s="12"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="12"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -7674,7 +7661,7 @@
       <c r="F299" s="12"/>
       <c r="G299" s="12"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="12"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -7683,7 +7670,7 @@
       <c r="F300" s="12"/>
       <c r="G300" s="12"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="12"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -7692,7 +7679,7 @@
       <c r="F301" s="12"/>
       <c r="G301" s="12"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="12"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -7701,7 +7688,7 @@
       <c r="F302" s="12"/>
       <c r="G302" s="12"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="12"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -7710,7 +7697,7 @@
       <c r="F303" s="12"/>
       <c r="G303" s="12"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="12"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -7719,7 +7706,7 @@
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="12"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -7728,7 +7715,7 @@
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="12"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -7737,7 +7724,7 @@
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="12"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -7746,7 +7733,7 @@
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="12"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -7755,7 +7742,7 @@
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="12"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -7764,7 +7751,7 @@
       <c r="F309" s="12"/>
       <c r="G309" s="12"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="12"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -7773,7 +7760,7 @@
       <c r="F310" s="12"/>
       <c r="G310" s="12"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="12"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -7782,7 +7769,7 @@
       <c r="F311" s="12"/>
       <c r="G311" s="12"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="12"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -7791,7 +7778,7 @@
       <c r="F312" s="12"/>
       <c r="G312" s="12"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="12"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -7800,7 +7787,7 @@
       <c r="F313" s="12"/>
       <c r="G313" s="12"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" s="12"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -7809,7 +7796,7 @@
       <c r="F314" s="12"/>
       <c r="G314" s="12"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="12"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -7818,7 +7805,7 @@
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" s="12"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -7827,7 +7814,7 @@
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
       <c r="C317" s="14"/>
@@ -7836,7 +7823,7 @@
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="12"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -7845,7 +7832,7 @@
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" s="12"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -7854,7 +7841,7 @@
       <c r="F319" s="12"/>
       <c r="G319" s="12"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -7863,7 +7850,7 @@
       <c r="F320" s="12"/>
       <c r="G320" s="12"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" s="12"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -7872,7 +7859,7 @@
       <c r="F321" s="12"/>
       <c r="G321" s="12"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -7881,7 +7868,7 @@
       <c r="F322" s="12"/>
       <c r="G322" s="12"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -7890,7 +7877,7 @@
       <c r="F323" s="12"/>
       <c r="G323" s="12"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -7899,7 +7886,7 @@
       <c r="F324" s="12"/>
       <c r="G324" s="12"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -7908,7 +7895,7 @@
       <c r="F325" s="12"/>
       <c r="G325" s="12"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" s="12"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -7917,7 +7904,7 @@
       <c r="F326" s="12"/>
       <c r="G326" s="12"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" s="12"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -7926,7 +7913,7 @@
       <c r="F327" s="12"/>
       <c r="G327" s="12"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" s="12"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -7935,7 +7922,7 @@
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="12"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -7944,7 +7931,7 @@
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="12"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -7953,7 +7940,7 @@
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" s="12"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -7962,7 +7949,7 @@
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="12"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -7971,7 +7958,7 @@
       <c r="F332" s="12"/>
       <c r="G332" s="12"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="12"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -7980,7 +7967,7 @@
       <c r="F333" s="12"/>
       <c r="G333" s="12"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" s="12"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -7989,7 +7976,7 @@
       <c r="F334" s="12"/>
       <c r="G334" s="12"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="12"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -7998,7 +7985,7 @@
       <c r="F335" s="12"/>
       <c r="G335" s="12"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="12"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -8007,7 +7994,7 @@
       <c r="F336" s="12"/>
       <c r="G336" s="12"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="12"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -8016,7 +8003,7 @@
       <c r="F337" s="12"/>
       <c r="G337" s="12"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -8025,7 +8012,7 @@
       <c r="F338" s="12"/>
       <c r="G338" s="12"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="12"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -8034,7 +8021,7 @@
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="12"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -8043,7 +8030,7 @@
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="12"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -8052,7 +8039,7 @@
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="12"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -8061,7 +8048,7 @@
       <c r="F342" s="12"/>
       <c r="G342" s="12"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="12"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -8070,7 +8057,7 @@
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="41"/>
       <c r="B344" s="41"/>
       <c r="C344" s="41"/>
@@ -8079,7 +8066,7 @@
       <c r="F344" s="41"/>
       <c r="G344" s="41"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -8088,7 +8075,7 @@
       <c r="F345" s="12"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" s="12"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -8097,7 +8084,7 @@
       <c r="F346" s="12"/>
       <c r="G346" s="12"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="12"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -8106,7 +8093,7 @@
       <c r="F347" s="12"/>
       <c r="G347" s="12"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="12"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -8115,7 +8102,7 @@
       <c r="F348" s="12"/>
       <c r="G348" s="12"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" s="12"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -8124,7 +8111,7 @@
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="12"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
@@ -8133,7 +8120,7 @@
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="12"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -8142,7 +8129,7 @@
       <c r="F351" s="12"/>
       <c r="G351" s="12"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="12"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
@@ -8151,7 +8138,7 @@
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="12"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
@@ -8160,7 +8147,7 @@
       <c r="F353" s="12"/>
       <c r="G353" s="12"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="12"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
@@ -8169,7 +8156,7 @@
       <c r="F354" s="12"/>
       <c r="G354" s="12"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="12"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
@@ -8178,7 +8165,7 @@
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" s="12"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
@@ -8187,7 +8174,7 @@
       <c r="F356" s="12"/>
       <c r="G356" s="12"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="12"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
@@ -8196,7 +8183,7 @@
       <c r="F357" s="12"/>
       <c r="G357" s="12"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="12"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
@@ -8205,7 +8192,7 @@
       <c r="F358" s="12"/>
       <c r="G358" s="12"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="12"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
@@ -8214,7 +8201,7 @@
       <c r="F359" s="12"/>
       <c r="G359" s="12"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="41"/>
       <c r="B360" s="41"/>
       <c r="C360" s="41"/>
@@ -8223,7 +8210,7 @@
       <c r="F360" s="41"/>
       <c r="G360" s="41"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="12"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
@@ -8232,7 +8219,7 @@
       <c r="F361" s="12"/>
       <c r="G361" s="12"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="12"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
@@ -8241,7 +8228,7 @@
       <c r="F362" s="12"/>
       <c r="G362" s="12"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="12"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
@@ -8250,7 +8237,7 @@
       <c r="F363" s="12"/>
       <c r="G363" s="12"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="12"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -8259,7 +8246,7 @@
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="12"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
@@ -8268,7 +8255,7 @@
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="12"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -8277,7 +8264,7 @@
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="12"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
@@ -8286,7 +8273,7 @@
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" s="12"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
@@ -8295,7 +8282,7 @@
       <c r="F368" s="12"/>
       <c r="G368" s="12"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="12"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
@@ -8304,7 +8291,7 @@
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" s="12"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
@@ -8313,7 +8300,7 @@
       <c r="F370" s="12"/>
       <c r="G370" s="12"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="12"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
@@ -8322,7 +8309,7 @@
       <c r="F371" s="12"/>
       <c r="G371" s="12"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="12"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
@@ -8331,7 +8318,7 @@
       <c r="F372" s="12"/>
       <c r="G372" s="12"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" s="12"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -8340,7 +8327,7 @@
       <c r="F373" s="12"/>
       <c r="G373" s="12"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="12"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
@@ -8349,7 +8336,7 @@
       <c r="F374" s="12"/>
       <c r="G374" s="12"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="12"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -8358,7 +8345,7 @@
       <c r="F375" s="12"/>
       <c r="G375" s="12"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" s="12"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
@@ -8367,7 +8354,7 @@
       <c r="F376" s="12"/>
       <c r="G376" s="12"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="41"/>
       <c r="B377" s="41"/>
       <c r="C377" s="41"/>
@@ -8376,7 +8363,7 @@
       <c r="F377" s="41"/>
       <c r="G377" s="41"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="12"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
@@ -8385,7 +8372,7 @@
       <c r="F378" s="12"/>
       <c r="G378" s="12"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" s="12"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
@@ -8394,7 +8381,7 @@
       <c r="F379" s="12"/>
       <c r="G379" s="12"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" s="12"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
@@ -8403,7 +8390,7 @@
       <c r="F380" s="12"/>
       <c r="G380" s="12"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="12"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
@@ -8412,7 +8399,7 @@
       <c r="F381" s="12"/>
       <c r="G381" s="12"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" s="12"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
@@ -8421,7 +8408,7 @@
       <c r="F382" s="12"/>
       <c r="G382" s="12"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" s="12"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
@@ -8430,7 +8417,7 @@
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" s="12"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
@@ -8439,7 +8426,7 @@
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" s="12"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -8448,7 +8435,7 @@
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" s="12"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -8457,7 +8444,7 @@
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" s="12"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -8466,7 +8453,7 @@
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" s="12"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -8475,7 +8462,7 @@
       <c r="F388" s="12"/>
       <c r="G388" s="12"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="12"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
@@ -8484,7 +8471,7 @@
       <c r="F389" s="12"/>
       <c r="G389" s="12"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="12"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -8493,7 +8480,7 @@
       <c r="F390" s="12"/>
       <c r="G390" s="12"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" s="12"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
@@ -8502,7 +8489,7 @@
       <c r="F391" s="12"/>
       <c r="G391" s="12"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="12"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
@@ -8511,7 +8498,7 @@
       <c r="F392" s="12"/>
       <c r="G392" s="12"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" s="12"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
@@ -8520,7 +8507,7 @@
       <c r="F393" s="12"/>
       <c r="G393" s="12"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" s="12"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
@@ -8529,7 +8516,7 @@
       <c r="F394" s="12"/>
       <c r="G394" s="12"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" s="12"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
@@ -8538,7 +8525,7 @@
       <c r="F395" s="12"/>
       <c r="G395" s="12"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="12"/>
       <c r="B396" s="12"/>
       <c r="C396" s="14"/>
@@ -8547,7 +8534,7 @@
       <c r="F396" s="12"/>
       <c r="G396" s="12"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" s="12"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -8556,7 +8543,7 @@
       <c r="F397" s="12"/>
       <c r="G397" s="12"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" s="41"/>
       <c r="B398" s="41"/>
       <c r="C398" s="41"/>
@@ -8565,7 +8552,7 @@
       <c r="F398" s="41"/>
       <c r="G398" s="41"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
@@ -8574,7 +8561,7 @@
       <c r="F399" s="12"/>
       <c r="G399" s="12"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" s="12"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
@@ -8583,7 +8570,7 @@
       <c r="F400" s="12"/>
       <c r="G400" s="12"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" s="12"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
@@ -8592,7 +8579,7 @@
       <c r="F401" s="12"/>
       <c r="G401" s="12"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -8601,7 +8588,7 @@
       <c r="F402" s="12"/>
       <c r="G402" s="12"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" s="12"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
@@ -8610,7 +8597,7 @@
       <c r="F403" s="12"/>
       <c r="G403" s="12"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" s="12"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -8619,7 +8606,7 @@
       <c r="F404" s="12"/>
       <c r="G404" s="12"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="12"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
@@ -8628,7 +8615,7 @@
       <c r="F405" s="12"/>
       <c r="G405" s="12"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" s="12"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -8637,7 +8624,7 @@
       <c r="F406" s="12"/>
       <c r="G406" s="12"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" s="12"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
@@ -8646,7 +8633,7 @@
       <c r="F407" s="12"/>
       <c r="G407" s="12"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" s="12"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
@@ -8655,7 +8642,7 @@
       <c r="F408" s="12"/>
       <c r="G408" s="12"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" s="12"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -8664,7 +8651,7 @@
       <c r="F409" s="12"/>
       <c r="G409" s="12"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="12"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
@@ -8673,7 +8660,7 @@
       <c r="F410" s="12"/>
       <c r="G410" s="12"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" s="41"/>
       <c r="B411" s="41"/>
       <c r="C411" s="41"/>
@@ -8682,7 +8669,7 @@
       <c r="F411" s="41"/>
       <c r="G411" s="41"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="12"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -8691,7 +8678,7 @@
       <c r="F412" s="12"/>
       <c r="G412" s="12"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" s="12"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
@@ -8700,7 +8687,7 @@
       <c r="F413" s="12"/>
       <c r="G413" s="12"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" s="12"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
@@ -8709,7 +8696,7 @@
       <c r="F414" s="12"/>
       <c r="G414" s="12"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" s="12"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
@@ -8718,7 +8705,7 @@
       <c r="F415" s="12"/>
       <c r="G415" s="12"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" s="12"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
@@ -8727,7 +8714,7 @@
       <c r="F416" s="12"/>
       <c r="G416" s="12"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" s="12"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
@@ -8736,7 +8723,7 @@
       <c r="F417" s="12"/>
       <c r="G417" s="12"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="12"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
@@ -8745,7 +8732,7 @@
       <c r="F418" s="12"/>
       <c r="G418" s="12"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" s="12"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
@@ -8754,7 +8741,7 @@
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="12"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
@@ -8763,7 +8750,7 @@
       <c r="F420" s="12"/>
       <c r="G420" s="12"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="12"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
@@ -8772,7 +8759,7 @@
       <c r="F421" s="12"/>
       <c r="G421" s="12"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="12"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
@@ -8781,7 +8768,7 @@
       <c r="F422" s="12"/>
       <c r="G422" s="12"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" s="12"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -8790,7 +8777,7 @@
       <c r="F423" s="12"/>
       <c r="G423" s="12"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" s="12"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
@@ -8799,7 +8786,7 @@
       <c r="F424" s="12"/>
       <c r="G424" s="12"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" s="12"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -8808,7 +8795,7 @@
       <c r="F425" s="12"/>
       <c r="G425" s="12"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" s="12"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
@@ -8817,7 +8804,7 @@
       <c r="F426" s="12"/>
       <c r="G426" s="12"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" s="12"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
@@ -8826,7 +8813,7 @@
       <c r="F427" s="12"/>
       <c r="G427" s="12"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" s="12"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -8835,7 +8822,7 @@
       <c r="F428" s="12"/>
       <c r="G428" s="12"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" s="12"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
@@ -8844,7 +8831,7 @@
       <c r="F429" s="12"/>
       <c r="G429" s="12"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" s="12"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -8853,7 +8840,7 @@
       <c r="F430" s="12"/>
       <c r="G430" s="12"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" s="41"/>
       <c r="B431" s="41"/>
       <c r="C431" s="41"/>
@@ -8862,7 +8849,7 @@
       <c r="F431" s="41"/>
       <c r="G431" s="41"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="12"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -8871,7 +8858,7 @@
       <c r="F432" s="12"/>
       <c r="G432" s="12"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="12"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -8880,7 +8867,7 @@
       <c r="F433" s="12"/>
       <c r="G433" s="12"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="12"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
@@ -8889,7 +8876,7 @@
       <c r="F434" s="12"/>
       <c r="G434" s="12"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="12"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
@@ -8898,7 +8885,7 @@
       <c r="F435" s="12"/>
       <c r="G435" s="12"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="12"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
@@ -8907,7 +8894,7 @@
       <c r="F436" s="12"/>
       <c r="G436" s="12"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="12"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
@@ -8916,7 +8903,7 @@
       <c r="F437" s="12"/>
       <c r="G437" s="12"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="12"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
@@ -8925,7 +8912,7 @@
       <c r="F438" s="12"/>
       <c r="G438" s="12"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="12"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -8934,7 +8921,7 @@
       <c r="F439" s="12"/>
       <c r="G439" s="12"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="12"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -8943,7 +8930,7 @@
       <c r="F440" s="12"/>
       <c r="G440" s="12"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" s="12"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -8952,7 +8939,7 @@
       <c r="F441" s="12"/>
       <c r="G441" s="12"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="12"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -8961,7 +8948,7 @@
       <c r="F442" s="12"/>
       <c r="G442" s="12"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="12"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
@@ -8970,7 +8957,7 @@
       <c r="F443" s="12"/>
       <c r="G443" s="12"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" s="12"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
@@ -8979,7 +8966,7 @@
       <c r="F444" s="12"/>
       <c r="G444" s="12"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" s="12"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
@@ -8988,7 +8975,7 @@
       <c r="F445" s="12"/>
       <c r="G445" s="12"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="12"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
@@ -8997,7 +8984,7 @@
       <c r="F446" s="12"/>
       <c r="G446" s="12"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" s="12"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
@@ -9006,7 +8993,7 @@
       <c r="F447" s="12"/>
       <c r="G447" s="12"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" s="12"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
@@ -9015,7 +9002,7 @@
       <c r="F448" s="12"/>
       <c r="G448" s="12"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" s="12"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
@@ -9024,7 +9011,7 @@
       <c r="F449" s="12"/>
       <c r="G449" s="12"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="12"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
@@ -9033,7 +9020,7 @@
       <c r="F450" s="12"/>
       <c r="G450" s="12"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="12"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
@@ -9042,7 +9029,7 @@
       <c r="F451" s="12"/>
       <c r="G451" s="12"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="12"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -9051,7 +9038,7 @@
       <c r="F452" s="12"/>
       <c r="G452" s="12"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="12"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -9060,7 +9047,7 @@
       <c r="F453" s="12"/>
       <c r="G453" s="12"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="12"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -9069,7 +9056,7 @@
       <c r="F454" s="12"/>
       <c r="G454" s="12"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" s="12"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -9078,7 +9065,7 @@
       <c r="F455" s="12"/>
       <c r="G455" s="12"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="12"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
@@ -9087,7 +9074,7 @@
       <c r="F456" s="12"/>
       <c r="G456" s="12"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="12"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -9096,7 +9083,7 @@
       <c r="F457" s="12"/>
       <c r="G457" s="12"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="12"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
@@ -9105,7 +9092,7 @@
       <c r="F458" s="12"/>
       <c r="G458" s="12"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" s="12"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
@@ -9114,7 +9101,7 @@
       <c r="F459" s="12"/>
       <c r="G459" s="12"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" s="12"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
@@ -9123,7 +9110,7 @@
       <c r="F460" s="12"/>
       <c r="G460" s="12"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" s="12"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
@@ -9132,7 +9119,7 @@
       <c r="F461" s="12"/>
       <c r="G461" s="12"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" s="12"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -9141,7 +9128,7 @@
       <c r="F462" s="12"/>
       <c r="G462" s="12"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" s="12"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -9150,7 +9137,7 @@
       <c r="F463" s="12"/>
       <c r="G463" s="12"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" s="12"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -9159,7 +9146,7 @@
       <c r="F464" s="12"/>
       <c r="G464" s="12"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" s="12"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -9168,7 +9155,7 @@
       <c r="F465" s="12"/>
       <c r="G465" s="12"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" s="41"/>
       <c r="B466" s="41"/>
       <c r="C466" s="41"/>
@@ -9177,7 +9164,7 @@
       <c r="F466" s="41"/>
       <c r="G466" s="41"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="12"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
@@ -9186,7 +9173,7 @@
       <c r="F467" s="12"/>
       <c r="G467" s="12"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" s="12"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
@@ -9195,7 +9182,7 @@
       <c r="F468" s="12"/>
       <c r="G468" s="12"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" s="12"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
@@ -9204,7 +9191,7 @@
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" s="12"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
@@ -9213,7 +9200,7 @@
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="12"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
@@ -9222,7 +9209,7 @@
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="12"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
@@ -9231,7 +9218,7 @@
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" s="12"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
@@ -9240,7 +9227,7 @@
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" s="12"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
@@ -9249,7 +9236,7 @@
       <c r="F474" s="12"/>
       <c r="G474" s="12"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" s="12"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
@@ -9258,7 +9245,7 @@
       <c r="F475" s="12"/>
       <c r="G475" s="12"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" s="12"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -9267,7 +9254,7 @@
       <c r="F476" s="12"/>
       <c r="G476" s="12"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" s="12"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
@@ -9276,7 +9263,7 @@
       <c r="F477" s="12"/>
       <c r="G477" s="12"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" s="12"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -9285,7 +9272,7 @@
       <c r="F478" s="12"/>
       <c r="G478" s="12"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" s="12"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
@@ -9294,7 +9281,7 @@
       <c r="F479" s="12"/>
       <c r="G479" s="12"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" s="12"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
@@ -9303,7 +9290,7 @@
       <c r="F480" s="12"/>
       <c r="G480" s="12"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" s="12"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
@@ -9312,7 +9299,7 @@
       <c r="F481" s="12"/>
       <c r="G481" s="12"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" s="12"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
@@ -9321,7 +9308,7 @@
       <c r="F482" s="12"/>
       <c r="G482" s="12"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" s="12"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
@@ -9330,7 +9317,7 @@
       <c r="F483" s="12"/>
       <c r="G483" s="12"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" s="12"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
@@ -9339,7 +9326,7 @@
       <c r="F484" s="12"/>
       <c r="G484" s="12"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" s="12"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
@@ -9348,7 +9335,7 @@
       <c r="F485" s="12"/>
       <c r="G485" s="12"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" s="41"/>
       <c r="B486" s="41"/>
       <c r="C486" s="41"/>
@@ -9357,7 +9344,7 @@
       <c r="F486" s="41"/>
       <c r="G486" s="41"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" s="12"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -9366,7 +9353,7 @@
       <c r="F487" s="12"/>
       <c r="G487" s="12"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" s="12"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
@@ -9375,7 +9362,7 @@
       <c r="F488" s="12"/>
       <c r="G488" s="12"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" s="12"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -9384,7 +9371,7 @@
       <c r="F489" s="12"/>
       <c r="G489" s="12"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" s="12"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
@@ -9393,7 +9380,7 @@
       <c r="F490" s="12"/>
       <c r="G490" s="12"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" s="12"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
@@ -9402,7 +9389,7 @@
       <c r="F491" s="12"/>
       <c r="G491" s="12"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" s="12"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
@@ -9411,7 +9398,7 @@
       <c r="F492" s="12"/>
       <c r="G492" s="12"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" s="12"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
@@ -9420,7 +9407,7 @@
       <c r="F493" s="12"/>
       <c r="G493" s="12"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" s="12"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
@@ -9429,7 +9416,7 @@
       <c r="F494" s="12"/>
       <c r="G494" s="12"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" s="12"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -9438,7 +9425,7 @@
       <c r="F495" s="12"/>
       <c r="G495" s="12"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" s="12"/>
       <c r="B496" s="12"/>
       <c r="C496" s="12"/>
@@ -9447,7 +9434,7 @@
       <c r="F496" s="12"/>
       <c r="G496" s="12"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" s="12"/>
       <c r="B497" s="12"/>
       <c r="C497" s="12"/>
@@ -9456,7 +9443,7 @@
       <c r="F497" s="12"/>
       <c r="G497" s="12"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" s="41"/>
       <c r="B498" s="41"/>
       <c r="C498" s="41"/>
@@ -9465,7 +9452,7 @@
       <c r="F498" s="41"/>
       <c r="G498" s="41"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" s="12"/>
       <c r="B499" s="12"/>
       <c r="C499" s="12"/>
@@ -9474,7 +9461,7 @@
       <c r="F499" s="12"/>
       <c r="G499" s="12"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" s="12"/>
       <c r="B500" s="12"/>
       <c r="C500" s="12"/>
@@ -9483,7 +9470,7 @@
       <c r="F500" s="12"/>
       <c r="G500" s="12"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" s="12"/>
       <c r="B501" s="12"/>
       <c r="C501" s="12"/>
@@ -9492,7 +9479,7 @@
       <c r="F501" s="12"/>
       <c r="G501" s="12"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" s="12"/>
       <c r="B502" s="12"/>
       <c r="C502" s="12"/>
@@ -9501,7 +9488,7 @@
       <c r="F502" s="12"/>
       <c r="G502" s="12"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" s="12"/>
       <c r="B503" s="12"/>
       <c r="C503" s="12"/>
@@ -9510,7 +9497,7 @@
       <c r="F503" s="12"/>
       <c r="G503" s="12"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" s="12"/>
       <c r="B504" s="12"/>
       <c r="C504" s="12"/>
@@ -9519,7 +9506,7 @@
       <c r="F504" s="12"/>
       <c r="G504" s="12"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="12"/>
       <c r="B505" s="12"/>
       <c r="C505" s="12"/>
@@ -9528,7 +9515,7 @@
       <c r="F505" s="12"/>
       <c r="G505" s="12"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" s="12"/>
       <c r="B506" s="12"/>
       <c r="C506" s="12"/>
@@ -9537,7 +9524,7 @@
       <c r="F506" s="12"/>
       <c r="G506" s="12"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" s="12"/>
       <c r="B507" s="12"/>
       <c r="C507" s="12"/>
@@ -9546,7 +9533,7 @@
       <c r="F507" s="12"/>
       <c r="G507" s="12"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" s="12"/>
       <c r="B508" s="12"/>
       <c r="C508" s="12"/>
@@ -9555,7 +9542,7 @@
       <c r="F508" s="12"/>
       <c r="G508" s="12"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" s="12"/>
       <c r="B509" s="12"/>
       <c r="C509" s="12"/>
@@ -9564,7 +9551,7 @@
       <c r="F509" s="12"/>
       <c r="G509" s="12"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" s="12"/>
       <c r="B510" s="12"/>
       <c r="C510" s="12"/>
@@ -9573,7 +9560,7 @@
       <c r="F510" s="12"/>
       <c r="G510" s="12"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" s="12"/>
       <c r="B511" s="12"/>
       <c r="C511" s="12"/>
@@ -9582,7 +9569,7 @@
       <c r="F511" s="12"/>
       <c r="G511" s="12"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" s="12"/>
       <c r="B512" s="12"/>
       <c r="C512" s="12"/>
@@ -9591,7 +9578,7 @@
       <c r="F512" s="12"/>
       <c r="G512" s="12"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" s="12"/>
       <c r="B513" s="12"/>
       <c r="C513" s="12"/>
@@ -9600,7 +9587,7 @@
       <c r="F513" s="12"/>
       <c r="G513" s="12"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" s="12"/>
       <c r="B514" s="12"/>
       <c r="C514" s="12"/>
@@ -9609,7 +9596,7 @@
       <c r="F514" s="12"/>
       <c r="G514" s="12"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" s="12"/>
       <c r="B515" s="12"/>
       <c r="C515" s="12"/>
@@ -9618,7 +9605,7 @@
       <c r="F515" s="12"/>
       <c r="G515" s="12"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" s="12"/>
       <c r="B516" s="12"/>
       <c r="C516" s="12"/>
@@ -9627,7 +9614,7 @@
       <c r="F516" s="12"/>
       <c r="G516" s="12"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" s="12"/>
       <c r="B517" s="12"/>
       <c r="C517" s="12"/>
@@ -9636,7 +9623,7 @@
       <c r="F517" s="12"/>
       <c r="G517" s="12"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" s="12"/>
       <c r="B518" s="12"/>
       <c r="C518" s="12"/>
@@ -9645,7 +9632,7 @@
       <c r="F518" s="12"/>
       <c r="G518" s="12"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" s="41"/>
       <c r="B519" s="41"/>
       <c r="C519" s="41"/>
@@ -9654,7 +9641,7 @@
       <c r="F519" s="41"/>
       <c r="G519" s="41"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" s="12"/>
       <c r="B520" s="12"/>
       <c r="C520" s="12"/>
@@ -9663,7 +9650,7 @@
       <c r="F520" s="12"/>
       <c r="G520" s="12"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" s="12"/>
       <c r="B521" s="12"/>
       <c r="C521" s="12"/>
@@ -9672,7 +9659,7 @@
       <c r="F521" s="12"/>
       <c r="G521" s="12"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" s="12"/>
       <c r="B522" s="12"/>
       <c r="C522" s="12"/>
@@ -9681,7 +9668,7 @@
       <c r="F522" s="12"/>
       <c r="G522" s="12"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" s="12"/>
       <c r="B523" s="12"/>
       <c r="C523" s="12"/>
@@ -9690,7 +9677,7 @@
       <c r="F523" s="12"/>
       <c r="G523" s="12"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A524" s="12"/>
       <c r="B524" s="12"/>
       <c r="C524" s="12"/>
@@ -9699,7 +9686,7 @@
       <c r="F524" s="12"/>
       <c r="G524" s="12"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" s="12"/>
       <c r="B525" s="12"/>
       <c r="C525" s="12"/>
@@ -9708,7 +9695,7 @@
       <c r="F525" s="12"/>
       <c r="G525" s="12"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" s="12"/>
       <c r="B526" s="12"/>
       <c r="C526" s="12"/>
@@ -9717,7 +9704,7 @@
       <c r="F526" s="12"/>
       <c r="G526" s="12"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" s="12"/>
       <c r="B527" s="12"/>
       <c r="C527" s="12"/>
@@ -9726,7 +9713,7 @@
       <c r="F527" s="12"/>
       <c r="G527" s="12"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" s="12"/>
       <c r="B528" s="12"/>
       <c r="C528" s="12"/>
@@ -9735,7 +9722,7 @@
       <c r="F528" s="12"/>
       <c r="G528" s="12"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" s="12"/>
       <c r="B529" s="12"/>
       <c r="C529" s="12"/>
@@ -9744,7 +9731,7 @@
       <c r="F529" s="12"/>
       <c r="G529" s="12"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" s="12"/>
       <c r="B530" s="12"/>
       <c r="C530" s="12"/>
@@ -9753,7 +9740,7 @@
       <c r="F530" s="12"/>
       <c r="G530" s="12"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" s="12"/>
       <c r="B531" s="12"/>
       <c r="C531" s="12"/>
@@ -9762,7 +9749,7 @@
       <c r="F531" s="12"/>
       <c r="G531" s="12"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" s="12"/>
       <c r="B532" s="12"/>
       <c r="C532" s="12"/>
@@ -9771,7 +9758,7 @@
       <c r="F532" s="12"/>
       <c r="G532" s="12"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" s="12"/>
       <c r="B533" s="12"/>
       <c r="C533" s="12"/>
@@ -9780,7 +9767,7 @@
       <c r="F533" s="12"/>
       <c r="G533" s="12"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" s="12"/>
       <c r="B534" s="12"/>
       <c r="C534" s="12"/>
@@ -9789,7 +9776,7 @@
       <c r="F534" s="12"/>
       <c r="G534" s="12"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" s="12"/>
       <c r="B535" s="12"/>
       <c r="C535" s="12"/>
@@ -9798,7 +9785,7 @@
       <c r="F535" s="12"/>
       <c r="G535" s="12"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" s="12"/>
       <c r="B536" s="12"/>
       <c r="C536" s="12"/>
@@ -9807,7 +9794,7 @@
       <c r="F536" s="12"/>
       <c r="G536" s="12"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" s="12"/>
       <c r="B537" s="12"/>
       <c r="C537" s="12"/>
@@ -9816,7 +9803,7 @@
       <c r="F537" s="12"/>
       <c r="G537" s="12"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A538" s="12"/>
       <c r="B538" s="12"/>
       <c r="C538" s="12"/>
@@ -9825,7 +9812,7 @@
       <c r="F538" s="12"/>
       <c r="G538" s="12"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A539" s="12"/>
       <c r="B539" s="12"/>
       <c r="C539" s="12"/>
@@ -9834,7 +9821,7 @@
       <c r="F539" s="12"/>
       <c r="G539" s="12"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A540" s="12"/>
       <c r="B540" s="12"/>
       <c r="C540" s="12"/>
@@ -9843,7 +9830,7 @@
       <c r="F540" s="12"/>
       <c r="G540" s="12"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A541" s="12"/>
       <c r="B541" s="12"/>
       <c r="C541" s="12"/>
@@ -9852,7 +9839,7 @@
       <c r="F541" s="12"/>
       <c r="G541" s="12"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A542" s="12"/>
       <c r="B542" s="12"/>
       <c r="C542" s="12"/>
@@ -9861,7 +9848,7 @@
       <c r="F542" s="12"/>
       <c r="G542" s="12"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A543" s="12"/>
       <c r="B543" s="12"/>
       <c r="C543" s="12"/>
@@ -9870,7 +9857,7 @@
       <c r="F543" s="12"/>
       <c r="G543" s="12"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A544" s="12"/>
       <c r="B544" s="12"/>
       <c r="C544" s="12"/>
@@ -9879,7 +9866,7 @@
       <c r="F544" s="12"/>
       <c r="G544" s="12"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A545" s="12"/>
       <c r="B545" s="12"/>
       <c r="C545" s="12"/>
@@ -9888,7 +9875,7 @@
       <c r="F545" s="12"/>
       <c r="G545" s="12"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A546" s="12"/>
       <c r="B546" s="12"/>
       <c r="C546" s="12"/>
@@ -9897,7 +9884,7 @@
       <c r="F546" s="12"/>
       <c r="G546" s="12"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A547" s="41"/>
       <c r="B547" s="41"/>
       <c r="C547" s="41"/>
@@ -9906,7 +9893,7 @@
       <c r="F547" s="41"/>
       <c r="G547" s="41"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A548" s="12"/>
       <c r="B548" s="12"/>
       <c r="C548" s="12"/>
@@ -9915,7 +9902,7 @@
       <c r="F548" s="12"/>
       <c r="G548" s="12"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A549" s="12"/>
       <c r="B549" s="12"/>
       <c r="C549" s="12"/>
@@ -9924,7 +9911,7 @@
       <c r="F549" s="12"/>
       <c r="G549" s="12"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A550" s="12"/>
       <c r="B550" s="12"/>
       <c r="C550" s="12"/>
@@ -9933,7 +9920,7 @@
       <c r="F550" s="12"/>
       <c r="G550" s="12"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" s="12"/>
       <c r="B551" s="12"/>
       <c r="C551" s="12"/>
@@ -9942,7 +9929,7 @@
       <c r="F551" s="12"/>
       <c r="G551" s="12"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A552" s="12"/>
       <c r="B552" s="12"/>
       <c r="C552" s="12"/>
@@ -9951,7 +9938,7 @@
       <c r="F552" s="12"/>
       <c r="G552" s="12"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A553" s="12"/>
       <c r="B553" s="12"/>
       <c r="C553" s="12"/>
@@ -9960,7 +9947,7 @@
       <c r="F553" s="12"/>
       <c r="G553" s="12"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A554" s="12"/>
       <c r="B554" s="12"/>
       <c r="C554" s="12"/>
@@ -9969,7 +9956,7 @@
       <c r="F554" s="12"/>
       <c r="G554" s="12"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A555" s="12"/>
       <c r="B555" s="12"/>
       <c r="C555" s="12"/>
@@ -9978,7 +9965,7 @@
       <c r="F555" s="12"/>
       <c r="G555" s="12"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" s="12"/>
       <c r="B556" s="12"/>
       <c r="C556" s="12"/>
@@ -9987,7 +9974,7 @@
       <c r="F556" s="12"/>
       <c r="G556" s="12"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A557" s="12"/>
       <c r="B557" s="12"/>
       <c r="C557" s="12"/>
@@ -9996,7 +9983,7 @@
       <c r="F557" s="12"/>
       <c r="G557" s="12"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A558" s="12"/>
       <c r="B558" s="12"/>
       <c r="C558" s="12"/>
@@ -10005,7 +9992,7 @@
       <c r="F558" s="12"/>
       <c r="G558" s="12"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" s="12"/>
       <c r="B559" s="12"/>
       <c r="C559" s="12"/>
@@ -10014,7 +10001,7 @@
       <c r="F559" s="12"/>
       <c r="G559" s="12"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" s="12"/>
       <c r="B560" s="12"/>
       <c r="C560" s="12"/>
@@ -10023,7 +10010,7 @@
       <c r="F560" s="12"/>
       <c r="G560" s="12"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" s="12"/>
       <c r="B561" s="12"/>
       <c r="C561" s="12"/>
@@ -10032,7 +10019,7 @@
       <c r="F561" s="12"/>
       <c r="G561" s="12"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" s="12"/>
       <c r="B562" s="12"/>
       <c r="C562" s="12"/>
@@ -10041,7 +10028,7 @@
       <c r="F562" s="12"/>
       <c r="G562" s="12"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" s="12"/>
       <c r="B563" s="12"/>
       <c r="C563" s="12"/>
@@ -10050,7 +10037,7 @@
       <c r="F563" s="12"/>
       <c r="G563" s="12"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" s="12"/>
       <c r="B564" s="12"/>
       <c r="C564" s="12"/>
@@ -10059,7 +10046,7 @@
       <c r="F564" s="12"/>
       <c r="G564" s="12"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" s="12"/>
       <c r="B565" s="12"/>
       <c r="C565" s="12"/>
@@ -10068,7 +10055,7 @@
       <c r="F565" s="12"/>
       <c r="G565" s="12"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" s="12"/>
       <c r="B566" s="12"/>
       <c r="C566" s="12"/>
@@ -10077,7 +10064,7 @@
       <c r="F566" s="12"/>
       <c r="G566" s="12"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" s="12"/>
       <c r="B567" s="12"/>
       <c r="C567" s="12"/>
@@ -10086,7 +10073,7 @@
       <c r="F567" s="12"/>
       <c r="G567" s="12"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" s="12"/>
       <c r="B568" s="12"/>
       <c r="C568" s="12"/>
@@ -10095,7 +10082,7 @@
       <c r="F568" s="12"/>
       <c r="G568" s="12"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A569" s="12"/>
       <c r="B569" s="12"/>
       <c r="C569" s="12"/>
@@ -10104,7 +10091,7 @@
       <c r="F569" s="12"/>
       <c r="G569" s="12"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" s="12"/>
       <c r="B570" s="12"/>
       <c r="C570" s="12"/>
@@ -10113,7 +10100,7 @@
       <c r="F570" s="12"/>
       <c r="G570" s="12"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A571" s="12"/>
       <c r="B571" s="12"/>
       <c r="C571" s="12"/>
@@ -10122,7 +10109,7 @@
       <c r="F571" s="12"/>
       <c r="G571" s="12"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" s="12"/>
       <c r="B572" s="12"/>
       <c r="C572" s="12"/>
@@ -10131,7 +10118,7 @@
       <c r="F572" s="12"/>
       <c r="G572" s="12"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A573" s="12"/>
       <c r="B573" s="12"/>
       <c r="C573" s="12"/>
@@ -10140,7 +10127,7 @@
       <c r="F573" s="12"/>
       <c r="G573" s="12"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" s="12"/>
       <c r="B574" s="12"/>
       <c r="C574" s="12"/>
@@ -10149,7 +10136,7 @@
       <c r="F574" s="13"/>
       <c r="G574" s="12"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" s="12"/>
       <c r="B575" s="12"/>
       <c r="C575" s="12"/>
@@ -10158,7 +10145,7 @@
       <c r="F575" s="13"/>
       <c r="G575" s="12"/>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" s="12"/>
       <c r="B576" s="12"/>
       <c r="C576" s="12"/>
@@ -10167,7 +10154,7 @@
       <c r="F576" s="13"/>
       <c r="G576" s="12"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" s="12"/>
       <c r="B577" s="12"/>
       <c r="C577" s="12"/>
@@ -10176,7 +10163,7 @@
       <c r="F577" s="13"/>
       <c r="G577" s="12"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A578" s="12"/>
       <c r="B578" s="12"/>
       <c r="C578" s="12"/>
@@ -10185,7 +10172,7 @@
       <c r="F578" s="13"/>
       <c r="G578" s="12"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A579" s="12"/>
       <c r="B579" s="12"/>
       <c r="C579" s="12"/>
@@ -10194,7 +10181,7 @@
       <c r="F579" s="13"/>
       <c r="G579" s="12"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A580" s="41"/>
       <c r="B580" s="41"/>
       <c r="C580" s="41"/>
@@ -10203,7 +10190,7 @@
       <c r="F580" s="41"/>
       <c r="G580" s="41"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A581" s="12"/>
       <c r="B581" s="12"/>
       <c r="C581" s="12"/>
@@ -10212,7 +10199,7 @@
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A582" s="12"/>
       <c r="B582" s="12"/>
       <c r="C582" s="12"/>
@@ -10221,7 +10208,7 @@
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A583" s="12"/>
       <c r="B583" s="12"/>
       <c r="C583" s="12"/>
@@ -10230,7 +10217,7 @@
       <c r="F583" s="12"/>
       <c r="G583" s="12"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A584" s="12"/>
       <c r="B584" s="12"/>
       <c r="C584" s="12"/>
@@ -10239,7 +10226,7 @@
       <c r="F584" s="12"/>
       <c r="G584" s="12"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A585" s="12"/>
       <c r="B585" s="12"/>
       <c r="C585" s="12"/>
@@ -10248,7 +10235,7 @@
       <c r="F585" s="12"/>
       <c r="G585" s="12"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A586" s="12"/>
       <c r="B586" s="12"/>
       <c r="C586" s="12"/>
@@ -10257,7 +10244,7 @@
       <c r="F586" s="12"/>
       <c r="G586" s="12"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A587" s="12"/>
       <c r="B587" s="12"/>
       <c r="C587" s="12"/>
@@ -10266,7 +10253,7 @@
       <c r="F587" s="12"/>
       <c r="G587" s="12"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A588" s="12"/>
       <c r="B588" s="12"/>
       <c r="C588" s="12"/>
@@ -10275,7 +10262,7 @@
       <c r="F588" s="12"/>
       <c r="G588" s="12"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A589" s="12"/>
       <c r="B589" s="12"/>
       <c r="C589" s="12"/>
@@ -10284,7 +10271,7 @@
       <c r="F589" s="12"/>
       <c r="G589" s="12"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A590" s="12"/>
       <c r="B590" s="12"/>
       <c r="C590" s="12"/>
@@ -10293,7 +10280,7 @@
       <c r="F590" s="12"/>
       <c r="G590" s="12"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A591" s="12"/>
       <c r="B591" s="12"/>
       <c r="C591" s="12"/>
@@ -10302,7 +10289,7 @@
       <c r="F591" s="12"/>
       <c r="G591" s="12"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A592" s="12"/>
       <c r="B592" s="12"/>
       <c r="C592" s="12"/>
@@ -10311,7 +10298,7 @@
       <c r="F592" s="12"/>
       <c r="G592" s="12"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A593" s="12"/>
       <c r="B593" s="12"/>
       <c r="C593" s="12"/>
@@ -10320,7 +10307,7 @@
       <c r="F593" s="12"/>
       <c r="G593" s="12"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A594" s="12"/>
       <c r="B594" s="12"/>
       <c r="C594" s="12"/>
@@ -10329,7 +10316,7 @@
       <c r="F594" s="12"/>
       <c r="G594" s="12"/>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A595" s="12"/>
       <c r="B595" s="12"/>
       <c r="C595" s="12"/>
@@ -10338,7 +10325,7 @@
       <c r="F595" s="12"/>
       <c r="G595" s="12"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A596" s="12"/>
       <c r="B596" s="12"/>
       <c r="C596" s="12"/>
@@ -10347,7 +10334,7 @@
       <c r="F596" s="12"/>
       <c r="G596" s="12"/>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A597" s="12"/>
       <c r="B597" s="12"/>
       <c r="C597" s="12"/>
@@ -10356,7 +10343,7 @@
       <c r="F597" s="12"/>
       <c r="G597" s="12"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A598" s="12"/>
       <c r="B598" s="12"/>
       <c r="C598" s="12"/>
@@ -10365,7 +10352,7 @@
       <c r="F598" s="12"/>
       <c r="G598" s="12"/>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A599" s="12"/>
       <c r="B599" s="12"/>
       <c r="C599" s="12"/>
@@ -10374,7 +10361,7 @@
       <c r="F599" s="12"/>
       <c r="G599" s="12"/>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A600" s="12"/>
       <c r="B600" s="12"/>
       <c r="C600" s="12"/>
@@ -10383,7 +10370,7 @@
       <c r="F600" s="12"/>
       <c r="G600" s="12"/>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A601" s="12"/>
       <c r="B601" s="12"/>
       <c r="C601" s="12"/>
@@ -10392,7 +10379,7 @@
       <c r="F601" s="12"/>
       <c r="G601" s="12"/>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A602" s="12"/>
       <c r="B602" s="12"/>
       <c r="C602" s="12"/>
@@ -10401,7 +10388,7 @@
       <c r="F602" s="12"/>
       <c r="G602" s="12"/>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A603" s="12"/>
       <c r="B603" s="12"/>
       <c r="C603" s="12"/>
@@ -10410,7 +10397,7 @@
       <c r="F603" s="12"/>
       <c r="G603" s="12"/>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A604" s="12"/>
       <c r="B604" s="12"/>
       <c r="C604" s="12"/>
@@ -10419,7 +10406,7 @@
       <c r="F604" s="12"/>
       <c r="G604" s="12"/>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A605" s="12"/>
       <c r="B605" s="12"/>
       <c r="C605" s="12"/>
@@ -10428,7 +10415,7 @@
       <c r="F605" s="12"/>
       <c r="G605" s="12"/>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A606" s="12"/>
       <c r="B606" s="12"/>
       <c r="C606" s="12"/>
@@ -10437,7 +10424,7 @@
       <c r="F606" s="12"/>
       <c r="G606" s="12"/>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A607" s="12"/>
       <c r="B607" s="12"/>
       <c r="C607" s="12"/>
@@ -10446,7 +10433,7 @@
       <c r="F607" s="12"/>
       <c r="G607" s="12"/>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A608" s="12"/>
       <c r="B608" s="12"/>
       <c r="C608" s="12"/>
@@ -10455,7 +10442,7 @@
       <c r="F608" s="12"/>
       <c r="G608" s="12"/>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A609" s="12"/>
       <c r="B609" s="12"/>
       <c r="C609" s="12"/>
@@ -10464,7 +10451,7 @@
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A610" s="12"/>
       <c r="B610" s="12"/>
       <c r="C610" s="12"/>
@@ -10473,7 +10460,7 @@
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A611" s="12"/>
       <c r="B611" s="12"/>
       <c r="C611" s="12"/>
@@ -10482,7 +10469,7 @@
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A612" s="12"/>
       <c r="B612" s="12"/>
       <c r="C612" s="12"/>
@@ -10491,7 +10478,7 @@
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A613" s="12"/>
       <c r="B613" s="12"/>
       <c r="C613" s="12"/>
@@ -10500,7 +10487,7 @@
       <c r="F613" s="12"/>
       <c r="G613" s="12"/>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A614" s="12"/>
       <c r="B614" s="12"/>
       <c r="C614" s="12"/>
@@ -10509,7 +10496,7 @@
       <c r="F614" s="12"/>
       <c r="G614" s="12"/>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A615" s="12"/>
       <c r="B615" s="12"/>
       <c r="C615" s="12"/>
@@ -10518,7 +10505,7 @@
       <c r="F615" s="12"/>
       <c r="G615" s="12"/>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A616" s="12"/>
       <c r="B616" s="12"/>
       <c r="C616" s="12"/>
@@ -10527,7 +10514,7 @@
       <c r="F616" s="12"/>
       <c r="G616" s="12"/>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A617" s="12"/>
       <c r="B617" s="12"/>
       <c r="C617" s="12"/>
@@ -10536,7 +10523,7 @@
       <c r="F617" s="12"/>
       <c r="G617" s="12"/>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A618" s="41"/>
       <c r="B618" s="41"/>
       <c r="C618" s="41"/>
@@ -10545,7 +10532,7 @@
       <c r="F618" s="41"/>
       <c r="G618" s="41"/>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A619" s="12"/>
       <c r="B619" s="12"/>
       <c r="C619" s="12"/>
@@ -10554,7 +10541,7 @@
       <c r="F619" s="12"/>
       <c r="G619" s="12"/>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A620" s="12"/>
       <c r="B620" s="12"/>
       <c r="C620" s="12"/>
@@ -10563,7 +10550,7 @@
       <c r="F620" s="12"/>
       <c r="G620" s="12"/>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A621" s="12"/>
       <c r="B621" s="12"/>
       <c r="C621" s="12"/>
@@ -10572,7 +10559,7 @@
       <c r="F621" s="12"/>
       <c r="G621" s="12"/>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A622" s="12"/>
       <c r="B622" s="12"/>
       <c r="C622" s="12"/>
@@ -10581,7 +10568,7 @@
       <c r="F622" s="12"/>
       <c r="G622" s="12"/>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A623" s="12"/>
       <c r="B623" s="12"/>
       <c r="C623" s="12"/>
@@ -10590,7 +10577,7 @@
       <c r="F623" s="12"/>
       <c r="G623" s="12"/>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A624" s="12"/>
       <c r="B624" s="12"/>
       <c r="C624" s="12"/>
@@ -10599,7 +10586,7 @@
       <c r="F624" s="12"/>
       <c r="G624" s="12"/>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A625" s="12"/>
       <c r="B625" s="12"/>
       <c r="C625" s="12"/>
@@ -10608,7 +10595,7 @@
       <c r="F625" s="12"/>
       <c r="G625" s="12"/>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A626" s="12"/>
       <c r="B626" s="12"/>
       <c r="C626" s="12"/>
@@ -10617,7 +10604,7 @@
       <c r="F626" s="12"/>
       <c r="G626" s="12"/>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A627" s="12"/>
       <c r="B627" s="12"/>
       <c r="C627" s="12"/>
@@ -10626,7 +10613,7 @@
       <c r="F627" s="12"/>
       <c r="G627" s="12"/>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A628" s="12"/>
       <c r="B628" s="12"/>
       <c r="C628" s="12"/>
@@ -10635,7 +10622,7 @@
       <c r="F628" s="12"/>
       <c r="G628" s="12"/>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A629" s="12"/>
       <c r="B629" s="12"/>
       <c r="C629" s="12"/>
@@ -10644,7 +10631,7 @@
       <c r="F629" s="12"/>
       <c r="G629" s="12"/>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A630" s="12"/>
       <c r="B630" s="12"/>
       <c r="C630" s="12"/>
@@ -10653,7 +10640,7 @@
       <c r="F630" s="12"/>
       <c r="G630" s="12"/>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A631" s="12"/>
       <c r="B631" s="12"/>
       <c r="C631" s="12"/>
@@ -10662,7 +10649,7 @@
       <c r="F631" s="12"/>
       <c r="G631" s="12"/>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A632" s="12"/>
       <c r="B632" s="12"/>
       <c r="C632" s="12"/>
@@ -10671,7 +10658,7 @@
       <c r="F632" s="12"/>
       <c r="G632" s="12"/>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A633" s="12"/>
       <c r="B633" s="12"/>
       <c r="C633" s="12"/>
@@ -10680,7 +10667,7 @@
       <c r="F633" s="12"/>
       <c r="G633" s="12"/>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A634" s="12"/>
       <c r="B634" s="12"/>
       <c r="C634" s="12"/>
@@ -10689,7 +10676,7 @@
       <c r="F634" s="12"/>
       <c r="G634" s="12"/>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A635" s="12"/>
       <c r="B635" s="12"/>
       <c r="C635" s="12"/>
@@ -10698,7 +10685,7 @@
       <c r="F635" s="12"/>
       <c r="G635" s="12"/>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A636" s="12"/>
       <c r="B636" s="12"/>
       <c r="C636" s="12"/>
@@ -10707,7 +10694,7 @@
       <c r="F636" s="12"/>
       <c r="G636" s="12"/>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A637" s="12"/>
       <c r="B637" s="12"/>
       <c r="C637" s="12"/>
@@ -10716,7 +10703,7 @@
       <c r="F637" s="12"/>
       <c r="G637" s="12"/>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A638" s="12"/>
       <c r="B638" s="12"/>
       <c r="C638" s="12"/>
@@ -10725,7 +10712,7 @@
       <c r="F638" s="12"/>
       <c r="G638" s="12"/>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A639" s="12"/>
       <c r="B639" s="12"/>
       <c r="C639" s="12"/>
@@ -10734,7 +10721,7 @@
       <c r="F639" s="12"/>
       <c r="G639" s="12"/>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A640" s="12"/>
       <c r="B640" s="12"/>
       <c r="C640" s="12"/>
@@ -10743,7 +10730,7 @@
       <c r="F640" s="12"/>
       <c r="G640" s="12"/>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A641" s="12"/>
       <c r="B641" s="12"/>
       <c r="C641" s="12"/>
@@ -10752,7 +10739,7 @@
       <c r="F641" s="12"/>
       <c r="G641" s="12"/>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A642" s="12"/>
       <c r="B642" s="12"/>
       <c r="C642" s="12"/>
@@ -10761,7 +10748,7 @@
       <c r="F642" s="12"/>
       <c r="G642" s="12"/>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A643" s="12"/>
       <c r="B643" s="12"/>
       <c r="C643" s="12"/>
@@ -10770,7 +10757,7 @@
       <c r="F643" s="12"/>
       <c r="G643" s="12"/>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A644" s="12"/>
       <c r="B644" s="12"/>
       <c r="C644" s="12"/>
@@ -10779,7 +10766,7 @@
       <c r="F644" s="12"/>
       <c r="G644" s="12"/>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A645" s="12"/>
       <c r="B645" s="12"/>
       <c r="C645" s="12"/>
@@ -10788,7 +10775,7 @@
       <c r="F645" s="12"/>
       <c r="G645" s="12"/>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A646" s="12"/>
       <c r="B646" s="12"/>
       <c r="C646" s="12"/>
@@ -10797,7 +10784,7 @@
       <c r="F646" s="12"/>
       <c r="G646" s="12"/>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A647" s="12"/>
       <c r="B647" s="12"/>
       <c r="C647" s="12"/>
@@ -10806,7 +10793,7 @@
       <c r="F647" s="12"/>
       <c r="G647" s="12"/>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A648" s="12"/>
       <c r="B648" s="12"/>
       <c r="C648" s="12"/>
@@ -10815,7 +10802,7 @@
       <c r="F648" s="12"/>
       <c r="G648" s="12"/>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A649" s="12"/>
       <c r="B649" s="12"/>
       <c r="C649" s="12"/>
@@ -10824,7 +10811,7 @@
       <c r="F649" s="12"/>
       <c r="G649" s="12"/>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A650" s="12"/>
       <c r="B650" s="12"/>
       <c r="C650" s="12"/>
@@ -10833,7 +10820,7 @@
       <c r="F650" s="12"/>
       <c r="G650" s="12"/>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A651" s="12"/>
       <c r="B651" s="12"/>
       <c r="C651" s="12"/>
@@ -10842,7 +10829,7 @@
       <c r="F651" s="12"/>
       <c r="G651" s="12"/>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A652" s="12"/>
       <c r="B652" s="12"/>
       <c r="C652" s="12"/>
@@ -10851,7 +10838,7 @@
       <c r="F652" s="12"/>
       <c r="G652" s="12"/>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A653" s="12"/>
       <c r="B653" s="12"/>
       <c r="C653" s="12"/>
@@ -10860,7 +10847,7 @@
       <c r="F653" s="12"/>
       <c r="G653" s="12"/>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A654" s="41"/>
       <c r="B654" s="41"/>
       <c r="C654" s="41"/>
@@ -10869,7 +10856,7 @@
       <c r="F654" s="41"/>
       <c r="G654" s="41"/>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A655" s="12"/>
       <c r="B655" s="12"/>
       <c r="C655" s="12"/>
@@ -10878,7 +10865,7 @@
       <c r="F655" s="12"/>
       <c r="G655" s="12"/>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A656" s="12"/>
       <c r="B656" s="12"/>
       <c r="C656" s="12"/>
@@ -10887,7 +10874,7 @@
       <c r="F656" s="12"/>
       <c r="G656" s="12"/>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A657" s="12"/>
       <c r="B657" s="12"/>
       <c r="C657" s="12"/>
@@ -10896,7 +10883,7 @@
       <c r="F657" s="12"/>
       <c r="G657" s="12"/>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A658" s="12"/>
       <c r="B658" s="12"/>
       <c r="C658" s="12"/>
@@ -10905,7 +10892,7 @@
       <c r="F658" s="12"/>
       <c r="G658" s="12"/>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A659" s="12"/>
       <c r="B659" s="12"/>
       <c r="C659" s="12"/>
@@ -10914,7 +10901,7 @@
       <c r="F659" s="12"/>
       <c r="G659" s="12"/>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A660" s="12"/>
       <c r="B660" s="12"/>
       <c r="C660" s="12"/>
@@ -10923,7 +10910,7 @@
       <c r="F660" s="12"/>
       <c r="G660" s="12"/>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A661" s="12"/>
       <c r="B661" s="12"/>
       <c r="C661" s="12"/>
@@ -10932,7 +10919,7 @@
       <c r="F661" s="12"/>
       <c r="G661" s="12"/>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A662" s="12"/>
       <c r="B662" s="12"/>
       <c r="C662" s="12"/>
@@ -10941,7 +10928,7 @@
       <c r="F662" s="12"/>
       <c r="G662" s="12"/>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A663" s="12"/>
       <c r="B663" s="12"/>
       <c r="C663" s="12"/>
@@ -10950,7 +10937,7 @@
       <c r="F663" s="12"/>
       <c r="G663" s="12"/>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A664" s="12"/>
       <c r="B664" s="12"/>
       <c r="C664" s="12"/>
@@ -10959,7 +10946,7 @@
       <c r="F664" s="12"/>
       <c r="G664" s="12"/>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A665" s="12"/>
       <c r="B665" s="12"/>
       <c r="C665" s="12"/>
@@ -10968,7 +10955,7 @@
       <c r="F665" s="12"/>
       <c r="G665" s="12"/>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A666" s="12"/>
       <c r="B666" s="12"/>
       <c r="C666" s="12"/>
@@ -10977,7 +10964,7 @@
       <c r="F666" s="12"/>
       <c r="G666" s="12"/>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A667" s="12"/>
       <c r="B667" s="12"/>
       <c r="C667" s="12"/>
@@ -10986,7 +10973,7 @@
       <c r="F667" s="12"/>
       <c r="G667" s="12"/>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A668" s="12"/>
       <c r="B668" s="12"/>
       <c r="C668" s="12"/>
@@ -10995,7 +10982,7 @@
       <c r="F668" s="12"/>
       <c r="G668" s="12"/>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A669" s="12"/>
       <c r="B669" s="12"/>
       <c r="C669" s="12"/>
@@ -11004,7 +10991,7 @@
       <c r="F669" s="12"/>
       <c r="G669" s="12"/>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A670" s="12"/>
       <c r="B670" s="12"/>
       <c r="C670" s="12"/>
@@ -11013,7 +11000,7 @@
       <c r="F670" s="12"/>
       <c r="G670" s="12"/>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A671" s="12"/>
       <c r="B671" s="12"/>
       <c r="C671" s="12"/>
@@ -11022,7 +11009,7 @@
       <c r="F671" s="12"/>
       <c r="G671" s="12"/>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A672" s="12"/>
       <c r="B672" s="12"/>
       <c r="C672" s="12"/>
@@ -11031,7 +11018,7 @@
       <c r="F672" s="12"/>
       <c r="G672" s="12"/>
     </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A673" s="12"/>
       <c r="B673" s="12"/>
       <c r="C673" s="12"/>
@@ -11040,7 +11027,7 @@
       <c r="F673" s="12"/>
       <c r="G673" s="12"/>
     </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A674" s="12"/>
       <c r="B674" s="12"/>
       <c r="C674" s="12"/>
@@ -11049,7 +11036,7 @@
       <c r="F674" s="12"/>
       <c r="G674" s="12"/>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A675" s="12"/>
       <c r="B675" s="12"/>
       <c r="C675" s="12"/>
@@ -11058,7 +11045,7 @@
       <c r="F675" s="12"/>
       <c r="G675" s="12"/>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A676" s="12"/>
       <c r="B676" s="12"/>
       <c r="C676" s="12"/>
@@ -11067,7 +11054,7 @@
       <c r="F676" s="12"/>
       <c r="G676" s="12"/>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A677" s="12"/>
       <c r="B677" s="12"/>
       <c r="C677" s="12"/>
@@ -11076,7 +11063,7 @@
       <c r="F677" s="12"/>
       <c r="G677" s="12"/>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A678" s="12"/>
       <c r="B678" s="12"/>
       <c r="C678" s="12"/>
@@ -11085,7 +11072,7 @@
       <c r="F678" s="12"/>
       <c r="G678" s="12"/>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A679" s="12"/>
       <c r="B679" s="12"/>
       <c r="C679" s="12"/>
@@ -11094,7 +11081,7 @@
       <c r="F679" s="12"/>
       <c r="G679" s="12"/>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A680" s="12"/>
       <c r="B680" s="12"/>
       <c r="C680" s="12"/>
@@ -11103,7 +11090,7 @@
       <c r="F680" s="12"/>
       <c r="G680" s="12"/>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A681" s="12"/>
       <c r="B681" s="12"/>
       <c r="C681" s="12"/>
@@ -11112,7 +11099,7 @@
       <c r="F681" s="12"/>
       <c r="G681" s="12"/>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A682" s="12"/>
       <c r="B682" s="12"/>
       <c r="C682" s="12"/>
@@ -11121,7 +11108,7 @@
       <c r="F682" s="12"/>
       <c r="G682" s="12"/>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A683" s="41"/>
       <c r="B683" s="41"/>
       <c r="C683" s="41"/>
@@ -11130,7 +11117,7 @@
       <c r="F683" s="41"/>
       <c r="G683" s="41"/>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A684" s="12"/>
       <c r="B684" s="12"/>
       <c r="C684" s="12"/>
@@ -11139,7 +11126,7 @@
       <c r="F684" s="12"/>
       <c r="G684" s="12"/>
     </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A685" s="12"/>
       <c r="B685" s="12"/>
       <c r="C685" s="12"/>
@@ -11148,7 +11135,7 @@
       <c r="F685" s="12"/>
       <c r="G685" s="12"/>
     </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A686" s="12"/>
       <c r="B686" s="12"/>
       <c r="C686" s="12"/>
@@ -11157,7 +11144,7 @@
       <c r="F686" s="12"/>
       <c r="G686" s="12"/>
     </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A687" s="12"/>
       <c r="B687" s="12"/>
       <c r="C687" s="12"/>
@@ -11166,7 +11153,7 @@
       <c r="F687" s="12"/>
       <c r="G687" s="12"/>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A688" s="12"/>
       <c r="B688" s="12"/>
       <c r="C688" s="12"/>
@@ -11175,7 +11162,7 @@
       <c r="F688" s="12"/>
       <c r="G688" s="12"/>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A689" s="12"/>
       <c r="B689" s="12"/>
       <c r="C689" s="12"/>
@@ -11184,7 +11171,7 @@
       <c r="F689" s="12"/>
       <c r="G689" s="12"/>
     </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A690" s="12"/>
       <c r="B690" s="12"/>
       <c r="C690" s="12"/>
@@ -11193,7 +11180,7 @@
       <c r="F690" s="12"/>
       <c r="G690" s="12"/>
     </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A691" s="12"/>
       <c r="B691" s="12"/>
       <c r="C691" s="12"/>
@@ -11202,7 +11189,7 @@
       <c r="F691" s="12"/>
       <c r="G691" s="12"/>
     </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A692" s="12"/>
       <c r="B692" s="12"/>
       <c r="C692" s="12"/>
@@ -11211,7 +11198,7 @@
       <c r="F692" s="12"/>
       <c r="G692" s="12"/>
     </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A693" s="12"/>
       <c r="B693" s="12"/>
       <c r="C693" s="12"/>
@@ -11220,7 +11207,7 @@
       <c r="F693" s="12"/>
       <c r="G693" s="12"/>
     </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A694" s="12"/>
       <c r="B694" s="12"/>
       <c r="C694" s="12"/>
@@ -11229,7 +11216,7 @@
       <c r="F694" s="12"/>
       <c r="G694" s="12"/>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A695" s="12"/>
       <c r="B695" s="12"/>
       <c r="C695" s="12"/>
@@ -11238,7 +11225,7 @@
       <c r="F695" s="12"/>
       <c r="G695" s="12"/>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A696" s="12"/>
       <c r="B696" s="12"/>
       <c r="C696" s="12"/>
@@ -11247,7 +11234,7 @@
       <c r="F696" s="12"/>
       <c r="G696" s="12"/>
     </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A697" s="12"/>
       <c r="B697" s="12"/>
       <c r="C697" s="12"/>
@@ -11256,7 +11243,7 @@
       <c r="F697" s="12"/>
       <c r="G697" s="12"/>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A698" s="12"/>
       <c r="B698" s="12"/>
       <c r="C698" s="12"/>
@@ -11265,7 +11252,7 @@
       <c r="F698" s="12"/>
       <c r="G698" s="12"/>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A699" s="12"/>
       <c r="B699" s="12"/>
       <c r="C699" s="12"/>
@@ -11274,7 +11261,7 @@
       <c r="F699" s="12"/>
       <c r="G699" s="12"/>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A700" s="12"/>
       <c r="B700" s="12"/>
       <c r="C700" s="12"/>
@@ -11283,7 +11270,7 @@
       <c r="F700" s="12"/>
       <c r="G700" s="12"/>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A701" s="12"/>
       <c r="B701" s="12"/>
       <c r="C701" s="12"/>
@@ -11292,7 +11279,7 @@
       <c r="F701" s="12"/>
       <c r="G701" s="12"/>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A702" s="12"/>
       <c r="B702" s="12"/>
       <c r="C702" s="12"/>
@@ -11301,7 +11288,7 @@
       <c r="F702" s="12"/>
       <c r="G702" s="12"/>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A703" s="41"/>
       <c r="B703" s="41"/>
       <c r="C703" s="41"/>
@@ -11310,7 +11297,7 @@
       <c r="F703" s="41"/>
       <c r="G703" s="41"/>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A704" s="12"/>
       <c r="B704" s="12"/>
       <c r="C704" s="12"/>
@@ -11319,7 +11306,7 @@
       <c r="F704" s="12"/>
       <c r="G704" s="12"/>
     </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A705" s="12"/>
       <c r="B705" s="12"/>
       <c r="C705" s="12"/>
@@ -11328,7 +11315,7 @@
       <c r="F705" s="12"/>
       <c r="G705" s="12"/>
     </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A706" s="12"/>
       <c r="B706" s="12"/>
       <c r="C706" s="12"/>
@@ -11337,7 +11324,7 @@
       <c r="F706" s="12"/>
       <c r="G706" s="12"/>
     </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A707" s="12"/>
       <c r="B707" s="12"/>
       <c r="C707" s="12"/>
@@ -11346,7 +11333,7 @@
       <c r="F707" s="12"/>
       <c r="G707" s="12"/>
     </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A708" s="12"/>
       <c r="B708" s="12"/>
       <c r="C708" s="12"/>
@@ -11355,7 +11342,7 @@
       <c r="F708" s="12"/>
       <c r="G708" s="12"/>
     </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A709" s="12"/>
       <c r="B709" s="12"/>
       <c r="C709" s="12"/>
@@ -11364,7 +11351,7 @@
       <c r="F709" s="12"/>
       <c r="G709" s="12"/>
     </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A710" s="12"/>
       <c r="B710" s="12"/>
       <c r="C710" s="12"/>
@@ -11373,7 +11360,7 @@
       <c r="F710" s="12"/>
       <c r="G710" s="12"/>
     </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A711" s="12"/>
       <c r="B711" s="12"/>
       <c r="C711" s="12"/>
@@ -11382,7 +11369,7 @@
       <c r="F711" s="12"/>
       <c r="G711" s="12"/>
     </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A712" s="12"/>
       <c r="B712" s="12"/>
       <c r="C712" s="12"/>
@@ -11391,7 +11378,7 @@
       <c r="F712" s="12"/>
       <c r="G712" s="12"/>
     </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A713" s="12"/>
       <c r="B713" s="12"/>
       <c r="C713" s="12"/>
@@ -11400,7 +11387,7 @@
       <c r="F713" s="12"/>
       <c r="G713" s="12"/>
     </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A714" s="12"/>
       <c r="B714" s="12"/>
       <c r="C714" s="12"/>
@@ -11409,7 +11396,7 @@
       <c r="F714" s="12"/>
       <c r="G714" s="12"/>
     </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A715" s="12"/>
       <c r="B715" s="12"/>
       <c r="C715" s="12"/>
@@ -11418,7 +11405,7 @@
       <c r="F715" s="12"/>
       <c r="G715" s="12"/>
     </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A716" s="12"/>
       <c r="B716" s="12"/>
       <c r="C716" s="12"/>
@@ -11427,7 +11414,7 @@
       <c r="F716" s="12"/>
       <c r="G716" s="12"/>
     </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A717" s="12"/>
       <c r="B717" s="12"/>
       <c r="C717" s="12"/>
@@ -11436,7 +11423,7 @@
       <c r="F717" s="12"/>
       <c r="G717" s="12"/>
     </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A718" s="12"/>
       <c r="B718" s="12"/>
       <c r="C718" s="12"/>
@@ -11445,7 +11432,7 @@
       <c r="F718" s="12"/>
       <c r="G718" s="12"/>
     </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A719" s="12"/>
       <c r="B719" s="12"/>
       <c r="C719" s="12"/>
@@ -11454,7 +11441,7 @@
       <c r="F719" s="12"/>
       <c r="G719" s="12"/>
     </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A720" s="12"/>
       <c r="B720" s="12"/>
       <c r="C720" s="12"/>
@@ -11463,7 +11450,7 @@
       <c r="F720" s="12"/>
       <c r="G720" s="12"/>
     </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A721" s="12"/>
       <c r="B721" s="12"/>
       <c r="C721" s="12"/>
@@ -11472,7 +11459,7 @@
       <c r="F721" s="12"/>
       <c r="G721" s="12"/>
     </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A722" s="12"/>
       <c r="B722" s="12"/>
       <c r="C722" s="12"/>
@@ -11481,7 +11468,7 @@
       <c r="F722" s="12"/>
       <c r="G722" s="12"/>
     </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A723" s="12"/>
       <c r="B723" s="12"/>
       <c r="C723" s="12"/>
@@ -11490,7 +11477,7 @@
       <c r="F723" s="12"/>
       <c r="G723" s="12"/>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A724" s="12"/>
       <c r="B724" s="12"/>
       <c r="C724" s="12"/>
@@ -11499,7 +11486,7 @@
       <c r="F724" s="12"/>
       <c r="G724" s="12"/>
     </row>
-    <row r="725" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="12"/>
       <c r="B725" s="12"/>
       <c r="C725" s="12"/>
@@ -11508,7 +11495,7 @@
       <c r="F725" s="12"/>
       <c r="G725" s="12"/>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A726" s="41"/>
       <c r="B726" s="41"/>
       <c r="C726" s="41"/>
@@ -11517,7 +11504,7 @@
       <c r="F726" s="41"/>
       <c r="G726" s="41"/>
     </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A727" s="41"/>
       <c r="B727" s="41"/>
       <c r="C727" s="41"/>
@@ -11526,7 +11513,7 @@
       <c r="F727" s="41"/>
       <c r="G727" s="41"/>
     </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A728" s="12"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
@@ -11535,7 +11522,7 @@
       <c r="F728" s="12"/>
       <c r="G728" s="12"/>
     </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A729" s="12"/>
       <c r="B729" s="12"/>
       <c r="C729" s="12"/>
@@ -11544,7 +11531,7 @@
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A730" s="12"/>
       <c r="B730" s="12"/>
       <c r="C730" s="12"/>
@@ -11553,7 +11540,7 @@
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A731" s="12"/>
       <c r="B731" s="12"/>
       <c r="C731" s="12"/>
@@ -11562,7 +11549,7 @@
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A732" s="12"/>
       <c r="B732" s="12"/>
       <c r="C732" s="12"/>
@@ -11571,7 +11558,7 @@
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A733" s="12"/>
       <c r="B733" s="12"/>
       <c r="C733" s="12"/>
@@ -11580,7 +11567,7 @@
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A734" s="12"/>
       <c r="B734" s="12"/>
       <c r="C734" s="12"/>
@@ -11589,7 +11576,7 @@
       <c r="F734" s="12"/>
       <c r="G734" s="12"/>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A735" s="12"/>
       <c r="B735" s="12"/>
       <c r="C735" s="12"/>
@@ -11598,7 +11585,7 @@
       <c r="F735" s="12"/>
       <c r="G735" s="12"/>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A736" s="41"/>
       <c r="B736" s="41"/>
       <c r="C736" s="41"/>
@@ -11607,7 +11594,7 @@
       <c r="F736" s="41"/>
       <c r="G736" s="41"/>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A737" s="12"/>
       <c r="B737" s="12"/>
       <c r="C737" s="12"/>
@@ -11616,7 +11603,7 @@
       <c r="F737" s="12"/>
       <c r="G737" s="12"/>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A738" s="12"/>
       <c r="B738" s="12"/>
       <c r="C738" s="12"/>
@@ -11625,7 +11612,7 @@
       <c r="F738" s="12"/>
       <c r="G738" s="12"/>
     </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A739" s="12"/>
       <c r="B739" s="12"/>
       <c r="C739" s="12"/>
@@ -11634,7 +11621,7 @@
       <c r="F739" s="12"/>
       <c r="G739" s="12"/>
     </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A740" s="12"/>
       <c r="B740" s="12"/>
       <c r="C740" s="12"/>
@@ -11643,7 +11630,7 @@
       <c r="F740" s="12"/>
       <c r="G740" s="12"/>
     </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A741" s="12"/>
       <c r="B741" s="12"/>
       <c r="C741" s="12"/>
@@ -11652,7 +11639,7 @@
       <c r="F741" s="12"/>
       <c r="G741" s="12"/>
     </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A742" s="12"/>
       <c r="B742" s="12"/>
       <c r="C742" s="12"/>
@@ -11661,7 +11648,7 @@
       <c r="F742" s="12"/>
       <c r="G742" s="12"/>
     </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A743" s="12"/>
       <c r="B743" s="12"/>
       <c r="C743" s="12"/>
@@ -11670,7 +11657,7 @@
       <c r="F743" s="12"/>
       <c r="G743" s="12"/>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A744" s="12"/>
       <c r="B744" s="12"/>
       <c r="C744" s="12"/>
@@ -11679,7 +11666,7 @@
       <c r="F744" s="12"/>
       <c r="G744" s="12"/>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A745" s="41"/>
       <c r="B745" s="41"/>
       <c r="C745" s="41"/>
@@ -11688,7 +11675,7 @@
       <c r="F745" s="41"/>
       <c r="G745" s="41"/>
     </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A746" s="12"/>
       <c r="B746" s="12"/>
       <c r="C746" s="12"/>
@@ -11697,7 +11684,7 @@
       <c r="F746" s="12"/>
       <c r="G746" s="12"/>
     </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A747" s="12"/>
       <c r="B747" s="12"/>
       <c r="C747" s="12"/>
@@ -11706,7 +11693,7 @@
       <c r="F747" s="12"/>
       <c r="G747" s="12"/>
     </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A748" s="12"/>
       <c r="B748" s="12"/>
       <c r="C748" s="12"/>
@@ -11715,7 +11702,7 @@
       <c r="F748" s="12"/>
       <c r="G748" s="12"/>
     </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A749" s="12"/>
       <c r="B749" s="12"/>
       <c r="C749" s="12"/>
@@ -11724,7 +11711,7 @@
       <c r="F749" s="12"/>
       <c r="G749" s="12"/>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A750" s="12"/>
       <c r="B750" s="12"/>
       <c r="C750" s="12"/>
@@ -11733,7 +11720,7 @@
       <c r="F750" s="12"/>
       <c r="G750" s="12"/>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A751" s="12"/>
       <c r="B751" s="12"/>
       <c r="C751" s="12"/>
@@ -11742,7 +11729,7 @@
       <c r="F751" s="12"/>
       <c r="G751" s="12"/>
     </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A752" s="12"/>
       <c r="B752" s="12"/>
       <c r="C752" s="12"/>
@@ -11751,7 +11738,7 @@
       <c r="F752" s="12"/>
       <c r="G752" s="12"/>
     </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A753" s="12"/>
       <c r="B753" s="12"/>
       <c r="C753" s="12"/>
@@ -11760,7 +11747,7 @@
       <c r="F753" s="12"/>
       <c r="G753" s="12"/>
     </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A754" s="12"/>
       <c r="B754" s="12"/>
       <c r="C754" s="12"/>
@@ -11769,7 +11756,7 @@
       <c r="F754" s="12"/>
       <c r="G754" s="12"/>
     </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A755" s="12"/>
       <c r="B755" s="12"/>
       <c r="C755" s="12"/>
@@ -11778,7 +11765,7 @@
       <c r="F755" s="12"/>
       <c r="G755" s="12"/>
     </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A756" s="12"/>
       <c r="B756" s="12"/>
       <c r="C756" s="12"/>
@@ -11787,7 +11774,7 @@
       <c r="F756" s="12"/>
       <c r="G756" s="12"/>
     </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A757" s="12"/>
       <c r="B757" s="12"/>
       <c r="C757" s="12"/>
@@ -11796,7 +11783,7 @@
       <c r="F757" s="12"/>
       <c r="G757" s="12"/>
     </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A758" s="12"/>
       <c r="B758" s="12"/>
       <c r="C758" s="12"/>
@@ -11805,7 +11792,7 @@
       <c r="F758" s="12"/>
       <c r="G758" s="12"/>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A759" s="12"/>
       <c r="B759" s="12"/>
       <c r="C759" s="12"/>
@@ -11814,7 +11801,7 @@
       <c r="F759" s="12"/>
       <c r="G759" s="12"/>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A760" s="12"/>
       <c r="B760" s="12"/>
       <c r="C760" s="12"/>
@@ -11823,7 +11810,7 @@
       <c r="F760" s="12"/>
       <c r="G760" s="12"/>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A761" s="12"/>
       <c r="B761" s="12"/>
       <c r="C761" s="12"/>
@@ -11832,7 +11819,7 @@
       <c r="F761" s="12"/>
       <c r="G761" s="12"/>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A762" s="12"/>
       <c r="B762" s="12"/>
       <c r="C762" s="12"/>
@@ -11841,7 +11828,7 @@
       <c r="F762" s="12"/>
       <c r="G762" s="12"/>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A763" s="12"/>
       <c r="B763" s="12"/>
       <c r="C763" s="12"/>
@@ -11850,7 +11837,7 @@
       <c r="F763" s="12"/>
       <c r="G763" s="12"/>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A764" s="12"/>
       <c r="B764" s="12"/>
       <c r="C764" s="12"/>
@@ -11859,7 +11846,7 @@
       <c r="F764" s="12"/>
       <c r="G764" s="12"/>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A765" s="41"/>
       <c r="B765" s="41"/>
       <c r="C765" s="41"/>
@@ -11868,7 +11855,7 @@
       <c r="F765" s="41"/>
       <c r="G765" s="41"/>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A766" s="12"/>
       <c r="B766" s="12"/>
       <c r="C766" s="12"/>
@@ -11877,7 +11864,7 @@
       <c r="F766" s="12"/>
       <c r="G766" s="12"/>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A767" s="12"/>
       <c r="B767" s="12"/>
       <c r="C767" s="12"/>
@@ -11886,7 +11873,7 @@
       <c r="F767" s="12"/>
       <c r="G767" s="12"/>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A768" s="12"/>
       <c r="B768" s="12"/>
       <c r="C768" s="12"/>
@@ -11895,7 +11882,7 @@
       <c r="F768" s="12"/>
       <c r="G768" s="12"/>
     </row>
-    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A769" s="12"/>
       <c r="B769" s="12"/>
       <c r="C769" s="12"/>
@@ -11904,7 +11891,7 @@
       <c r="F769" s="12"/>
       <c r="G769" s="12"/>
     </row>
-    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A770" s="12"/>
       <c r="B770" s="12"/>
       <c r="C770" s="12"/>
@@ -11913,7 +11900,7 @@
       <c r="F770" s="12"/>
       <c r="G770" s="12"/>
     </row>
-    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A771" s="12"/>
       <c r="B771" s="12"/>
       <c r="C771" s="12"/>
@@ -11922,7 +11909,7 @@
       <c r="F771" s="12"/>
       <c r="G771" s="12"/>
     </row>
-    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A772" s="12"/>
       <c r="B772" s="12"/>
       <c r="C772" s="12"/>
@@ -11931,7 +11918,7 @@
       <c r="F772" s="12"/>
       <c r="G772" s="12"/>
     </row>
-    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A773" s="12"/>
       <c r="B773" s="12"/>
       <c r="C773" s="12"/>
@@ -11940,7 +11927,7 @@
       <c r="F773" s="12"/>
       <c r="G773" s="12"/>
     </row>
-    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A774" s="12"/>
       <c r="B774" s="12"/>
       <c r="C774" s="12"/>
@@ -11949,7 +11936,7 @@
       <c r="F774" s="12"/>
       <c r="G774" s="12"/>
     </row>
-    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A775" s="12"/>
       <c r="B775" s="12"/>
       <c r="C775" s="12"/>
@@ -11958,7 +11945,7 @@
       <c r="F775" s="12"/>
       <c r="G775" s="12"/>
     </row>
-    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A776" s="12"/>
       <c r="B776" s="12"/>
       <c r="C776" s="12"/>
@@ -11967,7 +11954,7 @@
       <c r="F776" s="12"/>
       <c r="G776" s="12"/>
     </row>
-    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A777" s="12"/>
       <c r="B777" s="12"/>
       <c r="C777" s="12"/>
@@ -11976,7 +11963,7 @@
       <c r="F777" s="12"/>
       <c r="G777" s="12"/>
     </row>
-    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A778" s="12"/>
       <c r="B778" s="12"/>
       <c r="C778" s="12"/>
@@ -11985,7 +11972,7 @@
       <c r="F778" s="12"/>
       <c r="G778" s="12"/>
     </row>
-    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A779" s="12"/>
       <c r="B779" s="12"/>
       <c r="C779" s="12"/>
@@ -11994,7 +11981,7 @@
       <c r="F779" s="12"/>
       <c r="G779" s="12"/>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A780" s="12"/>
       <c r="B780" s="12"/>
       <c r="C780" s="12"/>
@@ -12003,7 +11990,7 @@
       <c r="F780" s="12"/>
       <c r="G780" s="12"/>
     </row>
-    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A781" s="12"/>
       <c r="B781" s="12"/>
       <c r="C781" s="12"/>
@@ -12012,7 +11999,7 @@
       <c r="F781" s="12"/>
       <c r="G781" s="12"/>
     </row>
-    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A782" s="12"/>
       <c r="B782" s="12"/>
       <c r="C782" s="12"/>
@@ -12021,7 +12008,7 @@
       <c r="F782" s="12"/>
       <c r="G782" s="12"/>
     </row>
-    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A783" s="12"/>
       <c r="B783" s="12"/>
       <c r="C783" s="12"/>
@@ -12030,7 +12017,7 @@
       <c r="F783" s="12"/>
       <c r="G783" s="12"/>
     </row>
-    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A784" s="12"/>
       <c r="B784" s="12"/>
       <c r="C784" s="12"/>
@@ -12039,7 +12026,7 @@
       <c r="F784" s="12"/>
       <c r="G784" s="12"/>
     </row>
-    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A785" s="12"/>
       <c r="B785" s="12"/>
       <c r="C785" s="12"/>
@@ -12048,7 +12035,7 @@
       <c r="F785" s="12"/>
       <c r="G785" s="12"/>
     </row>
-    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A786" s="12"/>
       <c r="B786" s="12"/>
       <c r="C786" s="12"/>
@@ -12057,7 +12044,7 @@
       <c r="F786" s="12"/>
       <c r="G786" s="12"/>
     </row>
-    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A787" s="12"/>
       <c r="B787" s="12"/>
       <c r="C787" s="12"/>
@@ -12066,7 +12053,7 @@
       <c r="F787" s="12"/>
       <c r="G787" s="12"/>
     </row>
-    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A788" s="12"/>
       <c r="B788" s="12"/>
       <c r="C788" s="12"/>
@@ -12075,7 +12062,7 @@
       <c r="F788" s="12"/>
       <c r="G788" s="12"/>
     </row>
-    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A789" s="12"/>
       <c r="B789" s="12"/>
       <c r="C789" s="12"/>
@@ -12084,7 +12071,7 @@
       <c r="F789" s="12"/>
       <c r="G789" s="12"/>
     </row>
-    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A790" s="12"/>
       <c r="B790" s="12"/>
       <c r="C790" s="12"/>
@@ -12093,7 +12080,7 @@
       <c r="F790" s="12"/>
       <c r="G790" s="12"/>
     </row>
-    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A791" s="12"/>
       <c r="B791" s="12"/>
       <c r="C791" s="12"/>
@@ -12143,14 +12130,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>88</v>
       </c>
@@ -12158,18 +12145,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -12180,43 +12167,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -12234,29 +12215,29 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>90</v>
@@ -12276,42 +12257,42 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/My Account.xlsx
+++ b/src/test/java/com/born/xls/My Account.xlsx
@@ -15,7 +15,7 @@
     <sheet name="SortByFilter" sheetId="59" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$C$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$C$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Steps'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="316">
   <si>
     <t>TCID</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>ProductName</t>
-  </si>
-  <si>
-    <t>SearchModel_Link</t>
   </si>
   <si>
     <t>Y</t>
@@ -1578,6 +1575,12 @@
   </si>
   <si>
     <t>RandomString</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>pause</t>
   </si>
 </sst>
 </file>
@@ -2187,8 +2190,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2215,10 +2218,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2226,10 +2229,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2237,10 +2240,10 @@
         <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2251,7 +2254,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2259,10 +2262,10 @@
         <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2270,145 +2273,145 @@
         <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>81</v>
+      <c r="A8" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>284</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="24" t="s">
         <v>156</v>
       </c>
+      <c r="B11" s="30" t="s">
+        <v>264</v>
+      </c>
       <c r="C11" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>286</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>265</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
-        <v>157</v>
+      <c r="A13" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>266</v>
+      <c r="A14" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>267</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>267</v>
+        <v>91</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>191</v>
+      <c r="B17" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>186</v>
+      <c r="B18" s="31" t="s">
+        <v>194</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>164</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>269</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -2427,110 +2430,110 @@
         <v>270</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>271</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C8"/>
+  <autoFilter ref="A1:C7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2541,8 +2544,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J791"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3024,13 +3027,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>30</v>
@@ -3043,13 +3046,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>10</v>
@@ -3062,13 +3065,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>43</v>
@@ -3081,13 +3084,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>35</v>
@@ -3100,73 +3103,73 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" s="33" t="s">
         <v>150</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>151</v>
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
@@ -3303,10 +3306,10 @@
         <v>22</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>62</v>
@@ -3322,7 +3325,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>35</v>
@@ -3602,7 +3605,7 @@
         <v>27</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59" s="33" t="s">
         <v>10</v>
@@ -3640,7 +3643,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D61" s="33" t="s">
         <v>12</v>
@@ -3661,10 +3664,10 @@
         <v>24</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E62" s="33" t="s">
         <v>86</v>
@@ -3680,13 +3683,13 @@
         <v>23</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>61</v>
+        <v>315</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>314</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -3699,7 +3702,7 @@
         <v>22</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D64" s="33" t="s">
         <v>33</v>
@@ -3718,13 +3721,13 @@
         <v>21</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>110</v>
+        <v>315</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>314</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -3740,10 +3743,10 @@
         <v>79</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E66" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -3756,13 +3759,13 @@
         <v>13</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D67" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -3775,7 +3778,7 @@
         <v>14</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D68" s="33" t="s">
         <v>12</v>
@@ -3784,7 +3787,7 @@
         <v>86</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G68" s="33"/>
     </row>
@@ -3796,10 +3799,10 @@
         <v>15</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>86</v>
@@ -3815,13 +3818,13 @@
         <v>16</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>61</v>
+        <v>315</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>314</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -3834,7 +3837,7 @@
         <v>17</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D71" s="33" t="s">
         <v>33</v>
@@ -3853,13 +3856,13 @@
         <v>18</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>110</v>
+        <v>315</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>314</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -3875,10 +3878,10 @@
         <v>79</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -3888,16 +3891,16 @@
         <v>78</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D74" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -3907,7 +3910,7 @@
         <v>78</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>80</v>
@@ -3916,7 +3919,7 @@
         <v>34</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -3926,7 +3929,7 @@
         <v>78</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>39</v>
@@ -3948,8 +3951,8 @@
       <c r="G77" s="34"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
-        <v>81</v>
+      <c r="A78" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="B78" s="33" t="s">
         <v>28</v>
@@ -3967,8 +3970,8 @@
       <c r="G78" s="33"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
-        <v>81</v>
+      <c r="A79" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="B79" s="33" t="s">
         <v>27</v>
@@ -3986,707 +3989,693 @@
       <c r="G79" s="33"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="6" t="s">
-        <v>81</v>
+      <c r="A80" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="B80" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E80" s="33" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
-        <v>81</v>
+      <c r="A81" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="B81" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>87</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F81" s="33"/>
       <c r="G81" s="33"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="6" t="s">
-        <v>81</v>
+      <c r="A82" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="B82" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="E82" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>57</v>
+      </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
-        <v>81</v>
+      <c r="A83" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="B83" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>303</v>
+        <v>105</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E83" s="33" t="s">
-        <v>89</v>
+        <v>315</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>314</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="6" t="s">
-        <v>81</v>
+      <c r="A84" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="B84" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="6" t="s">
-        <v>81</v>
+      <c r="A85" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="B85" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85" s="33"/>
+        <v>315</v>
+      </c>
+      <c r="E85" s="35" t="s">
+        <v>314</v>
+      </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
+      <c r="A86" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="26" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E87" s="33"/>
-      <c r="F87" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F87" s="33"/>
       <c r="G87" s="33"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="33"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="26" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E89" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F89" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G89" s="33"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F90" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G90" s="33"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="26" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="26" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>313</v>
+        <v>34</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="26" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D94" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="26" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>130</v>
+        <v>314</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="26" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D96" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E96" s="35" t="s">
-        <v>137</v>
+      <c r="E96" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="F97" s="33" t="s">
-        <v>143</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F97" s="33"/>
       <c r="G97" s="33"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="26" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F98" s="33" t="s">
-        <v>144</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E98" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F98" s="33"/>
       <c r="G98" s="33"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="26" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="E99" s="35" t="s">
-        <v>134</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E99" s="33"/>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B100" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D100" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E100" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
+      <c r="A100" s="42"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="44"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="26" t="s">
-        <v>92</v>
+      <c r="A101" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="F101" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G101" s="33"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="26" t="s">
-        <v>92</v>
+      <c r="A102" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F102" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G102" s="33"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="26" t="s">
-        <v>92</v>
+      <c r="A103" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="35" t="s">
-        <v>131</v>
+        <v>33</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="26" t="s">
-        <v>92</v>
+      <c r="A104" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="C104" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F104" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G104" s="33"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="D106" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="E106" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D104" s="33" t="s">
+      <c r="D108" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E104" s="35"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C106" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D106" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="33"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B107" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C107" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D107" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" s="33"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B108" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C108" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D108" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E108" s="33" t="s">
-        <v>58</v>
-      </c>
+      <c r="E108" s="33"/>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B109" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C109" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D109" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E109" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="26" t="s">
-        <v>103</v>
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+    </row>
+    <row r="110" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="25" t="s">
+        <v>156</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D110" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="33"/>
+    </row>
+    <row r="111" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="33"/>
+    </row>
+    <row r="112" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A112" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D112" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E110" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D111" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E111" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B112" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C112" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D112" s="33" t="s">
-        <v>33</v>
-      </c>
       <c r="E112" s="33" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="26" t="s">
-        <v>103</v>
+    <row r="113" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A113" s="25" t="s">
+        <v>156</v>
       </c>
       <c r="B113" s="33" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C113" s="33" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E113" s="33" t="s">
-        <v>109</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E113" s="33"/>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B114" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C114" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D114" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E114" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="26" t="s">
-        <v>103</v>
+      <c r="A114" s="42"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="44"/>
+    </row>
+    <row r="115" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C115" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
+      <c r="F115" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G115" s="33"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="34"/>
-      <c r="B116" s="34"/>
-      <c r="C116" s="34"/>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="26" t="s">
-        <v>104</v>
+    <row r="116" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A116" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="33"/>
+    </row>
+    <row r="117" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C117" s="33" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>298</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E117" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="F117" s="33"/>
       <c r="G117" s="33"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="26" t="s">
-        <v>104</v>
+    <row r="118" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A118" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C118" s="33" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="D118" s="33" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="E118" s="33"/>
       <c r="F118" s="33" t="s">
@@ -4694,449 +4683,465 @@
       </c>
       <c r="G118" s="33"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="26" t="s">
-        <v>104</v>
+    <row r="119" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A119" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C119" s="33" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E119" s="33" t="s">
-        <v>58</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E119" s="33"/>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B120" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C120" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D120" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E120" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
+      <c r="A120" s="34"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="26" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C121" s="33" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E121" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F121" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G121" s="33"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="26" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C122" s="33" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E122" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F122" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G122" s="33"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C123" s="33" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E123" s="33" t="s">
-        <v>70</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E123" s="33"/>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="26" t="s">
-        <v>104</v>
+    <row r="124" spans="1:7" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="27" t="s">
+        <v>158</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C124" s="33" t="s">
-        <v>69</v>
+        <v>25</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>177</v>
       </c>
       <c r="D124" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E124" s="33" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C125" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D125" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E125" s="33" t="s">
-        <v>67</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E125" s="33"/>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B126" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D126" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E126" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="34"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="26" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
+      <c r="F127" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G127" s="33"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="42"/>
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="43"/>
-      <c r="G128" s="44"/>
-    </row>
-    <row r="129" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" s="25" t="s">
-        <v>157</v>
+      <c r="A128" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="33"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D129" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E129" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F129" s="33"/>
       <c r="G129" s="33"/>
     </row>
-    <row r="130" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A130" s="25" t="s">
-        <v>157</v>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C130" s="33" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D130" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E130" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F130" s="33"/>
       <c r="G130" s="33"/>
     </row>
-    <row r="131" spans="1:7" ht="145" x14ac:dyDescent="0.35">
-      <c r="A131" s="25" t="s">
-        <v>157</v>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C131" s="31" t="s">
-        <v>298</v>
+        <v>24</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="D131" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
     </row>
-    <row r="132" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A132" s="25" t="s">
-        <v>157</v>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E132" s="33"/>
+        <v>33</v>
+      </c>
+      <c r="E132" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="42"/>
-      <c r="B133" s="43"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="43"/>
-      <c r="F133" s="43"/>
-      <c r="G133" s="44"/>
-    </row>
-    <row r="134" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A134" s="25" t="s">
-        <v>158</v>
+      <c r="A133" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="E133" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E134" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F134" s="33"/>
       <c r="G134" s="33"/>
     </row>
-    <row r="135" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A135" s="25" t="s">
-        <v>158</v>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D135" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E135" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F135" s="33"/>
       <c r="G135" s="33"/>
     </row>
-    <row r="136" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A136" s="25" t="s">
-        <v>158</v>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C136" s="31" t="s">
-        <v>299</v>
+        <v>13</v>
+      </c>
+      <c r="C136" s="33" t="s">
+        <v>95</v>
       </c>
       <c r="D136" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E136" s="33" t="s">
-        <v>176</v>
+      <c r="E136" s="35" t="s">
+        <v>136</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
     </row>
-    <row r="137" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A137" s="25" t="s">
-        <v>158</v>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="E137" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="E137" s="35" t="s">
+        <v>135</v>
+      </c>
       <c r="F137" s="33" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="G137" s="33"/>
     </row>
-    <row r="138" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A138" s="25" t="s">
-        <v>158</v>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C138" s="33" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="E138" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>143</v>
+      </c>
       <c r="G138" s="33"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="34"/>
-      <c r="B139" s="34"/>
-      <c r="C139" s="34"/>
-      <c r="D139" s="34"/>
-      <c r="E139" s="34"/>
-      <c r="F139" s="34"/>
-      <c r="G139" s="34"/>
+      <c r="A139" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D139" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="E139" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="26" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E140" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F140" s="33"/>
       <c r="G140" s="33"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="26" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>32</v>
+        <v>305</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E141" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="F141" s="33"/>
       <c r="G141" s="33"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="26" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>177</v>
+        <v>303</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="E142" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E142" s="35" t="s">
+        <v>131</v>
+      </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
     </row>
-    <row r="143" spans="1:7" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="27" t="s">
-        <v>159</v>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C143" s="32" t="s">
-        <v>178</v>
+        <v>101</v>
+      </c>
+      <c r="C143" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="D143" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E143" s="33" t="s">
-        <v>180</v>
+      <c r="E143" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="26" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="C144" s="33" t="s">
         <v>39</v>
@@ -5144,7 +5149,7 @@
       <c r="D144" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E144" s="33"/>
+      <c r="E144" s="35"/>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
     </row>
@@ -5159,7 +5164,7 @@
     </row>
     <row r="146" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B146" s="33" t="s">
         <v>28</v>
@@ -5178,7 +5183,7 @@
     </row>
     <row r="147" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B147" s="33" t="s">
         <v>27</v>
@@ -5197,13 +5202,13 @@
     </row>
     <row r="148" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B148" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C148" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>43</v>
@@ -5216,13 +5221,13 @@
     </row>
     <row r="149" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B149" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D149" s="33" t="s">
         <v>35</v>
@@ -5235,83 +5240,83 @@
     </row>
     <row r="150" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B150" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D150" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E150" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
     </row>
     <row r="151" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B151" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D151" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E151" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="33"/>
     </row>
     <row r="152" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B152" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C152" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D152" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
     </row>
     <row r="153" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B153" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D153" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E153" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
     </row>
     <row r="154" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B154" s="33" t="s">
         <v>20</v>
@@ -5337,7 +5342,7 @@
     </row>
     <row r="156" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B156" s="33" t="s">
         <v>28</v>
@@ -5356,7 +5361,7 @@
     </row>
     <row r="157" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B157" s="33" t="s">
         <v>27</v>
@@ -5375,7 +5380,7 @@
     </row>
     <row r="158" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B158" s="33" t="s">
         <v>26</v>
@@ -5394,7 +5399,7 @@
     </row>
     <row r="159" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B159" s="33" t="s">
         <v>25</v>
@@ -5413,7 +5418,7 @@
     </row>
     <row r="160" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160" s="33" t="s">
         <v>24</v>
@@ -5432,16 +5437,16 @@
     </row>
     <row r="161" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E161" s="33" t="s">
         <v>61</v>
@@ -5451,13 +5456,13 @@
     </row>
     <row r="162" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D162" s="33" t="s">
         <v>43</v>
@@ -5470,26 +5475,26 @@
     </row>
     <row r="163" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A163" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D163" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E163" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="37"/>
     </row>
     <row r="164" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B164" s="33" t="s">
         <v>20</v>
@@ -5515,7 +5520,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B166" s="33" t="s">
         <v>28</v>
@@ -5534,7 +5539,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B167" s="33" t="s">
         <v>27</v>
@@ -5553,13 +5558,13 @@
     </row>
     <row r="168" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B168" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D168" s="33" t="s">
         <v>43</v>
@@ -5572,13 +5577,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B169" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D169" s="33" t="s">
         <v>35</v>
@@ -5591,45 +5596,45 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B170" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C170" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D170" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E170" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B171" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C171" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D171" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E171" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B172" s="33" t="s">
         <v>22</v>
@@ -5655,7 +5660,7 @@
     </row>
     <row r="174" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B174" s="33" t="s">
         <v>28</v>
@@ -5674,7 +5679,7 @@
     </row>
     <row r="175" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B175" s="33" t="s">
         <v>27</v>
@@ -5693,13 +5698,13 @@
     </row>
     <row r="176" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B176" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D176" s="33" t="s">
         <v>34</v>
@@ -5712,7 +5717,7 @@
     </row>
     <row r="177" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B177" s="33" t="s">
         <v>25</v>
@@ -5738,7 +5743,7 @@
     </row>
     <row r="179" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A179" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B179" s="33" t="s">
         <v>28</v>
@@ -5757,7 +5762,7 @@
     </row>
     <row r="180" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A180" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B180" s="33" t="s">
         <v>27</v>
@@ -5776,16 +5781,16 @@
     </row>
     <row r="181" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A181" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B181" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D181" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E181" s="33"/>
       <c r="F181" s="33"/>
@@ -5793,66 +5798,66 @@
     </row>
     <row r="182" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B182" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D182" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E182" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F182" s="33"/>
       <c r="G182" s="33"/>
     </row>
     <row r="183" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A183" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B183" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D183" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E183" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F183" s="32" t="s">
         <v>208</v>
-      </c>
-      <c r="F183" s="32" t="s">
-        <v>209</v>
       </c>
       <c r="G183" s="33"/>
     </row>
     <row r="184" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B184" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D184" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E184" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F184" s="33"/>
       <c r="G184" s="33"/>
     </row>
     <row r="185" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A185" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B185" s="33" t="s">
         <v>22</v>
@@ -5873,14 +5878,14 @@
       <c r="C186" s="34"/>
       <c r="D186" s="34"/>
       <c r="E186" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F186" s="34"/>
       <c r="G186" s="34"/>
     </row>
     <row r="187" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B187" s="33" t="s">
         <v>28</v>
@@ -5899,7 +5904,7 @@
     </row>
     <row r="188" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B188" s="33" t="s">
         <v>27</v>
@@ -5918,85 +5923,85 @@
     </row>
     <row r="189" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B189" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D189" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E189" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
     </row>
     <row r="190" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B190" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D190" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E190" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
     </row>
     <row r="191" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A191" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B191" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D191" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E191" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F191" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G191" s="33"/>
     </row>
     <row r="192" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B192" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D192" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E192" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
     </row>
     <row r="193" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B193" s="33" t="s">
         <v>22</v>
@@ -6017,14 +6022,14 @@
       <c r="C194" s="34"/>
       <c r="D194" s="34"/>
       <c r="E194" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F194" s="34"/>
       <c r="G194" s="34"/>
     </row>
     <row r="195" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B195" s="33" t="s">
         <v>28</v>
@@ -6043,7 +6048,7 @@
     </row>
     <row r="196" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B196" s="33" t="s">
         <v>27</v>
@@ -6062,45 +6067,45 @@
     </row>
     <row r="197" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A197" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B197" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C197" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D197" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E197" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F197" s="33"/>
       <c r="G197" s="33"/>
     </row>
     <row r="198" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A198" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B198" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C198" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D198" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E198" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F198" s="33"/>
       <c r="G198" s="33"/>
     </row>
     <row r="199" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B199" s="33" t="s">
         <v>24</v>
@@ -6121,14 +6126,14 @@
       <c r="C200" s="34"/>
       <c r="D200" s="34"/>
       <c r="E200" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F200" s="34"/>
       <c r="G200" s="34"/>
     </row>
     <row r="201" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B201" s="33" t="s">
         <v>28</v>
@@ -6147,7 +6152,7 @@
     </row>
     <row r="202" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B202" s="33" t="s">
         <v>27</v>
@@ -6166,254 +6171,254 @@
     </row>
     <row r="203" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B203" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D203" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E203" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F203" s="33"/>
       <c r="G203" s="33"/>
     </row>
     <row r="204" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B204" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D204" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E204" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F204" s="33"/>
       <c r="G204" s="33"/>
     </row>
     <row r="205" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B205" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D205" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E205" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F205" s="33"/>
       <c r="G205" s="33"/>
     </row>
     <row r="206" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B206" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D206" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E206" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F206" s="33"/>
       <c r="G206" s="33"/>
     </row>
     <row r="207" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B207" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D207" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E207" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="33"/>
     </row>
     <row r="208" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B208" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D208" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E208" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F208" s="33"/>
       <c r="G208" s="33"/>
     </row>
     <row r="209" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B209" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D209" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E209" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="33"/>
     </row>
     <row r="210" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B210" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D210" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E210" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="33"/>
     </row>
     <row r="211" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B211" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D211" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E211" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="33"/>
     </row>
     <row r="212" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B212" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D212" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
     </row>
     <row r="213" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B213" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D213" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E213" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
     </row>
     <row r="214" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B214" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D214" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E214" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
     </row>
     <row r="215" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B215" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D215" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E215" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
     </row>
     <row r="216" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B216" s="33" t="s">
         <v>19</v>
@@ -6434,14 +6439,14 @@
       <c r="C217" s="34"/>
       <c r="D217" s="34"/>
       <c r="E217" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F217" s="34"/>
       <c r="G217" s="34"/>
     </row>
     <row r="218" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A218" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B218" s="33" t="s">
         <v>28</v>
@@ -6460,7 +6465,7 @@
     </row>
     <row r="219" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A219" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B219" s="33" t="s">
         <v>27</v>
@@ -6479,102 +6484,102 @@
     </row>
     <row r="220" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A220" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B220" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C220" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D220" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E220" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F220" s="33"/>
       <c r="G220" s="33"/>
     </row>
     <row r="221" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A221" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B221" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D221" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E221" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F221" s="33"/>
       <c r="G221" s="33"/>
     </row>
     <row r="222" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A222" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B222" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D222" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E222" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F222" s="33"/>
       <c r="G222" s="33"/>
     </row>
     <row r="223" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A223" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B223" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D223" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E223" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F223" s="33"/>
       <c r="G223" s="33"/>
     </row>
     <row r="224" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A224" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B224" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D224" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E224" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="33"/>
     </row>
     <row r="225" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A225" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B225" s="33" t="s">
         <v>21</v>
@@ -6595,14 +6600,14 @@
       <c r="C226" s="34"/>
       <c r="D226" s="34"/>
       <c r="E226" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F226" s="34"/>
       <c r="G226" s="34"/>
     </row>
     <row r="227" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A227" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B227" s="33" t="s">
         <v>28</v>
@@ -6621,7 +6626,7 @@
     </row>
     <row r="228" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A228" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B228" s="33" t="s">
         <v>27</v>
@@ -6640,83 +6645,83 @@
     </row>
     <row r="229" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A229" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B229" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D229" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E229" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F229" s="33"/>
       <c r="G229" s="33"/>
     </row>
     <row r="230" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A230" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B230" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D230" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E230" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F230" s="33"/>
       <c r="G230" s="33"/>
     </row>
     <row r="231" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A231" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B231" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D231" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E231" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="33"/>
     </row>
     <row r="232" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A232" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B232" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D232" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E232" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F232" s="33"/>
       <c r="G232" s="33"/>
     </row>
     <row r="233" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A233" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B233" s="33" t="s">
         <v>22</v>
@@ -6737,14 +6742,14 @@
       <c r="C234" s="34"/>
       <c r="D234" s="34"/>
       <c r="E234" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F234" s="34"/>
       <c r="G234" s="34"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B235" s="33" t="s">
         <v>28</v>
@@ -6763,7 +6768,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B236" s="33" t="s">
         <v>27</v>
@@ -6782,45 +6787,45 @@
     </row>
     <row r="237" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B237" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D237" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E237" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F237" s="33"/>
       <c r="G237" s="33"/>
     </row>
     <row r="238" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A238" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B238" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D238" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E238" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F238" s="33"/>
       <c r="G238" s="33"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B239" s="33" t="s">
         <v>24</v>
@@ -6841,14 +6846,14 @@
       <c r="C240" s="34"/>
       <c r="D240" s="34"/>
       <c r="E240" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F240" s="34"/>
       <c r="G240" s="34"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B241" s="33" t="s">
         <v>28</v>
@@ -6867,7 +6872,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B242" s="33" t="s">
         <v>27</v>
@@ -6886,7 +6891,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B243" s="33" t="s">
         <v>26</v>
@@ -6905,7 +6910,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B244" s="33" t="s">
         <v>25</v>
@@ -6924,7 +6929,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B245" s="33" t="s">
         <v>24</v>
@@ -6943,7 +6948,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B246" s="33" t="s">
         <v>23</v>
@@ -6962,83 +6967,83 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B247" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C247" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D247" s="33" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E247" s="35" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="F247" s="33"/>
       <c r="G247" s="33"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B248" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C248" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E248" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F248" s="33"/>
       <c r="G248" s="33"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B249" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C249" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D249" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E249" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="33"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B250" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C250" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D250" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E250" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="33"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B251" s="33" t="s">
         <v>14</v>
@@ -7059,14 +7064,14 @@
       <c r="C252" s="34"/>
       <c r="D252" s="34"/>
       <c r="E252" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F252" s="34"/>
       <c r="G252" s="34"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B253" s="33" t="s">
         <v>28</v>
@@ -7085,7 +7090,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254" s="33" t="s">
         <v>27</v>
@@ -7104,16 +7109,16 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B255" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C255" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D255" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E255" s="33"/>
       <c r="F255" s="33"/>
@@ -7121,51 +7126,51 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C256" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D256" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E256" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="33"/>
     </row>
     <row r="257" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A257" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C257" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D257" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E257" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F257" s="33"/>
       <c r="G257" s="33"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B258" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C258" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D258" s="33" t="s">
         <v>34</v>
@@ -7178,7 +7183,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B259" s="33" t="s">
         <v>22</v>
@@ -7199,14 +7204,14 @@
       <c r="C260" s="34"/>
       <c r="D260" s="34"/>
       <c r="E260" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F260" s="34"/>
       <c r="G260" s="34"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B261" s="33" t="s">
         <v>28</v>
@@ -7225,7 +7230,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B262" s="33" t="s">
         <v>27</v>
@@ -7244,16 +7249,16 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B263" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C263" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D263" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E263" s="33"/>
       <c r="F263" s="33"/>
@@ -7261,45 +7266,45 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B264" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C264" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D264" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E264" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F264" s="33"/>
       <c r="G264" s="33"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B265" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C265" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D265" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E265" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F265" s="33"/>
       <c r="G265" s="33"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B266" s="33" t="s">
         <v>23</v>
@@ -7320,14 +7325,14 @@
       <c r="C267" s="8"/>
       <c r="D267" s="8"/>
       <c r="E267" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F267" s="8"/>
       <c r="G267" s="8"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>28</v>
@@ -7346,7 +7351,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>27</v>
@@ -7365,45 +7370,45 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B270" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D270" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E270" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F270" s="7"/>
       <c r="G270" s="7"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D271" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E271" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F271" s="7"/>
       <c r="G271" s="7"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B272" s="7" t="s">
         <v>24</v>
@@ -12092,7 +12097,7 @@
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <mergeCells count="24">
-    <mergeCell ref="A128:G128"/>
+    <mergeCell ref="A100:G100"/>
     <mergeCell ref="A486:G486"/>
     <mergeCell ref="A654:G654"/>
     <mergeCell ref="A683:G683"/>
@@ -12102,7 +12107,7 @@
     <mergeCell ref="A411:G411"/>
     <mergeCell ref="A431:G431"/>
     <mergeCell ref="A466:G466"/>
-    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A114:G114"/>
     <mergeCell ref="A275:G275"/>
     <mergeCell ref="A344:G344"/>
     <mergeCell ref="A360:G360"/>
@@ -12127,7 +12132,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12145,18 +12150,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -12181,10 +12186,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>2</v>
@@ -12192,13 +12197,13 @@
     </row>
     <row r="2" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -12212,7 +12217,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12226,7 +12231,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>2</v>
@@ -12234,13 +12239,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>113</v>
-      </c>
       <c r="C2" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -12264,35 +12269,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/My Account.xlsx
+++ b/src/test/java/com/born/xls/My Account.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
     <sheet name="Test Steps" sheetId="3" r:id="rId2"/>
-    <sheet name="Search" sheetId="56" r:id="rId3"/>
-    <sheet name="PDP-Write a Review" sheetId="57" r:id="rId4"/>
-    <sheet name="Comparing the Products" sheetId="58" r:id="rId5"/>
-    <sheet name="SortByFilter" sheetId="59" r:id="rId6"/>
+    <sheet name="Verifying the Training option" sheetId="60" r:id="rId3"/>
+    <sheet name="Search" sheetId="56" r:id="rId4"/>
+    <sheet name="PDP-Write a Review" sheetId="57" r:id="rId5"/>
+    <sheet name="Comparing the Products" sheetId="58" r:id="rId6"/>
+    <sheet name="SortByFilter" sheetId="59" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$C$22</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="326">
   <si>
     <t>TCID</t>
   </si>
@@ -670,9 +671,6 @@
     <t>Take the cursor to the For Professional menu available in the main menu of the home page.</t>
   </si>
   <si>
-    <t>Click on the Training option available in the For Professional menu.</t>
-  </si>
-  <si>
     <t>It should have the following text:  Please log in to access our eLearning Courses.</t>
   </si>
   <si>
@@ -683,9 +681,6 @@
   </si>
   <si>
     <t>ForProfessionals_Link</t>
-  </si>
-  <si>
-    <t>ForProfessionalTrainig_Link</t>
   </si>
   <si>
     <t>TrainingCourse_Text</t>
@@ -1581,6 +1576,42 @@
   </si>
   <si>
     <t>pause</t>
+  </si>
+  <si>
+    <t>Verifying the Training option</t>
+  </si>
+  <si>
+    <t>Training URL</t>
+  </si>
+  <si>
+    <t>https://www.deltafaucet.com/for-professionals/training</t>
+  </si>
+  <si>
+    <t>col|Training URL</t>
+  </si>
+  <si>
+    <t>TS020</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Write the product name in the search field</t>
+  </si>
+  <si>
+    <t>col|Product Name</t>
+  </si>
+  <si>
+    <t>Click enter button</t>
+  </si>
+  <si>
+    <t>ProductTab</t>
+  </si>
+  <si>
+    <t>Select the Product</t>
+  </si>
+  <si>
+    <t>WhereToBuyDetails_Box</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1866,8 +1897,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1877,6 +1908,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2190,8 +2224,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2218,7 +2252,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>89</v>
@@ -2229,7 +2263,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>89</v>
@@ -2240,7 +2274,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>89</v>
@@ -2262,7 +2296,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>89</v>
@@ -2273,7 +2307,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>89</v>
@@ -2284,7 +2318,7 @@
         <v>102</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>89</v>
@@ -2306,7 +2340,7 @@
         <v>144</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>89</v>
@@ -2317,7 +2351,7 @@
         <v>156</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>89</v>
@@ -2328,7 +2362,7 @@
         <v>157</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>89</v>
@@ -2339,7 +2373,7 @@
         <v>158</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>89</v>
@@ -2350,7 +2384,7 @@
         <v>159</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>89</v>
@@ -2405,7 +2439,7 @@
         <v>163</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>89</v>
@@ -2416,7 +2450,7 @@
         <v>164</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>89</v>
@@ -2427,7 +2461,7 @@
         <v>165</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>89</v>
@@ -2438,7 +2472,7 @@
         <v>81</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>89</v>
@@ -2449,7 +2483,7 @@
         <v>166</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>89</v>
@@ -2460,7 +2494,7 @@
         <v>167</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>89</v>
@@ -2471,7 +2505,7 @@
         <v>168</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>89</v>
@@ -2482,7 +2516,7 @@
         <v>169</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>89</v>
@@ -2490,10 +2524,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>89</v>
@@ -2501,10 +2535,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>89</v>
@@ -2512,10 +2546,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>89</v>
@@ -2523,10 +2557,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>89</v>
@@ -2542,10 +2576,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J791"/>
+  <dimension ref="A1:H794"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2557,8 +2591,8 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="9.1796875" style="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -3309,7 +3343,7 @@
         <v>90</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>62</v>
@@ -3627,7 +3661,7 @@
         <v>82</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E60" s="33" t="s">
         <v>86</v>
@@ -3664,13 +3698,13 @@
         <v>24</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>86</v>
+        <v>313</v>
+      </c>
+      <c r="E62" s="35" t="s">
+        <v>312</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
@@ -3683,13 +3717,13 @@
         <v>23</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>314</v>
+        <v>299</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -3702,13 +3736,13 @@
         <v>22</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>61</v>
+        <v>313</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>312</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -3721,13 +3755,13 @@
         <v>21</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="E65" s="35" t="s">
-        <v>314</v>
+        <v>33</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -3740,13 +3774,13 @@
         <v>20</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>109</v>
+        <v>313</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>312</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -3759,13 +3793,13 @@
         <v>13</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -3778,17 +3812,15 @@
         <v>14</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E68" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F68" s="33" t="s">
-        <v>113</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F68" s="33"/>
       <c r="G68" s="33"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -3799,15 +3831,17 @@
         <v>15</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="E69" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F69" s="33"/>
+      <c r="F69" s="33" t="s">
+        <v>113</v>
+      </c>
       <c r="G69" s="33"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -3818,13 +3852,13 @@
         <v>16</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="E70" s="35" t="s">
-        <v>314</v>
+        <v>299</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -3837,13 +3871,13 @@
         <v>17</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>61</v>
+        <v>313</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>312</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -3856,13 +3890,13 @@
         <v>18</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="E72" s="35" t="s">
-        <v>314</v>
+        <v>33</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -3875,13 +3909,13 @@
         <v>19</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E73" s="33" t="s">
-        <v>109</v>
+        <v>313</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>312</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -3894,13 +3928,13 @@
         <v>101</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -3913,13 +3947,13 @@
         <v>127</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -3929,62 +3963,62 @@
         <v>78</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E76" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>120</v>
+      </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
+      <c r="A77" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D78" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="33"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="26" t="s">
         <v>102</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E79" s="33"/>
       <c r="F79" s="33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G79" s="33"/>
     </row>
@@ -3993,18 +4027,18 @@
         <v>102</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D80" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F80" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G80" s="33"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -4012,16 +4046,16 @@
         <v>102</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -4031,16 +4065,16 @@
         <v>102</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -4050,16 +4084,16 @@
         <v>102</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="E83" s="35" t="s">
-        <v>314</v>
+        <v>34</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>57</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -4069,16 +4103,16 @@
         <v>102</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E84" s="33" t="s">
-        <v>61</v>
+        <v>313</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>312</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -4088,16 +4122,16 @@
         <v>102</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>314</v>
+        <v>33</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -4107,16 +4141,16 @@
         <v>102</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="33" t="s">
-        <v>108</v>
+        <v>313</v>
+      </c>
+      <c r="E86" s="35" t="s">
+        <v>312</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -4126,62 +4160,62 @@
         <v>102</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E87" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>108</v>
+      </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="34"/>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
+      <c r="A88" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D89" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="33"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
         <v>103</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E90" s="33"/>
       <c r="F90" s="33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G90" s="33"/>
     </row>
@@ -4190,18 +4224,18 @@
         <v>103</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E91" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F91" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G91" s="33"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -4209,16 +4243,16 @@
         <v>103</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E92" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -4228,16 +4262,16 @@
         <v>103</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E93" s="33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -4247,16 +4281,16 @@
         <v>103</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -4266,16 +4300,16 @@
         <v>103</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="E95" s="35" t="s">
-        <v>314</v>
+        <v>33</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -4285,16 +4319,16 @@
         <v>103</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" s="33" t="s">
-        <v>70</v>
+        <v>313</v>
+      </c>
+      <c r="E96" s="35" t="s">
+        <v>312</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -4304,16 +4338,16 @@
         <v>103</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D97" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -4323,16 +4357,16 @@
         <v>103</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E98" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -4342,62 +4376,62 @@
         <v>103</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E99" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>68</v>
+      </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="42"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="44"/>
+      <c r="A100" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B101" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C101" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D101" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="33"/>
+      <c r="A101" s="42"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="44"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E102" s="33"/>
       <c r="F102" s="33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G102" s="33"/>
     </row>
@@ -4406,18 +4440,18 @@
         <v>81</v>
       </c>
       <c r="B103" s="33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F103" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G103" s="33"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -4425,20 +4459,18 @@
         <v>81</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E104" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F104" s="33" t="s">
-        <v>87</v>
-      </c>
+      <c r="F104" s="33"/>
       <c r="G104" s="33"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -4446,18 +4478,20 @@
         <v>81</v>
       </c>
       <c r="B105" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="E105" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F105" s="33"/>
+      <c r="F105" s="33" t="s">
+        <v>87</v>
+      </c>
       <c r="G105" s="33"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -4468,13 +4502,13 @@
         <v>23</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -4484,16 +4518,16 @@
         <v>81</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="E107" s="33" t="s">
-        <v>193</v>
+        <v>86</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -4503,82 +4537,82 @@
         <v>81</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C108" s="33" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E108" s="33"/>
+        <v>313</v>
+      </c>
+      <c r="E108" s="35" t="s">
+        <v>312</v>
+      </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="34"/>
-      <c r="B109" s="34"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-      <c r="G109" s="34"/>
-    </row>
-    <row r="110" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A110" s="25" t="s">
-        <v>156</v>
+      <c r="A109" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B109" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D109" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E110" s="33"/>
-      <c r="F110" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F110" s="33"/>
       <c r="G110" s="33"/>
     </row>
-    <row r="111" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A111" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C111" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D111" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" s="33"/>
-    </row>
-    <row r="112" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="34"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+    </row>
+    <row r="112" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="25" t="s">
         <v>156</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C112" s="31" t="s">
-        <v>297</v>
+        <v>28</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E112" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="F112" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G112" s="33"/>
     </row>
     <row r="113" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4586,82 +4620,82 @@
         <v>156</v>
       </c>
       <c r="B113" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C113" s="33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
+      <c r="F113" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G113" s="33"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="42"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="44"/>
+    <row r="114" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A114" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
     </row>
     <row r="115" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C115" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E115" s="33"/>
-      <c r="F115" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F115" s="33"/>
       <c r="G115" s="33"/>
     </row>
-    <row r="116" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B116" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C116" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D116" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" s="33"/>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="42"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="44"/>
     </row>
     <row r="117" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="25" t="s">
         <v>157</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C117" s="31" t="s">
-        <v>298</v>
+        <v>28</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E117" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F117" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G117" s="33"/>
     </row>
     <row r="118" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -4669,13 +4703,13 @@
         <v>157</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C118" s="33" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="D118" s="33" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="E118" s="33"/>
       <c r="F118" s="33" t="s">
@@ -4688,99 +4722,101 @@
         <v>157</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119" s="33" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>296</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E119" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E119" s="33" t="s">
+        <v>175</v>
+      </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="34"/>
-      <c r="B120" s="34"/>
-      <c r="C120" s="34"/>
-      <c r="D120" s="34"/>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
-      <c r="G120" s="34"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="26" t="s">
-        <v>158</v>
+    <row r="120" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A120" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G120" s="33"/>
+    </row>
+    <row r="121" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A121" s="25" t="s">
+        <v>157</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C121" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E121" s="33"/>
-      <c r="F121" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F121" s="33"/>
       <c r="G121" s="33"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B122" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C122" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D122" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" s="33"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
         <v>158</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C123" s="33" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
+      <c r="F123" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G123" s="33"/>
     </row>
-    <row r="124" spans="1:7" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="27" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="26" t="s">
         <v>158</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>177</v>
+        <v>27</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D124" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E124" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="F124" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G124" s="33"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -4788,82 +4824,80 @@
         <v>158</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C125" s="33" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="D125" s="33" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="E125" s="33"/>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="34"/>
-      <c r="B126" s="34"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="34"/>
-      <c r="F126" s="34"/>
-      <c r="G126" s="34"/>
+    <row r="126" spans="1:7" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B126" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="26" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E127" s="33"/>
-      <c r="F127" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F127" s="33"/>
       <c r="G127" s="33"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B128" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C128" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D128" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" s="33"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D129" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F129" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G129" s="33"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -4871,18 +4905,18 @@
         <v>91</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C130" s="33" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="D130" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E130" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F130" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G130" s="33"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -4890,18 +4924,20 @@
         <v>91</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>56</v>
+        <v>320</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E131" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F131" s="33"/>
+        <v>86</v>
+      </c>
+      <c r="F131" s="33" t="s">
+        <v>321</v>
+      </c>
       <c r="G131" s="33"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
@@ -4909,16 +4945,16 @@
         <v>91</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E132" s="33" t="s">
-        <v>61</v>
+        <v>313</v>
+      </c>
+      <c r="E132" s="35" t="s">
+        <v>312</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -4928,16 +4964,16 @@
         <v>91</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>90</v>
+        <v>322</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="E133" s="35" t="s">
-        <v>314</v>
+        <v>299</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -4947,16 +4983,16 @@
         <v>91</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E134" s="33" t="s">
-        <v>128</v>
+        <v>310</v>
+      </c>
+      <c r="E134" s="35" t="s">
+        <v>323</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -4966,16 +5002,16 @@
         <v>91</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>94</v>
+        <v>324</v>
       </c>
       <c r="D135" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E135" s="35" t="s">
-        <v>129</v>
+        <v>33</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
@@ -4985,16 +5021,16 @@
         <v>91</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D136" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E136" s="35" t="s">
-        <v>136</v>
+        <v>310</v>
+      </c>
+      <c r="E136" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
@@ -5004,20 +5040,18 @@
         <v>91</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F137" s="33" t="s">
-        <v>142</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E137" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F137" s="33"/>
       <c r="G137" s="33"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -5025,20 +5059,18 @@
         <v>91</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C138" s="33" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="E138" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="F138" s="33" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F138" s="33"/>
       <c r="G138" s="33"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -5046,16 +5078,16 @@
         <v>91</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>313</v>
+        <v>35</v>
       </c>
       <c r="E139" s="35" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
@@ -5065,16 +5097,16 @@
         <v>91</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="E140" s="35" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -5084,18 +5116,20 @@
         <v>91</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>305</v>
+        <v>96</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E141" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="F141" s="33"/>
+        <v>135</v>
+      </c>
+      <c r="F141" s="33" t="s">
+        <v>142</v>
+      </c>
       <c r="G141" s="33"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -5103,18 +5137,20 @@
         <v>91</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>303</v>
+        <v>97</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F142" s="33"/>
+        <v>134</v>
+      </c>
+      <c r="F142" s="33" t="s">
+        <v>143</v>
+      </c>
       <c r="G142" s="33"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
@@ -5122,16 +5158,16 @@
         <v>91</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>34</v>
+        <v>311</v>
       </c>
       <c r="E143" s="35" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
@@ -5141,120 +5177,120 @@
         <v>91</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E144" s="35"/>
+        <v>139</v>
+      </c>
+      <c r="E144" s="35" t="s">
+        <v>132</v>
+      </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="34"/>
-      <c r="B145" s="34"/>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="34"/>
-      <c r="F145" s="34"/>
-      <c r="G145" s="34"/>
-    </row>
-    <row r="146" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A146" s="25" t="s">
-        <v>159</v>
+      <c r="A145" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="D145" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E145" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E146" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F146" s="33"/>
       <c r="G146" s="33"/>
     </row>
-    <row r="147" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A147" s="25" t="s">
-        <v>159</v>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>27</v>
+        <v>298</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E147" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F147" s="33"/>
       <c r="G147" s="33"/>
     </row>
-    <row r="148" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A148" s="25" t="s">
-        <v>159</v>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C148" s="31" t="s">
-        <v>296</v>
+        <v>318</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E148" s="33" t="s">
-        <v>37</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E148" s="35"/>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
     </row>
-    <row r="149" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A149" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B149" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C149" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="D149" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="34"/>
+      <c r="B149" s="34"/>
+      <c r="C149" s="34"/>
+      <c r="D149" s="34"/>
+      <c r="E149" s="34"/>
+      <c r="F149" s="34"/>
+      <c r="G149" s="34"/>
     </row>
     <row r="150" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="25" t="s">
         <v>159</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E150" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F150" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G150" s="33"/>
     </row>
     <row r="151" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -5262,18 +5298,18 @@
         <v>159</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C151" s="33" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="D151" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E151" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="F151" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G151" s="33"/>
     </row>
     <row r="152" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -5281,16 +5317,16 @@
         <v>159</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>181</v>
+        <v>26</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>294</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E152" s="33" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
@@ -5300,16 +5336,16 @@
         <v>159</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E153" s="35" t="s">
-        <v>183</v>
+        <v>35</v>
+      </c>
+      <c r="E153" s="33" t="s">
+        <v>42</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
@@ -5319,120 +5355,120 @@
         <v>159</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C154" s="33" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E154" s="35"/>
+        <v>35</v>
+      </c>
+      <c r="E154" s="35" t="s">
+        <v>183</v>
+      </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" s="34"/>
-      <c r="B155" s="34"/>
-      <c r="C155" s="34"/>
-      <c r="D155" s="34"/>
-      <c r="E155" s="36"/>
-      <c r="F155" s="34"/>
-      <c r="G155" s="34"/>
+    <row r="155" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D155" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E155" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F155" s="33"/>
+      <c r="G155" s="33"/>
     </row>
     <row r="156" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G156" s="37"/>
+        <v>35</v>
+      </c>
+      <c r="E156" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F156" s="33"/>
+      <c r="G156" s="33"/>
     </row>
     <row r="157" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" s="37"/>
+        <v>34</v>
+      </c>
+      <c r="E157" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
     </row>
     <row r="158" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E158" s="33" t="s">
-        <v>58</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E158" s="35"/>
       <c r="F158" s="33"/>
-      <c r="G158" s="37"/>
-    </row>
-    <row r="159" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A159" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B159" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C159" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D159" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E159" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F159" s="33"/>
-      <c r="G159" s="37"/>
+      <c r="G158" s="33"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="34"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="34"/>
+      <c r="E159" s="36"/>
+      <c r="F159" s="34"/>
+      <c r="G159" s="34"/>
     </row>
     <row r="160" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E160" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F160" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E160" s="33"/>
+      <c r="F160" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G160" s="37"/>
     </row>
     <row r="161" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -5440,18 +5476,18 @@
         <v>160</v>
       </c>
       <c r="B161" s="33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="E161" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F161" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G161" s="37"/>
     </row>
     <row r="162" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -5459,35 +5495,35 @@
         <v>160</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="D162" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E162" s="33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="37"/>
     </row>
-    <row r="163" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C163" s="32" t="s">
-        <v>192</v>
+        <v>25</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>55</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E163" s="35" t="s">
-        <v>193</v>
+        <v>35</v>
+      </c>
+      <c r="E163" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="37"/>
@@ -5497,120 +5533,120 @@
         <v>160</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E164" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E164" s="33" t="s">
+        <v>57</v>
+      </c>
       <c r="F164" s="33"/>
       <c r="G164" s="37"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="34"/>
-      <c r="B165" s="34"/>
-      <c r="C165" s="34"/>
-      <c r="D165" s="34"/>
-      <c r="E165" s="34"/>
-      <c r="F165" s="34"/>
-      <c r="G165" s="34"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="26" t="s">
-        <v>161</v>
+    <row r="165" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A165" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B165" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D165" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="E165" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F165" s="33"/>
+      <c r="G165" s="37"/>
+    </row>
+    <row r="166" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A166" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C166" s="33" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E166" s="33"/>
-      <c r="F166" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G166" s="33"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="26" t="s">
-        <v>161</v>
+        <v>43</v>
+      </c>
+      <c r="E166" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F166" s="33"/>
+      <c r="G166" s="37"/>
+    </row>
+    <row r="167" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A167" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C167" s="33" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C167" s="32" t="s">
+        <v>192</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E167" s="33"/>
-      <c r="F167" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E167" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="F167" s="33"/>
+      <c r="G167" s="37"/>
     </row>
     <row r="168" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A168" s="26" t="s">
-        <v>161</v>
+      <c r="A168" s="25" t="s">
+        <v>160</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C168" s="31" t="s">
-        <v>296</v>
+        <v>20</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D168" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E168" s="33" t="s">
-        <v>37</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E168" s="33"/>
       <c r="F168" s="33"/>
-      <c r="G168" s="33"/>
+      <c r="G168" s="37"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B169" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C169" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="D169" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E169" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F169" s="33"/>
-      <c r="G169" s="33"/>
+      <c r="A169" s="34"/>
+      <c r="B169" s="34"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="34"/>
+      <c r="G169" s="34"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="26" t="s">
         <v>161</v>
       </c>
       <c r="B170" s="33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C170" s="33" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E170" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="F170" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G170" s="33"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
@@ -5618,221 +5654,221 @@
         <v>161</v>
       </c>
       <c r="B171" s="33" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C171" s="33" t="s">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="D171" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E171" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="F171" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E171" s="33"/>
+      <c r="F171" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G171" s="33"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="26" t="s">
         <v>161</v>
       </c>
       <c r="B172" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C172" s="33" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="C172" s="31" t="s">
+        <v>294</v>
       </c>
       <c r="D172" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E172" s="35"/>
+        <v>43</v>
+      </c>
+      <c r="E172" s="33" t="s">
+        <v>37</v>
+      </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="34"/>
-      <c r="B173" s="34"/>
-      <c r="C173" s="34"/>
-      <c r="D173" s="34"/>
-      <c r="E173" s="36"/>
-      <c r="F173" s="34"/>
-      <c r="G173" s="34"/>
-    </row>
-    <row r="174" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A174" s="25" t="s">
-        <v>162</v>
+      <c r="A173" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B173" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D173" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E173" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F173" s="33"/>
+      <c r="G173" s="33"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C174" s="33" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="D174" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E174" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F174" s="33"/>
       <c r="G174" s="33"/>
     </row>
-    <row r="175" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A175" s="25" t="s">
-        <v>162</v>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="D175" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E175" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="F175" s="33"/>
       <c r="G175" s="33"/>
     </row>
-    <row r="176" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A176" s="25" t="s">
-        <v>162</v>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="B176" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C176" s="32" t="s">
-        <v>195</v>
+        <v>22</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D176" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E176" s="33" t="s">
-        <v>86</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E176" s="35"/>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
     </row>
-    <row r="177" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A177" s="25" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" s="34"/>
+      <c r="B177" s="34"/>
+      <c r="C177" s="34"/>
+      <c r="D177" s="34"/>
+      <c r="E177" s="36"/>
+      <c r="F177" s="34"/>
+      <c r="G177" s="34"/>
+    </row>
+    <row r="178" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A178" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B177" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C177" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D177" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E177" s="35"/>
-      <c r="F177" s="33"/>
-      <c r="G177" s="33"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="34"/>
-      <c r="B178" s="34"/>
-      <c r="C178" s="34"/>
-      <c r="D178" s="34"/>
-      <c r="E178" s="36"/>
-      <c r="F178" s="34"/>
-      <c r="G178" s="34"/>
-    </row>
-    <row r="179" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B178" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C178" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D178" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E178" s="33"/>
+      <c r="F178" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" s="33"/>
+    </row>
+    <row r="179" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B179" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D179" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E179" s="33"/>
       <c r="F179" s="33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G179" s="33"/>
     </row>
-    <row r="180" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B180" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C180" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C180" s="32" t="s">
+        <v>195</v>
       </c>
       <c r="D180" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E180" s="33"/>
-      <c r="F180" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E180" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F180" s="33"/>
       <c r="G180" s="33"/>
     </row>
-    <row r="181" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B181" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C181" s="31" t="s">
-        <v>299</v>
+        <v>25</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D181" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E181" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="E181" s="35"/>
       <c r="F181" s="33"/>
       <c r="G181" s="33"/>
     </row>
-    <row r="182" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B182" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C182" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="D182" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E182" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="F182" s="33"/>
-      <c r="G182" s="33"/>
-    </row>
-    <row r="183" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" s="34"/>
+      <c r="B182" s="34"/>
+      <c r="C182" s="34"/>
+      <c r="D182" s="34"/>
+      <c r="E182" s="36"/>
+      <c r="F182" s="34"/>
+      <c r="G182" s="34"/>
+    </row>
+    <row r="183" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A183" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B183" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C183" s="32" t="s">
-        <v>199</v>
+        <v>28</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D183" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E183" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="F183" s="32" t="s">
-        <v>208</v>
+        <v>30</v>
+      </c>
+      <c r="E183" s="33"/>
+      <c r="F183" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="G183" s="33"/>
     </row>
@@ -5841,18 +5877,18 @@
         <v>163</v>
       </c>
       <c r="B184" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C184" s="32" t="s">
-        <v>209</v>
+        <v>27</v>
+      </c>
+      <c r="C184" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D184" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E184" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="F184" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E184" s="33"/>
+      <c r="F184" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G184" s="33"/>
     </row>
     <row r="185" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -5860,247 +5896,247 @@
         <v>163</v>
       </c>
       <c r="B185" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C185" s="33" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="C185" s="31" t="s">
+        <v>297</v>
       </c>
       <c r="D185" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E185" s="32"/>
+        <v>178</v>
+      </c>
+      <c r="E185" s="33"/>
       <c r="F185" s="33"/>
       <c r="G185" s="33"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="34"/>
-      <c r="B186" s="34"/>
-      <c r="C186" s="34"/>
-      <c r="D186" s="34"/>
-      <c r="E186" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F186" s="34"/>
-      <c r="G186" s="34"/>
-    </row>
-    <row r="187" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A186" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B186" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C186" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D186" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E186" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="F186" s="33"/>
+      <c r="G186" s="33"/>
+    </row>
+    <row r="187" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A187" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B187" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C187" s="33" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="C187" s="32" t="s">
+        <v>199</v>
       </c>
       <c r="D187" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E187" s="32"/>
-      <c r="F187" s="33" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="E187" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F187" s="32" t="s">
+        <v>208</v>
       </c>
       <c r="G187" s="33"/>
     </row>
-    <row r="188" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A188" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B188" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C188" s="33" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="C188" s="32" t="s">
+        <v>209</v>
       </c>
       <c r="D188" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E188" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F188" s="33"/>
       <c r="G188" s="33"/>
     </row>
-    <row r="189" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A189" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B189" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C189" s="32" t="s">
-        <v>211</v>
+        <v>22</v>
+      </c>
+      <c r="C189" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D189" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E189" s="33" t="s">
-        <v>216</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E189" s="32"/>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
     </row>
-    <row r="190" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A190" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B190" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C190" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D190" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E190" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="F190" s="33"/>
-      <c r="G190" s="33"/>
-    </row>
-    <row r="191" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" s="34"/>
+      <c r="B190" s="34"/>
+      <c r="C190" s="34"/>
+      <c r="D190" s="34"/>
+      <c r="E190" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F190" s="34"/>
+      <c r="G190" s="34"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="25" t="s">
-        <v>164</v>
+        <v>314</v>
       </c>
       <c r="B191" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C191" s="32" t="s">
-        <v>213</v>
+        <v>28</v>
+      </c>
+      <c r="C191" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D191" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E191" s="35" t="s">
-        <v>218</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E191" s="32"/>
       <c r="F191" s="33" t="s">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="G191" s="33"/>
     </row>
-    <row r="192" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="25" t="s">
-        <v>164</v>
+        <v>314</v>
       </c>
       <c r="B192" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C192" s="32" t="s">
-        <v>214</v>
+        <v>27</v>
+      </c>
+      <c r="C192" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D192" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E192" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="F192" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E192" s="33"/>
+      <c r="F192" s="33" t="s">
+        <v>317</v>
+      </c>
       <c r="G192" s="33"/>
     </row>
     <row r="193" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="25" t="s">
-        <v>164</v>
+        <v>314</v>
       </c>
       <c r="B193" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C193" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C193" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D193" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E193" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F193" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="G193" s="33"/>
+    </row>
+    <row r="194" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B194" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C194" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D194" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E194" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="F194" s="33"/>
+      <c r="G194" s="33"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B195" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D193" s="33" t="s">
+      <c r="D195" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E193" s="33"/>
-      <c r="F193" s="33"/>
-      <c r="G193" s="33"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" s="34"/>
-      <c r="B194" s="34"/>
-      <c r="C194" s="34"/>
-      <c r="D194" s="34"/>
-      <c r="E194" s="38" t="s">
+      <c r="E195" s="33"/>
+      <c r="F195" s="33"/>
+      <c r="G195" s="33"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" s="34"/>
+      <c r="B196" s="34"/>
+      <c r="C196" s="34"/>
+      <c r="D196" s="34"/>
+      <c r="E196" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="F194" s="34"/>
-      <c r="G194" s="34"/>
-    </row>
-    <row r="195" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B195" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C195" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D195" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E195" s="32"/>
-      <c r="F195" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G195" s="33"/>
-    </row>
-    <row r="196" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B196" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C196" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D196" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E196" s="33"/>
-      <c r="F196" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G196" s="33"/>
-    </row>
-    <row r="197" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="F196" s="34"/>
+      <c r="G196" s="34"/>
+    </row>
+    <row r="197" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="25" t="s">
         <v>165</v>
       </c>
       <c r="B197" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C197" s="32" t="s">
-        <v>211</v>
+        <v>28</v>
+      </c>
+      <c r="C197" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D197" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E197" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="F197" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E197" s="32"/>
+      <c r="F197" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G197" s="33"/>
     </row>
-    <row r="198" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="25" t="s">
         <v>165</v>
       </c>
       <c r="B198" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C198" s="32" t="s">
-        <v>215</v>
+        <v>27</v>
+      </c>
+      <c r="C198" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D198" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E198" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="F198" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E198" s="33"/>
+      <c r="F198" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G198" s="33"/>
     </row>
     <row r="199" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -6108,84 +6144,84 @@
         <v>165</v>
       </c>
       <c r="B199" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C199" s="33" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="C199" s="32" t="s">
+        <v>211</v>
       </c>
       <c r="D199" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E199" s="35"/>
+        <v>43</v>
+      </c>
+      <c r="E199" s="33" t="s">
+        <v>215</v>
+      </c>
       <c r="F199" s="33"/>
       <c r="G199" s="33"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" s="34"/>
-      <c r="B200" s="34"/>
-      <c r="C200" s="34"/>
-      <c r="D200" s="34"/>
-      <c r="E200" s="38" t="s">
+    <row r="200" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B200" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D200" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E200" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="F200" s="33"/>
+      <c r="G200" s="33"/>
+    </row>
+    <row r="201" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A201" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B201" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D201" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E201" s="35"/>
+      <c r="F201" s="33"/>
+      <c r="G201" s="33"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" s="34"/>
+      <c r="B202" s="34"/>
+      <c r="C202" s="34"/>
+      <c r="D202" s="34"/>
+      <c r="E202" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="F200" s="34"/>
-      <c r="G200" s="34"/>
-    </row>
-    <row r="201" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A201" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B201" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C201" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D201" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E201" s="32"/>
-      <c r="F201" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G201" s="33"/>
-    </row>
-    <row r="202" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A202" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B202" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C202" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D202" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G202" s="33"/>
+      <c r="F202" s="34"/>
+      <c r="G202" s="34"/>
     </row>
     <row r="203" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="25" t="s">
         <v>166</v>
       </c>
       <c r="B203" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C203" s="32" t="s">
-        <v>211</v>
+        <v>28</v>
+      </c>
+      <c r="C203" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D203" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E203" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="F203" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E203" s="32"/>
+      <c r="F203" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G203" s="33"/>
     </row>
     <row r="204" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -6193,18 +6229,18 @@
         <v>166</v>
       </c>
       <c r="B204" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C204" s="32" t="s">
-        <v>222</v>
+        <v>27</v>
+      </c>
+      <c r="C204" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D204" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E204" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="F204" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E204" s="33"/>
+      <c r="F204" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G204" s="33"/>
     </row>
     <row r="205" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -6212,16 +6248,16 @@
         <v>166</v>
       </c>
       <c r="B205" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D205" s="33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E205" s="33" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="F205" s="33"/>
       <c r="G205" s="33"/>
@@ -6231,16 +6267,16 @@
         <v>166</v>
       </c>
       <c r="B206" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D206" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E206" s="33" t="s">
-        <v>232</v>
+      <c r="E206" s="35" t="s">
+        <v>218</v>
       </c>
       <c r="F206" s="33"/>
       <c r="G206" s="33"/>
@@ -6250,16 +6286,16 @@
         <v>166</v>
       </c>
       <c r="B207" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D207" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E207" s="33" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="33"/>
@@ -6269,16 +6305,16 @@
         <v>166</v>
       </c>
       <c r="B208" s="33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D208" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E208" s="33" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F208" s="33"/>
       <c r="G208" s="33"/>
@@ -6288,16 +6324,16 @@
         <v>166</v>
       </c>
       <c r="B209" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D209" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E209" s="33" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="33"/>
@@ -6307,16 +6343,16 @@
         <v>166</v>
       </c>
       <c r="B210" s="33" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D210" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E210" s="33" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="33"/>
@@ -6326,16 +6362,16 @@
         <v>166</v>
       </c>
       <c r="B211" s="33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D211" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E211" s="33" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="33"/>
@@ -6345,16 +6381,16 @@
         <v>166</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D212" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
@@ -6364,16 +6400,16 @@
         <v>166</v>
       </c>
       <c r="B213" s="33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D213" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E213" s="33" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
@@ -6383,16 +6419,16 @@
         <v>166</v>
       </c>
       <c r="B214" s="33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D214" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E214" s="33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
@@ -6402,16 +6438,16 @@
         <v>166</v>
       </c>
       <c r="B215" s="33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="D215" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E215" s="33" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
@@ -6421,84 +6457,84 @@
         <v>166</v>
       </c>
       <c r="B216" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C216" s="33" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="C216" s="32" t="s">
+        <v>227</v>
       </c>
       <c r="D216" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E216" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E216" s="33" t="s">
+        <v>233</v>
+      </c>
       <c r="F216" s="33"/>
       <c r="G216" s="33"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A217" s="34"/>
-      <c r="B217" s="34"/>
-      <c r="C217" s="34"/>
-      <c r="D217" s="34"/>
-      <c r="E217" s="38" t="s">
+    <row r="217" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A217" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B217" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C217" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D217" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E217" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F217" s="33"/>
+      <c r="G217" s="33"/>
+    </row>
+    <row r="218" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A218" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B218" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C218" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D218" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E218" s="33"/>
+      <c r="F218" s="33"/>
+      <c r="G218" s="33"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" s="34"/>
+      <c r="B219" s="34"/>
+      <c r="C219" s="34"/>
+      <c r="D219" s="34"/>
+      <c r="E219" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="F217" s="34"/>
-      <c r="G217" s="34"/>
-    </row>
-    <row r="218" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A218" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B218" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C218" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D218" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E218" s="32"/>
-      <c r="F218" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G218" s="33"/>
-    </row>
-    <row r="219" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A219" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B219" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C219" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D219" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E219" s="33"/>
-      <c r="F219" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G219" s="33"/>
+      <c r="F219" s="34"/>
+      <c r="G219" s="34"/>
     </row>
     <row r="220" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A220" s="25" t="s">
         <v>167</v>
       </c>
       <c r="B220" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C220" s="32" t="s">
-        <v>211</v>
+        <v>28</v>
+      </c>
+      <c r="C220" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D220" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E220" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="F220" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E220" s="32"/>
+      <c r="F220" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G220" s="33"/>
     </row>
     <row r="221" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -6506,18 +6542,18 @@
         <v>167</v>
       </c>
       <c r="B221" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C221" s="32" t="s">
-        <v>222</v>
+        <v>27</v>
+      </c>
+      <c r="C221" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D221" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E221" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="F221" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E221" s="33"/>
+      <c r="F221" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G221" s="33"/>
     </row>
     <row r="222" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -6525,16 +6561,16 @@
         <v>167</v>
       </c>
       <c r="B222" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="D222" s="33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E222" s="33" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="F222" s="33"/>
       <c r="G222" s="33"/>
@@ -6544,16 +6580,16 @@
         <v>167</v>
       </c>
       <c r="B223" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="D223" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E223" s="33" t="s">
-        <v>244</v>
+      <c r="E223" s="35" t="s">
+        <v>218</v>
       </c>
       <c r="F223" s="33"/>
       <c r="G223" s="33"/>
@@ -6563,16 +6599,16 @@
         <v>167</v>
       </c>
       <c r="B224" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D224" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E224" s="33" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="33"/>
@@ -6582,84 +6618,84 @@
         <v>167</v>
       </c>
       <c r="B225" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C225" s="33" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="C225" s="32" t="s">
+        <v>238</v>
       </c>
       <c r="D225" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E225" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E225" s="33" t="s">
+        <v>242</v>
+      </c>
       <c r="F225" s="33"/>
       <c r="G225" s="33"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A226" s="34"/>
-      <c r="B226" s="34"/>
-      <c r="C226" s="34"/>
-      <c r="D226" s="34"/>
-      <c r="E226" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F226" s="34"/>
-      <c r="G226" s="34"/>
+    <row r="226" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A226" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B226" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C226" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D226" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E226" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F226" s="33"/>
+      <c r="G226" s="33"/>
     </row>
     <row r="227" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A227" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B227" s="33" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C227" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D227" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E227" s="32"/>
-      <c r="F227" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E227" s="33"/>
+      <c r="F227" s="33"/>
       <c r="G227" s="33"/>
     </row>
-    <row r="228" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A228" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B228" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C228" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D228" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E228" s="33"/>
-      <c r="F228" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G228" s="33"/>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" s="34"/>
+      <c r="B228" s="34"/>
+      <c r="C228" s="34"/>
+      <c r="D228" s="34"/>
+      <c r="E228" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F228" s="34"/>
+      <c r="G228" s="34"/>
     </row>
     <row r="229" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A229" s="25" t="s">
         <v>168</v>
       </c>
       <c r="B229" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C229" s="32" t="s">
-        <v>211</v>
+        <v>28</v>
+      </c>
+      <c r="C229" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D229" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E229" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="F229" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E229" s="32"/>
+      <c r="F229" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G229" s="33"/>
     </row>
     <row r="230" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -6667,18 +6703,18 @@
         <v>168</v>
       </c>
       <c r="B230" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C230" s="32" t="s">
-        <v>245</v>
+        <v>27</v>
+      </c>
+      <c r="C230" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D230" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E230" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="F230" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E230" s="33"/>
+      <c r="F230" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G230" s="33"/>
     </row>
     <row r="231" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -6686,35 +6722,35 @@
         <v>168</v>
       </c>
       <c r="B231" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="D231" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E231" s="33" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="33"/>
     </row>
-    <row r="232" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A232" s="25" t="s">
         <v>168</v>
       </c>
       <c r="B232" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C232" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="D232" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E232" s="35" t="s">
         <v>246</v>
-      </c>
-      <c r="D232" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E232" s="33" t="s">
-        <v>250</v>
       </c>
       <c r="F232" s="33"/>
       <c r="G232" s="33"/>
@@ -6724,738 +6760,768 @@
         <v>168</v>
       </c>
       <c r="B233" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C233" s="33" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="C233" s="32" t="s">
+        <v>245</v>
       </c>
       <c r="D233" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E233" s="35"/>
+        <v>34</v>
+      </c>
+      <c r="E233" s="33" t="s">
+        <v>247</v>
+      </c>
       <c r="F233" s="33"/>
       <c r="G233" s="33"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A234" s="34"/>
-      <c r="B234" s="34"/>
-      <c r="C234" s="34"/>
-      <c r="D234" s="34"/>
-      <c r="E234" s="38" t="s">
+    <row r="234" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A234" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B234" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C234" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="D234" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E234" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F234" s="33"/>
+      <c r="G234" s="33"/>
+    </row>
+    <row r="235" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A235" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B235" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D235" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E235" s="35"/>
+      <c r="F235" s="33"/>
+      <c r="G235" s="33"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" s="34"/>
+      <c r="B236" s="34"/>
+      <c r="C236" s="34"/>
+      <c r="D236" s="34"/>
+      <c r="E236" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="F234" s="34"/>
-      <c r="G234" s="34"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A235" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B235" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C235" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D235" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E235" s="32"/>
-      <c r="F235" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G235" s="33"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A236" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B236" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C236" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D236" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E236" s="33"/>
-      <c r="F236" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G236" s="33"/>
-    </row>
-    <row r="237" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="F236" s="34"/>
+      <c r="G236" s="34"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="25" t="s">
         <v>169</v>
       </c>
       <c r="B237" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C237" s="32" t="s">
-        <v>251</v>
+        <v>28</v>
+      </c>
+      <c r="C237" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D237" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E237" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="F237" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E237" s="32"/>
+      <c r="F237" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G237" s="33"/>
     </row>
-    <row r="238" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="25" t="s">
         <v>169</v>
       </c>
       <c r="B238" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C238" s="32" t="s">
-        <v>256</v>
+        <v>27</v>
+      </c>
+      <c r="C238" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D238" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E238" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="F238" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E238" s="33"/>
+      <c r="F238" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G238" s="33"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="25" t="s">
         <v>169</v>
       </c>
       <c r="B239" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C239" s="33" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="C239" s="32" t="s">
+        <v>249</v>
       </c>
       <c r="D239" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E239" s="35"/>
+        <v>43</v>
+      </c>
+      <c r="E239" s="35" t="s">
+        <v>250</v>
+      </c>
       <c r="F239" s="33"/>
       <c r="G239" s="33"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A240" s="34"/>
-      <c r="B240" s="34"/>
-      <c r="C240" s="34"/>
-      <c r="D240" s="34"/>
-      <c r="E240" s="38" t="s">
+    <row r="240" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A240" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B240" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C240" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D240" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E240" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F240" s="33"/>
+      <c r="G240" s="33"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B241" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C241" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D241" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E241" s="35"/>
+      <c r="F241" s="33"/>
+      <c r="G241" s="33"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242" s="34"/>
+      <c r="B242" s="34"/>
+      <c r="C242" s="34"/>
+      <c r="D242" s="34"/>
+      <c r="E242" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="F240" s="34"/>
-      <c r="G240" s="34"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="B241" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C241" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D241" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E241" s="33"/>
-      <c r="F241" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G241" s="33"/>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A242" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="B242" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C242" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D242" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E242" s="33"/>
-      <c r="F242" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G242" s="33"/>
+      <c r="F242" s="34"/>
+      <c r="G242" s="34"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B243" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C243" s="33" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D243" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E243" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F243" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E243" s="33"/>
+      <c r="F243" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G243" s="33"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B244" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C244" s="33" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D244" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E244" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F244" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E244" s="33"/>
+      <c r="F244" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G244" s="33"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B245" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C245" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D245" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E245" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F245" s="33"/>
       <c r="G245" s="33"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B246" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C246" s="33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D246" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E246" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F246" s="33"/>
       <c r="G246" s="33"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B247" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C247" s="33" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D247" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="E247" s="35" t="s">
-        <v>314</v>
+        <v>34</v>
+      </c>
+      <c r="E247" s="33" t="s">
+        <v>57</v>
       </c>
       <c r="F247" s="33"/>
       <c r="G247" s="33"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B248" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C248" s="32" t="s">
-        <v>259</v>
+        <v>23</v>
+      </c>
+      <c r="C248" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="D248" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E248" s="35" t="s">
-        <v>258</v>
+      <c r="E248" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F248" s="33"/>
       <c r="G248" s="33"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B249" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C249" s="33" t="s">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="D249" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E249" s="33" t="s">
-        <v>262</v>
+        <v>313</v>
+      </c>
+      <c r="E249" s="35" t="s">
+        <v>312</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="33"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B250" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C250" s="33" t="s">
-        <v>261</v>
+        <v>21</v>
+      </c>
+      <c r="C250" s="32" t="s">
+        <v>257</v>
       </c>
       <c r="D250" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E250" s="33" t="s">
-        <v>263</v>
+        <v>33</v>
+      </c>
+      <c r="E250" s="35" t="s">
+        <v>256</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="33"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B251" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C251" s="33" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="C251" s="32" t="s">
+        <v>115</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E251" s="33"/>
+        <v>310</v>
+      </c>
+      <c r="E251" s="33" t="s">
+        <v>325</v>
+      </c>
       <c r="F251" s="33"/>
       <c r="G251" s="33"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A252" s="34"/>
-      <c r="B252" s="34"/>
-      <c r="C252" s="34"/>
-      <c r="D252" s="34"/>
-      <c r="E252" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F252" s="34"/>
-      <c r="G252" s="34"/>
+      <c r="A252" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="D252" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E252" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="F252" s="33"/>
+      <c r="G252" s="33"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="32" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B253" s="33" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C253" s="33" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="D253" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E253" s="33"/>
-      <c r="F253" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E253" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="F253" s="33"/>
       <c r="G253" s="33"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="32" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B254" s="33" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C254" s="33" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D254" s="33" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E254" s="33"/>
-      <c r="F254" s="33" t="s">
-        <v>11</v>
-      </c>
+      <c r="F254" s="33"/>
       <c r="G254" s="33"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A255" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="B255" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C255" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="D255" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E255" s="33"/>
-      <c r="F255" s="33"/>
-      <c r="G255" s="33"/>
+      <c r="A255" s="34"/>
+      <c r="B255" s="34"/>
+      <c r="C255" s="34"/>
+      <c r="D255" s="34"/>
+      <c r="E255" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F255" s="34"/>
+      <c r="G255" s="34"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B256" s="33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C256" s="33" t="s">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="D256" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E256" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="F256" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E256" s="33"/>
+      <c r="F256" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G256" s="33"/>
     </row>
-    <row r="257" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B257" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C257" s="32" t="s">
-        <v>288</v>
+        <v>27</v>
+      </c>
+      <c r="C257" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D257" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E257" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="F257" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E257" s="33"/>
+      <c r="F257" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G257" s="33"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B258" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C258" s="32" t="s">
-        <v>294</v>
+        <v>26</v>
+      </c>
+      <c r="C258" s="33" t="s">
+        <v>284</v>
       </c>
       <c r="D258" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E258" s="35" t="s">
-        <v>57</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E258" s="33"/>
       <c r="F258" s="33"/>
       <c r="G258" s="33"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B259" s="33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C259" s="33" t="s">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="D259" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E259" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E259" s="33" t="s">
+        <v>289</v>
+      </c>
       <c r="F259" s="33"/>
       <c r="G259" s="33"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A260" s="34"/>
-      <c r="B260" s="34"/>
-      <c r="C260" s="34"/>
-      <c r="D260" s="34"/>
-      <c r="E260" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F260" s="34"/>
-      <c r="G260" s="34"/>
+    <row r="260" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A260" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B260" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C260" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="D260" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E260" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="F260" s="33"/>
+      <c r="G260" s="33"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B261" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C261" s="33" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="C261" s="32" t="s">
+        <v>292</v>
       </c>
       <c r="D261" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E261" s="33"/>
-      <c r="F261" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E261" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F261" s="33"/>
       <c r="G261" s="33"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B262" s="33" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C262" s="33" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D262" s="33" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E262" s="33"/>
-      <c r="F262" s="33" t="s">
-        <v>11</v>
-      </c>
+      <c r="F262" s="33"/>
       <c r="G262" s="33"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A263" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="B263" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C263" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="D263" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="E263" s="33"/>
-      <c r="F263" s="33"/>
-      <c r="G263" s="33"/>
+      <c r="A263" s="34"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
+      <c r="E263" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F263" s="34"/>
+      <c r="G263" s="34"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B264" s="33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C264" s="33" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="D264" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E264" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F264" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E264" s="33"/>
+      <c r="F264" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G264" s="33"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B265" s="33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C265" s="33" t="s">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="D265" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E265" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="F265" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E265" s="33"/>
+      <c r="F265" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G265" s="33"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B266" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C266" s="33" t="s">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="D266" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E266" s="35"/>
+        <v>178</v>
+      </c>
+      <c r="E266" s="33"/>
       <c r="F266" s="33"/>
       <c r="G266" s="33"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A267" s="8"/>
-      <c r="B267" s="8"/>
-      <c r="C267" s="8"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="28" t="s">
+      <c r="A267" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B267" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C267" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="D267" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E267" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="F267" s="33"/>
+      <c r="G267" s="33"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B268" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C268" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="D268" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E268" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="F268" s="33"/>
+      <c r="G268" s="33"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A269" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B269" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C269" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D269" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E269" s="35"/>
+      <c r="F269" s="33"/>
+      <c r="G269" s="33"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="8"/>
+      <c r="E270" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="F267" s="8"/>
-      <c r="G267" s="8"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A268" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C268" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D268" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E268" s="33"/>
-      <c r="F268" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G268" s="7"/>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A269" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C269" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D269" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E269" s="33"/>
-      <c r="F269" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G269" s="7"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A270" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D270" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E270" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="F270" s="7"/>
-      <c r="G270" s="7"/>
+      <c r="F270" s="8"/>
+      <c r="G270" s="8"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="D271" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E271" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="F271" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="C271" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D271" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E271" s="33"/>
+      <c r="F271" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G271" s="7"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C272" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D272" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" s="33"/>
+      <c r="F272" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G272" s="7"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A273" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C273" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="D273" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E273" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="F273" s="7"/>
+      <c r="G273" s="7"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A274" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D274" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E274" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F274" s="7"/>
+      <c r="G274" s="7"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A275" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B275" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C275" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D272" s="7" t="s">
+      <c r="D275" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E272" s="40"/>
-      <c r="F272" s="7"/>
-      <c r="G272" s="7"/>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A273" s="12"/>
-      <c r="B273" s="12"/>
-      <c r="C273" s="12"/>
-      <c r="D273" s="12"/>
-      <c r="E273" s="13"/>
-      <c r="F273" s="12"/>
-      <c r="G273" s="12"/>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A274" s="12"/>
-      <c r="B274" s="12"/>
-      <c r="C274" s="12"/>
-      <c r="D274" s="12"/>
-      <c r="E274" s="12"/>
-      <c r="F274" s="12"/>
-      <c r="G274" s="12"/>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A275" s="41"/>
-      <c r="B275" s="41"/>
-      <c r="C275" s="41"/>
-      <c r="D275" s="41"/>
-      <c r="E275" s="41"/>
-      <c r="F275" s="41"/>
-      <c r="G275" s="41"/>
+      <c r="E275" s="40"/>
+      <c r="F275" s="7"/>
+      <c r="G275" s="7"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="12"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
       <c r="D276" s="12"/>
-      <c r="E276" s="12"/>
+      <c r="E276" s="13"/>
       <c r="F276" s="12"/>
       <c r="G276" s="12"/>
     </row>
@@ -7469,13 +7535,13 @@
       <c r="G277" s="12"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A278" s="12"/>
-      <c r="B278" s="12"/>
-      <c r="C278" s="12"/>
-      <c r="D278" s="12"/>
-      <c r="E278" s="12"/>
-      <c r="F278" s="12"/>
-      <c r="G278" s="12"/>
+      <c r="A278" s="45"/>
+      <c r="B278" s="45"/>
+      <c r="C278" s="45"/>
+      <c r="D278" s="45"/>
+      <c r="E278" s="45"/>
+      <c r="F278" s="45"/>
+      <c r="G278" s="45"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="12"/>
@@ -7626,7 +7692,7 @@
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
       <c r="D295" s="12"/>
-      <c r="E295" s="13"/>
+      <c r="E295" s="12"/>
       <c r="F295" s="12"/>
       <c r="G295" s="12"/>
     </row>
@@ -7635,7 +7701,7 @@
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
       <c r="D296" s="12"/>
-      <c r="E296" s="13"/>
+      <c r="E296" s="12"/>
       <c r="F296" s="12"/>
       <c r="G296" s="12"/>
     </row>
@@ -7644,7 +7710,7 @@
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
       <c r="D297" s="12"/>
-      <c r="E297" s="13"/>
+      <c r="E297" s="12"/>
       <c r="F297" s="12"/>
       <c r="G297" s="12"/>
     </row>
@@ -7662,7 +7728,7 @@
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
       <c r="D299" s="12"/>
-      <c r="E299" s="12"/>
+      <c r="E299" s="13"/>
       <c r="F299" s="12"/>
       <c r="G299" s="12"/>
     </row>
@@ -7671,7 +7737,7 @@
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
       <c r="D300" s="12"/>
-      <c r="E300" s="12"/>
+      <c r="E300" s="13"/>
       <c r="F300" s="12"/>
       <c r="G300" s="12"/>
     </row>
@@ -7689,7 +7755,7 @@
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
       <c r="D302" s="12"/>
-      <c r="E302" s="13"/>
+      <c r="E302" s="12"/>
       <c r="F302" s="12"/>
       <c r="G302" s="12"/>
     </row>
@@ -7698,7 +7764,7 @@
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
       <c r="D303" s="12"/>
-      <c r="E303" s="13"/>
+      <c r="E303" s="12"/>
       <c r="F303" s="12"/>
       <c r="G303" s="12"/>
     </row>
@@ -7822,7 +7888,7 @@
     <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="12"/>
       <c r="B317" s="12"/>
-      <c r="C317" s="14"/>
+      <c r="C317" s="12"/>
       <c r="D317" s="12"/>
       <c r="E317" s="13"/>
       <c r="F317" s="12"/>
@@ -7833,7 +7899,7 @@
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
       <c r="D318" s="12"/>
-      <c r="E318" s="12"/>
+      <c r="E318" s="13"/>
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
     </row>
@@ -7842,16 +7908,16 @@
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
       <c r="D319" s="12"/>
-      <c r="E319" s="12"/>
+      <c r="E319" s="13"/>
       <c r="F319" s="12"/>
       <c r="G319" s="12"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
-      <c r="C320" s="12"/>
+      <c r="C320" s="14"/>
       <c r="D320" s="12"/>
-      <c r="E320" s="12"/>
+      <c r="E320" s="13"/>
       <c r="F320" s="12"/>
       <c r="G320" s="12"/>
     </row>
@@ -7905,7 +7971,7 @@
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
       <c r="D326" s="12"/>
-      <c r="E326" s="13"/>
+      <c r="E326" s="12"/>
       <c r="F326" s="12"/>
       <c r="G326" s="12"/>
     </row>
@@ -7923,7 +7989,7 @@
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
       <c r="D328" s="12"/>
-      <c r="E328" s="13"/>
+      <c r="E328" s="12"/>
       <c r="F328" s="12"/>
       <c r="G328" s="12"/>
     </row>
@@ -7932,7 +7998,7 @@
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
       <c r="D329" s="12"/>
-      <c r="E329" s="12"/>
+      <c r="E329" s="13"/>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
     </row>
@@ -7941,7 +8007,7 @@
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
       <c r="D330" s="12"/>
-      <c r="E330" s="13"/>
+      <c r="E330" s="12"/>
       <c r="F330" s="12"/>
       <c r="G330" s="12"/>
     </row>
@@ -7950,7 +8016,7 @@
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
       <c r="D331" s="12"/>
-      <c r="E331" s="12"/>
+      <c r="E331" s="13"/>
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
     </row>
@@ -7968,7 +8034,7 @@
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
       <c r="D333" s="12"/>
-      <c r="E333" s="12"/>
+      <c r="E333" s="13"/>
       <c r="F333" s="12"/>
       <c r="G333" s="12"/>
     </row>
@@ -7977,7 +8043,7 @@
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
       <c r="D334" s="12"/>
-      <c r="E334" s="13"/>
+      <c r="E334" s="12"/>
       <c r="F334" s="12"/>
       <c r="G334" s="12"/>
     </row>
@@ -7986,7 +8052,7 @@
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
-      <c r="E335" s="13"/>
+      <c r="E335" s="12"/>
       <c r="F335" s="12"/>
       <c r="G335" s="12"/>
     </row>
@@ -7995,7 +8061,7 @@
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
       <c r="D336" s="12"/>
-      <c r="E336" s="13"/>
+      <c r="E336" s="12"/>
       <c r="F336" s="12"/>
       <c r="G336" s="12"/>
     </row>
@@ -8058,25 +8124,25 @@
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
       <c r="D343" s="12"/>
-      <c r="E343" s="12"/>
+      <c r="E343" s="13"/>
       <c r="F343" s="12"/>
       <c r="G343" s="12"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A344" s="41"/>
-      <c r="B344" s="41"/>
-      <c r="C344" s="41"/>
-      <c r="D344" s="41"/>
-      <c r="E344" s="41"/>
-      <c r="F344" s="41"/>
-      <c r="G344" s="41"/>
+      <c r="A344" s="12"/>
+      <c r="B344" s="12"/>
+      <c r="C344" s="12"/>
+      <c r="D344" s="12"/>
+      <c r="E344" s="13"/>
+      <c r="F344" s="12"/>
+      <c r="G344" s="12"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="12"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
       <c r="D345" s="12"/>
-      <c r="E345" s="12"/>
+      <c r="E345" s="13"/>
       <c r="F345" s="12"/>
       <c r="G345" s="12"/>
     </row>
@@ -8090,13 +8156,13 @@
       <c r="G346" s="12"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A347" s="12"/>
-      <c r="B347" s="12"/>
-      <c r="C347" s="12"/>
-      <c r="D347" s="12"/>
-      <c r="E347" s="12"/>
-      <c r="F347" s="12"/>
-      <c r="G347" s="12"/>
+      <c r="A347" s="45"/>
+      <c r="B347" s="45"/>
+      <c r="C347" s="45"/>
+      <c r="D347" s="45"/>
+      <c r="E347" s="45"/>
+      <c r="F347" s="45"/>
+      <c r="G347" s="45"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="12"/>
@@ -8157,7 +8223,7 @@
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
       <c r="D354" s="12"/>
-      <c r="E354" s="13"/>
+      <c r="E354" s="12"/>
       <c r="F354" s="12"/>
       <c r="G354" s="12"/>
     </row>
@@ -8166,7 +8232,7 @@
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
       <c r="D355" s="12"/>
-      <c r="E355" s="13"/>
+      <c r="E355" s="12"/>
       <c r="F355" s="12"/>
       <c r="G355" s="12"/>
     </row>
@@ -8175,7 +8241,7 @@
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
       <c r="D356" s="12"/>
-      <c r="E356" s="13"/>
+      <c r="E356" s="12"/>
       <c r="F356" s="12"/>
       <c r="G356" s="12"/>
     </row>
@@ -8202,25 +8268,25 @@
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
       <c r="D359" s="12"/>
-      <c r="E359" s="12"/>
+      <c r="E359" s="13"/>
       <c r="F359" s="12"/>
       <c r="G359" s="12"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A360" s="41"/>
-      <c r="B360" s="41"/>
-      <c r="C360" s="41"/>
-      <c r="D360" s="41"/>
-      <c r="E360" s="41"/>
-      <c r="F360" s="41"/>
-      <c r="G360" s="41"/>
+      <c r="A360" s="12"/>
+      <c r="B360" s="12"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
+      <c r="E360" s="13"/>
+      <c r="F360" s="12"/>
+      <c r="G360" s="12"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="12"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
       <c r="D361" s="12"/>
-      <c r="E361" s="12"/>
+      <c r="E361" s="13"/>
       <c r="F361" s="12"/>
       <c r="G361" s="12"/>
     </row>
@@ -8234,13 +8300,13 @@
       <c r="G362" s="12"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A363" s="12"/>
-      <c r="B363" s="12"/>
-      <c r="C363" s="12"/>
-      <c r="D363" s="12"/>
-      <c r="E363" s="12"/>
-      <c r="F363" s="12"/>
-      <c r="G363" s="12"/>
+      <c r="A363" s="45"/>
+      <c r="B363" s="45"/>
+      <c r="C363" s="45"/>
+      <c r="D363" s="45"/>
+      <c r="E363" s="45"/>
+      <c r="F363" s="45"/>
+      <c r="G363" s="45"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="12"/>
@@ -8310,7 +8376,7 @@
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
       <c r="D371" s="12"/>
-      <c r="E371" s="13"/>
+      <c r="E371" s="12"/>
       <c r="F371" s="12"/>
       <c r="G371" s="12"/>
     </row>
@@ -8319,7 +8385,7 @@
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
       <c r="D372" s="12"/>
-      <c r="E372" s="13"/>
+      <c r="E372" s="12"/>
       <c r="F372" s="12"/>
       <c r="G372" s="12"/>
     </row>
@@ -8328,7 +8394,7 @@
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
       <c r="D373" s="12"/>
-      <c r="E373" s="13"/>
+      <c r="E373" s="12"/>
       <c r="F373" s="12"/>
       <c r="G373" s="12"/>
     </row>
@@ -8355,25 +8421,25 @@
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
       <c r="D376" s="12"/>
-      <c r="E376" s="12"/>
+      <c r="E376" s="13"/>
       <c r="F376" s="12"/>
       <c r="G376" s="12"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A377" s="41"/>
-      <c r="B377" s="41"/>
-      <c r="C377" s="41"/>
-      <c r="D377" s="41"/>
-      <c r="E377" s="41"/>
-      <c r="F377" s="41"/>
-      <c r="G377" s="41"/>
+      <c r="A377" s="12"/>
+      <c r="B377" s="12"/>
+      <c r="C377" s="12"/>
+      <c r="D377" s="12"/>
+      <c r="E377" s="13"/>
+      <c r="F377" s="12"/>
+      <c r="G377" s="12"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="12"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
       <c r="D378" s="12"/>
-      <c r="E378" s="12"/>
+      <c r="E378" s="13"/>
       <c r="F378" s="12"/>
       <c r="G378" s="12"/>
     </row>
@@ -8387,13 +8453,13 @@
       <c r="G379" s="12"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A380" s="12"/>
-      <c r="B380" s="12"/>
-      <c r="C380" s="12"/>
-      <c r="D380" s="12"/>
-      <c r="E380" s="12"/>
-      <c r="F380" s="12"/>
-      <c r="G380" s="12"/>
+      <c r="A380" s="45"/>
+      <c r="B380" s="45"/>
+      <c r="C380" s="45"/>
+      <c r="D380" s="45"/>
+      <c r="E380" s="45"/>
+      <c r="F380" s="45"/>
+      <c r="G380" s="45"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="12"/>
@@ -8533,7 +8599,7 @@
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="12"/>
       <c r="B396" s="12"/>
-      <c r="C396" s="14"/>
+      <c r="C396" s="12"/>
       <c r="D396" s="12"/>
       <c r="E396" s="12"/>
       <c r="F396" s="12"/>
@@ -8549,18 +8615,18 @@
       <c r="G397" s="12"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A398" s="41"/>
-      <c r="B398" s="41"/>
-      <c r="C398" s="41"/>
-      <c r="D398" s="41"/>
-      <c r="E398" s="41"/>
-      <c r="F398" s="41"/>
-      <c r="G398" s="41"/>
+      <c r="A398" s="12"/>
+      <c r="B398" s="12"/>
+      <c r="C398" s="12"/>
+      <c r="D398" s="12"/>
+      <c r="E398" s="12"/>
+      <c r="F398" s="12"/>
+      <c r="G398" s="12"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
-      <c r="C399" s="12"/>
+      <c r="C399" s="14"/>
       <c r="D399" s="12"/>
       <c r="E399" s="12"/>
       <c r="F399" s="12"/>
@@ -8576,13 +8642,13 @@
       <c r="G400" s="12"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A401" s="12"/>
-      <c r="B401" s="12"/>
-      <c r="C401" s="12"/>
-      <c r="D401" s="12"/>
-      <c r="E401" s="12"/>
-      <c r="F401" s="12"/>
-      <c r="G401" s="12"/>
+      <c r="A401" s="45"/>
+      <c r="B401" s="45"/>
+      <c r="C401" s="45"/>
+      <c r="D401" s="45"/>
+      <c r="E401" s="45"/>
+      <c r="F401" s="45"/>
+      <c r="G401" s="45"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="12"/>
@@ -8666,13 +8732,13 @@
       <c r="G410" s="12"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A411" s="41"/>
-      <c r="B411" s="41"/>
-      <c r="C411" s="41"/>
-      <c r="D411" s="41"/>
-      <c r="E411" s="41"/>
-      <c r="F411" s="41"/>
-      <c r="G411" s="41"/>
+      <c r="A411" s="12"/>
+      <c r="B411" s="12"/>
+      <c r="C411" s="12"/>
+      <c r="D411" s="12"/>
+      <c r="E411" s="12"/>
+      <c r="F411" s="12"/>
+      <c r="G411" s="12"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="12"/>
@@ -8693,13 +8759,13 @@
       <c r="G413" s="12"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A414" s="12"/>
-      <c r="B414" s="12"/>
-      <c r="C414" s="12"/>
-      <c r="D414" s="12"/>
-      <c r="E414" s="12"/>
-      <c r="F414" s="12"/>
-      <c r="G414" s="12"/>
+      <c r="A414" s="45"/>
+      <c r="B414" s="45"/>
+      <c r="C414" s="45"/>
+      <c r="D414" s="45"/>
+      <c r="E414" s="45"/>
+      <c r="F414" s="45"/>
+      <c r="G414" s="45"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" s="12"/>
@@ -8846,13 +8912,13 @@
       <c r="G430" s="12"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A431" s="41"/>
-      <c r="B431" s="41"/>
-      <c r="C431" s="41"/>
-      <c r="D431" s="41"/>
-      <c r="E431" s="41"/>
-      <c r="F431" s="41"/>
-      <c r="G431" s="41"/>
+      <c r="A431" s="12"/>
+      <c r="B431" s="12"/>
+      <c r="C431" s="12"/>
+      <c r="D431" s="12"/>
+      <c r="E431" s="12"/>
+      <c r="F431" s="12"/>
+      <c r="G431" s="12"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="12"/>
@@ -8873,13 +8939,13 @@
       <c r="G433" s="12"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A434" s="12"/>
-      <c r="B434" s="12"/>
-      <c r="C434" s="12"/>
-      <c r="D434" s="12"/>
-      <c r="E434" s="12"/>
-      <c r="F434" s="12"/>
-      <c r="G434" s="12"/>
+      <c r="A434" s="45"/>
+      <c r="B434" s="45"/>
+      <c r="C434" s="45"/>
+      <c r="D434" s="45"/>
+      <c r="E434" s="45"/>
+      <c r="F434" s="45"/>
+      <c r="G434" s="45"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="12"/>
@@ -8967,7 +9033,7 @@
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
       <c r="D444" s="12"/>
-      <c r="E444" s="13"/>
+      <c r="E444" s="12"/>
       <c r="F444" s="12"/>
       <c r="G444" s="12"/>
     </row>
@@ -8976,7 +9042,7 @@
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
       <c r="D445" s="12"/>
-      <c r="E445" s="13"/>
+      <c r="E445" s="12"/>
       <c r="F445" s="12"/>
       <c r="G445" s="12"/>
     </row>
@@ -8985,7 +9051,7 @@
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
       <c r="D446" s="12"/>
-      <c r="E446" s="13"/>
+      <c r="E446" s="12"/>
       <c r="F446" s="12"/>
       <c r="G446" s="12"/>
     </row>
@@ -9021,7 +9087,7 @@
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
       <c r="D450" s="12"/>
-      <c r="E450" s="12"/>
+      <c r="E450" s="13"/>
       <c r="F450" s="12"/>
       <c r="G450" s="12"/>
     </row>
@@ -9030,7 +9096,7 @@
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
       <c r="D451" s="12"/>
-      <c r="E451" s="12"/>
+      <c r="E451" s="13"/>
       <c r="F451" s="12"/>
       <c r="G451" s="12"/>
     </row>
@@ -9039,7 +9105,7 @@
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
       <c r="D452" s="12"/>
-      <c r="E452" s="12"/>
+      <c r="E452" s="13"/>
       <c r="F452" s="12"/>
       <c r="G452" s="12"/>
     </row>
@@ -9129,7 +9195,7 @@
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
       <c r="D462" s="12"/>
-      <c r="E462" s="13"/>
+      <c r="E462" s="12"/>
       <c r="F462" s="12"/>
       <c r="G462" s="12"/>
     </row>
@@ -9156,18 +9222,18 @@
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
       <c r="D465" s="12"/>
-      <c r="E465" s="12"/>
+      <c r="E465" s="13"/>
       <c r="F465" s="12"/>
       <c r="G465" s="12"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A466" s="41"/>
-      <c r="B466" s="41"/>
-      <c r="C466" s="41"/>
-      <c r="D466" s="41"/>
-      <c r="E466" s="41"/>
-      <c r="F466" s="41"/>
-      <c r="G466" s="41"/>
+      <c r="A466" s="12"/>
+      <c r="B466" s="12"/>
+      <c r="C466" s="12"/>
+      <c r="D466" s="12"/>
+      <c r="E466" s="12"/>
+      <c r="F466" s="12"/>
+      <c r="G466" s="12"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="12"/>
@@ -9188,13 +9254,13 @@
       <c r="G468" s="12"/>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A469" s="12"/>
-      <c r="B469" s="12"/>
-      <c r="C469" s="12"/>
-      <c r="D469" s="12"/>
-      <c r="E469" s="12"/>
-      <c r="F469" s="12"/>
-      <c r="G469" s="12"/>
+      <c r="A469" s="45"/>
+      <c r="B469" s="45"/>
+      <c r="C469" s="45"/>
+      <c r="D469" s="45"/>
+      <c r="E469" s="45"/>
+      <c r="F469" s="45"/>
+      <c r="G469" s="45"/>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" s="12"/>
@@ -9273,7 +9339,7 @@
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
       <c r="D478" s="12"/>
-      <c r="E478" s="13"/>
+      <c r="E478" s="12"/>
       <c r="F478" s="12"/>
       <c r="G478" s="12"/>
     </row>
@@ -9282,7 +9348,7 @@
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
       <c r="D479" s="12"/>
-      <c r="E479" s="13"/>
+      <c r="E479" s="12"/>
       <c r="F479" s="12"/>
       <c r="G479" s="12"/>
     </row>
@@ -9291,7 +9357,7 @@
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
       <c r="D480" s="12"/>
-      <c r="E480" s="13"/>
+      <c r="E480" s="12"/>
       <c r="F480" s="12"/>
       <c r="G480" s="12"/>
     </row>
@@ -9318,7 +9384,7 @@
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
       <c r="D483" s="12"/>
-      <c r="E483" s="12"/>
+      <c r="E483" s="13"/>
       <c r="F483" s="12"/>
       <c r="G483" s="12"/>
     </row>
@@ -9327,7 +9393,7 @@
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
       <c r="D484" s="12"/>
-      <c r="E484" s="12"/>
+      <c r="E484" s="13"/>
       <c r="F484" s="12"/>
       <c r="G484" s="12"/>
     </row>
@@ -9336,18 +9402,18 @@
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
       <c r="D485" s="12"/>
-      <c r="E485" s="12"/>
+      <c r="E485" s="13"/>
       <c r="F485" s="12"/>
       <c r="G485" s="12"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A486" s="41"/>
-      <c r="B486" s="41"/>
-      <c r="C486" s="41"/>
-      <c r="D486" s="41"/>
-      <c r="E486" s="41"/>
-      <c r="F486" s="41"/>
-      <c r="G486" s="41"/>
+      <c r="A486" s="12"/>
+      <c r="B486" s="12"/>
+      <c r="C486" s="12"/>
+      <c r="D486" s="12"/>
+      <c r="E486" s="12"/>
+      <c r="F486" s="12"/>
+      <c r="G486" s="12"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" s="12"/>
@@ -9368,13 +9434,13 @@
       <c r="G488" s="12"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A489" s="12"/>
-      <c r="B489" s="12"/>
-      <c r="C489" s="12"/>
-      <c r="D489" s="12"/>
-      <c r="E489" s="12"/>
-      <c r="F489" s="12"/>
-      <c r="G489" s="12"/>
+      <c r="A489" s="45"/>
+      <c r="B489" s="45"/>
+      <c r="C489" s="45"/>
+      <c r="D489" s="45"/>
+      <c r="E489" s="45"/>
+      <c r="F489" s="45"/>
+      <c r="G489" s="45"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" s="12"/>
@@ -9449,13 +9515,13 @@
       <c r="G497" s="12"/>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A498" s="41"/>
-      <c r="B498" s="41"/>
-      <c r="C498" s="41"/>
-      <c r="D498" s="41"/>
-      <c r="E498" s="41"/>
-      <c r="F498" s="41"/>
-      <c r="G498" s="41"/>
+      <c r="A498" s="12"/>
+      <c r="B498" s="12"/>
+      <c r="C498" s="12"/>
+      <c r="D498" s="12"/>
+      <c r="E498" s="12"/>
+      <c r="F498" s="12"/>
+      <c r="G498" s="12"/>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" s="12"/>
@@ -9476,13 +9542,13 @@
       <c r="G500" s="12"/>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A501" s="12"/>
-      <c r="B501" s="12"/>
-      <c r="C501" s="12"/>
-      <c r="D501" s="12"/>
-      <c r="E501" s="12"/>
-      <c r="F501" s="12"/>
-      <c r="G501" s="12"/>
+      <c r="A501" s="45"/>
+      <c r="B501" s="45"/>
+      <c r="C501" s="45"/>
+      <c r="D501" s="45"/>
+      <c r="E501" s="45"/>
+      <c r="F501" s="45"/>
+      <c r="G501" s="45"/>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" s="12"/>
@@ -9638,13 +9704,13 @@
       <c r="G518" s="12"/>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A519" s="41"/>
-      <c r="B519" s="41"/>
-      <c r="C519" s="41"/>
-      <c r="D519" s="41"/>
-      <c r="E519" s="41"/>
-      <c r="F519" s="41"/>
-      <c r="G519" s="41"/>
+      <c r="A519" s="12"/>
+      <c r="B519" s="12"/>
+      <c r="C519" s="12"/>
+      <c r="D519" s="12"/>
+      <c r="E519" s="12"/>
+      <c r="F519" s="12"/>
+      <c r="G519" s="12"/>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" s="12"/>
@@ -9665,13 +9731,13 @@
       <c r="G521" s="12"/>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A522" s="12"/>
-      <c r="B522" s="12"/>
-      <c r="C522" s="12"/>
-      <c r="D522" s="12"/>
-      <c r="E522" s="12"/>
-      <c r="F522" s="12"/>
-      <c r="G522" s="12"/>
+      <c r="A522" s="45"/>
+      <c r="B522" s="45"/>
+      <c r="C522" s="45"/>
+      <c r="D522" s="45"/>
+      <c r="E522" s="45"/>
+      <c r="F522" s="45"/>
+      <c r="G522" s="45"/>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" s="12"/>
@@ -9813,7 +9879,7 @@
       <c r="B538" s="12"/>
       <c r="C538" s="12"/>
       <c r="D538" s="12"/>
-      <c r="E538" s="13"/>
+      <c r="E538" s="12"/>
       <c r="F538" s="12"/>
       <c r="G538" s="12"/>
     </row>
@@ -9822,7 +9888,7 @@
       <c r="B539" s="12"/>
       <c r="C539" s="12"/>
       <c r="D539" s="12"/>
-      <c r="E539" s="13"/>
+      <c r="E539" s="12"/>
       <c r="F539" s="12"/>
       <c r="G539" s="12"/>
     </row>
@@ -9840,7 +9906,7 @@
       <c r="B541" s="12"/>
       <c r="C541" s="12"/>
       <c r="D541" s="12"/>
-      <c r="E541" s="12"/>
+      <c r="E541" s="13"/>
       <c r="F541" s="12"/>
       <c r="G541" s="12"/>
     </row>
@@ -9849,7 +9915,7 @@
       <c r="B542" s="12"/>
       <c r="C542" s="12"/>
       <c r="D542" s="12"/>
-      <c r="E542" s="12"/>
+      <c r="E542" s="13"/>
       <c r="F542" s="12"/>
       <c r="G542" s="12"/>
     </row>
@@ -9890,13 +9956,13 @@
       <c r="G546" s="12"/>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A547" s="41"/>
-      <c r="B547" s="41"/>
-      <c r="C547" s="41"/>
-      <c r="D547" s="41"/>
-      <c r="E547" s="41"/>
-      <c r="F547" s="41"/>
-      <c r="G547" s="41"/>
+      <c r="A547" s="12"/>
+      <c r="B547" s="12"/>
+      <c r="C547" s="12"/>
+      <c r="D547" s="12"/>
+      <c r="E547" s="12"/>
+      <c r="F547" s="12"/>
+      <c r="G547" s="12"/>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A548" s="12"/>
@@ -9917,13 +9983,13 @@
       <c r="G549" s="12"/>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A550" s="12"/>
-      <c r="B550" s="12"/>
-      <c r="C550" s="12"/>
-      <c r="D550" s="12"/>
-      <c r="E550" s="12"/>
-      <c r="F550" s="12"/>
-      <c r="G550" s="12"/>
+      <c r="A550" s="45"/>
+      <c r="B550" s="45"/>
+      <c r="C550" s="45"/>
+      <c r="D550" s="45"/>
+      <c r="E550" s="45"/>
+      <c r="F550" s="45"/>
+      <c r="G550" s="45"/>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" s="12"/>
@@ -10138,7 +10204,7 @@
       <c r="C574" s="12"/>
       <c r="D574" s="12"/>
       <c r="E574" s="12"/>
-      <c r="F574" s="13"/>
+      <c r="F574" s="12"/>
       <c r="G574" s="12"/>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.35">
@@ -10147,7 +10213,7 @@
       <c r="C575" s="12"/>
       <c r="D575" s="12"/>
       <c r="E575" s="12"/>
-      <c r="F575" s="13"/>
+      <c r="F575" s="12"/>
       <c r="G575" s="12"/>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.35">
@@ -10156,7 +10222,7 @@
       <c r="C576" s="12"/>
       <c r="D576" s="12"/>
       <c r="E576" s="12"/>
-      <c r="F576" s="13"/>
+      <c r="F576" s="12"/>
       <c r="G576" s="12"/>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.35">
@@ -10187,13 +10253,13 @@
       <c r="G579" s="12"/>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A580" s="41"/>
-      <c r="B580" s="41"/>
-      <c r="C580" s="41"/>
-      <c r="D580" s="41"/>
-      <c r="E580" s="41"/>
-      <c r="F580" s="41"/>
-      <c r="G580" s="41"/>
+      <c r="A580" s="12"/>
+      <c r="B580" s="12"/>
+      <c r="C580" s="12"/>
+      <c r="D580" s="12"/>
+      <c r="E580" s="12"/>
+      <c r="F580" s="13"/>
+      <c r="G580" s="12"/>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A581" s="12"/>
@@ -10201,7 +10267,7 @@
       <c r="C581" s="12"/>
       <c r="D581" s="12"/>
       <c r="E581" s="12"/>
-      <c r="F581" s="12"/>
+      <c r="F581" s="13"/>
       <c r="G581" s="12"/>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.35">
@@ -10210,17 +10276,17 @@
       <c r="C582" s="12"/>
       <c r="D582" s="12"/>
       <c r="E582" s="12"/>
-      <c r="F582" s="12"/>
+      <c r="F582" s="13"/>
       <c r="G582" s="12"/>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A583" s="12"/>
-      <c r="B583" s="12"/>
-      <c r="C583" s="12"/>
-      <c r="D583" s="12"/>
-      <c r="E583" s="12"/>
-      <c r="F583" s="12"/>
-      <c r="G583" s="12"/>
+      <c r="A583" s="45"/>
+      <c r="B583" s="45"/>
+      <c r="C583" s="45"/>
+      <c r="D583" s="45"/>
+      <c r="E583" s="45"/>
+      <c r="F583" s="45"/>
+      <c r="G583" s="45"/>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A584" s="12"/>
@@ -10529,13 +10595,13 @@
       <c r="G617" s="12"/>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A618" s="41"/>
-      <c r="B618" s="41"/>
-      <c r="C618" s="41"/>
-      <c r="D618" s="41"/>
-      <c r="E618" s="41"/>
-      <c r="F618" s="41"/>
-      <c r="G618" s="41"/>
+      <c r="A618" s="12"/>
+      <c r="B618" s="12"/>
+      <c r="C618" s="12"/>
+      <c r="D618" s="12"/>
+      <c r="E618" s="12"/>
+      <c r="F618" s="12"/>
+      <c r="G618" s="12"/>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A619" s="12"/>
@@ -10556,13 +10622,13 @@
       <c r="G620" s="12"/>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A621" s="12"/>
-      <c r="B621" s="12"/>
-      <c r="C621" s="12"/>
-      <c r="D621" s="12"/>
-      <c r="E621" s="12"/>
-      <c r="F621" s="12"/>
-      <c r="G621" s="12"/>
+      <c r="A621" s="45"/>
+      <c r="B621" s="45"/>
+      <c r="C621" s="45"/>
+      <c r="D621" s="45"/>
+      <c r="E621" s="45"/>
+      <c r="F621" s="45"/>
+      <c r="G621" s="45"/>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A622" s="12"/>
@@ -10853,13 +10919,13 @@
       <c r="G653" s="12"/>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A654" s="41"/>
-      <c r="B654" s="41"/>
-      <c r="C654" s="41"/>
-      <c r="D654" s="41"/>
-      <c r="E654" s="41"/>
-      <c r="F654" s="41"/>
-      <c r="G654" s="41"/>
+      <c r="A654" s="12"/>
+      <c r="B654" s="12"/>
+      <c r="C654" s="12"/>
+      <c r="D654" s="12"/>
+      <c r="E654" s="12"/>
+      <c r="F654" s="12"/>
+      <c r="G654" s="12"/>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A655" s="12"/>
@@ -10880,13 +10946,13 @@
       <c r="G656" s="12"/>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A657" s="12"/>
-      <c r="B657" s="12"/>
-      <c r="C657" s="12"/>
-      <c r="D657" s="12"/>
-      <c r="E657" s="12"/>
-      <c r="F657" s="12"/>
-      <c r="G657" s="12"/>
+      <c r="A657" s="45"/>
+      <c r="B657" s="45"/>
+      <c r="C657" s="45"/>
+      <c r="D657" s="45"/>
+      <c r="E657" s="45"/>
+      <c r="F657" s="45"/>
+      <c r="G657" s="45"/>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A658" s="12"/>
@@ -11114,13 +11180,13 @@
       <c r="G682" s="12"/>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A683" s="41"/>
-      <c r="B683" s="41"/>
-      <c r="C683" s="41"/>
-      <c r="D683" s="41"/>
-      <c r="E683" s="41"/>
-      <c r="F683" s="41"/>
-      <c r="G683" s="41"/>
+      <c r="A683" s="12"/>
+      <c r="B683" s="12"/>
+      <c r="C683" s="12"/>
+      <c r="D683" s="12"/>
+      <c r="E683" s="12"/>
+      <c r="F683" s="12"/>
+      <c r="G683" s="12"/>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A684" s="12"/>
@@ -11141,13 +11207,13 @@
       <c r="G685" s="12"/>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A686" s="12"/>
-      <c r="B686" s="12"/>
-      <c r="C686" s="12"/>
-      <c r="D686" s="12"/>
-      <c r="E686" s="12"/>
-      <c r="F686" s="12"/>
-      <c r="G686" s="12"/>
+      <c r="A686" s="45"/>
+      <c r="B686" s="45"/>
+      <c r="C686" s="45"/>
+      <c r="D686" s="45"/>
+      <c r="E686" s="45"/>
+      <c r="F686" s="45"/>
+      <c r="G686" s="45"/>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A687" s="12"/>
@@ -11217,7 +11283,7 @@
       <c r="B694" s="12"/>
       <c r="C694" s="12"/>
       <c r="D694" s="12"/>
-      <c r="E694" s="13"/>
+      <c r="E694" s="12"/>
       <c r="F694" s="12"/>
       <c r="G694" s="12"/>
     </row>
@@ -11226,7 +11292,7 @@
       <c r="B695" s="12"/>
       <c r="C695" s="12"/>
       <c r="D695" s="12"/>
-      <c r="E695" s="13"/>
+      <c r="E695" s="12"/>
       <c r="F695" s="12"/>
       <c r="G695" s="12"/>
     </row>
@@ -11235,7 +11301,7 @@
       <c r="B696" s="12"/>
       <c r="C696" s="12"/>
       <c r="D696" s="12"/>
-      <c r="E696" s="13"/>
+      <c r="E696" s="12"/>
       <c r="F696" s="12"/>
       <c r="G696" s="12"/>
     </row>
@@ -11253,7 +11319,7 @@
       <c r="B698" s="12"/>
       <c r="C698" s="12"/>
       <c r="D698" s="12"/>
-      <c r="E698" s="12"/>
+      <c r="E698" s="13"/>
       <c r="F698" s="12"/>
       <c r="G698" s="12"/>
     </row>
@@ -11262,7 +11328,7 @@
       <c r="B699" s="12"/>
       <c r="C699" s="12"/>
       <c r="D699" s="12"/>
-      <c r="E699" s="12"/>
+      <c r="E699" s="13"/>
       <c r="F699" s="12"/>
       <c r="G699" s="12"/>
     </row>
@@ -11271,7 +11337,7 @@
       <c r="B700" s="12"/>
       <c r="C700" s="12"/>
       <c r="D700" s="12"/>
-      <c r="E700" s="12"/>
+      <c r="E700" s="13"/>
       <c r="F700" s="12"/>
       <c r="G700" s="12"/>
     </row>
@@ -11294,13 +11360,13 @@
       <c r="G702" s="12"/>
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A703" s="41"/>
-      <c r="B703" s="41"/>
-      <c r="C703" s="41"/>
-      <c r="D703" s="41"/>
-      <c r="E703" s="41"/>
-      <c r="F703" s="41"/>
-      <c r="G703" s="41"/>
+      <c r="A703" s="12"/>
+      <c r="B703" s="12"/>
+      <c r="C703" s="12"/>
+      <c r="D703" s="12"/>
+      <c r="E703" s="12"/>
+      <c r="F703" s="12"/>
+      <c r="G703" s="12"/>
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A704" s="12"/>
@@ -11321,13 +11387,13 @@
       <c r="G705" s="12"/>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A706" s="12"/>
-      <c r="B706" s="12"/>
-      <c r="C706" s="12"/>
-      <c r="D706" s="12"/>
-      <c r="E706" s="12"/>
-      <c r="F706" s="12"/>
-      <c r="G706" s="12"/>
+      <c r="A706" s="45"/>
+      <c r="B706" s="45"/>
+      <c r="C706" s="45"/>
+      <c r="D706" s="45"/>
+      <c r="E706" s="45"/>
+      <c r="F706" s="45"/>
+      <c r="G706" s="45"/>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A707" s="12"/>
@@ -11491,7 +11557,7 @@
       <c r="F724" s="12"/>
       <c r="G724" s="12"/>
     </row>
-    <row r="725" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A725" s="12"/>
       <c r="B725" s="12"/>
       <c r="C725" s="12"/>
@@ -11501,24 +11567,24 @@
       <c r="G725" s="12"/>
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A726" s="41"/>
-      <c r="B726" s="41"/>
-      <c r="C726" s="41"/>
-      <c r="D726" s="41"/>
-      <c r="E726" s="41"/>
-      <c r="F726" s="41"/>
-      <c r="G726" s="41"/>
+      <c r="A726" s="12"/>
+      <c r="B726" s="12"/>
+      <c r="C726" s="12"/>
+      <c r="D726" s="12"/>
+      <c r="E726" s="12"/>
+      <c r="F726" s="12"/>
+      <c r="G726" s="12"/>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A727" s="41"/>
-      <c r="B727" s="41"/>
-      <c r="C727" s="41"/>
-      <c r="D727" s="41"/>
-      <c r="E727" s="41"/>
-      <c r="F727" s="41"/>
-      <c r="G727" s="41"/>
-    </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A727" s="12"/>
+      <c r="B727" s="12"/>
+      <c r="C727" s="12"/>
+      <c r="D727" s="12"/>
+      <c r="E727" s="12"/>
+      <c r="F727" s="12"/>
+      <c r="G727" s="12"/>
+    </row>
+    <row r="728" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="12"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
@@ -11528,22 +11594,22 @@
       <c r="G728" s="12"/>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A729" s="12"/>
-      <c r="B729" s="12"/>
-      <c r="C729" s="12"/>
-      <c r="D729" s="12"/>
-      <c r="E729" s="12"/>
-      <c r="F729" s="12"/>
-      <c r="G729" s="12"/>
+      <c r="A729" s="45"/>
+      <c r="B729" s="45"/>
+      <c r="C729" s="45"/>
+      <c r="D729" s="45"/>
+      <c r="E729" s="45"/>
+      <c r="F729" s="45"/>
+      <c r="G729" s="45"/>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A730" s="12"/>
-      <c r="B730" s="12"/>
-      <c r="C730" s="12"/>
-      <c r="D730" s="12"/>
-      <c r="E730" s="12"/>
-      <c r="F730" s="12"/>
-      <c r="G730" s="12"/>
+      <c r="A730" s="45"/>
+      <c r="B730" s="45"/>
+      <c r="C730" s="45"/>
+      <c r="D730" s="45"/>
+      <c r="E730" s="45"/>
+      <c r="F730" s="45"/>
+      <c r="G730" s="45"/>
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A731" s="12"/>
@@ -11591,13 +11657,13 @@
       <c r="G735" s="12"/>
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A736" s="41"/>
-      <c r="B736" s="41"/>
-      <c r="C736" s="41"/>
-      <c r="D736" s="41"/>
-      <c r="E736" s="41"/>
-      <c r="F736" s="41"/>
-      <c r="G736" s="41"/>
+      <c r="A736" s="12"/>
+      <c r="B736" s="12"/>
+      <c r="C736" s="12"/>
+      <c r="D736" s="12"/>
+      <c r="E736" s="12"/>
+      <c r="F736" s="12"/>
+      <c r="G736" s="12"/>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A737" s="12"/>
@@ -11618,13 +11684,13 @@
       <c r="G738" s="12"/>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A739" s="12"/>
-      <c r="B739" s="12"/>
-      <c r="C739" s="12"/>
-      <c r="D739" s="12"/>
-      <c r="E739" s="12"/>
-      <c r="F739" s="12"/>
-      <c r="G739" s="12"/>
+      <c r="A739" s="45"/>
+      <c r="B739" s="45"/>
+      <c r="C739" s="45"/>
+      <c r="D739" s="45"/>
+      <c r="E739" s="45"/>
+      <c r="F739" s="45"/>
+      <c r="G739" s="45"/>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A740" s="12"/>
@@ -11672,13 +11738,13 @@
       <c r="G744" s="12"/>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A745" s="41"/>
-      <c r="B745" s="41"/>
-      <c r="C745" s="41"/>
-      <c r="D745" s="41"/>
-      <c r="E745" s="41"/>
-      <c r="F745" s="41"/>
-      <c r="G745" s="41"/>
+      <c r="A745" s="12"/>
+      <c r="B745" s="12"/>
+      <c r="C745" s="12"/>
+      <c r="D745" s="12"/>
+      <c r="E745" s="12"/>
+      <c r="F745" s="12"/>
+      <c r="G745" s="12"/>
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A746" s="12"/>
@@ -11699,13 +11765,13 @@
       <c r="G747" s="12"/>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A748" s="12"/>
-      <c r="B748" s="12"/>
-      <c r="C748" s="12"/>
-      <c r="D748" s="12"/>
-      <c r="E748" s="12"/>
-      <c r="F748" s="12"/>
-      <c r="G748" s="12"/>
+      <c r="A748" s="45"/>
+      <c r="B748" s="45"/>
+      <c r="C748" s="45"/>
+      <c r="D748" s="45"/>
+      <c r="E748" s="45"/>
+      <c r="F748" s="45"/>
+      <c r="G748" s="45"/>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A749" s="12"/>
@@ -11852,13 +11918,13 @@
       <c r="G764" s="12"/>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A765" s="41"/>
-      <c r="B765" s="41"/>
-      <c r="C765" s="41"/>
-      <c r="D765" s="41"/>
-      <c r="E765" s="41"/>
-      <c r="F765" s="41"/>
-      <c r="G765" s="41"/>
+      <c r="A765" s="12"/>
+      <c r="B765" s="12"/>
+      <c r="C765" s="12"/>
+      <c r="D765" s="12"/>
+      <c r="E765" s="12"/>
+      <c r="F765" s="12"/>
+      <c r="G765" s="12"/>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A766" s="12"/>
@@ -11879,13 +11945,13 @@
       <c r="G767" s="12"/>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A768" s="12"/>
-      <c r="B768" s="12"/>
-      <c r="C768" s="12"/>
-      <c r="D768" s="12"/>
-      <c r="E768" s="12"/>
-      <c r="F768" s="12"/>
-      <c r="G768" s="12"/>
+      <c r="A768" s="45"/>
+      <c r="B768" s="45"/>
+      <c r="C768" s="45"/>
+      <c r="D768" s="45"/>
+      <c r="E768" s="45"/>
+      <c r="F768" s="45"/>
+      <c r="G768" s="45"/>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A769" s="12"/>
@@ -12094,33 +12160,60 @@
       <c r="F791" s="12"/>
       <c r="G791" s="12"/>
     </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A792" s="12"/>
+      <c r="B792" s="12"/>
+      <c r="C792" s="12"/>
+      <c r="D792" s="12"/>
+      <c r="E792" s="12"/>
+      <c r="F792" s="12"/>
+      <c r="G792" s="12"/>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A793" s="12"/>
+      <c r="B793" s="12"/>
+      <c r="C793" s="12"/>
+      <c r="D793" s="12"/>
+      <c r="E793" s="12"/>
+      <c r="F793" s="12"/>
+      <c r="G793" s="12"/>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A794" s="12"/>
+      <c r="B794" s="12"/>
+      <c r="C794" s="12"/>
+      <c r="D794" s="12"/>
+      <c r="E794" s="12"/>
+      <c r="F794" s="12"/>
+      <c r="G794" s="12"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <mergeCells count="24">
-    <mergeCell ref="A100:G100"/>
-    <mergeCell ref="A486:G486"/>
-    <mergeCell ref="A654:G654"/>
-    <mergeCell ref="A683:G683"/>
-    <mergeCell ref="A703:G703"/>
-    <mergeCell ref="A377:G377"/>
-    <mergeCell ref="A398:G398"/>
-    <mergeCell ref="A411:G411"/>
-    <mergeCell ref="A431:G431"/>
-    <mergeCell ref="A466:G466"/>
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="A275:G275"/>
-    <mergeCell ref="A344:G344"/>
-    <mergeCell ref="A360:G360"/>
-    <mergeCell ref="A736:G736"/>
-    <mergeCell ref="A745:G745"/>
-    <mergeCell ref="A765:G765"/>
-    <mergeCell ref="A498:G498"/>
-    <mergeCell ref="A519:G519"/>
-    <mergeCell ref="A547:G547"/>
-    <mergeCell ref="A580:G580"/>
-    <mergeCell ref="A618:G618"/>
-    <mergeCell ref="A726:G726"/>
-    <mergeCell ref="A727:G727"/>
+    <mergeCell ref="A739:G739"/>
+    <mergeCell ref="A748:G748"/>
+    <mergeCell ref="A768:G768"/>
+    <mergeCell ref="A501:G501"/>
+    <mergeCell ref="A522:G522"/>
+    <mergeCell ref="A550:G550"/>
+    <mergeCell ref="A583:G583"/>
+    <mergeCell ref="A621:G621"/>
+    <mergeCell ref="A729:G729"/>
+    <mergeCell ref="A730:G730"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A489:G489"/>
+    <mergeCell ref="A657:G657"/>
+    <mergeCell ref="A686:G686"/>
+    <mergeCell ref="A706:G706"/>
+    <mergeCell ref="A380:G380"/>
+    <mergeCell ref="A401:G401"/>
+    <mergeCell ref="A414:G414"/>
+    <mergeCell ref="A434:G434"/>
+    <mergeCell ref="A469:G469"/>
+    <mergeCell ref="A116:G116"/>
+    <mergeCell ref="A278:G278"/>
+    <mergeCell ref="A347:G347"/>
+    <mergeCell ref="A363:G363"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12132,7 +12225,48 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12170,39 +12304,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.08984375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="15" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.08984375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -12212,12 +12352,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12254,11 +12394,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/com/born/xls/My Account.xlsx
+++ b/src/test/java/com/born/xls/My Account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="326">
   <si>
     <t>TCID</t>
   </si>
@@ -350,9 +350,6 @@
     <t xml:space="preserve">Click on Add to Project button </t>
   </si>
   <si>
-    <t>ProductDetails_Page</t>
-  </si>
-  <si>
     <t>Compare_Button</t>
   </si>
   <si>
@@ -516,9 +513,6 @@
   </si>
   <si>
     <t>Verifying the functionality of the Your Shower Experience option available on the Desigh &amp; Innovation tab</t>
-  </si>
-  <si>
-    <t>Verifying the Training option available in the For Professional MENU.</t>
   </si>
   <si>
     <t>Verifying the For Professional button functionality available in the main menu.</t>
@@ -1581,15 +1575,9 @@
     <t>Verifying the Training option</t>
   </si>
   <si>
-    <t>Training URL</t>
-  </si>
-  <si>
     <t>https://www.deltafaucet.com/for-professionals/training</t>
   </si>
   <si>
-    <t>col|Training URL</t>
-  </si>
-  <si>
     <t>TS020</t>
   </si>
   <si>
@@ -1611,14 +1599,26 @@
     <t>Select the Product</t>
   </si>
   <si>
-    <t>WhereToBuyDetails_Box</t>
+    <t>TS021</t>
+  </si>
+  <si>
+    <t>TS022</t>
+  </si>
+  <si>
+    <t>SearchResult_Text</t>
+  </si>
+  <si>
+    <t>TrainingURL</t>
+  </si>
+  <si>
+    <t>col|TrainingURL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1680,6 +1680,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1805,7 +1813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1910,6 +1918,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2224,8 +2235,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2252,7 +2263,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>89</v>
@@ -2263,7 +2274,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>89</v>
@@ -2274,7 +2285,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>89</v>
@@ -2296,7 +2307,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>89</v>
@@ -2307,7 +2318,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>89</v>
@@ -2318,7 +2329,7 @@
         <v>102</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>89</v>
@@ -2329,7 +2340,7 @@
         <v>103</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>89</v>
@@ -2337,10 +2348,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>89</v>
@@ -2348,10 +2359,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>89</v>
@@ -2359,10 +2370,10 @@
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>89</v>
@@ -2370,10 +2381,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>89</v>
@@ -2381,10 +2392,10 @@
     </row>
     <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>89</v>
@@ -2403,10 +2414,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>89</v>
@@ -2414,10 +2425,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>89</v>
@@ -2425,10 +2436,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>89</v>
@@ -2436,10 +2447,10 @@
     </row>
     <row r="19" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>89</v>
@@ -2447,10 +2458,10 @@
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
-        <v>164</v>
+        <v>312</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>89</v>
@@ -2458,10 +2469,10 @@
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>89</v>
@@ -2472,7 +2483,7 @@
         <v>81</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>89</v>
@@ -2480,10 +2491,10 @@
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>89</v>
@@ -2491,10 +2502,10 @@
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>89</v>
@@ -2502,10 +2513,10 @@
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>89</v>
@@ -2513,10 +2524,10 @@
     </row>
     <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>89</v>
@@ -2524,10 +2535,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>89</v>
@@ -2535,10 +2546,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>89</v>
@@ -2546,10 +2557,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>89</v>
@@ -2557,10 +2568,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>89</v>
@@ -2576,10 +2587,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H794"/>
+  <dimension ref="A1:H796"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3061,13 +3072,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>30</v>
@@ -3080,13 +3091,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>10</v>
@@ -3099,13 +3110,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>43</v>
@@ -3118,13 +3129,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>35</v>
@@ -3137,73 +3148,73 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>150</v>
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
@@ -3343,7 +3354,7 @@
         <v>90</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>62</v>
@@ -3639,7 +3650,7 @@
         <v>27</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D59" s="33" t="s">
         <v>10</v>
@@ -3677,7 +3688,7 @@
         <v>25</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D61" s="33" t="s">
         <v>12</v>
@@ -3698,13 +3709,13 @@
         <v>24</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
@@ -3717,10 +3728,10 @@
         <v>23</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E63" s="33" t="s">
         <v>86</v>
@@ -3736,13 +3747,13 @@
         <v>22</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -3755,7 +3766,7 @@
         <v>21</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D65" s="33" t="s">
         <v>33</v>
@@ -3774,13 +3785,13 @@
         <v>20</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -3796,10 +3807,10 @@
         <v>79</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E67" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -3812,13 +3823,13 @@
         <v>14</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>110</v>
+        <v>311</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>310</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -3831,17 +3842,15 @@
         <v>15</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" s="33" t="s">
-        <v>113</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F69" s="33"/>
       <c r="G69" s="33"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -3852,15 +3861,17 @@
         <v>16</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="E70" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F70" s="33"/>
+      <c r="F70" s="33" t="s">
+        <v>112</v>
+      </c>
       <c r="G70" s="33"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -3871,13 +3882,13 @@
         <v>17</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -3890,13 +3901,13 @@
         <v>18</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -3909,13 +3920,13 @@
         <v>19</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -3928,13 +3939,13 @@
         <v>101</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="E74" s="33" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -3944,16 +3955,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>125</v>
+        <v>311</v>
+      </c>
+      <c r="E75" s="35" t="s">
+        <v>310</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -3963,16 +3974,16 @@
         <v>78</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -3982,82 +3993,82 @@
         <v>78</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E77" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>124</v>
+      </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
+      <c r="A78" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="26" t="s">
-        <v>102</v>
+      <c r="A79" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>28</v>
+        <v>322</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E79" s="33"/>
-      <c r="F79" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F79" s="33"/>
       <c r="G79" s="33"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="33"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="26" t="s">
         <v>102</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F81" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G81" s="33"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -4065,18 +4076,18 @@
         <v>102</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F82" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G82" s="33"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -4084,16 +4095,16 @@
         <v>102</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -4103,16 +4114,16 @@
         <v>102</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>312</v>
+        <v>35</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -4122,16 +4133,16 @@
         <v>102</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E85" s="33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -4141,16 +4152,16 @@
         <v>102</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>105</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -4160,16 +4171,16 @@
         <v>102</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
@@ -4179,82 +4190,82 @@
         <v>102</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E88" s="33"/>
+        <v>311</v>
+      </c>
+      <c r="E88" s="35" t="s">
+        <v>310</v>
+      </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="34"/>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
+      <c r="A89" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E90" s="33"/>
-      <c r="F90" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F90" s="33"/>
       <c r="G90" s="33"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D91" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="33"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
         <v>103</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E92" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F92" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G92" s="33"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -4262,18 +4273,18 @@
         <v>103</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F93" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G93" s="33"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -4281,16 +4292,16 @@
         <v>103</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -4300,16 +4311,16 @@
         <v>103</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -4319,16 +4330,16 @@
         <v>103</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E96" s="35" t="s">
-        <v>312</v>
+        <v>34</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>57</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -4338,16 +4349,16 @@
         <v>103</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -4357,16 +4368,16 @@
         <v>103</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E98" s="33" t="s">
-        <v>67</v>
+        <v>311</v>
+      </c>
+      <c r="E98" s="35" t="s">
+        <v>310</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -4376,16 +4387,16 @@
         <v>103</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D99" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -4395,82 +4406,82 @@
         <v>103</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E100" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>67</v>
+      </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="42"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="44"/>
+      <c r="A101" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="6" t="s">
-        <v>81</v>
+      <c r="A102" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="B102" s="33" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E102" s="33"/>
-      <c r="F102" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F102" s="33"/>
       <c r="G102" s="33"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B103" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D103" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" s="33"/>
+      <c r="A103" s="42"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="44"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F104" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G104" s="33"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -4478,19 +4489,17 @@
         <v>81</v>
       </c>
       <c r="B105" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="33" t="s">
-        <v>86</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E105" s="33"/>
       <c r="F105" s="33" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="G105" s="33"/>
     </row>
@@ -4499,16 +4508,16 @@
         <v>81</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E106" s="35" t="s">
-        <v>312</v>
+        <v>33</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -4518,18 +4527,20 @@
         <v>81</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="E107" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F107" s="33"/>
+      <c r="F107" s="33" t="s">
+        <v>87</v>
+      </c>
       <c r="G107" s="33"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -4537,16 +4548,16 @@
         <v>81</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C108" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -4556,16 +4567,16 @@
         <v>81</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C109" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="E109" s="33" t="s">
-        <v>193</v>
+        <v>86</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -4575,179 +4586,179 @@
         <v>81</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E110" s="33"/>
+        <v>311</v>
+      </c>
+      <c r="E110" s="35" t="s">
+        <v>310</v>
+      </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="34"/>
-      <c r="B111" s="34"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-    </row>
-    <row r="112" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A112" s="25" t="s">
-        <v>156</v>
+      <c r="A111" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D111" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="F111" s="33"/>
+      <c r="G111" s="33"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B112" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D112" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="34"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+    </row>
+    <row r="114" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A114" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C112" s="33" t="s">
+      <c r="C114" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D112" s="33" t="s">
+      <c r="D114" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33" t="s">
+      <c r="E114" s="33"/>
+      <c r="F114" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G112" s="33"/>
-    </row>
-    <row r="113" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A113" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B113" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C113" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D113" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="33"/>
-    </row>
-    <row r="114" spans="1:7" ht="145" x14ac:dyDescent="0.35">
-      <c r="A114" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B114" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="D114" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E114" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="F114" s="33"/>
       <c r="G114" s="33"/>
     </row>
     <row r="115" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C115" s="33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
+      <c r="F115" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G115" s="33"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="42"/>
-      <c r="B116" s="43"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="44"/>
+    <row r="116" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="A116" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
     </row>
     <row r="117" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="25" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C117" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E117" s="33"/>
-      <c r="F117" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F117" s="33"/>
       <c r="G117" s="33"/>
     </row>
-    <row r="118" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B118" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C118" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D118" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" s="33"/>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="42"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="44"/>
     </row>
     <row r="119" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C119" s="31" t="s">
-        <v>296</v>
+        <v>28</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E119" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F119" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G119" s="33"/>
     </row>
     <row r="120" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C120" s="33" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="E120" s="33"/>
       <c r="F120" s="33" t="s">
@@ -4757,186 +4768,184 @@
     </row>
     <row r="121" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>294</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E121" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E121" s="33" t="s">
+        <v>173</v>
+      </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="34"/>
-      <c r="B122" s="34"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="34"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="26" t="s">
-        <v>158</v>
+    <row r="122" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E122" s="33"/>
+      <c r="F122" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G122" s="33"/>
+    </row>
+    <row r="123" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A123" s="25" t="s">
+        <v>156</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C123" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E123" s="33"/>
-      <c r="F123" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F123" s="33"/>
       <c r="G123" s="33"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B124" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C124" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D124" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" s="33"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="34"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C125" s="33" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="D125" s="33" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="E125" s="33"/>
-      <c r="F125" s="33"/>
+      <c r="F125" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G125" s="33"/>
     </row>
-    <row r="126" spans="1:7" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="27" t="s">
-        <v>158</v>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="26" t="s">
+        <v>157</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C126" s="32" t="s">
-        <v>177</v>
+        <v>27</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E126" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="F126" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G126" s="33"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="E127" s="33"/>
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="34"/>
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="34"/>
-      <c r="F128" s="34"/>
-      <c r="G128" s="34"/>
+    <row r="128" spans="1:7" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F128" s="33"/>
+      <c r="G128" s="33"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="26" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D129" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E129" s="33"/>
-      <c r="F129" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F129" s="33"/>
       <c r="G129" s="33"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C130" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D130" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" s="33"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
+      <c r="F130" s="34"/>
+      <c r="G130" s="34"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C131" s="33" t="s">
-        <v>320</v>
+        <v>31</v>
       </c>
       <c r="D131" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" s="33" t="s">
-        <v>86</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E131" s="33"/>
       <c r="F131" s="33" t="s">
-        <v>321</v>
+        <v>9</v>
       </c>
       <c r="G131" s="33"/>
     </row>
@@ -4945,18 +4954,18 @@
         <v>91</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E132" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="F132" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G132" s="33"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -4964,18 +4973,20 @@
         <v>91</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="E133" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F133" s="33"/>
+      <c r="F133" s="33" t="s">
+        <v>317</v>
+      </c>
       <c r="G133" s="33"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -4983,16 +4994,16 @@
         <v>91</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C134" s="33" t="s">
         <v>90</v>
       </c>
       <c r="D134" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="E134" s="35" t="s">
         <v>310</v>
-      </c>
-      <c r="E134" s="35" t="s">
-        <v>323</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -5002,16 +5013,16 @@
         <v>91</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D135" s="33" t="s">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="E135" s="33" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
@@ -5021,16 +5032,16 @@
         <v>91</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>90</v>
       </c>
       <c r="D136" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="E136" s="33" t="s">
-        <v>128</v>
+        <v>308</v>
+      </c>
+      <c r="E136" s="35" t="s">
+        <v>319</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
@@ -5040,16 +5051,16 @@
         <v>91</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>93</v>
+        <v>320</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E137" s="33" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
@@ -5059,16 +5070,16 @@
         <v>91</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C138" s="33" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="E138" s="35" t="s">
-        <v>135</v>
+        <v>308</v>
+      </c>
+      <c r="E138" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
@@ -5078,16 +5089,16 @@
         <v>91</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D139" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E139" s="35" t="s">
-        <v>129</v>
+      <c r="E139" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
@@ -5097,16 +5108,16 @@
         <v>91</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>35</v>
+        <v>308</v>
       </c>
       <c r="E140" s="35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -5116,20 +5127,18 @@
         <v>91</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E141" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F141" s="33" t="s">
-        <v>142</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F141" s="33"/>
       <c r="G141" s="33"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -5137,20 +5146,18 @@
         <v>91</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="F142" s="33" t="s">
-        <v>143</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F142" s="33"/>
       <c r="G142" s="33"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
@@ -5158,18 +5165,20 @@
         <v>91</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="E143" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="F143" s="33"/>
+        <v>134</v>
+      </c>
+      <c r="F143" s="33" t="s">
+        <v>141</v>
+      </c>
       <c r="G143" s="33"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
@@ -5177,18 +5186,20 @@
         <v>91</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="E144" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F144" s="33"/>
+        <v>133</v>
+      </c>
+      <c r="F144" s="33" t="s">
+        <v>142</v>
+      </c>
       <c r="G144" s="33"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
@@ -5196,16 +5207,16 @@
         <v>91</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>303</v>
+        <v>98</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="E145" s="35" t="s">
-        <v>302</v>
+        <v>132</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
@@ -5215,13 +5226,13 @@
         <v>91</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>301</v>
+        <v>99</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="E146" s="35" t="s">
         <v>131</v>
@@ -5234,16 +5245,16 @@
         <v>91</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>298</v>
+        <v>101</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>100</v>
+        <v>301</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E147" s="35" t="s">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
@@ -5253,2295 +5264,2315 @@
         <v>91</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>318</v>
+        <v>126</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>39</v>
+        <v>299</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E148" s="35"/>
+        <v>35</v>
+      </c>
+      <c r="E148" s="35" t="s">
+        <v>130</v>
+      </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="34"/>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="34"/>
-      <c r="F149" s="34"/>
-      <c r="G149" s="34"/>
-    </row>
-    <row r="150" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A150" s="25" t="s">
-        <v>159</v>
+      <c r="A149" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E149" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>28</v>
+        <v>314</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E150" s="35"/>
+      <c r="F150" s="33"/>
       <c r="G150" s="33"/>
     </row>
-    <row r="151" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A151" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B151" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C151" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D151" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" s="33"/>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="34"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="34"/>
+      <c r="F151" s="34"/>
+      <c r="G151" s="34"/>
     </row>
     <row r="152" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C152" s="31" t="s">
-        <v>294</v>
+        <v>28</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E152" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F152" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G152" s="33"/>
     </row>
     <row r="153" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E153" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F153" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G153" s="33"/>
     </row>
     <row r="154" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>171</v>
+        <v>26</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>292</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154" s="35" t="s">
-        <v>183</v>
+        <v>43</v>
+      </c>
+      <c r="E154" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
     </row>
     <row r="155" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
     </row>
     <row r="156" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D156" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E156" s="33" t="s">
-        <v>184</v>
+      <c r="E156" s="35" t="s">
+        <v>181</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
     </row>
     <row r="157" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D157" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E157" s="35" t="s">
-        <v>183</v>
+      <c r="E157" s="33" t="s">
+        <v>182</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
     </row>
     <row r="158" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E158" s="35"/>
+        <v>35</v>
+      </c>
+      <c r="E158" s="33" t="s">
+        <v>182</v>
+      </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="34"/>
-      <c r="B159" s="34"/>
-      <c r="C159" s="34"/>
-      <c r="D159" s="34"/>
-      <c r="E159" s="36"/>
-      <c r="F159" s="34"/>
-      <c r="G159" s="34"/>
+    <row r="159" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A159" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F159" s="33"/>
+      <c r="G159" s="33"/>
     </row>
     <row r="160" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E160" s="33"/>
-      <c r="F160" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G160" s="37"/>
-    </row>
-    <row r="161" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B161" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C161" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D161" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" s="37"/>
+        <v>52</v>
+      </c>
+      <c r="E160" s="35"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="33"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="34"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="34"/>
+      <c r="E161" s="36"/>
+      <c r="F161" s="34"/>
+      <c r="G161" s="34"/>
     </row>
     <row r="162" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E162" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F162" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G162" s="37"/>
     </row>
     <row r="163" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E163" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F163" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G163" s="37"/>
     </row>
     <row r="164" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E164" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="37"/>
     </row>
     <row r="165" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>310</v>
+        <v>35</v>
       </c>
       <c r="E165" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="37"/>
     </row>
     <row r="166" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C166" s="33" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E166" s="33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="37"/>
     </row>
-    <row r="167" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C167" s="32" t="s">
-        <v>192</v>
+        <v>23</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>105</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E167" s="35" t="s">
-        <v>193</v>
+        <v>308</v>
+      </c>
+      <c r="E167" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="37"/>
     </row>
     <row r="168" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C168" s="33" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="D168" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E168" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="E168" s="33" t="s">
+        <v>61</v>
+      </c>
       <c r="F168" s="33"/>
       <c r="G168" s="37"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="34"/>
-      <c r="B169" s="34"/>
-      <c r="C169" s="34"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="34"/>
-      <c r="F169" s="34"/>
-      <c r="G169" s="34"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="26" t="s">
-        <v>161</v>
+    <row r="169" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A169" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B169" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D169" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E169" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F169" s="33"/>
+      <c r="G169" s="37"/>
+    </row>
+    <row r="170" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A170" s="25" t="s">
+        <v>159</v>
       </c>
       <c r="B170" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="37"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="34"/>
+      <c r="B171" s="34"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
+      <c r="E171" s="34"/>
+      <c r="F171" s="34"/>
+      <c r="G171" s="34"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B172" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C170" s="33" t="s">
+      <c r="C172" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D170" s="33" t="s">
+      <c r="D172" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E170" s="33"/>
-      <c r="F170" s="33" t="s">
+      <c r="E172" s="33"/>
+      <c r="F172" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G170" s="33"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B171" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C171" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D171" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" s="33"/>
-    </row>
-    <row r="172" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A172" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B172" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C172" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="D172" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E172" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F172" s="33"/>
       <c r="G172" s="33"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="D173" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E173" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F173" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G173" s="33"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C174" s="33" t="s">
-        <v>186</v>
+        <v>26</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>292</v>
       </c>
       <c r="D174" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E174" s="35" t="s">
-        <v>188</v>
+        <v>43</v>
+      </c>
+      <c r="E174" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D175" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E175" s="35" t="s">
-        <v>189</v>
+        <v>35</v>
+      </c>
+      <c r="E175" s="33" t="s">
+        <v>42</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B176" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="D176" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E176" s="35"/>
+        <v>35</v>
+      </c>
+      <c r="E176" s="35" t="s">
+        <v>186</v>
+      </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="34"/>
-      <c r="B177" s="34"/>
-      <c r="C177" s="34"/>
-      <c r="D177" s="34"/>
-      <c r="E177" s="36"/>
-      <c r="F177" s="34"/>
-      <c r="G177" s="34"/>
-    </row>
-    <row r="178" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A178" s="25" t="s">
-        <v>162</v>
+      <c r="A177" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B177" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D177" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E177" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F177" s="33"/>
+      <c r="G177" s="33"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" s="26" t="s">
+        <v>160</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C178" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D178" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E178" s="33"/>
-      <c r="F178" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E178" s="35"/>
+      <c r="F178" s="33"/>
       <c r="G178" s="33"/>
     </row>
-    <row r="179" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A179" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B179" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C179" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D179" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E179" s="33"/>
-      <c r="F179" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" s="33"/>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" s="34"/>
+      <c r="B179" s="34"/>
+      <c r="C179" s="34"/>
+      <c r="D179" s="34"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="34"/>
+      <c r="G179" s="34"/>
     </row>
     <row r="180" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B180" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C180" s="32" t="s">
-        <v>195</v>
+        <v>28</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D180" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E180" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F180" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E180" s="33"/>
+      <c r="F180" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G180" s="33"/>
     </row>
     <row r="181" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B181" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="33"/>
+      <c r="F181" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181" s="33"/>
+    </row>
+    <row r="182" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A182" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B182" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C182" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D182" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E182" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F182" s="33"/>
+      <c r="G182" s="33"/>
+    </row>
+    <row r="183" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A183" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B183" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C181" s="33" t="s">
+      <c r="C183" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D181" s="33" t="s">
+      <c r="D183" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E181" s="35"/>
-      <c r="F181" s="33"/>
-      <c r="G181" s="33"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" s="34"/>
-      <c r="B182" s="34"/>
-      <c r="C182" s="34"/>
-      <c r="D182" s="34"/>
-      <c r="E182" s="36"/>
-      <c r="F182" s="34"/>
-      <c r="G182" s="34"/>
-    </row>
-    <row r="183" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A183" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B183" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C183" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D183" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E183" s="33"/>
-      <c r="F183" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="E183" s="35"/>
+      <c r="F183" s="33"/>
       <c r="G183" s="33"/>
     </row>
-    <row r="184" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B184" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C184" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D184" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E184" s="33"/>
-      <c r="F184" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G184" s="33"/>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" s="34"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="34"/>
+      <c r="E184" s="36"/>
+      <c r="F184" s="34"/>
+      <c r="G184" s="34"/>
     </row>
     <row r="185" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A185" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B185" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C185" s="31" t="s">
-        <v>297</v>
+        <v>28</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D185" s="33" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="E185" s="33"/>
-      <c r="F185" s="33"/>
+      <c r="F185" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G185" s="33"/>
     </row>
     <row r="186" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A186" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B186" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C186" s="32" t="s">
-        <v>196</v>
+        <v>27</v>
+      </c>
+      <c r="C186" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D186" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E186" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="F186" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E186" s="33"/>
+      <c r="F186" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G186" s="33"/>
     </row>
-    <row r="187" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A187" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B187" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C187" s="32" t="s">
-        <v>199</v>
+        <v>26</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>295</v>
       </c>
       <c r="D187" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E187" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="F187" s="32" t="s">
-        <v>208</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="E187" s="33"/>
+      <c r="F187" s="33"/>
       <c r="G187" s="33"/>
     </row>
     <row r="188" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A188" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B188" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D188" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E188" s="32" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
     </row>
-    <row r="189" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A189" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B189" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C189" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D189" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E189" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F189" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G189" s="33"/>
+    </row>
+    <row r="190" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A190" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B190" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D190" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E190" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F190" s="33"/>
+      <c r="G190" s="33"/>
+    </row>
+    <row r="191" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A191" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B191" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C191" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D191" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E191" s="32"/>
+      <c r="F191" s="33"/>
+      <c r="G191" s="33"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" s="34"/>
+      <c r="B192" s="34"/>
+      <c r="C192" s="34"/>
+      <c r="D192" s="34"/>
+      <c r="E192" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F192" s="34"/>
+      <c r="G192" s="34"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="B193" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C193" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D193" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E193" s="32"/>
+      <c r="F193" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G193" s="33"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="B194" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C194" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D194" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="33"/>
+      <c r="F194" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="G194" s="33"/>
+    </row>
+    <row r="195" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A195" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="B195" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C195" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D195" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E195" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="F195" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="G195" s="33"/>
+    </row>
+    <row r="196" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="B196" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D196" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E196" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="F196" s="33"/>
+      <c r="G196" s="33"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="B197" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C197" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D197" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E197" s="33"/>
+      <c r="F197" s="33"/>
+      <c r="G197" s="33"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" s="34"/>
+      <c r="B198" s="34"/>
+      <c r="C198" s="34"/>
+      <c r="D198" s="34"/>
+      <c r="E198" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F198" s="34"/>
+      <c r="G198" s="34"/>
+    </row>
+    <row r="199" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B189" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C189" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D189" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E189" s="32"/>
-      <c r="F189" s="33"/>
-      <c r="G189" s="33"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" s="34"/>
-      <c r="B190" s="34"/>
-      <c r="C190" s="34"/>
-      <c r="D190" s="34"/>
-      <c r="E190" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F190" s="34"/>
-      <c r="G190" s="34"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B191" s="33" t="s">
+      <c r="B199" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C191" s="33" t="s">
+      <c r="C199" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D191" s="33" t="s">
+      <c r="D199" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E191" s="32"/>
-      <c r="F191" s="33" t="s">
+      <c r="E199" s="32"/>
+      <c r="F199" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G191" s="33"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B192" s="33" t="s">
+      <c r="G199" s="33"/>
+    </row>
+    <row r="200" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B200" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C192" s="33" t="s">
+      <c r="C200" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D192" s="33" t="s">
+      <c r="D200" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E192" s="33"/>
-      <c r="F192" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="G192" s="33"/>
-    </row>
-    <row r="193" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A193" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B193" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C193" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D193" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E193" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F193" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="G193" s="33"/>
-    </row>
-    <row r="194" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B194" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C194" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="D194" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E194" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="F194" s="33"/>
-      <c r="G194" s="33"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B195" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C195" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D195" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E195" s="33"/>
-      <c r="F195" s="33"/>
-      <c r="G195" s="33"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" s="34"/>
-      <c r="B196" s="34"/>
-      <c r="C196" s="34"/>
-      <c r="D196" s="34"/>
-      <c r="E196" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F196" s="34"/>
-      <c r="G196" s="34"/>
-    </row>
-    <row r="197" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B197" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C197" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D197" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E197" s="32"/>
-      <c r="F197" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G197" s="33"/>
-    </row>
-    <row r="198" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B198" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C198" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D198" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E198" s="33"/>
-      <c r="F198" s="33" t="s">
+      <c r="E200" s="33"/>
+      <c r="F200" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G198" s="33"/>
-    </row>
-    <row r="199" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A199" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B199" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C199" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="D199" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E199" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="F199" s="33"/>
-      <c r="G199" s="33"/>
-    </row>
-    <row r="200" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A200" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B200" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C200" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D200" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E200" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="F200" s="33"/>
       <c r="G200" s="33"/>
     </row>
     <row r="201" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A201" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B201" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C201" s="33" t="s">
-        <v>39</v>
+        <v>26</v>
+      </c>
+      <c r="C201" s="32" t="s">
+        <v>209</v>
       </c>
       <c r="D201" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E201" s="35"/>
+        <v>43</v>
+      </c>
+      <c r="E201" s="33" t="s">
+        <v>213</v>
+      </c>
       <c r="F201" s="33"/>
       <c r="G201" s="33"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" s="34"/>
-      <c r="B202" s="34"/>
-      <c r="C202" s="34"/>
-      <c r="D202" s="34"/>
-      <c r="E202" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F202" s="34"/>
-      <c r="G202" s="34"/>
-    </row>
-    <row r="203" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A202" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B202" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="D202" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E202" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F202" s="33"/>
+      <c r="G202" s="33"/>
+    </row>
+    <row r="203" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B203" s="33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C203" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D203" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E203" s="32"/>
-      <c r="F203" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E203" s="35"/>
+      <c r="F203" s="33"/>
       <c r="G203" s="33"/>
     </row>
-    <row r="204" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A204" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B204" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C204" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D204" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E204" s="33"/>
-      <c r="F204" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G204" s="33"/>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" s="34"/>
+      <c r="B204" s="34"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="34"/>
+      <c r="E204" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F204" s="34"/>
+      <c r="G204" s="34"/>
     </row>
     <row r="205" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B205" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C205" s="32" t="s">
-        <v>211</v>
+        <v>28</v>
+      </c>
+      <c r="C205" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D205" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E205" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="F205" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E205" s="32"/>
+      <c r="F205" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G205" s="33"/>
     </row>
     <row r="206" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B206" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C206" s="32" t="s">
-        <v>220</v>
+        <v>27</v>
+      </c>
+      <c r="C206" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D206" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E206" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="F206" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E206" s="33"/>
+      <c r="F206" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G206" s="33"/>
     </row>
     <row r="207" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B207" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D207" s="33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E207" s="33" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="33"/>
     </row>
     <row r="208" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B208" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D208" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E208" s="33" t="s">
-        <v>230</v>
+      <c r="E208" s="35" t="s">
+        <v>216</v>
       </c>
       <c r="F208" s="33"/>
       <c r="G208" s="33"/>
     </row>
     <row r="209" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B209" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D209" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E209" s="33" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="33"/>
     </row>
     <row r="210" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B210" s="33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D210" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E210" s="33" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="33"/>
     </row>
     <row r="211" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B211" s="33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D211" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E211" s="33" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="33"/>
     </row>
     <row r="212" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D212" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
     </row>
     <row r="213" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B213" s="33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D213" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E213" s="33" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
     </row>
     <row r="214" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B214" s="33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D214" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E214" s="33" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
     </row>
     <row r="215" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B215" s="33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D215" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E215" s="33" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
     </row>
     <row r="216" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B216" s="33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D216" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E216" s="33" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F216" s="33"/>
       <c r="G216" s="33"/>
     </row>
     <row r="217" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B217" s="33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D217" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E217" s="33" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F217" s="33"/>
       <c r="G217" s="33"/>
     </row>
     <row r="218" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B218" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C218" s="33" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="C218" s="32" t="s">
+        <v>225</v>
       </c>
       <c r="D218" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E218" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E218" s="33" t="s">
+        <v>231</v>
+      </c>
       <c r="F218" s="33"/>
       <c r="G218" s="33"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A219" s="34"/>
-      <c r="B219" s="34"/>
-      <c r="C219" s="34"/>
-      <c r="D219" s="34"/>
-      <c r="E219" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F219" s="34"/>
-      <c r="G219" s="34"/>
-    </row>
-    <row r="220" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A219" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B219" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C219" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D219" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E219" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F219" s="33"/>
+      <c r="G219" s="33"/>
+    </row>
+    <row r="220" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="25" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B220" s="33" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C220" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D220" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E220" s="32"/>
-      <c r="F220" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E220" s="33"/>
+      <c r="F220" s="33"/>
       <c r="G220" s="33"/>
     </row>
-    <row r="221" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="B221" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C221" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D221" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E221" s="33"/>
-      <c r="F221" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G221" s="33"/>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" s="34"/>
+      <c r="B221" s="34"/>
+      <c r="C221" s="34"/>
+      <c r="D221" s="34"/>
+      <c r="E221" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F221" s="34"/>
+      <c r="G221" s="34"/>
     </row>
     <row r="222" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A222" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B222" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C222" s="32" t="s">
-        <v>211</v>
+        <v>28</v>
+      </c>
+      <c r="C222" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D222" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E222" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="F222" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E222" s="32"/>
+      <c r="F222" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G222" s="33"/>
     </row>
     <row r="223" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A223" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B223" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C223" s="32" t="s">
-        <v>220</v>
+        <v>27</v>
+      </c>
+      <c r="C223" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D223" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E223" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="F223" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G223" s="33"/>
     </row>
     <row r="224" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A224" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B224" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="D224" s="33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E224" s="33" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="33"/>
     </row>
     <row r="225" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A225" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B225" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="D225" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E225" s="33" t="s">
-        <v>242</v>
+      <c r="E225" s="35" t="s">
+        <v>216</v>
       </c>
       <c r="F225" s="33"/>
       <c r="G225" s="33"/>
     </row>
     <row r="226" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A226" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B226" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D226" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E226" s="33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F226" s="33"/>
       <c r="G226" s="33"/>
     </row>
     <row r="227" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A227" s="25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B227" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C227" s="33" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="C227" s="32" t="s">
+        <v>236</v>
       </c>
       <c r="D227" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E227" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E227" s="33" t="s">
+        <v>240</v>
+      </c>
       <c r="F227" s="33"/>
       <c r="G227" s="33"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A228" s="34"/>
-      <c r="B228" s="34"/>
-      <c r="C228" s="34"/>
-      <c r="D228" s="34"/>
-      <c r="E228" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F228" s="34"/>
-      <c r="G228" s="34"/>
+    <row r="228" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A228" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B228" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C228" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D228" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E228" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F228" s="33"/>
+      <c r="G228" s="33"/>
     </row>
     <row r="229" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A229" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B229" s="33" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C229" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D229" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E229" s="32"/>
-      <c r="F229" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E229" s="33"/>
+      <c r="F229" s="33"/>
       <c r="G229" s="33"/>
     </row>
-    <row r="230" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A230" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B230" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C230" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D230" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E230" s="33"/>
-      <c r="F230" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G230" s="33"/>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" s="34"/>
+      <c r="B230" s="34"/>
+      <c r="C230" s="34"/>
+      <c r="D230" s="34"/>
+      <c r="E230" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F230" s="34"/>
+      <c r="G230" s="34"/>
     </row>
     <row r="231" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A231" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B231" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C231" s="32" t="s">
-        <v>211</v>
+        <v>28</v>
+      </c>
+      <c r="C231" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D231" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E231" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="F231" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E231" s="32"/>
+      <c r="F231" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G231" s="33"/>
     </row>
     <row r="232" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A232" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B232" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C232" s="32" t="s">
-        <v>243</v>
+        <v>27</v>
+      </c>
+      <c r="C232" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="D232" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E232" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="F232" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E232" s="33"/>
+      <c r="F232" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G232" s="33"/>
     </row>
     <row r="233" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A233" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B233" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="D233" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E233" s="33" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="33"/>
     </row>
-    <row r="234" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A234" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B234" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C234" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D234" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E234" s="35" t="s">
         <v>244</v>
-      </c>
-      <c r="D234" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E234" s="33" t="s">
-        <v>248</v>
       </c>
       <c r="F234" s="33"/>
       <c r="G234" s="33"/>
     </row>
     <row r="235" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A235" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B235" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C235" s="33" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="C235" s="32" t="s">
+        <v>243</v>
       </c>
       <c r="D235" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E235" s="35"/>
+        <v>34</v>
+      </c>
+      <c r="E235" s="33" t="s">
+        <v>245</v>
+      </c>
       <c r="F235" s="33"/>
       <c r="G235" s="33"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A236" s="34"/>
-      <c r="B236" s="34"/>
-      <c r="C236" s="34"/>
-      <c r="D236" s="34"/>
-      <c r="E236" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F236" s="34"/>
-      <c r="G236" s="34"/>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="A236" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B236" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C236" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D236" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E236" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="F236" s="33"/>
+      <c r="G236" s="33"/>
+    </row>
+    <row r="237" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A237" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B237" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D237" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E237" s="35"/>
+      <c r="F237" s="33"/>
+      <c r="G237" s="33"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238" s="34"/>
+      <c r="B238" s="34"/>
+      <c r="C238" s="34"/>
+      <c r="D238" s="34"/>
+      <c r="E238" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F238" s="34"/>
+      <c r="G238" s="34"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B239" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C237" s="33" t="s">
+      <c r="C239" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D237" s="33" t="s">
+      <c r="D239" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E237" s="32"/>
-      <c r="F237" s="33" t="s">
+      <c r="E239" s="32"/>
+      <c r="F239" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G237" s="33"/>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A238" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B238" s="33" t="s">
+      <c r="G239" s="33"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B240" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C238" s="33" t="s">
+      <c r="C240" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D238" s="33" t="s">
+      <c r="D240" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E238" s="33"/>
-      <c r="F238" s="33" t="s">
+      <c r="E240" s="33"/>
+      <c r="F240" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G238" s="33"/>
-    </row>
-    <row r="239" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A239" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B239" s="33" t="s">
+      <c r="G240" s="33"/>
+    </row>
+    <row r="241" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A241" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B241" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C239" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="D239" s="33" t="s">
+      <c r="C241" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D241" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E239" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="F239" s="33"/>
-      <c r="G239" s="33"/>
-    </row>
-    <row r="240" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A240" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B240" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C240" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="D240" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E240" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="F240" s="33"/>
-      <c r="G240" s="33"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B241" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C241" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D241" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E241" s="35"/>
+      <c r="E241" s="35" t="s">
+        <v>248</v>
+      </c>
       <c r="F241" s="33"/>
       <c r="G241" s="33"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A242" s="34"/>
-      <c r="B242" s="34"/>
-      <c r="C242" s="34"/>
-      <c r="D242" s="34"/>
-      <c r="E242" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F242" s="34"/>
-      <c r="G242" s="34"/>
+    <row r="242" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A242" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B242" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C242" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D242" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E242" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F242" s="33"/>
+      <c r="G242" s="33"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A243" s="32" t="s">
-        <v>251</v>
+      <c r="A243" s="25" t="s">
+        <v>167</v>
       </c>
       <c r="B243" s="33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C243" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D243" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E243" s="33"/>
-      <c r="F243" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E243" s="35"/>
+      <c r="F243" s="33"/>
       <c r="G243" s="33"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="B244" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C244" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D244" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E244" s="33"/>
-      <c r="F244" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G244" s="33"/>
+      <c r="A244" s="34"/>
+      <c r="B244" s="34"/>
+      <c r="C244" s="34"/>
+      <c r="D244" s="34"/>
+      <c r="E244" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F244" s="34"/>
+      <c r="G244" s="34"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B245" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C245" s="33" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D245" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E245" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F245" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E245" s="33"/>
+      <c r="F245" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G245" s="33"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B246" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C246" s="33" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D246" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E246" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F246" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E246" s="33"/>
+      <c r="F246" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G246" s="33"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B247" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C247" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D247" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E247" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F247" s="33"/>
       <c r="G247" s="33"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B248" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C248" s="33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E248" s="33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F248" s="33"/>
       <c r="G248" s="33"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B249" s="33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C249" s="33" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D249" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E249" s="35" t="s">
-        <v>312</v>
+        <v>34</v>
+      </c>
+      <c r="E249" s="33" t="s">
+        <v>57</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="33"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B250" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C250" s="32" t="s">
-        <v>257</v>
+        <v>23</v>
+      </c>
+      <c r="C250" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="D250" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E250" s="35" t="s">
-        <v>256</v>
+      <c r="E250" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="33"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B251" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C251" s="32" t="s">
-        <v>115</v>
+        <v>22</v>
+      </c>
+      <c r="C251" s="33" t="s">
+        <v>90</v>
       </c>
       <c r="D251" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="E251" s="35" t="s">
         <v>310</v>
-      </c>
-      <c r="E251" s="33" t="s">
-        <v>325</v>
       </c>
       <c r="F251" s="33"/>
       <c r="G251" s="33"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B252" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C252" s="33" t="s">
-        <v>258</v>
+        <v>21</v>
+      </c>
+      <c r="C252" s="32" t="s">
+        <v>255</v>
       </c>
       <c r="D252" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E252" s="33" t="s">
-        <v>260</v>
+        <v>33</v>
+      </c>
+      <c r="E252" s="35" t="s">
+        <v>254</v>
       </c>
       <c r="F252" s="33"/>
       <c r="G252" s="33"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B253" s="33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C253" s="33" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D253" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E253" s="33" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F253" s="33"/>
       <c r="G253" s="33"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B254" s="33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C254" s="33" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="D254" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E254" s="33"/>
+        <v>311</v>
+      </c>
+      <c r="E254" s="35" t="s">
+        <v>310</v>
+      </c>
       <c r="F254" s="33"/>
       <c r="G254" s="33"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A255" s="34"/>
-      <c r="B255" s="34"/>
-      <c r="C255" s="34"/>
-      <c r="D255" s="34"/>
-      <c r="E255" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F255" s="34"/>
-      <c r="G255" s="34"/>
+      <c r="A255" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B255" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="D255" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E255" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="F255" s="33"/>
+      <c r="G255" s="33"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B256" s="33" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C256" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D256" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E256" s="33"/>
-      <c r="F256" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F256" s="33"/>
       <c r="G256" s="33"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A257" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="B257" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C257" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D257" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E257" s="33"/>
-      <c r="F257" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G257" s="33"/>
+      <c r="A257" s="34"/>
+      <c r="B257" s="34"/>
+      <c r="C257" s="34"/>
+      <c r="D257" s="34"/>
+      <c r="E257" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F257" s="34"/>
+      <c r="G257" s="34"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B258" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C258" s="33" t="s">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c r="D258" s="33" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="E258" s="33"/>
-      <c r="F258" s="33"/>
+      <c r="F258" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G258" s="33"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B259" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C259" s="33" t="s">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="D259" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E259" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="F259" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E259" s="33"/>
+      <c r="F259" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G259" s="33"/>
     </row>
-    <row r="260" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B260" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C260" s="32" t="s">
-        <v>286</v>
+        <v>26</v>
+      </c>
+      <c r="C260" s="33" t="s">
+        <v>282</v>
       </c>
       <c r="D260" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E260" s="35" t="s">
-        <v>291</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="E260" s="33"/>
       <c r="F260" s="33"/>
       <c r="G260" s="33"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B261" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C261" s="32" t="s">
-        <v>292</v>
+        <v>25</v>
+      </c>
+      <c r="C261" s="33" t="s">
+        <v>283</v>
       </c>
       <c r="D261" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E261" s="35" t="s">
-        <v>57</v>
+        <v>35</v>
+      </c>
+      <c r="E261" s="33" t="s">
+        <v>287</v>
       </c>
       <c r="F261" s="33"/>
       <c r="G261" s="33"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B262" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C262" s="33" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="C262" s="32" t="s">
+        <v>284</v>
       </c>
       <c r="D262" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E262" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E262" s="35" t="s">
+        <v>289</v>
+      </c>
       <c r="F262" s="33"/>
       <c r="G262" s="33"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A263" s="34"/>
-      <c r="B263" s="34"/>
-      <c r="C263" s="34"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F263" s="34"/>
-      <c r="G263" s="34"/>
+      <c r="A263" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="B263" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C263" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="D263" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E263" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F263" s="33"/>
+      <c r="G263" s="33"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="32" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B264" s="33" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C264" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D264" s="33" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E264" s="33"/>
-      <c r="F264" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F264" s="33"/>
       <c r="G264" s="33"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A265" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="B265" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C265" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D265" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E265" s="33"/>
-      <c r="F265" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G265" s="33"/>
+      <c r="A265" s="34"/>
+      <c r="B265" s="34"/>
+      <c r="C265" s="34"/>
+      <c r="D265" s="34"/>
+      <c r="E265" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F265" s="34"/>
+      <c r="G265" s="34"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B266" s="33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C266" s="33" t="s">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c r="D266" s="33" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="E266" s="33"/>
-      <c r="F266" s="33"/>
+      <c r="F266" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G266" s="33"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B267" s="33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C267" s="33" t="s">
-        <v>287</v>
+        <v>32</v>
       </c>
       <c r="D267" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E267" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="F267" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="E267" s="33"/>
+      <c r="F267" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G267" s="33"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B268" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C268" s="33" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D268" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E268" s="33" t="s">
-        <v>293</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="E268" s="33"/>
       <c r="F268" s="33"/>
       <c r="G268" s="33"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B269" s="33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C269" s="33" t="s">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="D269" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E269" s="35"/>
+        <v>35</v>
+      </c>
+      <c r="E269" s="33" t="s">
+        <v>288</v>
+      </c>
       <c r="F269" s="33"/>
       <c r="G269" s="33"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A270" s="8"/>
-      <c r="B270" s="8"/>
-      <c r="C270" s="8"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="F270" s="8"/>
-      <c r="G270" s="8"/>
+      <c r="A270" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B270" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C270" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D270" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E270" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="F270" s="33"/>
+      <c r="G270" s="33"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A271" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>28</v>
+      <c r="A271" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="B271" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="C271" s="33" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D271" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E271" s="33"/>
-      <c r="F271" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G271" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E271" s="35"/>
+      <c r="F271" s="33"/>
+      <c r="G271" s="33"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A272" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C272" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D272" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E272" s="33"/>
-      <c r="F272" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G272" s="7"/>
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="8"/>
+      <c r="D272" s="8"/>
+      <c r="E272" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F272" s="8"/>
+      <c r="G272" s="8"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D273" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E273" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="F273" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="C273" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D273" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E273" s="33"/>
+      <c r="F273" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G273" s="7"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C274" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D274" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E274" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="F274" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="C274" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D274" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E274" s="33"/>
+      <c r="F274" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G274" s="7"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C275" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B275" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="D275" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E275" s="40"/>
+        <v>35</v>
+      </c>
+      <c r="E275" s="40" t="s">
+        <v>305</v>
+      </c>
       <c r="F275" s="7"/>
       <c r="G275" s="7"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A276" s="12"/>
-      <c r="B276" s="12"/>
-      <c r="C276" s="12"/>
-      <c r="D276" s="12"/>
-      <c r="E276" s="13"/>
-      <c r="F276" s="12"/>
-      <c r="G276" s="12"/>
+      <c r="A276" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E276" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="F276" s="7"/>
+      <c r="G276" s="7"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A277" s="12"/>
-      <c r="B277" s="12"/>
-      <c r="C277" s="12"/>
-      <c r="D277" s="12"/>
-      <c r="E277" s="12"/>
-      <c r="F277" s="12"/>
-      <c r="G277" s="12"/>
+      <c r="A277" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E277" s="40"/>
+      <c r="F277" s="7"/>
+      <c r="G277" s="7"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A278" s="45"/>
-      <c r="B278" s="45"/>
-      <c r="C278" s="45"/>
-      <c r="D278" s="45"/>
-      <c r="E278" s="45"/>
-      <c r="F278" s="45"/>
-      <c r="G278" s="45"/>
+      <c r="A278" s="12"/>
+      <c r="B278" s="12"/>
+      <c r="C278" s="12"/>
+      <c r="D278" s="12"/>
+      <c r="E278" s="13"/>
+      <c r="F278" s="12"/>
+      <c r="G278" s="12"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="12"/>
@@ -7553,13 +7584,13 @@
       <c r="G279" s="12"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A280" s="12"/>
-      <c r="B280" s="12"/>
-      <c r="C280" s="12"/>
-      <c r="D280" s="12"/>
-      <c r="E280" s="12"/>
-      <c r="F280" s="12"/>
-      <c r="G280" s="12"/>
+      <c r="A280" s="45"/>
+      <c r="B280" s="45"/>
+      <c r="C280" s="45"/>
+      <c r="D280" s="45"/>
+      <c r="E280" s="45"/>
+      <c r="F280" s="45"/>
+      <c r="G280" s="45"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="12"/>
@@ -7719,7 +7750,7 @@
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
       <c r="D298" s="12"/>
-      <c r="E298" s="13"/>
+      <c r="E298" s="12"/>
       <c r="F298" s="12"/>
       <c r="G298" s="12"/>
     </row>
@@ -7728,7 +7759,7 @@
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
       <c r="D299" s="12"/>
-      <c r="E299" s="13"/>
+      <c r="E299" s="12"/>
       <c r="F299" s="12"/>
       <c r="G299" s="12"/>
     </row>
@@ -7755,7 +7786,7 @@
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
       <c r="D302" s="12"/>
-      <c r="E302" s="12"/>
+      <c r="E302" s="13"/>
       <c r="F302" s="12"/>
       <c r="G302" s="12"/>
     </row>
@@ -7764,7 +7795,7 @@
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
       <c r="D303" s="12"/>
-      <c r="E303" s="12"/>
+      <c r="E303" s="13"/>
       <c r="F303" s="12"/>
       <c r="G303" s="12"/>
     </row>
@@ -7773,7 +7804,7 @@
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
       <c r="D304" s="12"/>
-      <c r="E304" s="13"/>
+      <c r="E304" s="12"/>
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
     </row>
@@ -7782,7 +7813,7 @@
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
       <c r="D305" s="12"/>
-      <c r="E305" s="13"/>
+      <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
     </row>
@@ -7915,7 +7946,7 @@
     <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="12"/>
       <c r="B320" s="12"/>
-      <c r="C320" s="14"/>
+      <c r="C320" s="12"/>
       <c r="D320" s="12"/>
       <c r="E320" s="13"/>
       <c r="F320" s="12"/>
@@ -7926,16 +7957,16 @@
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
       <c r="D321" s="12"/>
-      <c r="E321" s="12"/>
+      <c r="E321" s="13"/>
       <c r="F321" s="12"/>
       <c r="G321" s="12"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
-      <c r="C322" s="12"/>
+      <c r="C322" s="14"/>
       <c r="D322" s="12"/>
-      <c r="E322" s="12"/>
+      <c r="E322" s="13"/>
       <c r="F322" s="12"/>
       <c r="G322" s="12"/>
     </row>
@@ -7998,7 +8029,7 @@
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
       <c r="D329" s="12"/>
-      <c r="E329" s="13"/>
+      <c r="E329" s="12"/>
       <c r="F329" s="12"/>
       <c r="G329" s="12"/>
     </row>
@@ -8052,7 +8083,7 @@
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
-      <c r="E335" s="12"/>
+      <c r="E335" s="13"/>
       <c r="F335" s="12"/>
       <c r="G335" s="12"/>
     </row>
@@ -8070,7 +8101,7 @@
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
-      <c r="E337" s="13"/>
+      <c r="E337" s="12"/>
       <c r="F337" s="12"/>
       <c r="G337" s="12"/>
     </row>
@@ -8079,7 +8110,7 @@
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
       <c r="D338" s="12"/>
-      <c r="E338" s="13"/>
+      <c r="E338" s="12"/>
       <c r="F338" s="12"/>
       <c r="G338" s="12"/>
     </row>
@@ -8151,18 +8182,18 @@
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
       <c r="D346" s="12"/>
-      <c r="E346" s="12"/>
+      <c r="E346" s="13"/>
       <c r="F346" s="12"/>
       <c r="G346" s="12"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A347" s="45"/>
-      <c r="B347" s="45"/>
-      <c r="C347" s="45"/>
-      <c r="D347" s="45"/>
-      <c r="E347" s="45"/>
-      <c r="F347" s="45"/>
-      <c r="G347" s="45"/>
+      <c r="A347" s="12"/>
+      <c r="B347" s="12"/>
+      <c r="C347" s="12"/>
+      <c r="D347" s="12"/>
+      <c r="E347" s="13"/>
+      <c r="F347" s="12"/>
+      <c r="G347" s="12"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="12"/>
@@ -8174,13 +8205,13 @@
       <c r="G348" s="12"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A349" s="12"/>
-      <c r="B349" s="12"/>
-      <c r="C349" s="12"/>
-      <c r="D349" s="12"/>
-      <c r="E349" s="12"/>
-      <c r="F349" s="12"/>
-      <c r="G349" s="12"/>
+      <c r="A349" s="45"/>
+      <c r="B349" s="45"/>
+      <c r="C349" s="45"/>
+      <c r="D349" s="45"/>
+      <c r="E349" s="45"/>
+      <c r="F349" s="45"/>
+      <c r="G349" s="45"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="12"/>
@@ -8250,7 +8281,7 @@
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
       <c r="D357" s="12"/>
-      <c r="E357" s="13"/>
+      <c r="E357" s="12"/>
       <c r="F357" s="12"/>
       <c r="G357" s="12"/>
     </row>
@@ -8259,7 +8290,7 @@
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
       <c r="D358" s="12"/>
-      <c r="E358" s="13"/>
+      <c r="E358" s="12"/>
       <c r="F358" s="12"/>
       <c r="G358" s="12"/>
     </row>
@@ -8295,18 +8326,18 @@
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
       <c r="D362" s="12"/>
-      <c r="E362" s="12"/>
+      <c r="E362" s="13"/>
       <c r="F362" s="12"/>
       <c r="G362" s="12"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A363" s="45"/>
-      <c r="B363" s="45"/>
-      <c r="C363" s="45"/>
-      <c r="D363" s="45"/>
-      <c r="E363" s="45"/>
-      <c r="F363" s="45"/>
-      <c r="G363" s="45"/>
+      <c r="A363" s="12"/>
+      <c r="B363" s="12"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="13"/>
+      <c r="F363" s="12"/>
+      <c r="G363" s="12"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="12"/>
@@ -8318,13 +8349,13 @@
       <c r="G364" s="12"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A365" s="12"/>
-      <c r="B365" s="12"/>
-      <c r="C365" s="12"/>
-      <c r="D365" s="12"/>
-      <c r="E365" s="12"/>
-      <c r="F365" s="12"/>
-      <c r="G365" s="12"/>
+      <c r="A365" s="45"/>
+      <c r="B365" s="45"/>
+      <c r="C365" s="45"/>
+      <c r="D365" s="45"/>
+      <c r="E365" s="45"/>
+      <c r="F365" s="45"/>
+      <c r="G365" s="45"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="12"/>
@@ -8403,7 +8434,7 @@
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
       <c r="D374" s="12"/>
-      <c r="E374" s="13"/>
+      <c r="E374" s="12"/>
       <c r="F374" s="12"/>
       <c r="G374" s="12"/>
     </row>
@@ -8412,7 +8443,7 @@
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
       <c r="D375" s="12"/>
-      <c r="E375" s="13"/>
+      <c r="E375" s="12"/>
       <c r="F375" s="12"/>
       <c r="G375" s="12"/>
     </row>
@@ -8448,18 +8479,18 @@
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
       <c r="D379" s="12"/>
-      <c r="E379" s="12"/>
+      <c r="E379" s="13"/>
       <c r="F379" s="12"/>
       <c r="G379" s="12"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A380" s="45"/>
-      <c r="B380" s="45"/>
-      <c r="C380" s="45"/>
-      <c r="D380" s="45"/>
-      <c r="E380" s="45"/>
-      <c r="F380" s="45"/>
-      <c r="G380" s="45"/>
+      <c r="A380" s="12"/>
+      <c r="B380" s="12"/>
+      <c r="C380" s="12"/>
+      <c r="D380" s="12"/>
+      <c r="E380" s="13"/>
+      <c r="F380" s="12"/>
+      <c r="G380" s="12"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="12"/>
@@ -8471,13 +8502,13 @@
       <c r="G381" s="12"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A382" s="12"/>
-      <c r="B382" s="12"/>
-      <c r="C382" s="12"/>
-      <c r="D382" s="12"/>
-      <c r="E382" s="12"/>
-      <c r="F382" s="12"/>
-      <c r="G382" s="12"/>
+      <c r="A382" s="45"/>
+      <c r="B382" s="45"/>
+      <c r="C382" s="45"/>
+      <c r="D382" s="45"/>
+      <c r="E382" s="45"/>
+      <c r="F382" s="45"/>
+      <c r="G382" s="45"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" s="12"/>
@@ -8626,7 +8657,7 @@
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="12"/>
       <c r="B399" s="12"/>
-      <c r="C399" s="14"/>
+      <c r="C399" s="12"/>
       <c r="D399" s="12"/>
       <c r="E399" s="12"/>
       <c r="F399" s="12"/>
@@ -8642,13 +8673,13 @@
       <c r="G400" s="12"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A401" s="45"/>
-      <c r="B401" s="45"/>
-      <c r="C401" s="45"/>
-      <c r="D401" s="45"/>
-      <c r="E401" s="45"/>
-      <c r="F401" s="45"/>
-      <c r="G401" s="45"/>
+      <c r="A401" s="12"/>
+      <c r="B401" s="12"/>
+      <c r="C401" s="14"/>
+      <c r="D401" s="12"/>
+      <c r="E401" s="12"/>
+      <c r="F401" s="12"/>
+      <c r="G401" s="12"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="12"/>
@@ -8660,13 +8691,13 @@
       <c r="G402" s="12"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A403" s="12"/>
-      <c r="B403" s="12"/>
-      <c r="C403" s="12"/>
-      <c r="D403" s="12"/>
-      <c r="E403" s="12"/>
-      <c r="F403" s="12"/>
-      <c r="G403" s="12"/>
+      <c r="A403" s="45"/>
+      <c r="B403" s="45"/>
+      <c r="C403" s="45"/>
+      <c r="D403" s="45"/>
+      <c r="E403" s="45"/>
+      <c r="F403" s="45"/>
+      <c r="G403" s="45"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" s="12"/>
@@ -8759,13 +8790,13 @@
       <c r="G413" s="12"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A414" s="45"/>
-      <c r="B414" s="45"/>
-      <c r="C414" s="45"/>
-      <c r="D414" s="45"/>
-      <c r="E414" s="45"/>
-      <c r="F414" s="45"/>
-      <c r="G414" s="45"/>
+      <c r="A414" s="12"/>
+      <c r="B414" s="12"/>
+      <c r="C414" s="12"/>
+      <c r="D414" s="12"/>
+      <c r="E414" s="12"/>
+      <c r="F414" s="12"/>
+      <c r="G414" s="12"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" s="12"/>
@@ -8777,13 +8808,13 @@
       <c r="G415" s="12"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A416" s="12"/>
-      <c r="B416" s="12"/>
-      <c r="C416" s="12"/>
-      <c r="D416" s="12"/>
-      <c r="E416" s="12"/>
-      <c r="F416" s="12"/>
-      <c r="G416" s="12"/>
+      <c r="A416" s="45"/>
+      <c r="B416" s="45"/>
+      <c r="C416" s="45"/>
+      <c r="D416" s="45"/>
+      <c r="E416" s="45"/>
+      <c r="F416" s="45"/>
+      <c r="G416" s="45"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" s="12"/>
@@ -8939,13 +8970,13 @@
       <c r="G433" s="12"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A434" s="45"/>
-      <c r="B434" s="45"/>
-      <c r="C434" s="45"/>
-      <c r="D434" s="45"/>
-      <c r="E434" s="45"/>
-      <c r="F434" s="45"/>
-      <c r="G434" s="45"/>
+      <c r="A434" s="12"/>
+      <c r="B434" s="12"/>
+      <c r="C434" s="12"/>
+      <c r="D434" s="12"/>
+      <c r="E434" s="12"/>
+      <c r="F434" s="12"/>
+      <c r="G434" s="12"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="12"/>
@@ -8957,13 +8988,13 @@
       <c r="G435" s="12"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A436" s="12"/>
-      <c r="B436" s="12"/>
-      <c r="C436" s="12"/>
-      <c r="D436" s="12"/>
-      <c r="E436" s="12"/>
-      <c r="F436" s="12"/>
-      <c r="G436" s="12"/>
+      <c r="A436" s="45"/>
+      <c r="B436" s="45"/>
+      <c r="C436" s="45"/>
+      <c r="D436" s="45"/>
+      <c r="E436" s="45"/>
+      <c r="F436" s="45"/>
+      <c r="G436" s="45"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="12"/>
@@ -9060,7 +9091,7 @@
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
       <c r="D447" s="12"/>
-      <c r="E447" s="13"/>
+      <c r="E447" s="12"/>
       <c r="F447" s="12"/>
       <c r="G447" s="12"/>
     </row>
@@ -9069,7 +9100,7 @@
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
       <c r="D448" s="12"/>
-      <c r="E448" s="13"/>
+      <c r="E448" s="12"/>
       <c r="F448" s="12"/>
       <c r="G448" s="12"/>
     </row>
@@ -9114,7 +9145,7 @@
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
       <c r="D453" s="12"/>
-      <c r="E453" s="12"/>
+      <c r="E453" s="13"/>
       <c r="F453" s="12"/>
       <c r="G453" s="12"/>
     </row>
@@ -9123,7 +9154,7 @@
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
       <c r="D454" s="12"/>
-      <c r="E454" s="12"/>
+      <c r="E454" s="13"/>
       <c r="F454" s="12"/>
       <c r="G454" s="12"/>
     </row>
@@ -9222,7 +9253,7 @@
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
       <c r="D465" s="12"/>
-      <c r="E465" s="13"/>
+      <c r="E465" s="12"/>
       <c r="F465" s="12"/>
       <c r="G465" s="12"/>
     </row>
@@ -9240,7 +9271,7 @@
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
       <c r="D467" s="12"/>
-      <c r="E467" s="12"/>
+      <c r="E467" s="13"/>
       <c r="F467" s="12"/>
       <c r="G467" s="12"/>
     </row>
@@ -9254,13 +9285,13 @@
       <c r="G468" s="12"/>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A469" s="45"/>
-      <c r="B469" s="45"/>
-      <c r="C469" s="45"/>
-      <c r="D469" s="45"/>
-      <c r="E469" s="45"/>
-      <c r="F469" s="45"/>
-      <c r="G469" s="45"/>
+      <c r="A469" s="12"/>
+      <c r="B469" s="12"/>
+      <c r="C469" s="12"/>
+      <c r="D469" s="12"/>
+      <c r="E469" s="12"/>
+      <c r="F469" s="12"/>
+      <c r="G469" s="12"/>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" s="12"/>
@@ -9272,13 +9303,13 @@
       <c r="G470" s="12"/>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A471" s="12"/>
-      <c r="B471" s="12"/>
-      <c r="C471" s="12"/>
-      <c r="D471" s="12"/>
-      <c r="E471" s="12"/>
-      <c r="F471" s="12"/>
-      <c r="G471" s="12"/>
+      <c r="A471" s="45"/>
+      <c r="B471" s="45"/>
+      <c r="C471" s="45"/>
+      <c r="D471" s="45"/>
+      <c r="E471" s="45"/>
+      <c r="F471" s="45"/>
+      <c r="G471" s="45"/>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="12"/>
@@ -9366,7 +9397,7 @@
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
       <c r="D481" s="12"/>
-      <c r="E481" s="13"/>
+      <c r="E481" s="12"/>
       <c r="F481" s="12"/>
       <c r="G481" s="12"/>
     </row>
@@ -9375,7 +9406,7 @@
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
       <c r="D482" s="12"/>
-      <c r="E482" s="13"/>
+      <c r="E482" s="12"/>
       <c r="F482" s="12"/>
       <c r="G482" s="12"/>
     </row>
@@ -9411,7 +9442,7 @@
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
       <c r="D486" s="12"/>
-      <c r="E486" s="12"/>
+      <c r="E486" s="13"/>
       <c r="F486" s="12"/>
       <c r="G486" s="12"/>
     </row>
@@ -9420,7 +9451,7 @@
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
       <c r="D487" s="12"/>
-      <c r="E487" s="12"/>
+      <c r="E487" s="13"/>
       <c r="F487" s="12"/>
       <c r="G487" s="12"/>
     </row>
@@ -9434,13 +9465,13 @@
       <c r="G488" s="12"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A489" s="45"/>
-      <c r="B489" s="45"/>
-      <c r="C489" s="45"/>
-      <c r="D489" s="45"/>
-      <c r="E489" s="45"/>
-      <c r="F489" s="45"/>
-      <c r="G489" s="45"/>
+      <c r="A489" s="12"/>
+      <c r="B489" s="12"/>
+      <c r="C489" s="12"/>
+      <c r="D489" s="12"/>
+      <c r="E489" s="12"/>
+      <c r="F489" s="12"/>
+      <c r="G489" s="12"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" s="12"/>
@@ -9452,13 +9483,13 @@
       <c r="G490" s="12"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A491" s="12"/>
-      <c r="B491" s="12"/>
-      <c r="C491" s="12"/>
-      <c r="D491" s="12"/>
-      <c r="E491" s="12"/>
-      <c r="F491" s="12"/>
-      <c r="G491" s="12"/>
+      <c r="A491" s="45"/>
+      <c r="B491" s="45"/>
+      <c r="C491" s="45"/>
+      <c r="D491" s="45"/>
+      <c r="E491" s="45"/>
+      <c r="F491" s="45"/>
+      <c r="G491" s="45"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" s="12"/>
@@ -9542,13 +9573,13 @@
       <c r="G500" s="12"/>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A501" s="45"/>
-      <c r="B501" s="45"/>
-      <c r="C501" s="45"/>
-      <c r="D501" s="45"/>
-      <c r="E501" s="45"/>
-      <c r="F501" s="45"/>
-      <c r="G501" s="45"/>
+      <c r="A501" s="12"/>
+      <c r="B501" s="12"/>
+      <c r="C501" s="12"/>
+      <c r="D501" s="12"/>
+      <c r="E501" s="12"/>
+      <c r="F501" s="12"/>
+      <c r="G501" s="12"/>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" s="12"/>
@@ -9560,13 +9591,13 @@
       <c r="G502" s="12"/>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A503" s="12"/>
-      <c r="B503" s="12"/>
-      <c r="C503" s="12"/>
-      <c r="D503" s="12"/>
-      <c r="E503" s="12"/>
-      <c r="F503" s="12"/>
-      <c r="G503" s="12"/>
+      <c r="A503" s="45"/>
+      <c r="B503" s="45"/>
+      <c r="C503" s="45"/>
+      <c r="D503" s="45"/>
+      <c r="E503" s="45"/>
+      <c r="F503" s="45"/>
+      <c r="G503" s="45"/>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" s="12"/>
@@ -9731,13 +9762,13 @@
       <c r="G521" s="12"/>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A522" s="45"/>
-      <c r="B522" s="45"/>
-      <c r="C522" s="45"/>
-      <c r="D522" s="45"/>
-      <c r="E522" s="45"/>
-      <c r="F522" s="45"/>
-      <c r="G522" s="45"/>
+      <c r="A522" s="12"/>
+      <c r="B522" s="12"/>
+      <c r="C522" s="12"/>
+      <c r="D522" s="12"/>
+      <c r="E522" s="12"/>
+      <c r="F522" s="12"/>
+      <c r="G522" s="12"/>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" s="12"/>
@@ -9749,13 +9780,13 @@
       <c r="G523" s="12"/>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A524" s="12"/>
-      <c r="B524" s="12"/>
-      <c r="C524" s="12"/>
-      <c r="D524" s="12"/>
-      <c r="E524" s="12"/>
-      <c r="F524" s="12"/>
-      <c r="G524" s="12"/>
+      <c r="A524" s="45"/>
+      <c r="B524" s="45"/>
+      <c r="C524" s="45"/>
+      <c r="D524" s="45"/>
+      <c r="E524" s="45"/>
+      <c r="F524" s="45"/>
+      <c r="G524" s="45"/>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" s="12"/>
@@ -9906,7 +9937,7 @@
       <c r="B541" s="12"/>
       <c r="C541" s="12"/>
       <c r="D541" s="12"/>
-      <c r="E541" s="13"/>
+      <c r="E541" s="12"/>
       <c r="F541" s="12"/>
       <c r="G541" s="12"/>
     </row>
@@ -9915,7 +9946,7 @@
       <c r="B542" s="12"/>
       <c r="C542" s="12"/>
       <c r="D542" s="12"/>
-      <c r="E542" s="13"/>
+      <c r="E542" s="12"/>
       <c r="F542" s="12"/>
       <c r="G542" s="12"/>
     </row>
@@ -9924,7 +9955,7 @@
       <c r="B543" s="12"/>
       <c r="C543" s="12"/>
       <c r="D543" s="12"/>
-      <c r="E543" s="12"/>
+      <c r="E543" s="13"/>
       <c r="F543" s="12"/>
       <c r="G543" s="12"/>
     </row>
@@ -9933,7 +9964,7 @@
       <c r="B544" s="12"/>
       <c r="C544" s="12"/>
       <c r="D544" s="12"/>
-      <c r="E544" s="12"/>
+      <c r="E544" s="13"/>
       <c r="F544" s="12"/>
       <c r="G544" s="12"/>
     </row>
@@ -9983,13 +10014,13 @@
       <c r="G549" s="12"/>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A550" s="45"/>
-      <c r="B550" s="45"/>
-      <c r="C550" s="45"/>
-      <c r="D550" s="45"/>
-      <c r="E550" s="45"/>
-      <c r="F550" s="45"/>
-      <c r="G550" s="45"/>
+      <c r="A550" s="12"/>
+      <c r="B550" s="12"/>
+      <c r="C550" s="12"/>
+      <c r="D550" s="12"/>
+      <c r="E550" s="12"/>
+      <c r="F550" s="12"/>
+      <c r="G550" s="12"/>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" s="12"/>
@@ -10001,13 +10032,13 @@
       <c r="G551" s="12"/>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A552" s="12"/>
-      <c r="B552" s="12"/>
-      <c r="C552" s="12"/>
-      <c r="D552" s="12"/>
-      <c r="E552" s="12"/>
-      <c r="F552" s="12"/>
-      <c r="G552" s="12"/>
+      <c r="A552" s="45"/>
+      <c r="B552" s="45"/>
+      <c r="C552" s="45"/>
+      <c r="D552" s="45"/>
+      <c r="E552" s="45"/>
+      <c r="F552" s="45"/>
+      <c r="G552" s="45"/>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A553" s="12"/>
@@ -10231,7 +10262,7 @@
       <c r="C577" s="12"/>
       <c r="D577" s="12"/>
       <c r="E577" s="12"/>
-      <c r="F577" s="13"/>
+      <c r="F577" s="12"/>
       <c r="G577" s="12"/>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.35">
@@ -10240,7 +10271,7 @@
       <c r="C578" s="12"/>
       <c r="D578" s="12"/>
       <c r="E578" s="12"/>
-      <c r="F578" s="13"/>
+      <c r="F578" s="12"/>
       <c r="G578" s="12"/>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.35">
@@ -10280,13 +10311,13 @@
       <c r="G582" s="12"/>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A583" s="45"/>
-      <c r="B583" s="45"/>
-      <c r="C583" s="45"/>
-      <c r="D583" s="45"/>
-      <c r="E583" s="45"/>
-      <c r="F583" s="45"/>
-      <c r="G583" s="45"/>
+      <c r="A583" s="12"/>
+      <c r="B583" s="12"/>
+      <c r="C583" s="12"/>
+      <c r="D583" s="12"/>
+      <c r="E583" s="12"/>
+      <c r="F583" s="13"/>
+      <c r="G583" s="12"/>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A584" s="12"/>
@@ -10294,17 +10325,17 @@
       <c r="C584" s="12"/>
       <c r="D584" s="12"/>
       <c r="E584" s="12"/>
-      <c r="F584" s="12"/>
+      <c r="F584" s="13"/>
       <c r="G584" s="12"/>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A585" s="12"/>
-      <c r="B585" s="12"/>
-      <c r="C585" s="12"/>
-      <c r="D585" s="12"/>
-      <c r="E585" s="12"/>
-      <c r="F585" s="12"/>
-      <c r="G585" s="12"/>
+      <c r="A585" s="45"/>
+      <c r="B585" s="45"/>
+      <c r="C585" s="45"/>
+      <c r="D585" s="45"/>
+      <c r="E585" s="45"/>
+      <c r="F585" s="45"/>
+      <c r="G585" s="45"/>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A586" s="12"/>
@@ -10622,13 +10653,13 @@
       <c r="G620" s="12"/>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A621" s="45"/>
-      <c r="B621" s="45"/>
-      <c r="C621" s="45"/>
-      <c r="D621" s="45"/>
-      <c r="E621" s="45"/>
-      <c r="F621" s="45"/>
-      <c r="G621" s="45"/>
+      <c r="A621" s="12"/>
+      <c r="B621" s="12"/>
+      <c r="C621" s="12"/>
+      <c r="D621" s="12"/>
+      <c r="E621" s="12"/>
+      <c r="F621" s="12"/>
+      <c r="G621" s="12"/>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A622" s="12"/>
@@ -10640,13 +10671,13 @@
       <c r="G622" s="12"/>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A623" s="12"/>
-      <c r="B623" s="12"/>
-      <c r="C623" s="12"/>
-      <c r="D623" s="12"/>
-      <c r="E623" s="12"/>
-      <c r="F623" s="12"/>
-      <c r="G623" s="12"/>
+      <c r="A623" s="45"/>
+      <c r="B623" s="45"/>
+      <c r="C623" s="45"/>
+      <c r="D623" s="45"/>
+      <c r="E623" s="45"/>
+      <c r="F623" s="45"/>
+      <c r="G623" s="45"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A624" s="12"/>
@@ -10946,13 +10977,13 @@
       <c r="G656" s="12"/>
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A657" s="45"/>
-      <c r="B657" s="45"/>
-      <c r="C657" s="45"/>
-      <c r="D657" s="45"/>
-      <c r="E657" s="45"/>
-      <c r="F657" s="45"/>
-      <c r="G657" s="45"/>
+      <c r="A657" s="12"/>
+      <c r="B657" s="12"/>
+      <c r="C657" s="12"/>
+      <c r="D657" s="12"/>
+      <c r="E657" s="12"/>
+      <c r="F657" s="12"/>
+      <c r="G657" s="12"/>
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A658" s="12"/>
@@ -10964,13 +10995,13 @@
       <c r="G658" s="12"/>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A659" s="12"/>
-      <c r="B659" s="12"/>
-      <c r="C659" s="12"/>
-      <c r="D659" s="12"/>
-      <c r="E659" s="12"/>
-      <c r="F659" s="12"/>
-      <c r="G659" s="12"/>
+      <c r="A659" s="45"/>
+      <c r="B659" s="45"/>
+      <c r="C659" s="45"/>
+      <c r="D659" s="45"/>
+      <c r="E659" s="45"/>
+      <c r="F659" s="45"/>
+      <c r="G659" s="45"/>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A660" s="12"/>
@@ -11207,13 +11238,13 @@
       <c r="G685" s="12"/>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A686" s="45"/>
-      <c r="B686" s="45"/>
-      <c r="C686" s="45"/>
-      <c r="D686" s="45"/>
-      <c r="E686" s="45"/>
-      <c r="F686" s="45"/>
-      <c r="G686" s="45"/>
+      <c r="A686" s="12"/>
+      <c r="B686" s="12"/>
+      <c r="C686" s="12"/>
+      <c r="D686" s="12"/>
+      <c r="E686" s="12"/>
+      <c r="F686" s="12"/>
+      <c r="G686" s="12"/>
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A687" s="12"/>
@@ -11225,13 +11256,13 @@
       <c r="G687" s="12"/>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A688" s="12"/>
-      <c r="B688" s="12"/>
-      <c r="C688" s="12"/>
-      <c r="D688" s="12"/>
-      <c r="E688" s="12"/>
-      <c r="F688" s="12"/>
-      <c r="G688" s="12"/>
+      <c r="A688" s="45"/>
+      <c r="B688" s="45"/>
+      <c r="C688" s="45"/>
+      <c r="D688" s="45"/>
+      <c r="E688" s="45"/>
+      <c r="F688" s="45"/>
+      <c r="G688" s="45"/>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A689" s="12"/>
@@ -11310,7 +11341,7 @@
       <c r="B697" s="12"/>
       <c r="C697" s="12"/>
       <c r="D697" s="12"/>
-      <c r="E697" s="13"/>
+      <c r="E697" s="12"/>
       <c r="F697" s="12"/>
       <c r="G697" s="12"/>
     </row>
@@ -11319,7 +11350,7 @@
       <c r="B698" s="12"/>
       <c r="C698" s="12"/>
       <c r="D698" s="12"/>
-      <c r="E698" s="13"/>
+      <c r="E698" s="12"/>
       <c r="F698" s="12"/>
       <c r="G698" s="12"/>
     </row>
@@ -11346,7 +11377,7 @@
       <c r="B701" s="12"/>
       <c r="C701" s="12"/>
       <c r="D701" s="12"/>
-      <c r="E701" s="12"/>
+      <c r="E701" s="13"/>
       <c r="F701" s="12"/>
       <c r="G701" s="12"/>
     </row>
@@ -11355,7 +11386,7 @@
       <c r="B702" s="12"/>
       <c r="C702" s="12"/>
       <c r="D702" s="12"/>
-      <c r="E702" s="12"/>
+      <c r="E702" s="13"/>
       <c r="F702" s="12"/>
       <c r="G702" s="12"/>
     </row>
@@ -11387,13 +11418,13 @@
       <c r="G705" s="12"/>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A706" s="45"/>
-      <c r="B706" s="45"/>
-      <c r="C706" s="45"/>
-      <c r="D706" s="45"/>
-      <c r="E706" s="45"/>
-      <c r="F706" s="45"/>
-      <c r="G706" s="45"/>
+      <c r="A706" s="12"/>
+      <c r="B706" s="12"/>
+      <c r="C706" s="12"/>
+      <c r="D706" s="12"/>
+      <c r="E706" s="12"/>
+      <c r="F706" s="12"/>
+      <c r="G706" s="12"/>
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A707" s="12"/>
@@ -11405,13 +11436,13 @@
       <c r="G707" s="12"/>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A708" s="12"/>
-      <c r="B708" s="12"/>
-      <c r="C708" s="12"/>
-      <c r="D708" s="12"/>
-      <c r="E708" s="12"/>
-      <c r="F708" s="12"/>
-      <c r="G708" s="12"/>
+      <c r="A708" s="45"/>
+      <c r="B708" s="45"/>
+      <c r="C708" s="45"/>
+      <c r="D708" s="45"/>
+      <c r="E708" s="45"/>
+      <c r="F708" s="45"/>
+      <c r="G708" s="45"/>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A709" s="12"/>
@@ -11584,7 +11615,7 @@
       <c r="F727" s="12"/>
       <c r="G727" s="12"/>
     </row>
-    <row r="728" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A728" s="12"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
@@ -11594,40 +11625,40 @@
       <c r="G728" s="12"/>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A729" s="45"/>
-      <c r="B729" s="45"/>
-      <c r="C729" s="45"/>
-      <c r="D729" s="45"/>
-      <c r="E729" s="45"/>
-      <c r="F729" s="45"/>
-      <c r="G729" s="45"/>
-    </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A730" s="45"/>
-      <c r="B730" s="45"/>
-      <c r="C730" s="45"/>
-      <c r="D730" s="45"/>
-      <c r="E730" s="45"/>
-      <c r="F730" s="45"/>
-      <c r="G730" s="45"/>
+      <c r="A729" s="12"/>
+      <c r="B729" s="12"/>
+      <c r="C729" s="12"/>
+      <c r="D729" s="12"/>
+      <c r="E729" s="12"/>
+      <c r="F729" s="12"/>
+      <c r="G729" s="12"/>
+    </row>
+    <row r="730" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A730" s="12"/>
+      <c r="B730" s="12"/>
+      <c r="C730" s="12"/>
+      <c r="D730" s="12"/>
+      <c r="E730" s="12"/>
+      <c r="F730" s="12"/>
+      <c r="G730" s="12"/>
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A731" s="12"/>
-      <c r="B731" s="12"/>
-      <c r="C731" s="12"/>
-      <c r="D731" s="12"/>
-      <c r="E731" s="12"/>
-      <c r="F731" s="12"/>
-      <c r="G731" s="12"/>
+      <c r="A731" s="45"/>
+      <c r="B731" s="45"/>
+      <c r="C731" s="45"/>
+      <c r="D731" s="45"/>
+      <c r="E731" s="45"/>
+      <c r="F731" s="45"/>
+      <c r="G731" s="45"/>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A732" s="12"/>
-      <c r="B732" s="12"/>
-      <c r="C732" s="12"/>
-      <c r="D732" s="12"/>
-      <c r="E732" s="12"/>
-      <c r="F732" s="12"/>
-      <c r="G732" s="12"/>
+      <c r="A732" s="45"/>
+      <c r="B732" s="45"/>
+      <c r="C732" s="45"/>
+      <c r="D732" s="45"/>
+      <c r="E732" s="45"/>
+      <c r="F732" s="45"/>
+      <c r="G732" s="45"/>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A733" s="12"/>
@@ -11684,13 +11715,13 @@
       <c r="G738" s="12"/>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A739" s="45"/>
-      <c r="B739" s="45"/>
-      <c r="C739" s="45"/>
-      <c r="D739" s="45"/>
-      <c r="E739" s="45"/>
-      <c r="F739" s="45"/>
-      <c r="G739" s="45"/>
+      <c r="A739" s="12"/>
+      <c r="B739" s="12"/>
+      <c r="C739" s="12"/>
+      <c r="D739" s="12"/>
+      <c r="E739" s="12"/>
+      <c r="F739" s="12"/>
+      <c r="G739" s="12"/>
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A740" s="12"/>
@@ -11702,13 +11733,13 @@
       <c r="G740" s="12"/>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A741" s="12"/>
-      <c r="B741" s="12"/>
-      <c r="C741" s="12"/>
-      <c r="D741" s="12"/>
-      <c r="E741" s="12"/>
-      <c r="F741" s="12"/>
-      <c r="G741" s="12"/>
+      <c r="A741" s="45"/>
+      <c r="B741" s="45"/>
+      <c r="C741" s="45"/>
+      <c r="D741" s="45"/>
+      <c r="E741" s="45"/>
+      <c r="F741" s="45"/>
+      <c r="G741" s="45"/>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A742" s="12"/>
@@ -11765,13 +11796,13 @@
       <c r="G747" s="12"/>
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A748" s="45"/>
-      <c r="B748" s="45"/>
-      <c r="C748" s="45"/>
-      <c r="D748" s="45"/>
-      <c r="E748" s="45"/>
-      <c r="F748" s="45"/>
-      <c r="G748" s="45"/>
+      <c r="A748" s="12"/>
+      <c r="B748" s="12"/>
+      <c r="C748" s="12"/>
+      <c r="D748" s="12"/>
+      <c r="E748" s="12"/>
+      <c r="F748" s="12"/>
+      <c r="G748" s="12"/>
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A749" s="12"/>
@@ -11783,13 +11814,13 @@
       <c r="G749" s="12"/>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A750" s="12"/>
-      <c r="B750" s="12"/>
-      <c r="C750" s="12"/>
-      <c r="D750" s="12"/>
-      <c r="E750" s="12"/>
-      <c r="F750" s="12"/>
-      <c r="G750" s="12"/>
+      <c r="A750" s="45"/>
+      <c r="B750" s="45"/>
+      <c r="C750" s="45"/>
+      <c r="D750" s="45"/>
+      <c r="E750" s="45"/>
+      <c r="F750" s="45"/>
+      <c r="G750" s="45"/>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A751" s="12"/>
@@ -11945,13 +11976,13 @@
       <c r="G767" s="12"/>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A768" s="45"/>
-      <c r="B768" s="45"/>
-      <c r="C768" s="45"/>
-      <c r="D768" s="45"/>
-      <c r="E768" s="45"/>
-      <c r="F768" s="45"/>
-      <c r="G768" s="45"/>
+      <c r="A768" s="12"/>
+      <c r="B768" s="12"/>
+      <c r="C768" s="12"/>
+      <c r="D768" s="12"/>
+      <c r="E768" s="12"/>
+      <c r="F768" s="12"/>
+      <c r="G768" s="12"/>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A769" s="12"/>
@@ -11963,13 +11994,13 @@
       <c r="G769" s="12"/>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A770" s="12"/>
-      <c r="B770" s="12"/>
-      <c r="C770" s="12"/>
-      <c r="D770" s="12"/>
-      <c r="E770" s="12"/>
-      <c r="F770" s="12"/>
-      <c r="G770" s="12"/>
+      <c r="A770" s="45"/>
+      <c r="B770" s="45"/>
+      <c r="C770" s="45"/>
+      <c r="D770" s="45"/>
+      <c r="E770" s="45"/>
+      <c r="F770" s="45"/>
+      <c r="G770" s="45"/>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A771" s="12"/>
@@ -12187,33 +12218,51 @@
       <c r="F794" s="12"/>
       <c r="G794" s="12"/>
     </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A795" s="12"/>
+      <c r="B795" s="12"/>
+      <c r="C795" s="12"/>
+      <c r="D795" s="12"/>
+      <c r="E795" s="12"/>
+      <c r="F795" s="12"/>
+      <c r="G795" s="12"/>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A796" s="12"/>
+      <c r="B796" s="12"/>
+      <c r="C796" s="12"/>
+      <c r="D796" s="12"/>
+      <c r="E796" s="12"/>
+      <c r="F796" s="12"/>
+      <c r="G796" s="12"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <mergeCells count="24">
-    <mergeCell ref="A739:G739"/>
-    <mergeCell ref="A748:G748"/>
-    <mergeCell ref="A768:G768"/>
-    <mergeCell ref="A501:G501"/>
-    <mergeCell ref="A522:G522"/>
-    <mergeCell ref="A550:G550"/>
-    <mergeCell ref="A583:G583"/>
-    <mergeCell ref="A621:G621"/>
-    <mergeCell ref="A729:G729"/>
-    <mergeCell ref="A730:G730"/>
-    <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A489:G489"/>
-    <mergeCell ref="A657:G657"/>
-    <mergeCell ref="A686:G686"/>
-    <mergeCell ref="A706:G706"/>
-    <mergeCell ref="A380:G380"/>
-    <mergeCell ref="A401:G401"/>
-    <mergeCell ref="A414:G414"/>
-    <mergeCell ref="A434:G434"/>
-    <mergeCell ref="A469:G469"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A278:G278"/>
-    <mergeCell ref="A347:G347"/>
-    <mergeCell ref="A363:G363"/>
+    <mergeCell ref="A741:G741"/>
+    <mergeCell ref="A750:G750"/>
+    <mergeCell ref="A770:G770"/>
+    <mergeCell ref="A503:G503"/>
+    <mergeCell ref="A524:G524"/>
+    <mergeCell ref="A552:G552"/>
+    <mergeCell ref="A585:G585"/>
+    <mergeCell ref="A623:G623"/>
+    <mergeCell ref="A731:G731"/>
+    <mergeCell ref="A732:G732"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="A491:G491"/>
+    <mergeCell ref="A659:G659"/>
+    <mergeCell ref="A688:G688"/>
+    <mergeCell ref="A708:G708"/>
+    <mergeCell ref="A382:G382"/>
+    <mergeCell ref="A403:G403"/>
+    <mergeCell ref="A416:G416"/>
+    <mergeCell ref="A436:G436"/>
+    <mergeCell ref="A471:G471"/>
+    <mergeCell ref="A118:G118"/>
+    <mergeCell ref="A280:G280"/>
+    <mergeCell ref="A349:G349"/>
+    <mergeCell ref="A365:G365"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12224,9 +12273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -12235,29 +12282,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>315</v>
+      <c r="A1" s="46" t="s">
+        <v>324</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12266,7 +12314,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12284,18 +12332,18 @@
         <v>2</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -12320,13 +12368,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>2</v>
@@ -12334,13 +12382,13 @@
     </row>
     <row r="2" spans="1:4" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>140</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>141</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>89</v>
@@ -12371,7 +12419,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>2</v>
@@ -12379,10 +12427,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>112</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>89</v>
@@ -12398,8 +12446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12409,35 +12457,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/My Account.xlsx
+++ b/src/test/java/com/born/xls/My Account.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="326">
   <si>
     <t>TCID</t>
   </si>
@@ -399,9 +399,6 @@
   </si>
   <si>
     <t>Compare_Products</t>
-  </si>
-  <si>
-    <t>doubleClick</t>
   </si>
   <si>
     <t>TS018</t>
@@ -1612,6 +1609,9 @@
   </si>
   <si>
     <t>col|TrainingURL</t>
+  </si>
+  <si>
+    <t>Result1</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1693,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1746,6 +1746,11 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -1813,7 +1818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1908,6 +1913,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1918,9 +1927,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2233,10 +2239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2263,10 +2269,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2274,10 +2280,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2285,10 +2291,10 @@
         <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2299,7 +2305,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2307,10 +2313,10 @@
         <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2318,7 +2324,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>89</v>
@@ -2329,7 +2335,7 @@
         <v>102</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>89</v>
@@ -2340,65 +2346,65 @@
         <v>103</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2409,73 +2415,73 @@
         <v>92</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2483,7 +2489,7 @@
         <v>81</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>89</v>
@@ -2491,54 +2497,54 @@
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>89</v>
@@ -2546,36 +2552,39 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C31" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C7"/>
@@ -2587,10 +2596,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H796"/>
+  <dimension ref="A1:H797"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2602,11 +2611,11 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1"/>
+    <col min="8" max="8" width="7.54296875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2628,8 +2637,11 @@
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>36</v>
       </c>
@@ -2648,7 +2660,7 @@
       </c>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>36</v>
       </c>
@@ -2667,7 +2679,7 @@
       </c>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>36</v>
       </c>
@@ -2686,7 +2698,7 @@
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
@@ -2705,7 +2717,7 @@
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>36</v>
       </c>
@@ -2724,7 +2736,7 @@
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>36</v>
       </c>
@@ -2741,7 +2753,7 @@
       <c r="F7" s="33"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="34"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -2750,7 +2762,7 @@
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>40</v>
       </c>
@@ -2769,7 +2781,7 @@
       </c>
       <c r="G9" s="33"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
         <v>40</v>
       </c>
@@ -2788,7 +2800,7 @@
       </c>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
         <v>40</v>
       </c>
@@ -2807,7 +2819,7 @@
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
         <v>40</v>
       </c>
@@ -2826,7 +2838,7 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>40</v>
       </c>
@@ -2845,7 +2857,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>40</v>
       </c>
@@ -2864,7 +2876,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>40</v>
       </c>
@@ -2885,7 +2897,7 @@
       </c>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
         <v>40</v>
       </c>
@@ -3072,13 +3084,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>30</v>
@@ -3091,13 +3103,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>10</v>
@@ -3110,13 +3122,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>43</v>
@@ -3129,13 +3141,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>35</v>
@@ -3148,73 +3160,73 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="33" t="s">
         <v>148</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>149</v>
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
@@ -3354,7 +3366,7 @@
         <v>90</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>62</v>
@@ -3712,10 +3724,10 @@
         <v>116</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
@@ -3731,7 +3743,7 @@
         <v>115</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E63" s="33" t="s">
         <v>86</v>
@@ -3750,10 +3762,10 @@
         <v>114</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -3788,10 +3800,10 @@
         <v>114</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -3807,7 +3819,7 @@
         <v>79</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="E67" s="33" t="s">
         <v>108</v>
@@ -3826,10 +3838,10 @@
         <v>114</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -3885,10 +3897,10 @@
         <v>116</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -3904,7 +3916,7 @@
         <v>115</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>86</v>
@@ -3923,10 +3935,10 @@
         <v>116</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -3955,16 +3967,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>114</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -3974,13 +3986,13 @@
         <v>78</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="E76" s="33" t="s">
         <v>108</v>
@@ -3993,7 +4005,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>118</v>
@@ -4012,7 +4024,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>80</v>
@@ -4031,7 +4043,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>39</v>
@@ -4158,10 +4170,10 @@
         <v>105</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -4196,10 +4208,10 @@
         <v>105</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E88" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
@@ -4344,7 +4356,7 @@
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="26" t="s">
         <v>103</v>
       </c>
@@ -4363,7 +4375,7 @@
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="26" t="s">
         <v>103</v>
       </c>
@@ -4374,15 +4386,15 @@
         <v>90</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="26" t="s">
         <v>103</v>
       </c>
@@ -4401,7 +4413,7 @@
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="26" t="s">
         <v>103</v>
       </c>
@@ -4420,7 +4432,7 @@
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="26" t="s">
         <v>103</v>
       </c>
@@ -4439,7 +4451,7 @@
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="26" t="s">
         <v>103</v>
       </c>
@@ -4456,16 +4468,16 @@
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="42"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="44"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="44"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="46"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>81</v>
       </c>
@@ -4483,8 +4495,11 @@
         <v>9</v>
       </c>
       <c r="G104" s="33"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H104" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>81</v>
       </c>
@@ -4502,8 +4517,11 @@
         <v>11</v>
       </c>
       <c r="G105" s="33"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H105" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>81</v>
       </c>
@@ -4514,15 +4532,18 @@
         <v>82</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E106" s="33" t="s">
         <v>86</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H106" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>81</v>
       </c>
@@ -4542,8 +4563,11 @@
         <v>87</v>
       </c>
       <c r="G107" s="33"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H107" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>81</v>
       </c>
@@ -4551,18 +4575,21 @@
         <v>24</v>
       </c>
       <c r="C108" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H108" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>81</v>
       </c>
@@ -4573,7 +4600,7 @@
         <v>84</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E109" s="33" t="s">
         <v>86</v>
@@ -4581,7 +4608,7 @@
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>81</v>
       </c>
@@ -4589,18 +4616,18 @@
         <v>22</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>81</v>
       </c>
@@ -4614,12 +4641,12 @@
         <v>34</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>81</v>
       </c>
@@ -4647,7 +4674,7 @@
     </row>
     <row r="114" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B114" s="33" t="s">
         <v>28</v>
@@ -4666,7 +4693,7 @@
     </row>
     <row r="115" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B115" s="33" t="s">
         <v>27</v>
@@ -4685,26 +4712,26 @@
     </row>
     <row r="116" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A116" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B116" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D116" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E116" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
     </row>
     <row r="117" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B117" s="33" t="s">
         <v>25</v>
@@ -4720,17 +4747,17 @@
       <c r="G117" s="33"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="42"/>
-      <c r="B118" s="43"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="44"/>
+      <c r="A118" s="44"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="46"/>
     </row>
     <row r="119" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B119" s="33" t="s">
         <v>28</v>
@@ -4749,7 +4776,7 @@
     </row>
     <row r="120" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B120" s="33" t="s">
         <v>27</v>
@@ -4768,35 +4795,35 @@
     </row>
     <row r="121" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B121" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D121" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E121" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
     </row>
     <row r="122" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B122" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C122" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E122" s="33"/>
       <c r="F122" s="33" t="s">
@@ -4806,7 +4833,7 @@
     </row>
     <row r="123" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B123" s="33" t="s">
         <v>24</v>
@@ -4832,7 +4859,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B125" s="33" t="s">
         <v>28</v>
@@ -4851,7 +4878,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B126" s="33" t="s">
         <v>27</v>
@@ -4870,16 +4897,16 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B127" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E127" s="33"/>
       <c r="F127" s="33"/>
@@ -4887,26 +4914,26 @@
     </row>
     <row r="128" spans="1:7" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B128" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D128" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E128" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B129" s="33" t="s">
         <v>24</v>
@@ -4976,7 +5003,7 @@
         <v>26</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D133" s="33" t="s">
         <v>12</v>
@@ -4985,7 +5012,7 @@
         <v>86</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G133" s="33"/>
     </row>
@@ -5000,10 +5027,10 @@
         <v>90</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -5016,10 +5043,10 @@
         <v>24</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D135" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E135" s="33" t="s">
         <v>86</v>
@@ -5038,10 +5065,10 @@
         <v>90</v>
       </c>
       <c r="D136" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E136" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
@@ -5054,7 +5081,7 @@
         <v>22</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D137" s="33" t="s">
         <v>33</v>
@@ -5076,10 +5103,10 @@
         <v>90</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
@@ -5098,7 +5125,7 @@
         <v>35</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
@@ -5114,10 +5141,10 @@
         <v>105</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E140" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -5136,7 +5163,7 @@
         <v>35</v>
       </c>
       <c r="E141" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
@@ -5155,7 +5182,7 @@
         <v>35</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
@@ -5174,10 +5201,10 @@
         <v>12</v>
       </c>
       <c r="E143" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F143" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G143" s="33"/>
     </row>
@@ -5195,10 +5222,10 @@
         <v>12</v>
       </c>
       <c r="E144" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F144" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G144" s="33"/>
     </row>
@@ -5213,10 +5240,10 @@
         <v>98</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E145" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
@@ -5232,10 +5259,10 @@
         <v>99</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E146" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
@@ -5248,13 +5275,13 @@
         <v>101</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E147" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
@@ -5264,16 +5291,16 @@
         <v>91</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E148" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -5283,7 +5310,7 @@
         <v>91</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C149" s="33" t="s">
         <v>100</v>
@@ -5292,7 +5319,7 @@
         <v>34</v>
       </c>
       <c r="E149" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
@@ -5302,7 +5329,7 @@
         <v>91</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C150" s="33" t="s">
         <v>39</v>
@@ -5325,7 +5352,7 @@
     </row>
     <row r="152" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B152" s="33" t="s">
         <v>28</v>
@@ -5344,7 +5371,7 @@
     </row>
     <row r="153" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B153" s="33" t="s">
         <v>27</v>
@@ -5363,13 +5390,13 @@
     </row>
     <row r="154" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B154" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D154" s="33" t="s">
         <v>43</v>
@@ -5382,13 +5409,13 @@
     </row>
     <row r="155" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B155" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D155" s="33" t="s">
         <v>35</v>
@@ -5401,83 +5428,83 @@
     </row>
     <row r="156" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D156" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E156" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
     </row>
     <row r="157" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D157" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
     </row>
     <row r="158" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D158" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
     </row>
     <row r="159" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D159" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E159" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
     </row>
     <row r="160" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" s="33" t="s">
         <v>20</v>
@@ -5503,7 +5530,7 @@
     </row>
     <row r="162" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162" s="33" t="s">
         <v>28</v>
@@ -5522,7 +5549,7 @@
     </row>
     <row r="163" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B163" s="33" t="s">
         <v>27</v>
@@ -5541,7 +5568,7 @@
     </row>
     <row r="164" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B164" s="33" t="s">
         <v>26</v>
@@ -5560,7 +5587,7 @@
     </row>
     <row r="165" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B165" s="33" t="s">
         <v>25</v>
@@ -5579,7 +5606,7 @@
     </row>
     <row r="166" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B166" s="33" t="s">
         <v>24</v>
@@ -5598,7 +5625,7 @@
     </row>
     <row r="167" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B167" s="33" t="s">
         <v>23</v>
@@ -5607,7 +5634,7 @@
         <v>105</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E167" s="33" t="s">
         <v>61</v>
@@ -5617,13 +5644,13 @@
     </row>
     <row r="168" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B168" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C168" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D168" s="33" t="s">
         <v>43</v>
@@ -5636,26 +5663,26 @@
     </row>
     <row r="169" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A169" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B169" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D169" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E169" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="37"/>
     </row>
     <row r="170" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B170" s="33" t="s">
         <v>20</v>
@@ -5681,7 +5708,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B172" s="33" t="s">
         <v>28</v>
@@ -5700,7 +5727,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B173" s="33" t="s">
         <v>27</v>
@@ -5719,13 +5746,13 @@
     </row>
     <row r="174" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B174" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D174" s="33" t="s">
         <v>43</v>
@@ -5738,13 +5765,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B175" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D175" s="33" t="s">
         <v>35</v>
@@ -5757,45 +5784,45 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B176" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D176" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E176" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B177" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D177" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E177" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B178" s="33" t="s">
         <v>22</v>
@@ -5821,7 +5848,7 @@
     </row>
     <row r="180" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B180" s="33" t="s">
         <v>28</v>
@@ -5840,7 +5867,7 @@
     </row>
     <row r="181" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B181" s="33" t="s">
         <v>27</v>
@@ -5859,13 +5886,13 @@
     </row>
     <row r="182" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B182" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D182" s="33" t="s">
         <v>34</v>
@@ -5878,7 +5905,7 @@
     </row>
     <row r="183" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B183" s="33" t="s">
         <v>25</v>
@@ -5904,7 +5931,7 @@
     </row>
     <row r="185" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A185" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B185" s="33" t="s">
         <v>28</v>
@@ -5923,7 +5950,7 @@
     </row>
     <row r="186" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A186" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B186" s="33" t="s">
         <v>27</v>
@@ -5942,16 +5969,16 @@
     </row>
     <row r="187" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A187" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B187" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D187" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E187" s="33"/>
       <c r="F187" s="33"/>
@@ -5959,66 +5986,66 @@
     </row>
     <row r="188" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A188" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B188" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D188" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E188" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
     </row>
     <row r="189" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A189" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B189" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D189" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E189" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="F189" s="32" t="s">
         <v>205</v>
-      </c>
-      <c r="F189" s="32" t="s">
-        <v>206</v>
       </c>
       <c r="G189" s="33"/>
     </row>
     <row r="190" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A190" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B190" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D190" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E190" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
     </row>
     <row r="191" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A191" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B191" s="33" t="s">
         <v>22</v>
@@ -6039,14 +6066,14 @@
       <c r="C192" s="34"/>
       <c r="D192" s="34"/>
       <c r="E192" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F192" s="34"/>
       <c r="G192" s="34"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B193" s="33" t="s">
         <v>28</v>
@@ -6065,7 +6092,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B194" s="33" t="s">
         <v>27</v>
@@ -6078,53 +6105,53 @@
       </c>
       <c r="E194" s="33"/>
       <c r="F194" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G194" s="33"/>
     </row>
     <row r="195" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B195" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D195" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E195" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F195" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G195" s="33"/>
     </row>
     <row r="196" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B196" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D196" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E196" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F196" s="33"/>
       <c r="G196" s="33"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B197" s="33" t="s">
         <v>24</v>
@@ -6145,14 +6172,14 @@
       <c r="C198" s="34"/>
       <c r="D198" s="34"/>
       <c r="E198" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F198" s="34"/>
       <c r="G198" s="34"/>
     </row>
     <row r="199" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B199" s="33" t="s">
         <v>28</v>
@@ -6171,7 +6198,7 @@
     </row>
     <row r="200" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B200" s="33" t="s">
         <v>27</v>
@@ -6190,45 +6217,45 @@
     </row>
     <row r="201" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A201" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B201" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D201" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E201" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F201" s="33"/>
       <c r="G201" s="33"/>
     </row>
     <row r="202" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A202" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B202" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D202" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E202" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F202" s="33"/>
       <c r="G202" s="33"/>
     </row>
     <row r="203" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A203" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B203" s="33" t="s">
         <v>24</v>
@@ -6249,14 +6276,14 @@
       <c r="C204" s="34"/>
       <c r="D204" s="34"/>
       <c r="E204" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F204" s="34"/>
       <c r="G204" s="34"/>
     </row>
     <row r="205" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B205" s="33" t="s">
         <v>28</v>
@@ -6275,7 +6302,7 @@
     </row>
     <row r="206" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B206" s="33" t="s">
         <v>27</v>
@@ -6294,254 +6321,254 @@
     </row>
     <row r="207" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B207" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D207" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E207" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="33"/>
     </row>
     <row r="208" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B208" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D208" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E208" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F208" s="33"/>
       <c r="G208" s="33"/>
     </row>
     <row r="209" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B209" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D209" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E209" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="33"/>
     </row>
     <row r="210" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B210" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D210" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E210" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="33"/>
     </row>
     <row r="211" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B211" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D211" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E211" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="33"/>
     </row>
     <row r="212" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B212" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D212" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
     </row>
     <row r="213" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B213" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D213" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E213" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
     </row>
     <row r="214" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B214" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D214" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E214" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
     </row>
     <row r="215" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B215" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D215" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E215" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
     </row>
     <row r="216" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B216" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D216" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E216" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F216" s="33"/>
       <c r="G216" s="33"/>
     </row>
     <row r="217" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B217" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D217" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E217" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F217" s="33"/>
       <c r="G217" s="33"/>
     </row>
     <row r="218" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B218" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D218" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E218" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F218" s="33"/>
       <c r="G218" s="33"/>
     </row>
     <row r="219" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B219" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C219" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D219" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E219" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F219" s="33"/>
       <c r="G219" s="33"/>
     </row>
     <row r="220" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B220" s="33" t="s">
         <v>19</v>
@@ -6562,14 +6589,14 @@
       <c r="C221" s="34"/>
       <c r="D221" s="34"/>
       <c r="E221" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F221" s="34"/>
       <c r="G221" s="34"/>
     </row>
     <row r="222" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A222" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B222" s="33" t="s">
         <v>28</v>
@@ -6588,7 +6615,7 @@
     </row>
     <row r="223" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A223" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B223" s="33" t="s">
         <v>27</v>
@@ -6607,102 +6634,102 @@
     </row>
     <row r="224" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A224" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B224" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D224" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E224" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="33"/>
     </row>
     <row r="225" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A225" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B225" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D225" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E225" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F225" s="33"/>
       <c r="G225" s="33"/>
     </row>
     <row r="226" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A226" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B226" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D226" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E226" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F226" s="33"/>
       <c r="G226" s="33"/>
     </row>
     <row r="227" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A227" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B227" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D227" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E227" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F227" s="33"/>
       <c r="G227" s="33"/>
     </row>
     <row r="228" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A228" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B228" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D228" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E228" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F228" s="33"/>
       <c r="G228" s="33"/>
     </row>
     <row r="229" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A229" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B229" s="33" t="s">
         <v>21</v>
@@ -6723,14 +6750,14 @@
       <c r="C230" s="34"/>
       <c r="D230" s="34"/>
       <c r="E230" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F230" s="34"/>
       <c r="G230" s="34"/>
     </row>
     <row r="231" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A231" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B231" s="33" t="s">
         <v>28</v>
@@ -6749,7 +6776,7 @@
     </row>
     <row r="232" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A232" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B232" s="33" t="s">
         <v>27</v>
@@ -6768,83 +6795,83 @@
     </row>
     <row r="233" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A233" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B233" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C233" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D233" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E233" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="33"/>
     </row>
     <row r="234" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A234" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B234" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D234" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E234" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F234" s="33"/>
       <c r="G234" s="33"/>
     </row>
     <row r="235" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A235" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B235" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D235" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E235" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F235" s="33"/>
       <c r="G235" s="33"/>
     </row>
     <row r="236" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A236" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B236" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D236" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E236" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F236" s="33"/>
       <c r="G236" s="33"/>
     </row>
     <row r="237" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A237" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B237" s="33" t="s">
         <v>22</v>
@@ -6865,14 +6892,14 @@
       <c r="C238" s="34"/>
       <c r="D238" s="34"/>
       <c r="E238" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F238" s="34"/>
       <c r="G238" s="34"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B239" s="33" t="s">
         <v>28</v>
@@ -6891,7 +6918,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B240" s="33" t="s">
         <v>27</v>
@@ -6910,45 +6937,45 @@
     </row>
     <row r="241" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A241" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B241" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D241" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E241" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F241" s="33"/>
       <c r="G241" s="33"/>
     </row>
     <row r="242" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A242" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B242" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D242" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E242" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="33"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B243" s="33" t="s">
         <v>24</v>
@@ -6969,14 +6996,14 @@
       <c r="C244" s="34"/>
       <c r="D244" s="34"/>
       <c r="E244" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F244" s="34"/>
       <c r="G244" s="34"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B245" s="33" t="s">
         <v>28</v>
@@ -6995,7 +7022,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B246" s="33" t="s">
         <v>27</v>
@@ -7014,7 +7041,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B247" s="33" t="s">
         <v>26</v>
@@ -7033,7 +7060,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248" s="33" t="s">
         <v>25</v>
@@ -7052,7 +7079,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B249" s="33" t="s">
         <v>24</v>
@@ -7071,7 +7098,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="33" t="s">
         <v>23</v>
@@ -7090,7 +7117,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B251" s="33" t="s">
         <v>22</v>
@@ -7099,507 +7126,517 @@
         <v>90</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E251" s="35" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="F251" s="33"/>
       <c r="G251" s="33"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B252" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D252" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E252" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F252" s="33"/>
       <c r="G252" s="33"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B253" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C253" s="33" t="s">
-        <v>256</v>
+        <v>114</v>
       </c>
       <c r="D253" s="33" t="s">
-        <v>35</v>
+        <v>307</v>
       </c>
       <c r="E253" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F253" s="33"/>
       <c r="G253" s="33"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B254" s="33" t="s">
         <v>13</v>
       </c>
       <c r="C254" s="33" t="s">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="D254" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="E254" s="35" t="s">
-        <v>310</v>
+        <v>35</v>
+      </c>
+      <c r="E254" s="33" t="s">
+        <v>257</v>
       </c>
       <c r="F254" s="33"/>
       <c r="G254" s="33"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B255" s="33" t="s">
         <v>14</v>
       </c>
       <c r="C255" s="33" t="s">
-        <v>257</v>
+        <v>114</v>
       </c>
       <c r="D255" s="33" t="s">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="E255" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F255" s="33"/>
       <c r="G255" s="33"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B256" s="33" t="s">
         <v>15</v>
       </c>
       <c r="C256" s="33" t="s">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c r="D256" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E256" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E256" s="33" t="s">
+        <v>258</v>
+      </c>
       <c r="F256" s="33"/>
       <c r="G256" s="33"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A257" s="34"/>
-      <c r="B257" s="34"/>
-      <c r="C257" s="34"/>
-      <c r="D257" s="34"/>
-      <c r="E257" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="F257" s="34"/>
-      <c r="G257" s="34"/>
+      <c r="A257" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B257" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C257" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D257" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E257" s="33"/>
+      <c r="F257" s="33"/>
+      <c r="G257" s="33"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A258" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="B258" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C258" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D258" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E258" s="33"/>
-      <c r="F258" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G258" s="33"/>
+      <c r="A258" s="34"/>
+      <c r="B258" s="34"/>
+      <c r="C258" s="34"/>
+      <c r="D258" s="34"/>
+      <c r="E258" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="F258" s="34"/>
+      <c r="G258" s="34"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B259" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C259" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D259" s="33" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E259" s="33"/>
       <c r="F259" s="33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G259" s="33"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B260" s="33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C260" s="33" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="D260" s="33" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="E260" s="33"/>
-      <c r="F260" s="33"/>
+      <c r="F260" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G260" s="33"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B261" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C261" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D261" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E261" s="33" t="s">
-        <v>287</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E261" s="33"/>
       <c r="F261" s="33"/>
       <c r="G261" s="33"/>
     </row>
-    <row r="262" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B262" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C262" s="32" t="s">
-        <v>284</v>
+        <v>25</v>
+      </c>
+      <c r="C262" s="33" t="s">
+        <v>282</v>
       </c>
       <c r="D262" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E262" s="35" t="s">
-        <v>289</v>
+        <v>35</v>
+      </c>
+      <c r="E262" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="F262" s="33"/>
       <c r="G262" s="33"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A263" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B263" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C263" s="32" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D263" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E263" s="35" t="s">
-        <v>57</v>
+        <v>288</v>
       </c>
       <c r="F263" s="33"/>
       <c r="G263" s="33"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B264" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C264" s="33" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="C264" s="32" t="s">
+        <v>289</v>
       </c>
       <c r="D264" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E264" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E264" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="F264" s="33"/>
       <c r="G264" s="33"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A265" s="34"/>
-      <c r="B265" s="34"/>
-      <c r="C265" s="34"/>
-      <c r="D265" s="34"/>
-      <c r="E265" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="F265" s="34"/>
-      <c r="G265" s="34"/>
+      <c r="A265" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B265" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C265" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D265" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E265" s="33"/>
+      <c r="F265" s="33"/>
+      <c r="G265" s="33"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A266" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="B266" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C266" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D266" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E266" s="33"/>
-      <c r="F266" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G266" s="33"/>
+      <c r="A266" s="34"/>
+      <c r="B266" s="34"/>
+      <c r="C266" s="34"/>
+      <c r="D266" s="34"/>
+      <c r="E266" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="F266" s="34"/>
+      <c r="G266" s="34"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B267" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C267" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D267" s="33" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E267" s="33"/>
       <c r="F267" s="33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G267" s="33"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B268" s="33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C268" s="33" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="D268" s="33" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="E268" s="33"/>
-      <c r="F268" s="33"/>
+      <c r="F268" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G268" s="33"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B269" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C269" s="33" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D269" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E269" s="33" t="s">
-        <v>288</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="E269" s="33"/>
       <c r="F269" s="33"/>
       <c r="G269" s="33"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B270" s="33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C270" s="33" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D270" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E270" s="33" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F270" s="33"/>
       <c r="G270" s="33"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B271" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C271" s="33" t="s">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="D271" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E271" s="35"/>
+        <v>34</v>
+      </c>
+      <c r="E271" s="33" t="s">
+        <v>290</v>
+      </c>
       <c r="F271" s="33"/>
       <c r="G271" s="33"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A272" s="8"/>
-      <c r="B272" s="8"/>
-      <c r="C272" s="8"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="F272" s="8"/>
-      <c r="G272" s="8"/>
+      <c r="A272" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="B272" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C272" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D272" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E272" s="35"/>
+      <c r="F272" s="33"/>
+      <c r="G272" s="33"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A273" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C273" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D273" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E273" s="33"/>
-      <c r="F273" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G273" s="7"/>
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="8"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F273" s="8"/>
+      <c r="G273" s="8"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C274" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D274" s="33" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E274" s="33"/>
       <c r="F274" s="33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G274" s="7"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D275" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E275" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="F275" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="C275" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D275" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E275" s="33"/>
+      <c r="F275" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G275" s="7"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E276" s="40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F276" s="7"/>
       <c r="G276" s="7"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>39</v>
+        <v>306</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E277" s="40"/>
+        <v>34</v>
+      </c>
+      <c r="E277" s="40" t="s">
+        <v>305</v>
+      </c>
       <c r="F277" s="7"/>
       <c r="G277" s="7"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A278" s="12"/>
-      <c r="B278" s="12"/>
-      <c r="C278" s="12"/>
-      <c r="D278" s="12"/>
-      <c r="E278" s="13"/>
-      <c r="F278" s="12"/>
-      <c r="G278" s="12"/>
+      <c r="A278" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D278" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E278" s="40"/>
+      <c r="F278" s="7"/>
+      <c r="G278" s="7"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="12"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
       <c r="D279" s="12"/>
-      <c r="E279" s="12"/>
+      <c r="E279" s="13"/>
       <c r="F279" s="12"/>
       <c r="G279" s="12"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A280" s="45"/>
-      <c r="B280" s="45"/>
-      <c r="C280" s="45"/>
-      <c r="D280" s="45"/>
-      <c r="E280" s="45"/>
-      <c r="F280" s="45"/>
-      <c r="G280" s="45"/>
+      <c r="A280" s="12"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="12"/>
+      <c r="F280" s="12"/>
+      <c r="G280" s="12"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A281" s="12"/>
-      <c r="B281" s="12"/>
-      <c r="C281" s="12"/>
-      <c r="D281" s="12"/>
-      <c r="E281" s="12"/>
-      <c r="F281" s="12"/>
-      <c r="G281" s="12"/>
+      <c r="A281" s="47"/>
+      <c r="B281" s="47"/>
+      <c r="C281" s="47"/>
+      <c r="D281" s="47"/>
+      <c r="E281" s="47"/>
+      <c r="F281" s="47"/>
+      <c r="G281" s="47"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="12"/>
@@ -7768,7 +7805,7 @@
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
       <c r="D300" s="12"/>
-      <c r="E300" s="13"/>
+      <c r="E300" s="12"/>
       <c r="F300" s="12"/>
       <c r="G300" s="12"/>
     </row>
@@ -7804,7 +7841,7 @@
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
       <c r="D304" s="12"/>
-      <c r="E304" s="12"/>
+      <c r="E304" s="13"/>
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
     </row>
@@ -7822,7 +7859,7 @@
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
       <c r="D306" s="12"/>
-      <c r="E306" s="13"/>
+      <c r="E306" s="12"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
     </row>
@@ -7964,7 +8001,7 @@
     <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="12"/>
       <c r="B322" s="12"/>
-      <c r="C322" s="14"/>
+      <c r="C322" s="12"/>
       <c r="D322" s="12"/>
       <c r="E322" s="13"/>
       <c r="F322" s="12"/>
@@ -7973,9 +8010,9 @@
     <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
-      <c r="C323" s="12"/>
+      <c r="C323" s="14"/>
       <c r="D323" s="12"/>
-      <c r="E323" s="12"/>
+      <c r="E323" s="13"/>
       <c r="F323" s="12"/>
       <c r="G323" s="12"/>
     </row>
@@ -8047,7 +8084,7 @@
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
       <c r="D331" s="12"/>
-      <c r="E331" s="13"/>
+      <c r="E331" s="12"/>
       <c r="F331" s="12"/>
       <c r="G331" s="12"/>
     </row>
@@ -8056,7 +8093,7 @@
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
       <c r="D332" s="12"/>
-      <c r="E332" s="12"/>
+      <c r="E332" s="13"/>
       <c r="F332" s="12"/>
       <c r="G332" s="12"/>
     </row>
@@ -8065,7 +8102,7 @@
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
       <c r="D333" s="12"/>
-      <c r="E333" s="13"/>
+      <c r="E333" s="12"/>
       <c r="F333" s="12"/>
       <c r="G333" s="12"/>
     </row>
@@ -8074,7 +8111,7 @@
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
       <c r="D334" s="12"/>
-      <c r="E334" s="12"/>
+      <c r="E334" s="13"/>
       <c r="F334" s="12"/>
       <c r="G334" s="12"/>
     </row>
@@ -8083,7 +8120,7 @@
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
-      <c r="E335" s="13"/>
+      <c r="E335" s="12"/>
       <c r="F335" s="12"/>
       <c r="G335" s="12"/>
     </row>
@@ -8092,7 +8129,7 @@
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
       <c r="D336" s="12"/>
-      <c r="E336" s="12"/>
+      <c r="E336" s="13"/>
       <c r="F336" s="12"/>
       <c r="G336" s="12"/>
     </row>
@@ -8119,7 +8156,7 @@
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
       <c r="D339" s="12"/>
-      <c r="E339" s="13"/>
+      <c r="E339" s="12"/>
       <c r="F339" s="12"/>
       <c r="G339" s="12"/>
     </row>
@@ -8200,27 +8237,27 @@
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
       <c r="D348" s="12"/>
-      <c r="E348" s="12"/>
+      <c r="E348" s="13"/>
       <c r="F348" s="12"/>
       <c r="G348" s="12"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A349" s="45"/>
-      <c r="B349" s="45"/>
-      <c r="C349" s="45"/>
-      <c r="D349" s="45"/>
-      <c r="E349" s="45"/>
-      <c r="F349" s="45"/>
-      <c r="G349" s="45"/>
+      <c r="A349" s="12"/>
+      <c r="B349" s="12"/>
+      <c r="C349" s="12"/>
+      <c r="D349" s="12"/>
+      <c r="E349" s="12"/>
+      <c r="F349" s="12"/>
+      <c r="G349" s="12"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A350" s="12"/>
-      <c r="B350" s="12"/>
-      <c r="C350" s="12"/>
-      <c r="D350" s="12"/>
-      <c r="E350" s="12"/>
-      <c r="F350" s="12"/>
-      <c r="G350" s="12"/>
+      <c r="A350" s="47"/>
+      <c r="B350" s="47"/>
+      <c r="C350" s="47"/>
+      <c r="D350" s="47"/>
+      <c r="E350" s="47"/>
+      <c r="F350" s="47"/>
+      <c r="G350" s="47"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="12"/>
@@ -8299,7 +8336,7 @@
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
       <c r="D359" s="12"/>
-      <c r="E359" s="13"/>
+      <c r="E359" s="12"/>
       <c r="F359" s="12"/>
       <c r="G359" s="12"/>
     </row>
@@ -8344,27 +8381,27 @@
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
       <c r="D364" s="12"/>
-      <c r="E364" s="12"/>
+      <c r="E364" s="13"/>
       <c r="F364" s="12"/>
       <c r="G364" s="12"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A365" s="45"/>
-      <c r="B365" s="45"/>
-      <c r="C365" s="45"/>
-      <c r="D365" s="45"/>
-      <c r="E365" s="45"/>
-      <c r="F365" s="45"/>
-      <c r="G365" s="45"/>
+      <c r="A365" s="12"/>
+      <c r="B365" s="12"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="12"/>
+      <c r="F365" s="12"/>
+      <c r="G365" s="12"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A366" s="12"/>
-      <c r="B366" s="12"/>
-      <c r="C366" s="12"/>
-      <c r="D366" s="12"/>
-      <c r="E366" s="12"/>
-      <c r="F366" s="12"/>
-      <c r="G366" s="12"/>
+      <c r="A366" s="47"/>
+      <c r="B366" s="47"/>
+      <c r="C366" s="47"/>
+      <c r="D366" s="47"/>
+      <c r="E366" s="47"/>
+      <c r="F366" s="47"/>
+      <c r="G366" s="47"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="12"/>
@@ -8452,7 +8489,7 @@
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
       <c r="D376" s="12"/>
-      <c r="E376" s="13"/>
+      <c r="E376" s="12"/>
       <c r="F376" s="12"/>
       <c r="G376" s="12"/>
     </row>
@@ -8497,27 +8534,27 @@
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
       <c r="D381" s="12"/>
-      <c r="E381" s="12"/>
+      <c r="E381" s="13"/>
       <c r="F381" s="12"/>
       <c r="G381" s="12"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A382" s="45"/>
-      <c r="B382" s="45"/>
-      <c r="C382" s="45"/>
-      <c r="D382" s="45"/>
-      <c r="E382" s="45"/>
-      <c r="F382" s="45"/>
-      <c r="G382" s="45"/>
+      <c r="A382" s="12"/>
+      <c r="B382" s="12"/>
+      <c r="C382" s="12"/>
+      <c r="D382" s="12"/>
+      <c r="E382" s="12"/>
+      <c r="F382" s="12"/>
+      <c r="G382" s="12"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A383" s="12"/>
-      <c r="B383" s="12"/>
-      <c r="C383" s="12"/>
-      <c r="D383" s="12"/>
-      <c r="E383" s="12"/>
-      <c r="F383" s="12"/>
-      <c r="G383" s="12"/>
+      <c r="A383" s="47"/>
+      <c r="B383" s="47"/>
+      <c r="C383" s="47"/>
+      <c r="D383" s="47"/>
+      <c r="E383" s="47"/>
+      <c r="F383" s="47"/>
+      <c r="G383" s="47"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" s="12"/>
@@ -8675,7 +8712,7 @@
     <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" s="12"/>
       <c r="B401" s="12"/>
-      <c r="C401" s="14"/>
+      <c r="C401" s="12"/>
       <c r="D401" s="12"/>
       <c r="E401" s="12"/>
       <c r="F401" s="12"/>
@@ -8684,29 +8721,29 @@
     <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
-      <c r="C402" s="12"/>
+      <c r="C402" s="14"/>
       <c r="D402" s="12"/>
       <c r="E402" s="12"/>
       <c r="F402" s="12"/>
       <c r="G402" s="12"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A403" s="45"/>
-      <c r="B403" s="45"/>
-      <c r="C403" s="45"/>
-      <c r="D403" s="45"/>
-      <c r="E403" s="45"/>
-      <c r="F403" s="45"/>
-      <c r="G403" s="45"/>
+      <c r="A403" s="12"/>
+      <c r="B403" s="12"/>
+      <c r="C403" s="12"/>
+      <c r="D403" s="12"/>
+      <c r="E403" s="12"/>
+      <c r="F403" s="12"/>
+      <c r="G403" s="12"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A404" s="12"/>
-      <c r="B404" s="12"/>
-      <c r="C404" s="12"/>
-      <c r="D404" s="12"/>
-      <c r="E404" s="12"/>
-      <c r="F404" s="12"/>
-      <c r="G404" s="12"/>
+      <c r="A404" s="47"/>
+      <c r="B404" s="47"/>
+      <c r="C404" s="47"/>
+      <c r="D404" s="47"/>
+      <c r="E404" s="47"/>
+      <c r="F404" s="47"/>
+      <c r="G404" s="47"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="12"/>
@@ -8808,22 +8845,22 @@
       <c r="G415" s="12"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A416" s="45"/>
-      <c r="B416" s="45"/>
-      <c r="C416" s="45"/>
-      <c r="D416" s="45"/>
-      <c r="E416" s="45"/>
-      <c r="F416" s="45"/>
-      <c r="G416" s="45"/>
+      <c r="A416" s="12"/>
+      <c r="B416" s="12"/>
+      <c r="C416" s="12"/>
+      <c r="D416" s="12"/>
+      <c r="E416" s="12"/>
+      <c r="F416" s="12"/>
+      <c r="G416" s="12"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A417" s="12"/>
-      <c r="B417" s="12"/>
-      <c r="C417" s="12"/>
-      <c r="D417" s="12"/>
-      <c r="E417" s="12"/>
-      <c r="F417" s="12"/>
-      <c r="G417" s="12"/>
+      <c r="A417" s="47"/>
+      <c r="B417" s="47"/>
+      <c r="C417" s="47"/>
+      <c r="D417" s="47"/>
+      <c r="E417" s="47"/>
+      <c r="F417" s="47"/>
+      <c r="G417" s="47"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="12"/>
@@ -8988,22 +9025,22 @@
       <c r="G435" s="12"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A436" s="45"/>
-      <c r="B436" s="45"/>
-      <c r="C436" s="45"/>
-      <c r="D436" s="45"/>
-      <c r="E436" s="45"/>
-      <c r="F436" s="45"/>
-      <c r="G436" s="45"/>
+      <c r="A436" s="12"/>
+      <c r="B436" s="12"/>
+      <c r="C436" s="12"/>
+      <c r="D436" s="12"/>
+      <c r="E436" s="12"/>
+      <c r="F436" s="12"/>
+      <c r="G436" s="12"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A437" s="12"/>
-      <c r="B437" s="12"/>
-      <c r="C437" s="12"/>
-      <c r="D437" s="12"/>
-      <c r="E437" s="12"/>
-      <c r="F437" s="12"/>
-      <c r="G437" s="12"/>
+      <c r="A437" s="47"/>
+      <c r="B437" s="47"/>
+      <c r="C437" s="47"/>
+      <c r="D437" s="47"/>
+      <c r="E437" s="47"/>
+      <c r="F437" s="47"/>
+      <c r="G437" s="47"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="12"/>
@@ -9109,7 +9146,7 @@
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
       <c r="D449" s="12"/>
-      <c r="E449" s="13"/>
+      <c r="E449" s="12"/>
       <c r="F449" s="12"/>
       <c r="G449" s="12"/>
     </row>
@@ -9163,7 +9200,7 @@
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
       <c r="D455" s="12"/>
-      <c r="E455" s="12"/>
+      <c r="E455" s="13"/>
       <c r="F455" s="12"/>
       <c r="G455" s="12"/>
     </row>
@@ -9271,7 +9308,7 @@
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
       <c r="D467" s="12"/>
-      <c r="E467" s="13"/>
+      <c r="E467" s="12"/>
       <c r="F467" s="12"/>
       <c r="G467" s="12"/>
     </row>
@@ -9280,7 +9317,7 @@
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
       <c r="D468" s="12"/>
-      <c r="E468" s="12"/>
+      <c r="E468" s="13"/>
       <c r="F468" s="12"/>
       <c r="G468" s="12"/>
     </row>
@@ -9303,22 +9340,22 @@
       <c r="G470" s="12"/>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A471" s="45"/>
-      <c r="B471" s="45"/>
-      <c r="C471" s="45"/>
-      <c r="D471" s="45"/>
-      <c r="E471" s="45"/>
-      <c r="F471" s="45"/>
-      <c r="G471" s="45"/>
+      <c r="A471" s="12"/>
+      <c r="B471" s="12"/>
+      <c r="C471" s="12"/>
+      <c r="D471" s="12"/>
+      <c r="E471" s="12"/>
+      <c r="F471" s="12"/>
+      <c r="G471" s="12"/>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A472" s="12"/>
-      <c r="B472" s="12"/>
-      <c r="C472" s="12"/>
-      <c r="D472" s="12"/>
-      <c r="E472" s="12"/>
-      <c r="F472" s="12"/>
-      <c r="G472" s="12"/>
+      <c r="A472" s="47"/>
+      <c r="B472" s="47"/>
+      <c r="C472" s="47"/>
+      <c r="D472" s="47"/>
+      <c r="E472" s="47"/>
+      <c r="F472" s="47"/>
+      <c r="G472" s="47"/>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" s="12"/>
@@ -9415,7 +9452,7 @@
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
       <c r="D483" s="12"/>
-      <c r="E483" s="13"/>
+      <c r="E483" s="12"/>
       <c r="F483" s="12"/>
       <c r="G483" s="12"/>
     </row>
@@ -9460,7 +9497,7 @@
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
       <c r="D488" s="12"/>
-      <c r="E488" s="12"/>
+      <c r="E488" s="13"/>
       <c r="F488" s="12"/>
       <c r="G488" s="12"/>
     </row>
@@ -9483,22 +9520,22 @@
       <c r="G490" s="12"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A491" s="45"/>
-      <c r="B491" s="45"/>
-      <c r="C491" s="45"/>
-      <c r="D491" s="45"/>
-      <c r="E491" s="45"/>
-      <c r="F491" s="45"/>
-      <c r="G491" s="45"/>
+      <c r="A491" s="12"/>
+      <c r="B491" s="12"/>
+      <c r="C491" s="12"/>
+      <c r="D491" s="12"/>
+      <c r="E491" s="12"/>
+      <c r="F491" s="12"/>
+      <c r="G491" s="12"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A492" s="12"/>
-      <c r="B492" s="12"/>
-      <c r="C492" s="12"/>
-      <c r="D492" s="12"/>
-      <c r="E492" s="12"/>
-      <c r="F492" s="12"/>
-      <c r="G492" s="12"/>
+      <c r="A492" s="47"/>
+      <c r="B492" s="47"/>
+      <c r="C492" s="47"/>
+      <c r="D492" s="47"/>
+      <c r="E492" s="47"/>
+      <c r="F492" s="47"/>
+      <c r="G492" s="47"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" s="12"/>
@@ -9591,22 +9628,22 @@
       <c r="G502" s="12"/>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A503" s="45"/>
-      <c r="B503" s="45"/>
-      <c r="C503" s="45"/>
-      <c r="D503" s="45"/>
-      <c r="E503" s="45"/>
-      <c r="F503" s="45"/>
-      <c r="G503" s="45"/>
+      <c r="A503" s="12"/>
+      <c r="B503" s="12"/>
+      <c r="C503" s="12"/>
+      <c r="D503" s="12"/>
+      <c r="E503" s="12"/>
+      <c r="F503" s="12"/>
+      <c r="G503" s="12"/>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A504" s="12"/>
-      <c r="B504" s="12"/>
-      <c r="C504" s="12"/>
-      <c r="D504" s="12"/>
-      <c r="E504" s="12"/>
-      <c r="F504" s="12"/>
-      <c r="G504" s="12"/>
+      <c r="A504" s="47"/>
+      <c r="B504" s="47"/>
+      <c r="C504" s="47"/>
+      <c r="D504" s="47"/>
+      <c r="E504" s="47"/>
+      <c r="F504" s="47"/>
+      <c r="G504" s="47"/>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="12"/>
@@ -9780,22 +9817,22 @@
       <c r="G523" s="12"/>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A524" s="45"/>
-      <c r="B524" s="45"/>
-      <c r="C524" s="45"/>
-      <c r="D524" s="45"/>
-      <c r="E524" s="45"/>
-      <c r="F524" s="45"/>
-      <c r="G524" s="45"/>
+      <c r="A524" s="12"/>
+      <c r="B524" s="12"/>
+      <c r="C524" s="12"/>
+      <c r="D524" s="12"/>
+      <c r="E524" s="12"/>
+      <c r="F524" s="12"/>
+      <c r="G524" s="12"/>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A525" s="12"/>
-      <c r="B525" s="12"/>
-      <c r="C525" s="12"/>
-      <c r="D525" s="12"/>
-      <c r="E525" s="12"/>
-      <c r="F525" s="12"/>
-      <c r="G525" s="12"/>
+      <c r="A525" s="47"/>
+      <c r="B525" s="47"/>
+      <c r="C525" s="47"/>
+      <c r="D525" s="47"/>
+      <c r="E525" s="47"/>
+      <c r="F525" s="47"/>
+      <c r="G525" s="47"/>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" s="12"/>
@@ -9955,7 +9992,7 @@
       <c r="B543" s="12"/>
       <c r="C543" s="12"/>
       <c r="D543" s="12"/>
-      <c r="E543" s="13"/>
+      <c r="E543" s="12"/>
       <c r="F543" s="12"/>
       <c r="G543" s="12"/>
     </row>
@@ -9973,7 +10010,7 @@
       <c r="B545" s="12"/>
       <c r="C545" s="12"/>
       <c r="D545" s="12"/>
-      <c r="E545" s="12"/>
+      <c r="E545" s="13"/>
       <c r="F545" s="12"/>
       <c r="G545" s="12"/>
     </row>
@@ -10032,22 +10069,22 @@
       <c r="G551" s="12"/>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A552" s="45"/>
-      <c r="B552" s="45"/>
-      <c r="C552" s="45"/>
-      <c r="D552" s="45"/>
-      <c r="E552" s="45"/>
-      <c r="F552" s="45"/>
-      <c r="G552" s="45"/>
+      <c r="A552" s="12"/>
+      <c r="B552" s="12"/>
+      <c r="C552" s="12"/>
+      <c r="D552" s="12"/>
+      <c r="E552" s="12"/>
+      <c r="F552" s="12"/>
+      <c r="G552" s="12"/>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A553" s="12"/>
-      <c r="B553" s="12"/>
-      <c r="C553" s="12"/>
-      <c r="D553" s="12"/>
-      <c r="E553" s="12"/>
-      <c r="F553" s="12"/>
-      <c r="G553" s="12"/>
+      <c r="A553" s="47"/>
+      <c r="B553" s="47"/>
+      <c r="C553" s="47"/>
+      <c r="D553" s="47"/>
+      <c r="E553" s="47"/>
+      <c r="F553" s="47"/>
+      <c r="G553" s="47"/>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A554" s="12"/>
@@ -10280,7 +10317,7 @@
       <c r="C579" s="12"/>
       <c r="D579" s="12"/>
       <c r="E579" s="12"/>
-      <c r="F579" s="13"/>
+      <c r="F579" s="12"/>
       <c r="G579" s="12"/>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.35">
@@ -10329,22 +10366,22 @@
       <c r="G584" s="12"/>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A585" s="45"/>
-      <c r="B585" s="45"/>
-      <c r="C585" s="45"/>
-      <c r="D585" s="45"/>
-      <c r="E585" s="45"/>
-      <c r="F585" s="45"/>
-      <c r="G585" s="45"/>
+      <c r="A585" s="12"/>
+      <c r="B585" s="12"/>
+      <c r="C585" s="12"/>
+      <c r="D585" s="12"/>
+      <c r="E585" s="12"/>
+      <c r="F585" s="13"/>
+      <c r="G585" s="12"/>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A586" s="12"/>
-      <c r="B586" s="12"/>
-      <c r="C586" s="12"/>
-      <c r="D586" s="12"/>
-      <c r="E586" s="12"/>
-      <c r="F586" s="12"/>
-      <c r="G586" s="12"/>
+      <c r="A586" s="47"/>
+      <c r="B586" s="47"/>
+      <c r="C586" s="47"/>
+      <c r="D586" s="47"/>
+      <c r="E586" s="47"/>
+      <c r="F586" s="47"/>
+      <c r="G586" s="47"/>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A587" s="12"/>
@@ -10671,22 +10708,22 @@
       <c r="G622" s="12"/>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A623" s="45"/>
-      <c r="B623" s="45"/>
-      <c r="C623" s="45"/>
-      <c r="D623" s="45"/>
-      <c r="E623" s="45"/>
-      <c r="F623" s="45"/>
-      <c r="G623" s="45"/>
+      <c r="A623" s="12"/>
+      <c r="B623" s="12"/>
+      <c r="C623" s="12"/>
+      <c r="D623" s="12"/>
+      <c r="E623" s="12"/>
+      <c r="F623" s="12"/>
+      <c r="G623" s="12"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A624" s="12"/>
-      <c r="B624" s="12"/>
-      <c r="C624" s="12"/>
-      <c r="D624" s="12"/>
-      <c r="E624" s="12"/>
-      <c r="F624" s="12"/>
-      <c r="G624" s="12"/>
+      <c r="A624" s="47"/>
+      <c r="B624" s="47"/>
+      <c r="C624" s="47"/>
+      <c r="D624" s="47"/>
+      <c r="E624" s="47"/>
+      <c r="F624" s="47"/>
+      <c r="G624" s="47"/>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A625" s="12"/>
@@ -10995,22 +11032,22 @@
       <c r="G658" s="12"/>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A659" s="45"/>
-      <c r="B659" s="45"/>
-      <c r="C659" s="45"/>
-      <c r="D659" s="45"/>
-      <c r="E659" s="45"/>
-      <c r="F659" s="45"/>
-      <c r="G659" s="45"/>
+      <c r="A659" s="12"/>
+      <c r="B659" s="12"/>
+      <c r="C659" s="12"/>
+      <c r="D659" s="12"/>
+      <c r="E659" s="12"/>
+      <c r="F659" s="12"/>
+      <c r="G659" s="12"/>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A660" s="12"/>
-      <c r="B660" s="12"/>
-      <c r="C660" s="12"/>
-      <c r="D660" s="12"/>
-      <c r="E660" s="12"/>
-      <c r="F660" s="12"/>
-      <c r="G660" s="12"/>
+      <c r="A660" s="47"/>
+      <c r="B660" s="47"/>
+      <c r="C660" s="47"/>
+      <c r="D660" s="47"/>
+      <c r="E660" s="47"/>
+      <c r="F660" s="47"/>
+      <c r="G660" s="47"/>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A661" s="12"/>
@@ -11256,22 +11293,22 @@
       <c r="G687" s="12"/>
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A688" s="45"/>
-      <c r="B688" s="45"/>
-      <c r="C688" s="45"/>
-      <c r="D688" s="45"/>
-      <c r="E688" s="45"/>
-      <c r="F688" s="45"/>
-      <c r="G688" s="45"/>
+      <c r="A688" s="12"/>
+      <c r="B688" s="12"/>
+      <c r="C688" s="12"/>
+      <c r="D688" s="12"/>
+      <c r="E688" s="12"/>
+      <c r="F688" s="12"/>
+      <c r="G688" s="12"/>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A689" s="12"/>
-      <c r="B689" s="12"/>
-      <c r="C689" s="12"/>
-      <c r="D689" s="12"/>
-      <c r="E689" s="12"/>
-      <c r="F689" s="12"/>
-      <c r="G689" s="12"/>
+      <c r="A689" s="47"/>
+      <c r="B689" s="47"/>
+      <c r="C689" s="47"/>
+      <c r="D689" s="47"/>
+      <c r="E689" s="47"/>
+      <c r="F689" s="47"/>
+      <c r="G689" s="47"/>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A690" s="12"/>
@@ -11359,7 +11396,7 @@
       <c r="B699" s="12"/>
       <c r="C699" s="12"/>
       <c r="D699" s="12"/>
-      <c r="E699" s="13"/>
+      <c r="E699" s="12"/>
       <c r="F699" s="12"/>
       <c r="G699" s="12"/>
     </row>
@@ -11395,7 +11432,7 @@
       <c r="B703" s="12"/>
       <c r="C703" s="12"/>
       <c r="D703" s="12"/>
-      <c r="E703" s="12"/>
+      <c r="E703" s="13"/>
       <c r="F703" s="12"/>
       <c r="G703" s="12"/>
     </row>
@@ -11436,22 +11473,22 @@
       <c r="G707" s="12"/>
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A708" s="45"/>
-      <c r="B708" s="45"/>
-      <c r="C708" s="45"/>
-      <c r="D708" s="45"/>
-      <c r="E708" s="45"/>
-      <c r="F708" s="45"/>
-      <c r="G708" s="45"/>
+      <c r="A708" s="12"/>
+      <c r="B708" s="12"/>
+      <c r="C708" s="12"/>
+      <c r="D708" s="12"/>
+      <c r="E708" s="12"/>
+      <c r="F708" s="12"/>
+      <c r="G708" s="12"/>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A709" s="12"/>
-      <c r="B709" s="12"/>
-      <c r="C709" s="12"/>
-      <c r="D709" s="12"/>
-      <c r="E709" s="12"/>
-      <c r="F709" s="12"/>
-      <c r="G709" s="12"/>
+      <c r="A709" s="47"/>
+      <c r="B709" s="47"/>
+      <c r="C709" s="47"/>
+      <c r="D709" s="47"/>
+      <c r="E709" s="47"/>
+      <c r="F709" s="47"/>
+      <c r="G709" s="47"/>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A710" s="12"/>
@@ -11633,7 +11670,7 @@
       <c r="F729" s="12"/>
       <c r="G729" s="12"/>
     </row>
-    <row r="730" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A730" s="12"/>
       <c r="B730" s="12"/>
       <c r="C730" s="12"/>
@@ -11642,32 +11679,32 @@
       <c r="F730" s="12"/>
       <c r="G730" s="12"/>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A731" s="45"/>
-      <c r="B731" s="45"/>
-      <c r="C731" s="45"/>
-      <c r="D731" s="45"/>
-      <c r="E731" s="45"/>
-      <c r="F731" s="45"/>
-      <c r="G731" s="45"/>
+    <row r="731" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A731" s="12"/>
+      <c r="B731" s="12"/>
+      <c r="C731" s="12"/>
+      <c r="D731" s="12"/>
+      <c r="E731" s="12"/>
+      <c r="F731" s="12"/>
+      <c r="G731" s="12"/>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A732" s="45"/>
-      <c r="B732" s="45"/>
-      <c r="C732" s="45"/>
-      <c r="D732" s="45"/>
-      <c r="E732" s="45"/>
-      <c r="F732" s="45"/>
-      <c r="G732" s="45"/>
+      <c r="A732" s="47"/>
+      <c r="B732" s="47"/>
+      <c r="C732" s="47"/>
+      <c r="D732" s="47"/>
+      <c r="E732" s="47"/>
+      <c r="F732" s="47"/>
+      <c r="G732" s="47"/>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A733" s="12"/>
-      <c r="B733" s="12"/>
-      <c r="C733" s="12"/>
-      <c r="D733" s="12"/>
-      <c r="E733" s="12"/>
-      <c r="F733" s="12"/>
-      <c r="G733" s="12"/>
+      <c r="A733" s="47"/>
+      <c r="B733" s="47"/>
+      <c r="C733" s="47"/>
+      <c r="D733" s="47"/>
+      <c r="E733" s="47"/>
+      <c r="F733" s="47"/>
+      <c r="G733" s="47"/>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A734" s="12"/>
@@ -11733,22 +11770,22 @@
       <c r="G740" s="12"/>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A741" s="45"/>
-      <c r="B741" s="45"/>
-      <c r="C741" s="45"/>
-      <c r="D741" s="45"/>
-      <c r="E741" s="45"/>
-      <c r="F741" s="45"/>
-      <c r="G741" s="45"/>
+      <c r="A741" s="12"/>
+      <c r="B741" s="12"/>
+      <c r="C741" s="12"/>
+      <c r="D741" s="12"/>
+      <c r="E741" s="12"/>
+      <c r="F741" s="12"/>
+      <c r="G741" s="12"/>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A742" s="12"/>
-      <c r="B742" s="12"/>
-      <c r="C742" s="12"/>
-      <c r="D742" s="12"/>
-      <c r="E742" s="12"/>
-      <c r="F742" s="12"/>
-      <c r="G742" s="12"/>
+      <c r="A742" s="47"/>
+      <c r="B742" s="47"/>
+      <c r="C742" s="47"/>
+      <c r="D742" s="47"/>
+      <c r="E742" s="47"/>
+      <c r="F742" s="47"/>
+      <c r="G742" s="47"/>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A743" s="12"/>
@@ -11814,22 +11851,22 @@
       <c r="G749" s="12"/>
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A750" s="45"/>
-      <c r="B750" s="45"/>
-      <c r="C750" s="45"/>
-      <c r="D750" s="45"/>
-      <c r="E750" s="45"/>
-      <c r="F750" s="45"/>
-      <c r="G750" s="45"/>
+      <c r="A750" s="12"/>
+      <c r="B750" s="12"/>
+      <c r="C750" s="12"/>
+      <c r="D750" s="12"/>
+      <c r="E750" s="12"/>
+      <c r="F750" s="12"/>
+      <c r="G750" s="12"/>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A751" s="12"/>
-      <c r="B751" s="12"/>
-      <c r="C751" s="12"/>
-      <c r="D751" s="12"/>
-      <c r="E751" s="12"/>
-      <c r="F751" s="12"/>
-      <c r="G751" s="12"/>
+      <c r="A751" s="47"/>
+      <c r="B751" s="47"/>
+      <c r="C751" s="47"/>
+      <c r="D751" s="47"/>
+      <c r="E751" s="47"/>
+      <c r="F751" s="47"/>
+      <c r="G751" s="47"/>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A752" s="12"/>
@@ -11994,22 +12031,22 @@
       <c r="G769" s="12"/>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A770" s="45"/>
-      <c r="B770" s="45"/>
-      <c r="C770" s="45"/>
-      <c r="D770" s="45"/>
-      <c r="E770" s="45"/>
-      <c r="F770" s="45"/>
-      <c r="G770" s="45"/>
+      <c r="A770" s="12"/>
+      <c r="B770" s="12"/>
+      <c r="C770" s="12"/>
+      <c r="D770" s="12"/>
+      <c r="E770" s="12"/>
+      <c r="F770" s="12"/>
+      <c r="G770" s="12"/>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A771" s="12"/>
-      <c r="B771" s="12"/>
-      <c r="C771" s="12"/>
-      <c r="D771" s="12"/>
-      <c r="E771" s="12"/>
-      <c r="F771" s="12"/>
-      <c r="G771" s="12"/>
+      <c r="A771" s="47"/>
+      <c r="B771" s="47"/>
+      <c r="C771" s="47"/>
+      <c r="D771" s="47"/>
+      <c r="E771" s="47"/>
+      <c r="F771" s="47"/>
+      <c r="G771" s="47"/>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A772" s="12"/>
@@ -12236,33 +12273,42 @@
       <c r="F796" s="12"/>
       <c r="G796" s="12"/>
     </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A797" s="12"/>
+      <c r="B797" s="12"/>
+      <c r="C797" s="12"/>
+      <c r="D797" s="12"/>
+      <c r="E797" s="12"/>
+      <c r="F797" s="12"/>
+      <c r="G797" s="12"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
   <mergeCells count="24">
-    <mergeCell ref="A741:G741"/>
-    <mergeCell ref="A750:G750"/>
-    <mergeCell ref="A770:G770"/>
-    <mergeCell ref="A503:G503"/>
-    <mergeCell ref="A524:G524"/>
-    <mergeCell ref="A552:G552"/>
-    <mergeCell ref="A585:G585"/>
-    <mergeCell ref="A623:G623"/>
-    <mergeCell ref="A731:G731"/>
+    <mergeCell ref="A742:G742"/>
+    <mergeCell ref="A751:G751"/>
+    <mergeCell ref="A771:G771"/>
+    <mergeCell ref="A504:G504"/>
+    <mergeCell ref="A525:G525"/>
+    <mergeCell ref="A553:G553"/>
+    <mergeCell ref="A586:G586"/>
+    <mergeCell ref="A624:G624"/>
     <mergeCell ref="A732:G732"/>
+    <mergeCell ref="A733:G733"/>
     <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A491:G491"/>
-    <mergeCell ref="A659:G659"/>
-    <mergeCell ref="A688:G688"/>
-    <mergeCell ref="A708:G708"/>
-    <mergeCell ref="A382:G382"/>
-    <mergeCell ref="A403:G403"/>
-    <mergeCell ref="A416:G416"/>
-    <mergeCell ref="A436:G436"/>
-    <mergeCell ref="A471:G471"/>
+    <mergeCell ref="A492:G492"/>
+    <mergeCell ref="A660:G660"/>
+    <mergeCell ref="A689:G689"/>
+    <mergeCell ref="A709:G709"/>
+    <mergeCell ref="A383:G383"/>
+    <mergeCell ref="A404:G404"/>
+    <mergeCell ref="A417:G417"/>
+    <mergeCell ref="A437:G437"/>
+    <mergeCell ref="A472:G472"/>
     <mergeCell ref="A118:G118"/>
-    <mergeCell ref="A280:G280"/>
-    <mergeCell ref="A349:G349"/>
-    <mergeCell ref="A365:G365"/>
+    <mergeCell ref="A281:G281"/>
+    <mergeCell ref="A350:G350"/>
+    <mergeCell ref="A366:G366"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12282,25 +12328,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
-        <v>324</v>
+      <c r="A1" s="42" t="s">
+        <v>323</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -12332,7 +12378,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -12343,7 +12389,7 @@
         <v>89</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -12368,13 +12414,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>2</v>
@@ -12385,10 +12431,10 @@
         <v>110</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>140</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>89</v>
@@ -12457,35 +12503,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/My Account.xlsx
+++ b/src/test/java/com/born/xls/My Account.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="328">
   <si>
     <t>TCID</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Search</t>
   </si>
   <si>
-    <t>Click on  Search Filed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter product name </t>
   </si>
   <si>
@@ -369,12 +366,6 @@
   </si>
   <si>
     <t>Search for the product</t>
-  </si>
-  <si>
-    <t>Wait for Product to load</t>
-  </si>
-  <si>
-    <t>Select the Product to compare</t>
   </si>
   <si>
     <t>Click on Compare button to compare the selected products</t>
@@ -1593,22 +1584,10 @@
     <t>Select the Product</t>
   </si>
   <si>
-    <t>TS021</t>
-  </si>
-  <si>
-    <t>TS022</t>
-  </si>
-  <si>
-    <t>SearchResult_Text</t>
-  </si>
-  <si>
     <t>TrainingURL</t>
   </si>
   <si>
     <t>col|TrainingURL</t>
-  </si>
-  <si>
-    <t>Result1</t>
   </si>
   <si>
     <t>enter</t>
@@ -1632,6 +1611,18 @@
 Driver info: org.openqa.selenium.chrome.ChromeDriver
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.33.506120 (e3e53437346286c0bc2d2dc9aa4915ba81d9023f), userDataDir=C:\Users\SHAHEE~1.SYE\AppData\Local\Temp\scoped_dir12120_5818}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=63.0.3239.132, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: 4990e56a2d2f6f43d75d17dfc9dfcd48</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TS021</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Result1</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +1927,9 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1946,9 +1939,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2261,8 +2252,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,7 +2280,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -2300,7 +2291,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -2311,7 +2302,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
@@ -2333,7 +2324,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>3</v>
@@ -2344,29 +2335,29 @@
         <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
@@ -2374,10 +2365,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
@@ -2385,10 +2376,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>3</v>
@@ -2396,10 +2387,10 @@
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>3</v>
@@ -2407,10 +2398,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>3</v>
@@ -2418,10 +2409,10 @@
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>3</v>
@@ -2429,10 +2420,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>3</v>
@@ -2440,10 +2431,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>3</v>
@@ -2451,10 +2442,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>3</v>
@@ -2462,10 +2453,10 @@
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
@@ -2473,10 +2464,10 @@
     </row>
     <row r="19" spans="1:3" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3</v>
@@ -2484,10 +2475,10 @@
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>3</v>
@@ -2495,10 +2486,10 @@
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>3</v>
@@ -2509,18 +2500,18 @@
         <v>81</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>3</v>
@@ -2528,10 +2519,10 @@
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>3</v>
@@ -2539,10 +2530,10 @@
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>3</v>
@@ -2550,10 +2541,10 @@
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>3</v>
@@ -2561,21 +2552,21 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>3</v>
@@ -2583,10 +2574,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>3</v>
@@ -2594,10 +2585,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>3</v>
@@ -2613,10 +2604,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H798"/>
+  <dimension ref="A1:H797"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2628,7 +2619,7 @@
     <col min="5" max="5" width="34.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="255" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -2654,8 +2645,8 @@
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="43" t="s">
-        <v>324</v>
+      <c r="H1" s="47" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3101,13 +3092,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>30</v>
@@ -3120,13 +3111,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>10</v>
@@ -3139,13 +3130,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>43</v>
@@ -3158,13 +3149,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>35</v>
@@ -3177,73 +3168,73 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
@@ -3380,10 +3371,10 @@
         <v>22</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>62</v>
@@ -3399,7 +3390,7 @@
         <v>21</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" s="33" t="s">
         <v>35</v>
@@ -3493,7 +3484,7 @@
       </c>
       <c r="G48" s="33"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>71</v>
       </c>
@@ -3512,7 +3503,7 @@
       </c>
       <c r="G49" s="33"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>71</v>
       </c>
@@ -3531,7 +3522,7 @@
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>71</v>
       </c>
@@ -3550,7 +3541,7 @@
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>71</v>
       </c>
@@ -3569,7 +3560,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>71</v>
       </c>
@@ -3588,7 +3579,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>71</v>
       </c>
@@ -3607,7 +3598,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>71</v>
       </c>
@@ -3626,7 +3617,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>71</v>
       </c>
@@ -3643,7 +3634,7 @@
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="34"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -3652,7 +3643,7 @@
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>78</v>
       </c>
@@ -3670,8 +3661,11 @@
         <v>9</v>
       </c>
       <c r="G58" s="33"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>78</v>
       </c>
@@ -3679,7 +3673,7 @@
         <v>27</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D59" s="33" t="s">
         <v>10</v>
@@ -3689,8 +3683,11 @@
         <v>11</v>
       </c>
       <c r="G59" s="33"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>78</v>
       </c>
@@ -3698,18 +3695,23 @@
         <v>26</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E60" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F60" s="33"/>
       <c r="G60" s="33"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>78</v>
       </c>
@@ -3717,20 +3719,21 @@
         <v>25</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>122</v>
+        <v>293</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="33" t="s">
-        <v>86</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="F61" s="33"/>
       <c r="G61" s="33"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>78</v>
       </c>
@@ -3738,18 +3741,19 @@
         <v>24</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>308</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E62" s="33"/>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>78</v>
       </c>
@@ -3757,18 +3761,21 @@
         <v>23</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>85</v>
+        <v>306</v>
+      </c>
+      <c r="E63" s="35" t="s">
+        <v>324</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>78</v>
       </c>
@@ -3779,15 +3786,18 @@
         <v>113</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>308</v>
+        <v>318</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>78</v>
       </c>
@@ -3795,18 +3805,21 @@
         <v>21</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>61</v>
+        <v>306</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>326</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>78</v>
       </c>
@@ -3814,18 +3827,21 @@
         <v>20</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>308</v>
+        <v>35</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>78</v>
       </c>
@@ -3833,18 +3849,21 @@
         <v>13</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D67" s="33" t="s">
-        <v>35</v>
+        <v>303</v>
       </c>
       <c r="E67" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="F67" s="33"/>
+      <c r="F67" s="9"/>
       <c r="G67" s="33"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>78</v>
       </c>
@@ -3852,18 +3871,21 @@
         <v>14</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D68" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>308</v>
+        <v>35</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>107</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>78</v>
       </c>
@@ -3871,18 +3893,23 @@
         <v>15</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F69" s="33"/>
+        <v>84</v>
+      </c>
+      <c r="F69" s="33" t="s">
+        <v>110</v>
+      </c>
       <c r="G69" s="33"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>78</v>
       </c>
@@ -3890,20 +3917,21 @@
         <v>16</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>121</v>
+        <v>293</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="33" t="s">
-        <v>111</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="F70" s="33"/>
       <c r="G70" s="33"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>78</v>
       </c>
@@ -3911,18 +3939,19 @@
         <v>17</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E71" s="35" t="s">
-        <v>308</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E71" s="33"/>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>78</v>
       </c>
@@ -3930,18 +3959,21 @@
         <v>18</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>85</v>
+        <v>306</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>324</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>78</v>
       </c>
@@ -3949,873 +3981,861 @@
         <v>19</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E73" s="35" t="s">
-        <v>308</v>
+        <v>318</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>61</v>
+        <v>306</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>326</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E75" s="35" t="s">
-        <v>308</v>
+        <v>35</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D76" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>118</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E78" s="33"/>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
+      <c r="H78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E81" s="33"/>
-      <c r="F81" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F81" s="33"/>
       <c r="G81" s="33"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B82" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="33"/>
       <c r="G82" s="33"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B83" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D85" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
+        <v>306</v>
+      </c>
+      <c r="E85" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E86" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="F86" s="33"/>
+        <v>33</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G86" s="33"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>103</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F87" s="33"/>
+        <v>306</v>
+      </c>
+      <c r="E87" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F87" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G87" s="33"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>104</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E88" s="35" t="s">
-        <v>308</v>
+        <v>34</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89" s="33" t="s">
-        <v>107</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E89" s="33"/>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B90" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E90" s="33"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
+      <c r="A91" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D92" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E92" s="33"/>
-      <c r="F92" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F92" s="33"/>
       <c r="G92" s="33"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C93" s="33" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D93" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93" s="33"/>
       <c r="G93" s="33"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E97" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="E97" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F97" s="45"/>
+      <c r="G97" s="46"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D98" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E98" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="F98" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E98" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F98" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G98" s="33"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D99" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E99" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F99" s="33"/>
+        <v>67</v>
+      </c>
+      <c r="F99" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G99" s="33"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D100" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F100" s="33"/>
+        <v>68</v>
+      </c>
+      <c r="F100" s="33" t="s">
+        <v>85</v>
+      </c>
       <c r="G100" s="33"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E101" s="33" t="s">
-        <v>68</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E101" s="33"/>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E102" s="33"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="44"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="44"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="46"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D103" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B104" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E104" s="33"/>
-      <c r="F104" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F104" s="33"/>
       <c r="G104" s="33"/>
-      <c r="H104" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B105" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C105" s="33" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D105" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F105" s="33"/>
       <c r="G105" s="33"/>
-      <c r="H105" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B106" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="D106" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F106" s="33" t="s">
-        <v>86</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="E106" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="F106" s="33"/>
       <c r="G106" s="33"/>
-      <c r="H106" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="E107" s="35" t="s">
-        <v>326</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E107" s="33"/>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
-      <c r="H107" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C108" s="33" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="D108" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="E108" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109" s="33" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E109" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="F109" s="33"/>
+        <v>318</v>
+      </c>
+      <c r="E109" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F109" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G109" s="33"/>
-      <c r="H109" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>329</v>
+        <v>103</v>
       </c>
       <c r="D110" s="33" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="E110" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F110" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="F110" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G110" s="33"/>
-      <c r="H110" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C111" s="33" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D111" s="33" t="s">
-        <v>306</v>
+        <v>34</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>321</v>
+        <v>122</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
-      <c r="H111" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D112" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E112" s="33" t="s">
-        <v>125</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E112" s="33"/>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
-      <c r="H112" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B113" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D113" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-    </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="34"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="46"/>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D114" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="33"/>
+    </row>
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C115" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D115" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E115" s="33"/>
       <c r="F115" s="33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G115" s="33"/>
     </row>
-    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C116" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C116" s="31" t="s">
+        <v>288</v>
       </c>
       <c r="D116" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+    </row>
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B117" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G116" s="33"/>
-    </row>
-    <row r="117" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C117" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="D117" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E117" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="F117" s="33"/>
       <c r="G117" s="33"/>
     </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B118" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C118" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D118" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E118" s="33"/>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="44"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="44"/>
-      <c r="B119" s="45"/>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="46"/>
-    </row>
-    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E119" s="33"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
+    </row>
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C120" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E120" s="33"/>
       <c r="F120" s="33" t="s">
@@ -4823,101 +4843,99 @@
       </c>
       <c r="G120" s="33"/>
     </row>
-    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C121" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>289</v>
       </c>
       <c r="D121" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E121" s="33" t="s">
+        <v>168</v>
+      </c>
       <c r="F121" s="33" t="s">
         <v>11</v>
       </c>
       <c r="G121" s="33"/>
     </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C122" s="31" t="s">
-        <v>292</v>
+        <v>25</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>167</v>
       </c>
       <c r="D122" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E122" s="33" t="s">
-        <v>171</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E122" s="33"/>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
     </row>
-    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C123" s="33" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="E123" s="33"/>
-      <c r="F123" s="33" t="s">
-        <v>11</v>
-      </c>
+      <c r="F123" s="33"/>
       <c r="G123" s="33"/>
     </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B124" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C124" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D124" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E124" s="33"/>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="34"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="34"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="34"/>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" s="33"/>
       <c r="F125" s="34"/>
       <c r="G125" s="34"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D126" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E126" s="33"/>
       <c r="F126" s="33" t="s">
@@ -4925,18 +4943,18 @@
       </c>
       <c r="G126" s="33"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="D127" s="33" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E127" s="33"/>
       <c r="F127" s="33" t="s">
@@ -4944,266 +4962,268 @@
       </c>
       <c r="G127" s="33"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="26" t="s">
-        <v>155</v>
+    <row r="128" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A128" s="27" t="s">
+        <v>152</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C128" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="D128" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
+      <c r="F128" s="33" t="s">
+        <v>312</v>
+      </c>
       <c r="G128" s="33"/>
     </row>
-    <row r="129" spans="1:7" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="27" t="s">
-        <v>155</v>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129" s="32" t="s">
-        <v>173</v>
+        <v>24</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D129" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E129" s="33" t="s">
-        <v>175</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E129" s="33"/>
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C130" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D130" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E130" s="33"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="34"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="34"/>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="34"/>
-      <c r="B131" s="34"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="34"/>
-      <c r="F131" s="34"/>
-      <c r="G131" s="34"/>
+      <c r="A131" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E132" s="33"/>
-      <c r="F132" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F132" s="33"/>
       <c r="G132" s="33"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>119</v>
+        <v>311</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E133" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F133" s="33"/>
       <c r="G133" s="33"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>314</v>
+        <v>88</v>
       </c>
       <c r="D134" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F134" s="33" t="s">
-        <v>315</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="E134" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F134" s="33"/>
       <c r="G134" s="33"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="D135" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="E135" s="35" t="s">
-        <v>308</v>
+        <v>292</v>
+      </c>
+      <c r="E135" s="33" t="s">
+        <v>84</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="D136" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="E136" s="33" t="s">
-        <v>85</v>
+        <v>303</v>
+      </c>
+      <c r="E136" s="35" t="s">
+        <v>314</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>89</v>
+        <v>315</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="E137" s="35" t="s">
-        <v>317</v>
+        <v>33</v>
+      </c>
+      <c r="E137" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C138" s="33" t="s">
-        <v>318</v>
+        <v>88</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F138" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>136</v>
+      </c>
       <c r="G138" s="33"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>306</v>
+        <v>35</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="F139" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="F139" s="33" t="s">
+        <v>137</v>
+      </c>
       <c r="G139" s="33"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E140" s="33" t="s">
-        <v>125</v>
+        <v>303</v>
+      </c>
+      <c r="E140" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D141" s="33" t="s">
-        <v>306</v>
+        <v>35</v>
       </c>
       <c r="E141" s="35" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C142" s="33" t="s">
         <v>93</v>
@@ -5212,36 +5232,36 @@
         <v>35</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C143" s="33" t="s">
         <v>94</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E143" s="35" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C144" s="33" t="s">
         <v>95</v>
@@ -5250,1015 +5270,1015 @@
         <v>12</v>
       </c>
       <c r="E144" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F144" s="33" t="s">
-        <v>139</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F144" s="33"/>
       <c r="G144" s="33"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>96</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>12</v>
+        <v>304</v>
       </c>
       <c r="E145" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="F145" s="33" t="s">
-        <v>140</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F145" s="33"/>
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C146" s="33" t="s">
         <v>97</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>307</v>
+        <v>133</v>
       </c>
       <c r="E146" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
+        <v>126</v>
+      </c>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>98</v>
+        <v>296</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="E147" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F147" s="33"/>
+        <v>295</v>
+      </c>
+      <c r="F147" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G147" s="33"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D148" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E148" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="F148" s="33"/>
+        <v>125</v>
+      </c>
+      <c r="F148" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G148" s="33"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B149" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E149" s="35" t="s">
         <v>124</v>
-      </c>
-      <c r="C149" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="D149" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" s="35" t="s">
-        <v>128</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E150" s="35" t="s">
-        <v>127</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E150" s="35"/>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B151" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="C151" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D151" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E151" s="35"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="34"/>
       <c r="F151" s="33"/>
       <c r="G151" s="33"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="34"/>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="34"/>
-      <c r="G152" s="34"/>
+    <row r="152" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33"/>
+      <c r="G152" s="33"/>
     </row>
     <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B153" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C153" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D153" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E153" s="33"/>
-      <c r="F153" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F153" s="33"/>
       <c r="G153" s="33"/>
     </row>
     <row r="154" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E154" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F154" s="33"/>
       <c r="G154" s="33"/>
     </row>
     <row r="155" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C155" s="31" t="s">
-        <v>290</v>
+        <v>25</v>
+      </c>
+      <c r="C155" s="33" t="s">
+        <v>163</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E155" s="33" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
     </row>
     <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D156" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E156" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F156" s="33"/>
-      <c r="G156" s="33"/>
+      <c r="E156" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F156" s="34"/>
+      <c r="G156" s="34"/>
     </row>
     <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E157" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="F157" s="33"/>
-      <c r="G157" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E157" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F157" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="37"/>
     </row>
     <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D158" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E158" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="F158" s="33"/>
-      <c r="G158" s="33"/>
+        <v>177</v>
+      </c>
+      <c r="F158" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G158" s="37"/>
     </row>
     <row r="159" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D159" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E159" s="33" t="s">
-        <v>180</v>
+        <v>34</v>
+      </c>
+      <c r="E159" s="35" t="s">
+        <v>176</v>
       </c>
       <c r="F159" s="33"/>
-      <c r="G159" s="33"/>
+      <c r="G159" s="37"/>
     </row>
     <row r="160" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E160" s="35" t="s">
-        <v>179</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E160" s="35"/>
       <c r="F160" s="33"/>
-      <c r="G160" s="33"/>
-    </row>
-    <row r="161" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B161" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C161" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D161" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E161" s="35"/>
+      <c r="G160" s="37"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="34"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="34"/>
+      <c r="E161" s="36"/>
       <c r="F161" s="33"/>
-      <c r="G161" s="33"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="34"/>
-      <c r="B162" s="34"/>
-      <c r="C162" s="34"/>
-      <c r="D162" s="34"/>
-      <c r="E162" s="36"/>
-      <c r="F162" s="34"/>
-      <c r="G162" s="34"/>
+      <c r="G161" s="37"/>
+    </row>
+    <row r="162" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B162" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C162" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D162" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33"/>
+      <c r="G162" s="37"/>
     </row>
     <row r="163" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B163" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D163" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E163" s="33"/>
-      <c r="F163" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F163" s="33"/>
       <c r="G163" s="37"/>
     </row>
     <row r="164" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E164" s="33"/>
-      <c r="F164" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E164" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F164" s="33"/>
       <c r="G164" s="37"/>
     </row>
     <row r="165" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E165" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="37"/>
     </row>
     <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C166" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E166" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F166" s="33"/>
-      <c r="G166" s="37"/>
+        <v>57</v>
+      </c>
+      <c r="F166" s="34"/>
+      <c r="G166" s="34"/>
     </row>
     <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C167" s="33" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>34</v>
+        <v>303</v>
       </c>
       <c r="E167" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F167" s="33"/>
-      <c r="G167" s="37"/>
+        <v>61</v>
+      </c>
+      <c r="F167" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" s="33"/>
     </row>
     <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C168" s="33" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="D168" s="33" t="s">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="E168" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F168" s="33"/>
-      <c r="G168" s="37"/>
-    </row>
-    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F168" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G168" s="33"/>
+    </row>
+    <row r="169" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B169" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C169" s="33" t="s">
-        <v>187</v>
+        <v>21</v>
+      </c>
+      <c r="C169" s="32" t="s">
+        <v>185</v>
       </c>
       <c r="D169" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E169" s="33" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="E169" s="35" t="s">
+        <v>186</v>
       </c>
       <c r="F169" s="33"/>
-      <c r="G169" s="37"/>
-    </row>
-    <row r="170" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="G169" s="33"/>
+    </row>
+    <row r="170" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B170" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C170" s="32" t="s">
-        <v>188</v>
+        <v>20</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E170" s="35" t="s">
-        <v>189</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E170" s="33"/>
       <c r="F170" s="33"/>
-      <c r="G170" s="37"/>
-    </row>
-    <row r="171" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B171" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C171" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D171" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E171" s="33"/>
+      <c r="G170" s="33"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="34"/>
+      <c r="B171" s="34"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
+      <c r="E171" s="34"/>
       <c r="F171" s="33"/>
-      <c r="G171" s="37"/>
+      <c r="G171" s="33"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="34"/>
-      <c r="B172" s="34"/>
-      <c r="C172" s="34"/>
-      <c r="D172" s="34"/>
-      <c r="E172" s="34"/>
-      <c r="F172" s="34"/>
-      <c r="G172" s="34"/>
+      <c r="A172" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B172" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D172" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E172" s="33"/>
+      <c r="F172" s="33"/>
+      <c r="G172" s="33"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B173" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D173" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E173" s="33"/>
-      <c r="F173" s="33" t="s">
+      <c r="F173" s="33"/>
+      <c r="G173" s="33"/>
+    </row>
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B174" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="D174" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E174" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F174" s="34"/>
+      <c r="G174" s="34"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B175" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D175" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E175" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F175" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G173" s="33"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B174" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C174" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D174" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" s="33"/>
-    </row>
-    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B175" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C175" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="D175" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E175" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F175" s="33"/>
       <c r="G175" s="33"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B176" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D176" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E176" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F176" s="33"/>
+      <c r="E176" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="F176" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G176" s="33"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B177" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C177" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D177" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E177" s="35" t="s">
         <v>182</v>
-      </c>
-      <c r="D177" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E177" s="35" t="s">
-        <v>184</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C178" s="33" t="s">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="D178" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E178" s="35" t="s">
-        <v>185</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E178" s="35"/>
       <c r="F178" s="33"/>
       <c r="G178" s="33"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="B179" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C179" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D179" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E179" s="35"/>
-      <c r="F179" s="33"/>
-      <c r="G179" s="33"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="34"/>
-      <c r="B180" s="34"/>
-      <c r="C180" s="34"/>
-      <c r="D180" s="34"/>
-      <c r="E180" s="36"/>
-      <c r="F180" s="34"/>
-      <c r="G180" s="34"/>
+      <c r="A179" s="34"/>
+      <c r="B179" s="34"/>
+      <c r="C179" s="34"/>
+      <c r="D179" s="34"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="34"/>
+      <c r="G179" s="34"/>
+    </row>
+    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B180" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C180" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D180" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" s="33"/>
+      <c r="F180" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="33"/>
     </row>
     <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B181" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C181" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D181" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E181" s="33"/>
       <c r="F181" s="33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G181" s="33"/>
     </row>
     <row r="182" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B182" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C182" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C182" s="32" t="s">
+        <v>188</v>
       </c>
       <c r="D182" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E182" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F182" s="33"/>
       <c r="G182" s="33"/>
     </row>
     <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B183" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C183" s="32" t="s">
-        <v>191</v>
+        <v>25</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D183" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E183" s="33" t="s">
-        <v>85</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E183" s="35"/>
       <c r="F183" s="33"/>
       <c r="G183" s="33"/>
     </row>
     <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B184" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C184" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D184" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E184" s="35"/>
-      <c r="F184" s="33"/>
+      <c r="A184" s="34"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="34"/>
+      <c r="E184" s="36"/>
+      <c r="F184" s="32" t="s">
+        <v>201</v>
+      </c>
       <c r="G184" s="33"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="34"/>
-      <c r="B185" s="34"/>
-      <c r="C185" s="34"/>
-      <c r="D185" s="34"/>
-      <c r="E185" s="36"/>
-      <c r="F185" s="34"/>
-      <c r="G185" s="34"/>
+    <row r="185" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B185" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D185" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E185" s="33"/>
+      <c r="F185" s="33"/>
+      <c r="G185" s="33"/>
     </row>
     <row r="186" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B186" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C186" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D186" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E186" s="33"/>
-      <c r="F186" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F186" s="33"/>
       <c r="G186" s="33"/>
     </row>
     <row r="187" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B187" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C187" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>290</v>
       </c>
       <c r="D187" s="33" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E187" s="33"/>
-      <c r="F187" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G187" s="33"/>
+      <c r="F187" s="34"/>
+      <c r="G187" s="34"/>
     </row>
     <row r="188" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B188" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C188" s="31" t="s">
-        <v>293</v>
+        <v>25</v>
+      </c>
+      <c r="C188" s="32" t="s">
+        <v>189</v>
       </c>
       <c r="D188" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E188" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F188" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G188" s="33"/>
     </row>
     <row r="189" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B189" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C189" s="32" t="s">
         <v>192</v>
       </c>
       <c r="D189" s="33" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E189" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F189" s="33"/>
+        <v>200</v>
+      </c>
+      <c r="F189" s="33" t="s">
+        <v>317</v>
+      </c>
       <c r="G189" s="33"/>
     </row>
     <row r="190" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B190" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D190" s="33" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E190" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F190" s="32" t="s">
-        <v>204</v>
+      <c r="F190" s="33" t="s">
+        <v>212</v>
       </c>
       <c r="G190" s="33"/>
     </row>
-    <row r="191" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B191" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C191" s="32" t="s">
-        <v>205</v>
+        <v>22</v>
+      </c>
+      <c r="C191" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D191" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E191" s="32" t="s">
-        <v>206</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E191" s="32"/>
       <c r="F191" s="33"/>
       <c r="G191" s="33"/>
     </row>
-    <row r="192" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A192" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B192" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C192" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D192" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E192" s="32"/>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="34"/>
+      <c r="B192" s="34"/>
+      <c r="C192" s="34"/>
+      <c r="D192" s="34"/>
+      <c r="E192" s="38" t="s">
+        <v>191</v>
+      </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="34"/>
-      <c r="B193" s="34"/>
-      <c r="C193" s="34"/>
-      <c r="D193" s="34"/>
-      <c r="E193" s="38" t="s">
-        <v>194</v>
-      </c>
+      <c r="A193" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="B193" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C193" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D193" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E193" s="32"/>
       <c r="F193" s="34"/>
       <c r="G193" s="34"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B194" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C194" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D194" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E194" s="32"/>
+        <v>10</v>
+      </c>
+      <c r="E194" s="33"/>
       <c r="F194" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G194" s="33"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B195" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C195" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C195" s="32" t="s">
+        <v>205</v>
       </c>
       <c r="D195" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E195" s="33"/>
+        <v>29</v>
+      </c>
+      <c r="E195" s="35" t="s">
+        <v>209</v>
+      </c>
       <c r="F195" s="33" t="s">
-        <v>323</v>
+        <v>11</v>
       </c>
       <c r="G195" s="33"/>
     </row>
-    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A196" s="25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B196" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D196" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E196" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="F196" s="33" t="s">
-        <v>215</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E196" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="F196" s="33"/>
       <c r="G196" s="33"/>
     </row>
-    <row r="197" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B197" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C197" s="32" t="s">
-        <v>209</v>
+        <v>24</v>
+      </c>
+      <c r="C197" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D197" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E197" s="33" t="s">
-        <v>213</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E197" s="33"/>
       <c r="F197" s="33"/>
       <c r="G197" s="33"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="B198" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C198" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D198" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E198" s="33"/>
+      <c r="A198" s="34"/>
+      <c r="B198" s="34"/>
+      <c r="C198" s="34"/>
+      <c r="D198" s="34"/>
+      <c r="E198" s="38" t="s">
+        <v>191</v>
+      </c>
       <c r="F198" s="33"/>
       <c r="G198" s="33"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="34"/>
-      <c r="B199" s="34"/>
-      <c r="C199" s="34"/>
-      <c r="D199" s="34"/>
-      <c r="E199" s="38" t="s">
-        <v>194</v>
-      </c>
+    <row r="199" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A199" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B199" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C199" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D199" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E199" s="32"/>
       <c r="F199" s="34"/>
       <c r="G199" s="34"/>
     </row>
-    <row r="200" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B200" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C200" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D200" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E200" s="32"/>
+        <v>10</v>
+      </c>
+      <c r="E200" s="33"/>
       <c r="F200" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G200" s="33"/>
     </row>
-    <row r="201" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B201" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C201" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C201" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="D201" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E201" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="E201" s="33" t="s">
+        <v>208</v>
+      </c>
       <c r="F201" s="33" t="s">
         <v>11</v>
       </c>
@@ -6266,18 +6286,18 @@
     </row>
     <row r="202" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A202" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B202" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C202" s="32" t="s">
         <v>207</v>
       </c>
       <c r="D202" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E202" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E202" s="35" t="s">
         <v>211</v>
       </c>
       <c r="F202" s="33"/>
@@ -6285,103 +6305,99 @@
     </row>
     <row r="203" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B203" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C203" s="32" t="s">
-        <v>210</v>
+        <v>24</v>
+      </c>
+      <c r="C203" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D203" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E203" s="35" t="s">
-        <v>214</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E203" s="35"/>
       <c r="F203" s="33"/>
       <c r="G203" s="33"/>
     </row>
-    <row r="204" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A204" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B204" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C204" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D204" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E204" s="35"/>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="34"/>
+      <c r="B204" s="34"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="34"/>
+      <c r="E204" s="38" t="s">
+        <v>191</v>
+      </c>
       <c r="F204" s="33"/>
       <c r="G204" s="33"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="34"/>
-      <c r="B205" s="34"/>
-      <c r="C205" s="34"/>
-      <c r="D205" s="34"/>
-      <c r="E205" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F205" s="34"/>
-      <c r="G205" s="34"/>
+    <row r="205" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A205" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B205" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C205" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D205" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E205" s="32"/>
+      <c r="F205" s="33"/>
+      <c r="G205" s="33"/>
     </row>
     <row r="206" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B206" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C206" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D206" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E206" s="32"/>
-      <c r="F206" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E206" s="33"/>
+      <c r="F206" s="33"/>
       <c r="G206" s="33"/>
     </row>
     <row r="207" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B207" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C207" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C207" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="D207" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E207" s="33"/>
-      <c r="F207" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E207" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F207" s="33"/>
       <c r="G207" s="33"/>
     </row>
     <row r="208" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B208" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C208" s="32" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D208" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E208" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208" s="35" t="s">
         <v>211</v>
       </c>
       <c r="F208" s="33"/>
@@ -6389,596 +6405,600 @@
     </row>
     <row r="209" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B209" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D209" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E209" s="35" t="s">
-        <v>214</v>
+        <v>35</v>
+      </c>
+      <c r="E209" s="33" t="s">
+        <v>222</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="33"/>
     </row>
     <row r="210" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B210" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D210" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E210" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="33"/>
     </row>
     <row r="211" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B211" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D211" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E211" s="33" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="33"/>
     </row>
     <row r="212" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D212" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
     </row>
     <row r="213" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B213" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D213" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E213" s="33" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
     </row>
     <row r="214" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B214" s="33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D214" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E214" s="33" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
     </row>
     <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B215" s="33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D215" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E215" s="33" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
     </row>
     <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B216" s="33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D216" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E216" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F216" s="33"/>
-      <c r="G216" s="33"/>
+        <v>225</v>
+      </c>
+      <c r="F216" s="34"/>
+      <c r="G216" s="34"/>
     </row>
     <row r="217" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B217" s="33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D217" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E217" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="F217" s="33"/>
+        <v>208</v>
+      </c>
+      <c r="F217" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G217" s="33"/>
     </row>
     <row r="218" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B218" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D218" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E218" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="F218" s="33"/>
+        <v>226</v>
+      </c>
+      <c r="F218" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G218" s="33"/>
     </row>
     <row r="219" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B219" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C219" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D219" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E219" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F219" s="33"/>
       <c r="G219" s="33"/>
     </row>
     <row r="220" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="25" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B220" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C220" s="32" t="s">
-        <v>224</v>
+        <v>19</v>
+      </c>
+      <c r="C220" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D220" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E220" s="33" t="s">
-        <v>230</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E220" s="33"/>
       <c r="F220" s="33"/>
       <c r="G220" s="33"/>
     </row>
-    <row r="221" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A221" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B221" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C221" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D221" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E221" s="33"/>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="34"/>
+      <c r="B221" s="34"/>
+      <c r="C221" s="34"/>
+      <c r="D221" s="34"/>
+      <c r="E221" s="38" t="s">
+        <v>191</v>
+      </c>
       <c r="F221" s="33"/>
       <c r="G221" s="33"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="34"/>
-      <c r="B222" s="34"/>
-      <c r="C222" s="34"/>
-      <c r="D222" s="34"/>
-      <c r="E222" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F222" s="34"/>
-      <c r="G222" s="34"/>
+    <row r="222" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B222" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C222" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D222" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E222" s="32"/>
+      <c r="F222" s="33"/>
+      <c r="G222" s="33"/>
     </row>
     <row r="223" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B223" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C223" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D223" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E223" s="32"/>
-      <c r="F223" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33"/>
       <c r="G223" s="33"/>
     </row>
     <row r="224" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B224" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C224" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C224" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="D224" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E224" s="33"/>
-      <c r="F224" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E224" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F224" s="33"/>
       <c r="G224" s="33"/>
     </row>
     <row r="225" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B225" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D225" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E225" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E225" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="F225" s="33"/>
-      <c r="G225" s="33"/>
+      <c r="F225" s="34"/>
+      <c r="G225" s="34"/>
     </row>
     <row r="226" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B226" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D226" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E226" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="F226" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E226" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="F226" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G226" s="33"/>
     </row>
     <row r="227" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B227" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D227" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E227" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="F227" s="33"/>
+        <v>235</v>
+      </c>
+      <c r="F227" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G227" s="33"/>
     </row>
     <row r="228" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B228" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D228" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E228" s="33" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F228" s="33"/>
       <c r="G228" s="33"/>
     </row>
     <row r="229" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B229" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C229" s="32" t="s">
-        <v>235</v>
+        <v>21</v>
+      </c>
+      <c r="C229" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D229" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E229" s="33" t="s">
-        <v>237</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E229" s="33"/>
       <c r="F229" s="33"/>
       <c r="G229" s="33"/>
     </row>
-    <row r="230" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A230" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B230" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C230" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D230" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E230" s="33"/>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="34"/>
+      <c r="B230" s="34"/>
+      <c r="C230" s="34"/>
+      <c r="D230" s="34"/>
+      <c r="E230" s="38" t="s">
+        <v>191</v>
+      </c>
       <c r="F230" s="33"/>
       <c r="G230" s="33"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="34"/>
-      <c r="B231" s="34"/>
-      <c r="C231" s="34"/>
-      <c r="D231" s="34"/>
-      <c r="E231" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F231" s="34"/>
-      <c r="G231" s="34"/>
+    <row r="231" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A231" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B231" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C231" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D231" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E231" s="32"/>
+      <c r="F231" s="33"/>
+      <c r="G231" s="33"/>
     </row>
     <row r="232" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B232" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C232" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D232" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E232" s="32"/>
-      <c r="F232" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E232" s="33"/>
+      <c r="F232" s="33"/>
       <c r="G232" s="33"/>
     </row>
     <row r="233" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B233" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C233" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C233" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="D233" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E233" s="33"/>
-      <c r="F233" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G233" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="E233" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F233" s="34"/>
+      <c r="G233" s="34"/>
     </row>
     <row r="234" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B234" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="D234" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E234" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="F234" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E234" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F234" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G234" s="33"/>
     </row>
     <row r="235" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B235" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D235" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E235" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="F235" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E235" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="F235" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G235" s="33"/>
     </row>
-    <row r="236" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A236" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B236" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D236" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E236" s="33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F236" s="33"/>
       <c r="G236" s="33"/>
     </row>
-    <row r="237" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B237" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C237" s="32" t="s">
-        <v>240</v>
+        <v>22</v>
+      </c>
+      <c r="C237" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D237" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E237" s="33" t="s">
-        <v>244</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E237" s="35"/>
       <c r="F237" s="33"/>
       <c r="G237" s="33"/>
     </row>
-    <row r="238" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A238" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="B238" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C238" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D238" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E238" s="35"/>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="34"/>
+      <c r="B238" s="34"/>
+      <c r="C238" s="34"/>
+      <c r="D238" s="34"/>
+      <c r="E238" s="38" t="s">
+        <v>191</v>
+      </c>
       <c r="F238" s="33"/>
       <c r="G238" s="33"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="34"/>
-      <c r="B239" s="34"/>
-      <c r="C239" s="34"/>
-      <c r="D239" s="34"/>
-      <c r="E239" s="38" t="s">
-        <v>194</v>
-      </c>
+      <c r="A239" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B239" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C239" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D239" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E239" s="32"/>
       <c r="F239" s="34"/>
       <c r="G239" s="34"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B240" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C240" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D240" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E240" s="32"/>
+        <v>10</v>
+      </c>
+      <c r="E240" s="33"/>
       <c r="F240" s="33" t="s">
         <v>9</v>
       </c>
       <c r="G240" s="33"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B241" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C241" s="33" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C241" s="32" t="s">
+        <v>242</v>
       </c>
       <c r="D241" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E241" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="E241" s="35" t="s">
+        <v>243</v>
+      </c>
       <c r="F241" s="33" t="s">
         <v>11</v>
       </c>
@@ -6986,706 +7006,692 @@
     </row>
     <row r="242" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B242" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D242" s="33" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E242" s="35" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="33"/>
     </row>
-    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B243" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C243" s="32" t="s">
-        <v>250</v>
+        <v>24</v>
+      </c>
+      <c r="C243" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D243" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E243" s="35" t="s">
-        <v>251</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E243" s="35"/>
       <c r="F243" s="33"/>
       <c r="G243" s="33"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="B244" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C244" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D244" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E244" s="35"/>
+      <c r="A244" s="34"/>
+      <c r="B244" s="34"/>
+      <c r="C244" s="34"/>
+      <c r="D244" s="34"/>
+      <c r="E244" s="38" t="s">
+        <v>191</v>
+      </c>
       <c r="F244" s="33"/>
       <c r="G244" s="33"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="34"/>
-      <c r="B245" s="34"/>
-      <c r="C245" s="34"/>
-      <c r="D245" s="34"/>
-      <c r="E245" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F245" s="34"/>
-      <c r="G245" s="34"/>
+      <c r="A245" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C245" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D245" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E245" s="33"/>
+      <c r="F245" s="33"/>
+      <c r="G245" s="33"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B246" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C246" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D246" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E246" s="33"/>
-      <c r="F246" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F246" s="33"/>
       <c r="G246" s="33"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B247" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C247" s="33" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D247" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E247" s="33"/>
-      <c r="F247" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E247" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F247" s="33"/>
       <c r="G247" s="33"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B248" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C248" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E248" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F248" s="33"/>
       <c r="G248" s="33"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B249" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C249" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D249" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E249" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="33"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B250" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C250" s="33" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D250" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E250" s="33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="33"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B251" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C251" s="33" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E251" s="33" t="s">
-        <v>61</v>
+        <v>303</v>
+      </c>
+      <c r="E251" s="35" t="s">
+        <v>249</v>
       </c>
       <c r="F251" s="33"/>
       <c r="G251" s="33"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B252" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C252" s="33" t="s">
-        <v>89</v>
+        <v>21</v>
+      </c>
+      <c r="C252" s="32" t="s">
+        <v>250</v>
       </c>
       <c r="D252" s="33" t="s">
-        <v>306</v>
+        <v>35</v>
       </c>
       <c r="E252" s="35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F252" s="33"/>
       <c r="G252" s="33"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B253" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C253" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C253" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D253" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E253" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="D253" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E253" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="F253" s="33"/>
-      <c r="G253" s="33"/>
+      <c r="F253" s="34"/>
+      <c r="G253" s="34"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B254" s="33" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C254" s="33" t="s">
-        <v>113</v>
+        <v>251</v>
       </c>
       <c r="D254" s="33" t="s">
-        <v>306</v>
+        <v>35</v>
       </c>
       <c r="E254" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="F254" s="33"/>
+        <v>253</v>
+      </c>
+      <c r="F254" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G254" s="33"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B255" s="33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C255" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D255" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E255" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="D255" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E255" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="F255" s="33"/>
+      <c r="F255" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G255" s="33"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B256" s="33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C256" s="33" t="s">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="D256" s="33" t="s">
-        <v>306</v>
+        <v>34</v>
       </c>
       <c r="E256" s="33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="33"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B257" s="33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C257" s="33" t="s">
-        <v>255</v>
+        <v>39</v>
       </c>
       <c r="D257" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E257" s="33" t="s">
-        <v>257</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E257" s="33"/>
       <c r="F257" s="33"/>
       <c r="G257" s="33"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="B258" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C258" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D258" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E258" s="33"/>
+      <c r="A258" s="34"/>
+      <c r="B258" s="34"/>
+      <c r="C258" s="34"/>
+      <c r="D258" s="34"/>
+      <c r="E258" s="38" t="s">
+        <v>191</v>
+      </c>
       <c r="F258" s="33"/>
       <c r="G258" s="33"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="34"/>
-      <c r="B259" s="34"/>
-      <c r="C259" s="34"/>
-      <c r="D259" s="34"/>
-      <c r="E259" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F259" s="34"/>
-      <c r="G259" s="34"/>
+      <c r="A259" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B259" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C259" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D259" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E259" s="33"/>
+      <c r="F259" s="33"/>
+      <c r="G259" s="33"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B260" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C260" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D260" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E260" s="33"/>
-      <c r="F260" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F260" s="33"/>
       <c r="G260" s="33"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B261" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C261" s="33" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="D261" s="33" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E261" s="33"/>
-      <c r="F261" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G261" s="33"/>
+      <c r="F261" s="34"/>
+      <c r="G261" s="34"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B262" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C262" s="33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D262" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E262" s="33"/>
-      <c r="F262" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E262" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="F262" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G262" s="33"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B263" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C263" s="33" t="s">
-        <v>281</v>
+        <v>24</v>
+      </c>
+      <c r="C263" s="32" t="s">
+        <v>279</v>
       </c>
       <c r="D263" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E263" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="F263" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E263" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="F263" s="33" t="s">
+        <v>11</v>
+      </c>
       <c r="G263" s="33"/>
     </row>
     <row r="264" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B264" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C264" s="32" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D264" s="33" t="s">
         <v>34</v>
       </c>
       <c r="E264" s="35" t="s">
-        <v>287</v>
+        <v>57</v>
       </c>
       <c r="F264" s="33"/>
       <c r="G264" s="33"/>
     </row>
-    <row r="265" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B265" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C265" s="32" t="s">
-        <v>288</v>
+        <v>22</v>
+      </c>
+      <c r="C265" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D265" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E265" s="35" t="s">
-        <v>57</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E265" s="33"/>
       <c r="F265" s="33"/>
       <c r="G265" s="33"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="B266" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C266" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D266" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E266" s="33"/>
+      <c r="A266" s="34"/>
+      <c r="B266" s="34"/>
+      <c r="C266" s="34"/>
+      <c r="D266" s="34"/>
+      <c r="E266" s="38" t="s">
+        <v>191</v>
+      </c>
       <c r="F266" s="33"/>
       <c r="G266" s="33"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="34"/>
-      <c r="B267" s="34"/>
-      <c r="C267" s="34"/>
-      <c r="D267" s="34"/>
-      <c r="E267" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F267" s="34"/>
-      <c r="G267" s="34"/>
+      <c r="A267" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B267" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C267" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D267" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E267" s="33"/>
+      <c r="F267" s="33"/>
+      <c r="G267" s="33"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B268" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C268" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D268" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E268" s="33"/>
-      <c r="F268" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G268" s="33"/>
+      <c r="F268" s="8"/>
+      <c r="G268" s="8"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B269" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C269" s="33" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="D269" s="33" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E269" s="33"/>
       <c r="F269" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G269" s="33"/>
+        <v>9</v>
+      </c>
+      <c r="G269" s="7"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B270" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C270" s="33" t="s">
         <v>280</v>
       </c>
       <c r="D270" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E270" s="33"/>
-      <c r="F270" s="33"/>
-      <c r="G270" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E270" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="F270" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G270" s="7"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B271" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C271" s="33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D271" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E271" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="F271" s="33"/>
-      <c r="G271" s="33"/>
+      <c r="F271" s="7"/>
+      <c r="G271" s="7"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B272" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C272" s="33" t="s">
-        <v>284</v>
+        <v>39</v>
       </c>
       <c r="D272" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E272" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="F272" s="33"/>
-      <c r="G272" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="E272" s="35"/>
+      <c r="F272" s="7"/>
+      <c r="G272" s="7"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="B273" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C273" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D273" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E273" s="35"/>
-      <c r="F273" s="33"/>
-      <c r="G273" s="33"/>
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="8"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F273" s="7"/>
+      <c r="G273" s="7"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="8"/>
-      <c r="B274" s="8"/>
-      <c r="C274" s="8"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="F274" s="8"/>
-      <c r="G274" s="8"/>
+      <c r="A274" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C274" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D274" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E274" s="33"/>
+      <c r="F274" s="12"/>
+      <c r="G274" s="12"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C275" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D275" s="33" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E275" s="33"/>
-      <c r="F275" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G275" s="7"/>
+      <c r="F275" s="12"/>
+      <c r="G275" s="12"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E276" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="B276" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C276" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D276" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E276" s="33"/>
-      <c r="F276" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G276" s="7"/>
+      <c r="F276" s="43"/>
+      <c r="G276" s="43"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>302</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E277" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="F277" s="7"/>
-      <c r="G277" s="7"/>
+        <v>301</v>
+      </c>
+      <c r="F277" s="12"/>
+      <c r="G277" s="12"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>305</v>
+        <v>39</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E278" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="F278" s="7"/>
-      <c r="G278" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="E278" s="40"/>
+      <c r="F278" s="12"/>
+      <c r="G278" s="12"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B279" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D279" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E279" s="40"/>
-      <c r="F279" s="7"/>
-      <c r="G279" s="7"/>
+      <c r="A279" s="12"/>
+      <c r="B279" s="12"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="13"/>
+      <c r="F279" s="12"/>
+      <c r="G279" s="12"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
       <c r="D280" s="12"/>
-      <c r="E280" s="13"/>
+      <c r="E280" s="12"/>
       <c r="F280" s="12"/>
       <c r="G280" s="12"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="12"/>
-      <c r="B281" s="12"/>
-      <c r="C281" s="12"/>
-      <c r="D281" s="12"/>
-      <c r="E281" s="12"/>
+      <c r="A281" s="43"/>
+      <c r="B281" s="43"/>
+      <c r="C281" s="43"/>
+      <c r="D281" s="43"/>
+      <c r="E281" s="43"/>
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="47"/>
-      <c r="B282" s="47"/>
-      <c r="C282" s="47"/>
-      <c r="D282" s="47"/>
-      <c r="E282" s="47"/>
-      <c r="F282" s="47"/>
-      <c r="G282" s="47"/>
+      <c r="A282" s="12"/>
+      <c r="B282" s="12"/>
+      <c r="C282" s="12"/>
+      <c r="D282" s="12"/>
+      <c r="E282" s="12"/>
+      <c r="F282" s="12"/>
+      <c r="G282" s="12"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
@@ -7854,7 +7860,7 @@
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
       <c r="D301" s="12"/>
-      <c r="E301" s="12"/>
+      <c r="E301" s="13"/>
       <c r="F301" s="12"/>
       <c r="G301" s="12"/>
     </row>
@@ -7890,7 +7896,7 @@
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
       <c r="D305" s="12"/>
-      <c r="E305" s="13"/>
+      <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
     </row>
@@ -7908,7 +7914,7 @@
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
       <c r="D307" s="12"/>
-      <c r="E307" s="12"/>
+      <c r="E307" s="13"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
     </row>
@@ -8050,7 +8056,7 @@
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
-      <c r="C323" s="12"/>
+      <c r="C323" s="14"/>
       <c r="D323" s="12"/>
       <c r="E323" s="13"/>
       <c r="F323" s="12"/>
@@ -8059,9 +8065,9 @@
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
       <c r="B324" s="12"/>
-      <c r="C324" s="14"/>
+      <c r="C324" s="12"/>
       <c r="D324" s="12"/>
-      <c r="E324" s="13"/>
+      <c r="E324" s="12"/>
       <c r="F324" s="12"/>
       <c r="G324" s="12"/>
     </row>
@@ -8133,7 +8139,7 @@
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
       <c r="D332" s="12"/>
-      <c r="E332" s="12"/>
+      <c r="E332" s="13"/>
       <c r="F332" s="12"/>
       <c r="G332" s="12"/>
     </row>
@@ -8142,7 +8148,7 @@
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
       <c r="D333" s="12"/>
-      <c r="E333" s="13"/>
+      <c r="E333" s="12"/>
       <c r="F333" s="12"/>
       <c r="G333" s="12"/>
     </row>
@@ -8151,7 +8157,7 @@
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
       <c r="D334" s="12"/>
-      <c r="E334" s="12"/>
+      <c r="E334" s="13"/>
       <c r="F334" s="12"/>
       <c r="G334" s="12"/>
     </row>
@@ -8160,7 +8166,7 @@
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
-      <c r="E335" s="13"/>
+      <c r="E335" s="12"/>
       <c r="F335" s="12"/>
       <c r="G335" s="12"/>
     </row>
@@ -8169,7 +8175,7 @@
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
       <c r="D336" s="12"/>
-      <c r="E336" s="12"/>
+      <c r="E336" s="13"/>
       <c r="F336" s="12"/>
       <c r="G336" s="12"/>
     </row>
@@ -8178,7 +8184,7 @@
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
-      <c r="E337" s="13"/>
+      <c r="E337" s="12"/>
       <c r="F337" s="12"/>
       <c r="G337" s="12"/>
     </row>
@@ -8205,7 +8211,7 @@
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
       <c r="D340" s="12"/>
-      <c r="E340" s="12"/>
+      <c r="E340" s="13"/>
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
     </row>
@@ -8251,8 +8257,8 @@
       <c r="C345" s="12"/>
       <c r="D345" s="12"/>
       <c r="E345" s="13"/>
-      <c r="F345" s="12"/>
-      <c r="G345" s="12"/>
+      <c r="F345" s="43"/>
+      <c r="G345" s="43"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="12"/>
@@ -8286,27 +8292,27 @@
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
       <c r="D349" s="12"/>
-      <c r="E349" s="13"/>
+      <c r="E349" s="12"/>
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350" s="12"/>
-      <c r="B350" s="12"/>
-      <c r="C350" s="12"/>
-      <c r="D350" s="12"/>
-      <c r="E350" s="12"/>
+      <c r="A350" s="43"/>
+      <c r="B350" s="43"/>
+      <c r="C350" s="43"/>
+      <c r="D350" s="43"/>
+      <c r="E350" s="43"/>
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="47"/>
-      <c r="B351" s="47"/>
-      <c r="C351" s="47"/>
-      <c r="D351" s="47"/>
-      <c r="E351" s="47"/>
-      <c r="F351" s="47"/>
-      <c r="G351" s="47"/>
+      <c r="A351" s="12"/>
+      <c r="B351" s="12"/>
+      <c r="C351" s="12"/>
+      <c r="D351" s="12"/>
+      <c r="E351" s="12"/>
+      <c r="F351" s="12"/>
+      <c r="G351" s="12"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
@@ -8385,7 +8391,7 @@
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
       <c r="D360" s="12"/>
-      <c r="E360" s="12"/>
+      <c r="E360" s="13"/>
       <c r="F360" s="12"/>
       <c r="G360" s="12"/>
     </row>
@@ -8395,8 +8401,8 @@
       <c r="C361" s="12"/>
       <c r="D361" s="12"/>
       <c r="E361" s="13"/>
-      <c r="F361" s="12"/>
-      <c r="G361" s="12"/>
+      <c r="F361" s="43"/>
+      <c r="G361" s="43"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="12"/>
@@ -8430,27 +8436,27 @@
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
       <c r="D365" s="12"/>
-      <c r="E365" s="13"/>
+      <c r="E365" s="12"/>
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366" s="12"/>
-      <c r="B366" s="12"/>
-      <c r="C366" s="12"/>
-      <c r="D366" s="12"/>
-      <c r="E366" s="12"/>
+      <c r="A366" s="43"/>
+      <c r="B366" s="43"/>
+      <c r="C366" s="43"/>
+      <c r="D366" s="43"/>
+      <c r="E366" s="43"/>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="47"/>
-      <c r="B367" s="47"/>
-      <c r="C367" s="47"/>
-      <c r="D367" s="47"/>
-      <c r="E367" s="47"/>
-      <c r="F367" s="47"/>
-      <c r="G367" s="47"/>
+      <c r="A367" s="12"/>
+      <c r="B367" s="12"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="12"/>
+      <c r="F367" s="12"/>
+      <c r="G367" s="12"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="12"/>
@@ -8538,7 +8544,7 @@
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
       <c r="D377" s="12"/>
-      <c r="E377" s="12"/>
+      <c r="E377" s="13"/>
       <c r="F377" s="12"/>
       <c r="G377" s="12"/>
     </row>
@@ -8548,8 +8554,8 @@
       <c r="C378" s="12"/>
       <c r="D378" s="12"/>
       <c r="E378" s="13"/>
-      <c r="F378" s="12"/>
-      <c r="G378" s="12"/>
+      <c r="F378" s="43"/>
+      <c r="G378" s="43"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="12"/>
@@ -8583,27 +8589,27 @@
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
       <c r="D382" s="12"/>
-      <c r="E382" s="13"/>
+      <c r="E382" s="12"/>
       <c r="F382" s="12"/>
       <c r="G382" s="12"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="12"/>
-      <c r="B383" s="12"/>
-      <c r="C383" s="12"/>
-      <c r="D383" s="12"/>
-      <c r="E383" s="12"/>
+      <c r="A383" s="43"/>
+      <c r="B383" s="43"/>
+      <c r="C383" s="43"/>
+      <c r="D383" s="43"/>
+      <c r="E383" s="43"/>
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="47"/>
-      <c r="B384" s="47"/>
-      <c r="C384" s="47"/>
-      <c r="D384" s="47"/>
-      <c r="E384" s="47"/>
-      <c r="F384" s="47"/>
-      <c r="G384" s="47"/>
+      <c r="A384" s="12"/>
+      <c r="B384" s="12"/>
+      <c r="C384" s="12"/>
+      <c r="D384" s="12"/>
+      <c r="E384" s="12"/>
+      <c r="F384" s="12"/>
+      <c r="G384" s="12"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="12"/>
@@ -8737,8 +8743,8 @@
       <c r="C399" s="12"/>
       <c r="D399" s="12"/>
       <c r="E399" s="12"/>
-      <c r="F399" s="12"/>
-      <c r="G399" s="12"/>
+      <c r="F399" s="43"/>
+      <c r="G399" s="43"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="12"/>
@@ -8761,7 +8767,7 @@
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
-      <c r="C402" s="12"/>
+      <c r="C402" s="14"/>
       <c r="D402" s="12"/>
       <c r="E402" s="12"/>
       <c r="F402" s="12"/>
@@ -8770,29 +8776,29 @@
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="12"/>
       <c r="B403" s="12"/>
-      <c r="C403" s="14"/>
+      <c r="C403" s="12"/>
       <c r="D403" s="12"/>
       <c r="E403" s="12"/>
       <c r="F403" s="12"/>
       <c r="G403" s="12"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="12"/>
-      <c r="B404" s="12"/>
-      <c r="C404" s="12"/>
-      <c r="D404" s="12"/>
-      <c r="E404" s="12"/>
+      <c r="A404" s="43"/>
+      <c r="B404" s="43"/>
+      <c r="C404" s="43"/>
+      <c r="D404" s="43"/>
+      <c r="E404" s="43"/>
       <c r="F404" s="12"/>
       <c r="G404" s="12"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="47"/>
-      <c r="B405" s="47"/>
-      <c r="C405" s="47"/>
-      <c r="D405" s="47"/>
-      <c r="E405" s="47"/>
-      <c r="F405" s="47"/>
-      <c r="G405" s="47"/>
+      <c r="A405" s="12"/>
+      <c r="B405" s="12"/>
+      <c r="C405" s="12"/>
+      <c r="D405" s="12"/>
+      <c r="E405" s="12"/>
+      <c r="F405" s="12"/>
+      <c r="G405" s="12"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="12"/>
@@ -8854,8 +8860,8 @@
       <c r="C412" s="12"/>
       <c r="D412" s="12"/>
       <c r="E412" s="12"/>
-      <c r="F412" s="12"/>
-      <c r="G412" s="12"/>
+      <c r="F412" s="43"/>
+      <c r="G412" s="43"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="12"/>
@@ -8894,22 +8900,22 @@
       <c r="G416" s="12"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="12"/>
-      <c r="B417" s="12"/>
-      <c r="C417" s="12"/>
-      <c r="D417" s="12"/>
-      <c r="E417" s="12"/>
+      <c r="A417" s="43"/>
+      <c r="B417" s="43"/>
+      <c r="C417" s="43"/>
+      <c r="D417" s="43"/>
+      <c r="E417" s="43"/>
       <c r="F417" s="12"/>
       <c r="G417" s="12"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="47"/>
-      <c r="B418" s="47"/>
-      <c r="C418" s="47"/>
-      <c r="D418" s="47"/>
-      <c r="E418" s="47"/>
-      <c r="F418" s="47"/>
-      <c r="G418" s="47"/>
+      <c r="A418" s="12"/>
+      <c r="B418" s="12"/>
+      <c r="C418" s="12"/>
+      <c r="D418" s="12"/>
+      <c r="E418" s="12"/>
+      <c r="F418" s="12"/>
+      <c r="G418" s="12"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="12"/>
@@ -9034,8 +9040,8 @@
       <c r="C432" s="12"/>
       <c r="D432" s="12"/>
       <c r="E432" s="12"/>
-      <c r="F432" s="12"/>
-      <c r="G432" s="12"/>
+      <c r="F432" s="43"/>
+      <c r="G432" s="43"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="12"/>
@@ -9074,22 +9080,22 @@
       <c r="G436" s="12"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" s="12"/>
-      <c r="B437" s="12"/>
-      <c r="C437" s="12"/>
-      <c r="D437" s="12"/>
-      <c r="E437" s="12"/>
+      <c r="A437" s="43"/>
+      <c r="B437" s="43"/>
+      <c r="C437" s="43"/>
+      <c r="D437" s="43"/>
+      <c r="E437" s="43"/>
       <c r="F437" s="12"/>
       <c r="G437" s="12"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A438" s="47"/>
-      <c r="B438" s="47"/>
-      <c r="C438" s="47"/>
-      <c r="D438" s="47"/>
-      <c r="E438" s="47"/>
-      <c r="F438" s="47"/>
-      <c r="G438" s="47"/>
+      <c r="A438" s="12"/>
+      <c r="B438" s="12"/>
+      <c r="C438" s="12"/>
+      <c r="D438" s="12"/>
+      <c r="E438" s="12"/>
+      <c r="F438" s="12"/>
+      <c r="G438" s="12"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="12"/>
@@ -9195,7 +9201,7 @@
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
       <c r="D450" s="12"/>
-      <c r="E450" s="12"/>
+      <c r="E450" s="13"/>
       <c r="F450" s="12"/>
       <c r="G450" s="12"/>
     </row>
@@ -9249,7 +9255,7 @@
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
       <c r="D456" s="12"/>
-      <c r="E456" s="13"/>
+      <c r="E456" s="12"/>
       <c r="F456" s="12"/>
       <c r="G456" s="12"/>
     </row>
@@ -9349,15 +9355,15 @@
       <c r="C467" s="12"/>
       <c r="D467" s="12"/>
       <c r="E467" s="12"/>
-      <c r="F467" s="12"/>
-      <c r="G467" s="12"/>
+      <c r="F467" s="43"/>
+      <c r="G467" s="43"/>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="12"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
       <c r="D468" s="12"/>
-      <c r="E468" s="12"/>
+      <c r="E468" s="13"/>
       <c r="F468" s="12"/>
       <c r="G468" s="12"/>
     </row>
@@ -9366,7 +9372,7 @@
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
       <c r="D469" s="12"/>
-      <c r="E469" s="13"/>
+      <c r="E469" s="12"/>
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
     </row>
@@ -9389,22 +9395,22 @@
       <c r="G471" s="12"/>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" s="12"/>
-      <c r="B472" s="12"/>
-      <c r="C472" s="12"/>
-      <c r="D472" s="12"/>
-      <c r="E472" s="12"/>
+      <c r="A472" s="43"/>
+      <c r="B472" s="43"/>
+      <c r="C472" s="43"/>
+      <c r="D472" s="43"/>
+      <c r="E472" s="43"/>
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A473" s="47"/>
-      <c r="B473" s="47"/>
-      <c r="C473" s="47"/>
-      <c r="D473" s="47"/>
-      <c r="E473" s="47"/>
-      <c r="F473" s="47"/>
-      <c r="G473" s="47"/>
+      <c r="A473" s="12"/>
+      <c r="B473" s="12"/>
+      <c r="C473" s="12"/>
+      <c r="D473" s="12"/>
+      <c r="E473" s="12"/>
+      <c r="F473" s="12"/>
+      <c r="G473" s="12"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="12"/>
@@ -9501,7 +9507,7 @@
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
       <c r="D484" s="12"/>
-      <c r="E484" s="12"/>
+      <c r="E484" s="13"/>
       <c r="F484" s="12"/>
       <c r="G484" s="12"/>
     </row>
@@ -9529,8 +9535,8 @@
       <c r="C487" s="12"/>
       <c r="D487" s="12"/>
       <c r="E487" s="13"/>
-      <c r="F487" s="12"/>
-      <c r="G487" s="12"/>
+      <c r="F487" s="43"/>
+      <c r="G487" s="43"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="12"/>
@@ -9546,7 +9552,7 @@
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
       <c r="D489" s="12"/>
-      <c r="E489" s="13"/>
+      <c r="E489" s="12"/>
       <c r="F489" s="12"/>
       <c r="G489" s="12"/>
     </row>
@@ -9569,22 +9575,22 @@
       <c r="G491" s="12"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A492" s="12"/>
-      <c r="B492" s="12"/>
-      <c r="C492" s="12"/>
-      <c r="D492" s="12"/>
-      <c r="E492" s="12"/>
+      <c r="A492" s="43"/>
+      <c r="B492" s="43"/>
+      <c r="C492" s="43"/>
+      <c r="D492" s="43"/>
+      <c r="E492" s="43"/>
       <c r="F492" s="12"/>
       <c r="G492" s="12"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A493" s="47"/>
-      <c r="B493" s="47"/>
-      <c r="C493" s="47"/>
-      <c r="D493" s="47"/>
-      <c r="E493" s="47"/>
-      <c r="F493" s="47"/>
-      <c r="G493" s="47"/>
+      <c r="A493" s="12"/>
+      <c r="B493" s="12"/>
+      <c r="C493" s="12"/>
+      <c r="D493" s="12"/>
+      <c r="E493" s="12"/>
+      <c r="F493" s="12"/>
+      <c r="G493" s="12"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="12"/>
@@ -9637,8 +9643,8 @@
       <c r="C499" s="12"/>
       <c r="D499" s="12"/>
       <c r="E499" s="12"/>
-      <c r="F499" s="12"/>
-      <c r="G499" s="12"/>
+      <c r="F499" s="43"/>
+      <c r="G499" s="43"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="12"/>
@@ -9677,22 +9683,22 @@
       <c r="G503" s="12"/>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A504" s="12"/>
-      <c r="B504" s="12"/>
-      <c r="C504" s="12"/>
-      <c r="D504" s="12"/>
-      <c r="E504" s="12"/>
+      <c r="A504" s="43"/>
+      <c r="B504" s="43"/>
+      <c r="C504" s="43"/>
+      <c r="D504" s="43"/>
+      <c r="E504" s="43"/>
       <c r="F504" s="12"/>
       <c r="G504" s="12"/>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A505" s="47"/>
-      <c r="B505" s="47"/>
-      <c r="C505" s="47"/>
-      <c r="D505" s="47"/>
-      <c r="E505" s="47"/>
-      <c r="F505" s="47"/>
-      <c r="G505" s="47"/>
+      <c r="A505" s="12"/>
+      <c r="B505" s="12"/>
+      <c r="C505" s="12"/>
+      <c r="D505" s="12"/>
+      <c r="E505" s="12"/>
+      <c r="F505" s="12"/>
+      <c r="G505" s="12"/>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="12"/>
@@ -9826,8 +9832,8 @@
       <c r="C520" s="12"/>
       <c r="D520" s="12"/>
       <c r="E520" s="12"/>
-      <c r="F520" s="12"/>
-      <c r="G520" s="12"/>
+      <c r="F520" s="43"/>
+      <c r="G520" s="43"/>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="12"/>
@@ -9866,22 +9872,22 @@
       <c r="G524" s="12"/>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A525" s="12"/>
-      <c r="B525" s="12"/>
-      <c r="C525" s="12"/>
-      <c r="D525" s="12"/>
-      <c r="E525" s="12"/>
+      <c r="A525" s="43"/>
+      <c r="B525" s="43"/>
+      <c r="C525" s="43"/>
+      <c r="D525" s="43"/>
+      <c r="E525" s="43"/>
       <c r="F525" s="12"/>
       <c r="G525" s="12"/>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A526" s="47"/>
-      <c r="B526" s="47"/>
-      <c r="C526" s="47"/>
-      <c r="D526" s="47"/>
-      <c r="E526" s="47"/>
-      <c r="F526" s="47"/>
-      <c r="G526" s="47"/>
+      <c r="A526" s="12"/>
+      <c r="B526" s="12"/>
+      <c r="C526" s="12"/>
+      <c r="D526" s="12"/>
+      <c r="E526" s="12"/>
+      <c r="F526" s="12"/>
+      <c r="G526" s="12"/>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="12"/>
@@ -10041,7 +10047,7 @@
       <c r="B544" s="12"/>
       <c r="C544" s="12"/>
       <c r="D544" s="12"/>
-      <c r="E544" s="12"/>
+      <c r="E544" s="13"/>
       <c r="F544" s="12"/>
       <c r="G544" s="12"/>
     </row>
@@ -10059,7 +10065,7 @@
       <c r="B546" s="12"/>
       <c r="C546" s="12"/>
       <c r="D546" s="12"/>
-      <c r="E546" s="13"/>
+      <c r="E546" s="12"/>
       <c r="F546" s="12"/>
       <c r="G546" s="12"/>
     </row>
@@ -10078,8 +10084,8 @@
       <c r="C548" s="12"/>
       <c r="D548" s="12"/>
       <c r="E548" s="12"/>
-      <c r="F548" s="12"/>
-      <c r="G548" s="12"/>
+      <c r="F548" s="43"/>
+      <c r="G548" s="43"/>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="12"/>
@@ -10118,22 +10124,22 @@
       <c r="G552" s="12"/>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A553" s="12"/>
-      <c r="B553" s="12"/>
-      <c r="C553" s="12"/>
-      <c r="D553" s="12"/>
-      <c r="E553" s="12"/>
+      <c r="A553" s="43"/>
+      <c r="B553" s="43"/>
+      <c r="C553" s="43"/>
+      <c r="D553" s="43"/>
+      <c r="E553" s="43"/>
       <c r="F553" s="12"/>
       <c r="G553" s="12"/>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A554" s="47"/>
-      <c r="B554" s="47"/>
-      <c r="C554" s="47"/>
-      <c r="D554" s="47"/>
-      <c r="E554" s="47"/>
-      <c r="F554" s="47"/>
-      <c r="G554" s="47"/>
+      <c r="A554" s="12"/>
+      <c r="B554" s="12"/>
+      <c r="C554" s="12"/>
+      <c r="D554" s="12"/>
+      <c r="E554" s="12"/>
+      <c r="F554" s="12"/>
+      <c r="G554" s="12"/>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="12"/>
@@ -10321,7 +10327,7 @@
       <c r="C575" s="12"/>
       <c r="D575" s="12"/>
       <c r="E575" s="12"/>
-      <c r="F575" s="12"/>
+      <c r="F575" s="13"/>
       <c r="G575" s="12"/>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
@@ -10330,7 +10336,7 @@
       <c r="C576" s="12"/>
       <c r="D576" s="12"/>
       <c r="E576" s="12"/>
-      <c r="F576" s="12"/>
+      <c r="F576" s="13"/>
       <c r="G576" s="12"/>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
@@ -10339,7 +10345,7 @@
       <c r="C577" s="12"/>
       <c r="D577" s="12"/>
       <c r="E577" s="12"/>
-      <c r="F577" s="12"/>
+      <c r="F577" s="13"/>
       <c r="G577" s="12"/>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
@@ -10348,7 +10354,7 @@
       <c r="C578" s="12"/>
       <c r="D578" s="12"/>
       <c r="E578" s="12"/>
-      <c r="F578" s="12"/>
+      <c r="F578" s="13"/>
       <c r="G578" s="12"/>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
@@ -10357,7 +10363,7 @@
       <c r="C579" s="12"/>
       <c r="D579" s="12"/>
       <c r="E579" s="12"/>
-      <c r="F579" s="12"/>
+      <c r="F579" s="13"/>
       <c r="G579" s="12"/>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
@@ -10366,7 +10372,7 @@
       <c r="C580" s="12"/>
       <c r="D580" s="12"/>
       <c r="E580" s="12"/>
-      <c r="F580" s="12"/>
+      <c r="F580" s="13"/>
       <c r="G580" s="12"/>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
@@ -10375,8 +10381,8 @@
       <c r="C581" s="12"/>
       <c r="D581" s="12"/>
       <c r="E581" s="12"/>
-      <c r="F581" s="13"/>
-      <c r="G581" s="12"/>
+      <c r="F581" s="43"/>
+      <c r="G581" s="43"/>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="12"/>
@@ -10384,7 +10390,7 @@
       <c r="C582" s="12"/>
       <c r="D582" s="12"/>
       <c r="E582" s="12"/>
-      <c r="F582" s="13"/>
+      <c r="F582" s="12"/>
       <c r="G582" s="12"/>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
@@ -10393,7 +10399,7 @@
       <c r="C583" s="12"/>
       <c r="D583" s="12"/>
       <c r="E583" s="12"/>
-      <c r="F583" s="13"/>
+      <c r="F583" s="12"/>
       <c r="G583" s="12"/>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
@@ -10402,7 +10408,7 @@
       <c r="C584" s="12"/>
       <c r="D584" s="12"/>
       <c r="E584" s="12"/>
-      <c r="F584" s="13"/>
+      <c r="F584" s="12"/>
       <c r="G584" s="12"/>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
@@ -10411,26 +10417,26 @@
       <c r="C585" s="12"/>
       <c r="D585" s="12"/>
       <c r="E585" s="12"/>
-      <c r="F585" s="13"/>
+      <c r="F585" s="12"/>
       <c r="G585" s="12"/>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A586" s="12"/>
-      <c r="B586" s="12"/>
-      <c r="C586" s="12"/>
-      <c r="D586" s="12"/>
-      <c r="E586" s="12"/>
-      <c r="F586" s="13"/>
+      <c r="A586" s="43"/>
+      <c r="B586" s="43"/>
+      <c r="C586" s="43"/>
+      <c r="D586" s="43"/>
+      <c r="E586" s="43"/>
+      <c r="F586" s="12"/>
       <c r="G586" s="12"/>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A587" s="47"/>
-      <c r="B587" s="47"/>
-      <c r="C587" s="47"/>
-      <c r="D587" s="47"/>
-      <c r="E587" s="47"/>
-      <c r="F587" s="47"/>
-      <c r="G587" s="47"/>
+      <c r="A587" s="12"/>
+      <c r="B587" s="12"/>
+      <c r="C587" s="12"/>
+      <c r="D587" s="12"/>
+      <c r="E587" s="12"/>
+      <c r="F587" s="12"/>
+      <c r="G587" s="12"/>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="12"/>
@@ -10717,8 +10723,8 @@
       <c r="C619" s="12"/>
       <c r="D619" s="12"/>
       <c r="E619" s="12"/>
-      <c r="F619" s="12"/>
-      <c r="G619" s="12"/>
+      <c r="F619" s="43"/>
+      <c r="G619" s="43"/>
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="12"/>
@@ -10757,22 +10763,22 @@
       <c r="G623" s="12"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A624" s="12"/>
-      <c r="B624" s="12"/>
-      <c r="C624" s="12"/>
-      <c r="D624" s="12"/>
-      <c r="E624" s="12"/>
+      <c r="A624" s="43"/>
+      <c r="B624" s="43"/>
+      <c r="C624" s="43"/>
+      <c r="D624" s="43"/>
+      <c r="E624" s="43"/>
       <c r="F624" s="12"/>
       <c r="G624" s="12"/>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A625" s="47"/>
-      <c r="B625" s="47"/>
-      <c r="C625" s="47"/>
-      <c r="D625" s="47"/>
-      <c r="E625" s="47"/>
-      <c r="F625" s="47"/>
-      <c r="G625" s="47"/>
+      <c r="A625" s="12"/>
+      <c r="B625" s="12"/>
+      <c r="C625" s="12"/>
+      <c r="D625" s="12"/>
+      <c r="E625" s="12"/>
+      <c r="F625" s="12"/>
+      <c r="G625" s="12"/>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="12"/>
@@ -11041,8 +11047,8 @@
       <c r="C655" s="12"/>
       <c r="D655" s="12"/>
       <c r="E655" s="12"/>
-      <c r="F655" s="12"/>
-      <c r="G655" s="12"/>
+      <c r="F655" s="43"/>
+      <c r="G655" s="43"/>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="12"/>
@@ -11081,22 +11087,22 @@
       <c r="G659" s="12"/>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A660" s="12"/>
-      <c r="B660" s="12"/>
-      <c r="C660" s="12"/>
-      <c r="D660" s="12"/>
-      <c r="E660" s="12"/>
+      <c r="A660" s="43"/>
+      <c r="B660" s="43"/>
+      <c r="C660" s="43"/>
+      <c r="D660" s="43"/>
+      <c r="E660" s="43"/>
       <c r="F660" s="12"/>
       <c r="G660" s="12"/>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A661" s="47"/>
-      <c r="B661" s="47"/>
-      <c r="C661" s="47"/>
-      <c r="D661" s="47"/>
-      <c r="E661" s="47"/>
-      <c r="F661" s="47"/>
-      <c r="G661" s="47"/>
+      <c r="A661" s="12"/>
+      <c r="B661" s="12"/>
+      <c r="C661" s="12"/>
+      <c r="D661" s="12"/>
+      <c r="E661" s="12"/>
+      <c r="F661" s="12"/>
+      <c r="G661" s="12"/>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="12"/>
@@ -11302,8 +11308,8 @@
       <c r="C684" s="12"/>
       <c r="D684" s="12"/>
       <c r="E684" s="12"/>
-      <c r="F684" s="12"/>
-      <c r="G684" s="12"/>
+      <c r="F684" s="43"/>
+      <c r="G684" s="43"/>
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="12"/>
@@ -11342,22 +11348,22 @@
       <c r="G688" s="12"/>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A689" s="12"/>
-      <c r="B689" s="12"/>
-      <c r="C689" s="12"/>
-      <c r="D689" s="12"/>
-      <c r="E689" s="12"/>
+      <c r="A689" s="43"/>
+      <c r="B689" s="43"/>
+      <c r="C689" s="43"/>
+      <c r="D689" s="43"/>
+      <c r="E689" s="43"/>
       <c r="F689" s="12"/>
       <c r="G689" s="12"/>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A690" s="47"/>
-      <c r="B690" s="47"/>
-      <c r="C690" s="47"/>
-      <c r="D690" s="47"/>
-      <c r="E690" s="47"/>
-      <c r="F690" s="47"/>
-      <c r="G690" s="47"/>
+      <c r="A690" s="12"/>
+      <c r="B690" s="12"/>
+      <c r="C690" s="12"/>
+      <c r="D690" s="12"/>
+      <c r="E690" s="12"/>
+      <c r="F690" s="12"/>
+      <c r="G690" s="12"/>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="12"/>
@@ -11445,7 +11451,7 @@
       <c r="B700" s="12"/>
       <c r="C700" s="12"/>
       <c r="D700" s="12"/>
-      <c r="E700" s="12"/>
+      <c r="E700" s="13"/>
       <c r="F700" s="12"/>
       <c r="G700" s="12"/>
     </row>
@@ -11481,9 +11487,9 @@
       <c r="B704" s="12"/>
       <c r="C704" s="12"/>
       <c r="D704" s="12"/>
-      <c r="E704" s="13"/>
-      <c r="F704" s="12"/>
-      <c r="G704" s="12"/>
+      <c r="E704" s="12"/>
+      <c r="F704" s="43"/>
+      <c r="G704" s="43"/>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="12"/>
@@ -11522,22 +11528,22 @@
       <c r="G708" s="12"/>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A709" s="12"/>
-      <c r="B709" s="12"/>
-      <c r="C709" s="12"/>
-      <c r="D709" s="12"/>
-      <c r="E709" s="12"/>
+      <c r="A709" s="43"/>
+      <c r="B709" s="43"/>
+      <c r="C709" s="43"/>
+      <c r="D709" s="43"/>
+      <c r="E709" s="43"/>
       <c r="F709" s="12"/>
       <c r="G709" s="12"/>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A710" s="47"/>
-      <c r="B710" s="47"/>
-      <c r="C710" s="47"/>
-      <c r="D710" s="47"/>
-      <c r="E710" s="47"/>
-      <c r="F710" s="47"/>
-      <c r="G710" s="47"/>
+      <c r="A710" s="12"/>
+      <c r="B710" s="12"/>
+      <c r="C710" s="12"/>
+      <c r="D710" s="12"/>
+      <c r="E710" s="12"/>
+      <c r="F710" s="12"/>
+      <c r="G710" s="12"/>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="12"/>
@@ -11674,7 +11680,7 @@
       <c r="F725" s="12"/>
       <c r="G725" s="12"/>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="12"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -11689,8 +11695,8 @@
       <c r="C727" s="12"/>
       <c r="D727" s="12"/>
       <c r="E727" s="12"/>
-      <c r="F727" s="12"/>
-      <c r="G727" s="12"/>
+      <c r="F727" s="43"/>
+      <c r="G727" s="43"/>
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="12"/>
@@ -11698,8 +11704,8 @@
       <c r="C728" s="12"/>
       <c r="D728" s="12"/>
       <c r="E728" s="12"/>
-      <c r="F728" s="12"/>
-      <c r="G728" s="12"/>
+      <c r="F728" s="43"/>
+      <c r="G728" s="43"/>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="12"/>
@@ -11728,32 +11734,32 @@
       <c r="F731" s="12"/>
       <c r="G731" s="12"/>
     </row>
-    <row r="732" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A732" s="12"/>
-      <c r="B732" s="12"/>
-      <c r="C732" s="12"/>
-      <c r="D732" s="12"/>
-      <c r="E732" s="12"/>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A732" s="43"/>
+      <c r="B732" s="43"/>
+      <c r="C732" s="43"/>
+      <c r="D732" s="43"/>
+      <c r="E732" s="43"/>
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A733" s="47"/>
-      <c r="B733" s="47"/>
-      <c r="C733" s="47"/>
-      <c r="D733" s="47"/>
-      <c r="E733" s="47"/>
-      <c r="F733" s="47"/>
-      <c r="G733" s="47"/>
+      <c r="A733" s="43"/>
+      <c r="B733" s="43"/>
+      <c r="C733" s="43"/>
+      <c r="D733" s="43"/>
+      <c r="E733" s="43"/>
+      <c r="F733" s="12"/>
+      <c r="G733" s="12"/>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A734" s="47"/>
-      <c r="B734" s="47"/>
-      <c r="C734" s="47"/>
-      <c r="D734" s="47"/>
-      <c r="E734" s="47"/>
-      <c r="F734" s="47"/>
-      <c r="G734" s="47"/>
+      <c r="A734" s="12"/>
+      <c r="B734" s="12"/>
+      <c r="C734" s="12"/>
+      <c r="D734" s="12"/>
+      <c r="E734" s="12"/>
+      <c r="F734" s="12"/>
+      <c r="G734" s="12"/>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" s="12"/>
@@ -11779,8 +11785,8 @@
       <c r="C737" s="12"/>
       <c r="D737" s="12"/>
       <c r="E737" s="12"/>
-      <c r="F737" s="12"/>
-      <c r="G737" s="12"/>
+      <c r="F737" s="43"/>
+      <c r="G737" s="43"/>
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" s="12"/>
@@ -11819,22 +11825,22 @@
       <c r="G741" s="12"/>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A742" s="12"/>
-      <c r="B742" s="12"/>
-      <c r="C742" s="12"/>
-      <c r="D742" s="12"/>
-      <c r="E742" s="12"/>
+      <c r="A742" s="43"/>
+      <c r="B742" s="43"/>
+      <c r="C742" s="43"/>
+      <c r="D742" s="43"/>
+      <c r="E742" s="43"/>
       <c r="F742" s="12"/>
       <c r="G742" s="12"/>
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A743" s="47"/>
-      <c r="B743" s="47"/>
-      <c r="C743" s="47"/>
-      <c r="D743" s="47"/>
-      <c r="E743" s="47"/>
-      <c r="F743" s="47"/>
-      <c r="G743" s="47"/>
+      <c r="A743" s="12"/>
+      <c r="B743" s="12"/>
+      <c r="C743" s="12"/>
+      <c r="D743" s="12"/>
+      <c r="E743" s="12"/>
+      <c r="F743" s="12"/>
+      <c r="G743" s="12"/>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" s="12"/>
@@ -11860,8 +11866,8 @@
       <c r="C746" s="12"/>
       <c r="D746" s="12"/>
       <c r="E746" s="12"/>
-      <c r="F746" s="12"/>
-      <c r="G746" s="12"/>
+      <c r="F746" s="43"/>
+      <c r="G746" s="43"/>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" s="12"/>
@@ -11900,22 +11906,22 @@
       <c r="G750" s="12"/>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A751" s="12"/>
-      <c r="B751" s="12"/>
-      <c r="C751" s="12"/>
-      <c r="D751" s="12"/>
-      <c r="E751" s="12"/>
+      <c r="A751" s="43"/>
+      <c r="B751" s="43"/>
+      <c r="C751" s="43"/>
+      <c r="D751" s="43"/>
+      <c r="E751" s="43"/>
       <c r="F751" s="12"/>
       <c r="G751" s="12"/>
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A752" s="47"/>
-      <c r="B752" s="47"/>
-      <c r="C752" s="47"/>
-      <c r="D752" s="47"/>
-      <c r="E752" s="47"/>
-      <c r="F752" s="47"/>
-      <c r="G752" s="47"/>
+      <c r="A752" s="12"/>
+      <c r="B752" s="12"/>
+      <c r="C752" s="12"/>
+      <c r="D752" s="12"/>
+      <c r="E752" s="12"/>
+      <c r="F752" s="12"/>
+      <c r="G752" s="12"/>
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" s="12"/>
@@ -12040,8 +12046,8 @@
       <c r="C766" s="12"/>
       <c r="D766" s="12"/>
       <c r="E766" s="12"/>
-      <c r="F766" s="12"/>
-      <c r="G766" s="12"/>
+      <c r="F766" s="43"/>
+      <c r="G766" s="43"/>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" s="12"/>
@@ -12080,22 +12086,22 @@
       <c r="G770" s="12"/>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A771" s="12"/>
-      <c r="B771" s="12"/>
-      <c r="C771" s="12"/>
-      <c r="D771" s="12"/>
-      <c r="E771" s="12"/>
+      <c r="A771" s="43"/>
+      <c r="B771" s="43"/>
+      <c r="C771" s="43"/>
+      <c r="D771" s="43"/>
+      <c r="E771" s="43"/>
       <c r="F771" s="12"/>
       <c r="G771" s="12"/>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A772" s="47"/>
-      <c r="B772" s="47"/>
-      <c r="C772" s="47"/>
-      <c r="D772" s="47"/>
-      <c r="E772" s="47"/>
-      <c r="F772" s="47"/>
-      <c r="G772" s="47"/>
+      <c r="A772" s="12"/>
+      <c r="B772" s="12"/>
+      <c r="C772" s="12"/>
+      <c r="D772" s="12"/>
+      <c r="E772" s="12"/>
+      <c r="F772" s="12"/>
+      <c r="G772" s="12"/>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" s="12"/>
@@ -12283,8 +12289,6 @@
       <c r="C793" s="12"/>
       <c r="D793" s="12"/>
       <c r="E793" s="12"/>
-      <c r="F793" s="12"/>
-      <c r="G793" s="12"/>
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A794" s="12"/>
@@ -12292,8 +12296,6 @@
       <c r="C794" s="12"/>
       <c r="D794" s="12"/>
       <c r="E794" s="12"/>
-      <c r="F794" s="12"/>
-      <c r="G794" s="12"/>
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795" s="12"/>
@@ -12301,8 +12303,6 @@
       <c r="C795" s="12"/>
       <c r="D795" s="12"/>
       <c r="E795" s="12"/>
-      <c r="F795" s="12"/>
-      <c r="G795" s="12"/>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A796" s="12"/>
@@ -12310,8 +12310,6 @@
       <c r="C796" s="12"/>
       <c r="D796" s="12"/>
       <c r="E796" s="12"/>
-      <c r="F796" s="12"/>
-      <c r="G796" s="12"/>
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A797" s="12"/>
@@ -12319,46 +12317,9 @@
       <c r="C797" s="12"/>
       <c r="D797" s="12"/>
       <c r="E797" s="12"/>
-      <c r="F797" s="12"/>
-      <c r="G797" s="12"/>
-    </row>
-    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A798" s="12"/>
-      <c r="B798" s="12"/>
-      <c r="C798" s="12"/>
-      <c r="D798" s="12"/>
-      <c r="E798" s="12"/>
-      <c r="F798" s="12"/>
-      <c r="G798" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <mergeCells count="24">
-    <mergeCell ref="A743:G743"/>
-    <mergeCell ref="A752:G752"/>
-    <mergeCell ref="A772:G772"/>
-    <mergeCell ref="A505:G505"/>
-    <mergeCell ref="A526:G526"/>
-    <mergeCell ref="A554:G554"/>
-    <mergeCell ref="A587:G587"/>
-    <mergeCell ref="A625:G625"/>
-    <mergeCell ref="A733:G733"/>
-    <mergeCell ref="A734:G734"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="A493:G493"/>
-    <mergeCell ref="A661:G661"/>
-    <mergeCell ref="A690:G690"/>
-    <mergeCell ref="A710:G710"/>
-    <mergeCell ref="A384:G384"/>
-    <mergeCell ref="A405:G405"/>
-    <mergeCell ref="A418:G418"/>
-    <mergeCell ref="A438:G438"/>
-    <mergeCell ref="A473:G473"/>
-    <mergeCell ref="A119:G119"/>
-    <mergeCell ref="A282:G282"/>
-    <mergeCell ref="A351:G351"/>
-    <mergeCell ref="A367:G367"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12378,24 +12339,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -12421,24 +12382,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -12463,13 +12424,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>2</v>
@@ -12477,16 +12438,16 @@
     </row>
     <row r="2" spans="1:4" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -12511,10 +12472,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>2</v>
@@ -12522,13 +12483,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="C2" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -12552,35 +12513,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/My Account.xlsx
+++ b/src/test/java/com/born/xls/My Account.xlsx
@@ -2236,7 +2236,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C30"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/My Account.xlsx
+++ b/src/test/java/com/born/xls/My Account.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="322">
   <si>
     <t>TCID</t>
   </si>
@@ -1572,12 +1572,6 @@
     <t>col|Product Name</t>
   </si>
   <si>
-    <t>ProductTab</t>
-  </si>
-  <si>
-    <t>Select the Product</t>
-  </si>
-  <si>
     <t>TrainingURL</t>
   </si>
   <si>
@@ -1606,9 +1600,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>TS022</t>
   </si>
 </sst>
 </file>
@@ -2236,7 +2227,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2587,10 +2578,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H799"/>
+  <dimension ref="A1:H797"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C270" sqref="C270"/>
+    <sheetView topLeftCell="B133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3696,7 +3687,7 @@
         <v>302</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -3709,10 +3700,10 @@
         <v>24</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E62" s="33"/>
       <c r="F62" s="33"/>
@@ -3732,7 +3723,7 @@
         <v>305</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -3748,7 +3739,7 @@
         <v>113</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E64" s="33" t="s">
         <v>84</v>
@@ -3770,7 +3761,7 @@
         <v>305</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -3867,7 +3858,7 @@
         <v>302</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -3880,10 +3871,10 @@
         <v>17</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
@@ -3903,7 +3894,7 @@
         <v>305</v>
       </c>
       <c r="E72" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -3919,7 +3910,7 @@
         <v>113</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E73" s="33" t="s">
         <v>84</v>
@@ -3941,7 +3932,7 @@
         <v>305</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -4008,7 +3999,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>39</v>
@@ -4517,7 +4508,7 @@
         <v>302</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -4530,10 +4521,10 @@
         <v>24</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D107" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E107" s="33"/>
       <c r="F107" s="33"/>
@@ -4566,10 +4557,10 @@
         <v>22</v>
       </c>
       <c r="C109" s="33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D109" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E109" s="33" t="s">
         <v>84</v>
@@ -4982,7 +4973,9 @@
       <c r="E133" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="F133" s="33"/>
+      <c r="F133" s="33" t="s">
+        <v>311</v>
+      </c>
       <c r="G133" s="33"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -4999,7 +4992,7 @@
         <v>302</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -5012,10 +5005,10 @@
         <v>24</v>
       </c>
       <c r="C135" s="33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D135" s="33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E135" s="33"/>
       <c r="F135" s="33"/>
@@ -5035,7 +5028,7 @@
         <v>305</v>
       </c>
       <c r="E136" s="35" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
@@ -5048,10 +5041,10 @@
         <v>22</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D137" s="33" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E137" s="33" t="s">
         <v>84</v>
@@ -5072,10 +5065,10 @@
       <c r="D138" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="E138" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="F138" s="33"/>
+      <c r="E138" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F138" s="7"/>
       <c r="G138" s="33"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -5086,15 +5079,15 @@
         <v>20</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>313</v>
+        <v>91</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F139" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="F139" s="33"/>
       <c r="G139" s="33"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -5105,15 +5098,15 @@
         <v>13</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D140" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="E140" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F140" s="7"/>
+      <c r="E140" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F140" s="33"/>
       <c r="G140" s="33"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -5124,13 +5117,13 @@
         <v>14</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D141" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E141" s="33" t="s">
-        <v>122</v>
+      <c r="E141" s="35" t="s">
+        <v>123</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
@@ -5143,13 +5136,13 @@
         <v>15</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>302</v>
+        <v>35</v>
       </c>
       <c r="E142" s="35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
@@ -5162,15 +5155,17 @@
         <v>16</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E143" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F143" s="33"/>
+        <v>129</v>
+      </c>
+      <c r="F143" s="33" t="s">
+        <v>136</v>
+      </c>
       <c r="G143" s="33"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
@@ -5181,15 +5176,17 @@
         <v>17</v>
       </c>
       <c r="C144" s="33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E144" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="F144" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="F144" s="33" t="s">
+        <v>137</v>
+      </c>
       <c r="G144" s="33"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
@@ -5200,17 +5197,15 @@
         <v>18</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="E145" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="F145" s="33" t="s">
-        <v>136</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F145" s="33"/>
       <c r="G145" s="33"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -5221,17 +5216,15 @@
         <v>19</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="E146" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F146" s="33" t="s">
-        <v>137</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F146" s="7"/>
       <c r="G146" s="33"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -5242,15 +5235,15 @@
         <v>99</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>96</v>
+        <v>295</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>303</v>
+        <v>35</v>
       </c>
       <c r="E147" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="F147" s="33"/>
+        <v>294</v>
+      </c>
+      <c r="F147" s="7"/>
       <c r="G147" s="33"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -5261,15 +5254,15 @@
         <v>121</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>97</v>
+        <v>293</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="E148" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="F148" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="F148" s="33"/>
       <c r="G148" s="33"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -5280,15 +5273,15 @@
         <v>291</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>295</v>
+        <v>98</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E149" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="F149" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="F149" s="33"/>
       <c r="G149" s="33"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
@@ -5299,79 +5292,79 @@
         <v>308</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>293</v>
+        <v>39</v>
       </c>
       <c r="D150" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E150" s="35" t="s">
-        <v>125</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E150" s="35"/>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B151" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="C151" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D151" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E151" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="F151" s="33"/>
-      <c r="G151" s="33"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A152" s="26" t="s">
-        <v>89</v>
+      <c r="A151" s="34"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="34"/>
+      <c r="E151" s="34"/>
+      <c r="F151" s="34"/>
+      <c r="G151" s="34"/>
+    </row>
+    <row r="152" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="25" t="s">
+        <v>153</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="C152" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D152" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E152" s="35"/>
-      <c r="F152" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G152" s="33"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A153" s="34"/>
-      <c r="B153" s="34"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="34"/>
-      <c r="G153" s="34"/>
+    <row r="153" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" s="33"/>
     </row>
     <row r="154" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="25" t="s">
         <v>153</v>
       </c>
       <c r="B154" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C154" s="33" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="D154" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E154" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F154" s="33"/>
       <c r="G154" s="33"/>
     </row>
     <row r="155" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -5379,54 +5372,54 @@
         <v>153</v>
       </c>
       <c r="B155" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="D155" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E155" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
     </row>
     <row r="156" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="25" t="s">
         <v>153</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C156" s="31" t="s">
-        <v>287</v>
+        <v>24</v>
+      </c>
+      <c r="C156" s="33" t="s">
+        <v>164</v>
       </c>
       <c r="D156" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E156" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F156" s="33"/>
-      <c r="G156" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E156" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
     </row>
     <row r="157" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="25" t="s">
         <v>153</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D157" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E157" s="33" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="F157" s="7"/>
       <c r="G157" s="7"/>
@@ -5436,120 +5429,120 @@
         <v>153</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D158" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E158" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
+      <c r="E158" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="F158" s="33"/>
+      <c r="G158" s="33"/>
     </row>
     <row r="159" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="25" t="s">
         <v>153</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D159" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E159" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
+      <c r="E159" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F159" s="33"/>
+      <c r="G159" s="33"/>
     </row>
     <row r="160" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="25" t="s">
         <v>153</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="D160" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E160" s="33" t="s">
-        <v>177</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E160" s="35"/>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
     </row>
-    <row r="161" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="B161" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C161" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D161" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E161" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="F161" s="33"/>
-      <c r="G161" s="33"/>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="34"/>
+      <c r="B161" s="34"/>
+      <c r="C161" s="34"/>
+      <c r="D161" s="34"/>
+      <c r="E161" s="36"/>
+      <c r="F161" s="34"/>
+      <c r="G161" s="34"/>
     </row>
     <row r="162" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D162" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E162" s="35"/>
-      <c r="F162" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G162" s="33"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="34"/>
-      <c r="B163" s="34"/>
-      <c r="C163" s="34"/>
-      <c r="D163" s="34"/>
-      <c r="E163" s="36"/>
-      <c r="F163" s="34"/>
-      <c r="G163" s="34"/>
+    <row r="163" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B163" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D163" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" s="33"/>
+      <c r="F163" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G163" s="33"/>
     </row>
     <row r="164" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="25" t="s">
         <v>154</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D164" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E164" s="33"/>
-      <c r="F164" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E164" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F164" s="33"/>
       <c r="G164" s="33"/>
     </row>
     <row r="165" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -5557,54 +5550,54 @@
         <v>154</v>
       </c>
       <c r="B165" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D165" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E165" s="33"/>
-      <c r="F165" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="E165" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
     </row>
     <row r="166" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="25" t="s">
         <v>154</v>
       </c>
       <c r="B166" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C166" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D166" s="33" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E166" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="F166" s="33"/>
-      <c r="G166" s="33"/>
+        <v>57</v>
+      </c>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
     </row>
     <row r="167" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="25" t="s">
         <v>154</v>
       </c>
       <c r="B167" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C167" s="33" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D167" s="33" t="s">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="E167" s="33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F167" s="7"/>
       <c r="G167" s="7"/>
@@ -5614,120 +5607,120 @@
         <v>154</v>
       </c>
       <c r="B168" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C168" s="33" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="D168" s="33" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E168" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-    </row>
-    <row r="169" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="F168" s="33"/>
+      <c r="G168" s="33"/>
+    </row>
+    <row r="169" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A169" s="25" t="s">
         <v>154</v>
       </c>
       <c r="B169" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C169" s="33" t="s">
-        <v>103</v>
+        <v>21</v>
+      </c>
+      <c r="C169" s="32" t="s">
+        <v>185</v>
       </c>
       <c r="D169" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="E169" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="E169" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F169" s="33"/>
+      <c r="G169" s="33"/>
     </row>
     <row r="170" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="25" t="s">
         <v>154</v>
       </c>
       <c r="B170" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C170" s="33" t="s">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="D170" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E170" s="33" t="s">
-        <v>61</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E170" s="33"/>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
     </row>
-    <row r="171" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A171" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B171" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C171" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="D171" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E171" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-    </row>
-    <row r="172" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A172" s="25" t="s">
-        <v>154</v>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="34"/>
+      <c r="B171" s="34"/>
+      <c r="C171" s="34"/>
+      <c r="D171" s="34"/>
+      <c r="E171" s="34"/>
+      <c r="F171" s="34"/>
+      <c r="G171" s="34"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" s="26" t="s">
+        <v>155</v>
       </c>
       <c r="B172" s="33" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C172" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D172" s="33" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E172" s="33"/>
-      <c r="F172" s="33"/>
+      <c r="F172" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G172" s="33"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="34"/>
-      <c r="B173" s="34"/>
-      <c r="C173" s="34"/>
-      <c r="D173" s="34"/>
-      <c r="E173" s="34"/>
-      <c r="F173" s="34"/>
-      <c r="G173" s="34"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B173" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" s="33"/>
+    </row>
+    <row r="174" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="26" t="s">
         <v>155</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C174" s="33" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="D174" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E174" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F174" s="33"/>
       <c r="G174" s="33"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
@@ -5735,35 +5728,35 @@
         <v>155</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C175" s="33" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="D175" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E175" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F175" s="33"/>
       <c r="G175" s="33"/>
     </row>
-    <row r="176" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="26" t="s">
         <v>155</v>
       </c>
       <c r="B176" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C176" s="31" t="s">
-        <v>287</v>
+        <v>24</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>179</v>
       </c>
       <c r="D176" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E176" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="E176" s="35" t="s">
+        <v>181</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
@@ -5773,16 +5766,16 @@
         <v>155</v>
       </c>
       <c r="B177" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C177" s="33" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D177" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E177" s="33" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="E177" s="35" t="s">
+        <v>182</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
@@ -5792,82 +5785,82 @@
         <v>155</v>
       </c>
       <c r="B178" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C178" s="33" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="D178" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E178" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="F178" s="33"/>
-      <c r="G178" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="E178" s="35"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B179" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C179" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="D179" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E179" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="F179" s="33"/>
-      <c r="G179" s="33"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" s="26" t="s">
-        <v>155</v>
+      <c r="A179" s="34"/>
+      <c r="B179" s="34"/>
+      <c r="C179" s="34"/>
+      <c r="D179" s="34"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="34"/>
+      <c r="G179" s="34"/>
+    </row>
+    <row r="180" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A180" s="25" t="s">
+        <v>156</v>
       </c>
       <c r="B180" s="33" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C180" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D180" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E180" s="35"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" s="34"/>
-      <c r="B181" s="34"/>
-      <c r="C181" s="34"/>
-      <c r="D181" s="34"/>
-      <c r="E181" s="36"/>
-      <c r="F181" s="34"/>
-      <c r="G181" s="34"/>
+        <v>30</v>
+      </c>
+      <c r="E180" s="33"/>
+      <c r="F180" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" s="33"/>
+    </row>
+    <row r="181" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A181" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B181" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C181" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="33"/>
+      <c r="F181" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181" s="33"/>
     </row>
     <row r="182" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="25" t="s">
         <v>156</v>
       </c>
       <c r="B182" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C182" s="33" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C182" s="32" t="s">
+        <v>188</v>
       </c>
       <c r="D182" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E182" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="F182" s="33"/>
       <c r="G182" s="33"/>
     </row>
     <row r="183" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -5875,330 +5868,330 @@
         <v>156</v>
       </c>
       <c r="B183" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D183" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E183" s="35"/>
+      <c r="F183" s="32"/>
+      <c r="G183" s="33"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" s="34"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="34"/>
+      <c r="D184" s="34"/>
+      <c r="E184" s="36"/>
+      <c r="F184" s="34"/>
+      <c r="G184" s="34"/>
+    </row>
+    <row r="185" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A185" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B185" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C185" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D185" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E185" s="33"/>
+      <c r="F185" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="33"/>
+    </row>
+    <row r="186" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A186" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B186" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C183" s="33" t="s">
+      <c r="C186" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D183" s="33" t="s">
+      <c r="D186" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E183" s="33"/>
-      <c r="F183" s="33" t="s">
+      <c r="E186" s="33"/>
+      <c r="F186" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G183" s="33"/>
-    </row>
-    <row r="184" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A184" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B184" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C184" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="D184" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E184" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F184" s="33"/>
-      <c r="G184" s="33"/>
-    </row>
-    <row r="185" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A185" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B185" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C185" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D185" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E185" s="35"/>
-      <c r="F185" s="32"/>
-      <c r="G185" s="33"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="34"/>
-      <c r="B186" s="34"/>
-      <c r="C186" s="34"/>
-      <c r="D186" s="34"/>
-      <c r="E186" s="36"/>
-      <c r="F186" s="34"/>
-      <c r="G186" s="34"/>
+      <c r="G186" s="33"/>
     </row>
     <row r="187" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A187" s="25" t="s">
         <v>157</v>
       </c>
       <c r="B187" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C187" s="33" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>290</v>
       </c>
       <c r="D187" s="33" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="E187" s="33"/>
-      <c r="F187" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G187" s="33"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
     </row>
     <row r="188" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A188" s="25" t="s">
         <v>157</v>
       </c>
       <c r="B188" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C188" s="33" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C188" s="32" t="s">
+        <v>189</v>
       </c>
       <c r="D188" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G188" s="33"/>
-    </row>
-    <row r="189" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="E188" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+    </row>
+    <row r="189" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A189" s="25" t="s">
         <v>157</v>
       </c>
       <c r="B189" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C189" s="31" t="s">
-        <v>290</v>
+        <v>24</v>
+      </c>
+      <c r="C189" s="32" t="s">
+        <v>192</v>
       </c>
       <c r="D189" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="E189" s="33"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E189" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F189" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G189" s="33"/>
     </row>
     <row r="190" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A190" s="25" t="s">
         <v>157</v>
       </c>
       <c r="B190" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D190" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E190" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-    </row>
-    <row r="191" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+      <c r="F190" s="33"/>
+      <c r="G190" s="33"/>
+    </row>
+    <row r="191" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="25" t="s">
         <v>157</v>
       </c>
       <c r="B191" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C191" s="32" t="s">
-        <v>192</v>
+        <v>22</v>
+      </c>
+      <c r="C191" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D191" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E191" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="F191" s="32" t="s">
-        <v>201</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E191" s="32"/>
+      <c r="F191" s="33"/>
       <c r="G191" s="33"/>
     </row>
-    <row r="192" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A192" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B192" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C192" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="D192" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E192" s="32" t="s">
-        <v>203</v>
-      </c>
-      <c r="F192" s="33"/>
-      <c r="G192" s="33"/>
-    </row>
-    <row r="193" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" s="34"/>
+      <c r="B192" s="34"/>
+      <c r="C192" s="34"/>
+      <c r="D192" s="34"/>
+      <c r="E192" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F192" s="34"/>
+      <c r="G192" s="34"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="25" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="B193" s="33" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C193" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D193" s="33" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E193" s="32"/>
-      <c r="F193" s="33"/>
+      <c r="F193" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G193" s="33"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" s="34"/>
-      <c r="B194" s="34"/>
-      <c r="C194" s="34"/>
-      <c r="D194" s="34"/>
-      <c r="E194" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="F194" s="34"/>
-      <c r="G194" s="34"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B194" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C194" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D194" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" s="33"/>
+      <c r="F194" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G194" s="33"/>
+    </row>
+    <row r="195" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="25" t="s">
         <v>306</v>
       </c>
       <c r="B195" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C195" s="33" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C195" s="32" t="s">
+        <v>205</v>
       </c>
       <c r="D195" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E195" s="32"/>
+        <v>29</v>
+      </c>
+      <c r="E195" s="35" t="s">
+        <v>209</v>
+      </c>
       <c r="F195" s="33" t="s">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="G195" s="33"/>
     </row>
-    <row r="196" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A196" s="25" t="s">
         <v>306</v>
       </c>
       <c r="B196" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C196" s="33" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C196" s="32" t="s">
+        <v>206</v>
       </c>
       <c r="D196" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E196" s="33"/>
-      <c r="F196" s="33" t="s">
-        <v>315</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E196" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="F196" s="33"/>
       <c r="G196" s="33"/>
     </row>
-    <row r="197" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="25" t="s">
         <v>306</v>
       </c>
       <c r="B197" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C197" s="32" t="s">
-        <v>205</v>
+        <v>24</v>
+      </c>
+      <c r="C197" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D197" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E197" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="F197" s="33" t="s">
-        <v>212</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E197" s="33"/>
+      <c r="F197" s="33"/>
       <c r="G197" s="33"/>
     </row>
-    <row r="198" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="B198" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C198" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="D198" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E198" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F198" s="33"/>
-      <c r="G198" s="33"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" s="34"/>
+      <c r="B198" s="34"/>
+      <c r="C198" s="34"/>
+      <c r="D198" s="34"/>
+      <c r="E198" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F198" s="34"/>
+      <c r="G198" s="34"/>
+    </row>
+    <row r="199" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="25" t="s">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="B199" s="33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C199" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D199" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E199" s="33"/>
-      <c r="F199" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E199" s="32"/>
+      <c r="F199" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G199" s="33"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" s="34"/>
-      <c r="B200" s="34"/>
-      <c r="C200" s="34"/>
-      <c r="D200" s="34"/>
-      <c r="E200" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="F200" s="34"/>
-      <c r="G200" s="34"/>
+    <row r="200" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A200" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B200" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D200" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" s="33"/>
+      <c r="F200" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200" s="33"/>
     </row>
     <row r="201" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A201" s="25" t="s">
         <v>158</v>
       </c>
       <c r="B201" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C201" s="33" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C201" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="D201" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E201" s="32"/>
-      <c r="F201" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E201" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F201" s="33"/>
       <c r="G201" s="33"/>
     </row>
     <row r="202" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -6206,18 +6199,18 @@
         <v>158</v>
       </c>
       <c r="B202" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C202" s="33" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C202" s="32" t="s">
+        <v>207</v>
       </c>
       <c r="D202" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E202" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F202" s="33"/>
       <c r="G202" s="33"/>
     </row>
     <row r="203" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -6225,84 +6218,84 @@
         <v>158</v>
       </c>
       <c r="B203" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C203" s="32" t="s">
-        <v>204</v>
+        <v>24</v>
+      </c>
+      <c r="C203" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D203" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E203" s="33" t="s">
-        <v>208</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E203" s="35"/>
       <c r="F203" s="33"/>
       <c r="G203" s="33"/>
     </row>
-    <row r="204" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A204" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="B204" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C204" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="D204" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E204" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="F204" s="33"/>
-      <c r="G204" s="33"/>
-    </row>
-    <row r="205" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" s="34"/>
+      <c r="B204" s="34"/>
+      <c r="C204" s="34"/>
+      <c r="D204" s="34"/>
+      <c r="E204" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F204" s="34"/>
+      <c r="G204" s="34"/>
+    </row>
+    <row r="205" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B205" s="33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C205" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D205" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E205" s="35"/>
-      <c r="F205" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E205" s="32"/>
+      <c r="F205" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G205" s="33"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" s="34"/>
-      <c r="B206" s="34"/>
-      <c r="C206" s="34"/>
-      <c r="D206" s="34"/>
-      <c r="E206" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="F206" s="34"/>
-      <c r="G206" s="34"/>
+    <row r="206" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A206" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B206" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D206" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" s="33"/>
+      <c r="F206" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G206" s="33"/>
     </row>
     <row r="207" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="25" t="s">
         <v>159</v>
       </c>
       <c r="B207" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C207" s="33" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C207" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="D207" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E207" s="32"/>
-      <c r="F207" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E207" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F207" s="33"/>
       <c r="G207" s="33"/>
     </row>
     <row r="208" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -6310,18 +6303,18 @@
         <v>159</v>
       </c>
       <c r="B208" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C208" s="33" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C208" s="32" t="s">
+        <v>213</v>
       </c>
       <c r="D208" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E208" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F208" s="33"/>
       <c r="G208" s="33"/>
     </row>
     <row r="209" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -6329,16 +6322,16 @@
         <v>159</v>
       </c>
       <c r="B209" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D209" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E209" s="33" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="33"/>
@@ -6348,16 +6341,16 @@
         <v>159</v>
       </c>
       <c r="B210" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C210" s="32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D210" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E210" s="35" t="s">
-        <v>211</v>
+      <c r="E210" s="33" t="s">
+        <v>223</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="33"/>
@@ -6367,16 +6360,16 @@
         <v>159</v>
       </c>
       <c r="B211" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D211" s="33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E211" s="33" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="33"/>
@@ -6386,16 +6379,16 @@
         <v>159</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C212" s="32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D212" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="33"/>
@@ -6405,16 +6398,16 @@
         <v>159</v>
       </c>
       <c r="B213" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C213" s="32" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D213" s="33" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E213" s="33" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="33"/>
@@ -6424,16 +6417,16 @@
         <v>159</v>
       </c>
       <c r="B214" s="33" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D214" s="33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E214" s="33" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="33"/>
@@ -6443,37 +6436,37 @@
         <v>159</v>
       </c>
       <c r="B215" s="33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D215" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E215" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="F215" s="33"/>
-      <c r="G215" s="33"/>
+        <v>224</v>
+      </c>
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
     </row>
     <row r="216" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="25" t="s">
         <v>159</v>
       </c>
       <c r="B216" s="33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="D216" s="33" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E216" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="F216" s="33"/>
+        <v>225</v>
+      </c>
+      <c r="F216" s="7"/>
       <c r="G216" s="33"/>
     </row>
     <row r="217" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -6481,37 +6474,37 @@
         <v>159</v>
       </c>
       <c r="B217" s="33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D217" s="33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E217" s="33" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F217" s="7"/>
-      <c r="G217" s="7"/>
+      <c r="G217" s="33"/>
     </row>
     <row r="218" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="25" t="s">
         <v>159</v>
       </c>
       <c r="B218" s="33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D218" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E218" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="F218" s="7"/>
+        <v>226</v>
+      </c>
+      <c r="F218" s="33"/>
       <c r="G218" s="33"/>
     </row>
     <row r="219" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -6519,18 +6512,18 @@
         <v>159</v>
       </c>
       <c r="B219" s="33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C219" s="32" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D219" s="33" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E219" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="F219" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="F219" s="33"/>
       <c r="G219" s="33"/>
     </row>
     <row r="220" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -6538,103 +6531,103 @@
         <v>159</v>
       </c>
       <c r="B220" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C220" s="32" t="s">
-        <v>220</v>
+        <v>19</v>
+      </c>
+      <c r="C220" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D220" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E220" s="33" t="s">
-        <v>226</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E220" s="33"/>
       <c r="F220" s="33"/>
       <c r="G220" s="33"/>
     </row>
-    <row r="221" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A221" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="B221" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C221" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="D221" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E221" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F221" s="33"/>
-      <c r="G221" s="33"/>
-    </row>
-    <row r="222" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" s="34"/>
+      <c r="B221" s="34"/>
+      <c r="C221" s="34"/>
+      <c r="D221" s="34"/>
+      <c r="E221" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F221" s="34"/>
+      <c r="G221" s="34"/>
+    </row>
+    <row r="222" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A222" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B222" s="33" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C222" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D222" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E222" s="33"/>
-      <c r="F222" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E222" s="32"/>
+      <c r="F222" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G222" s="33"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A223" s="34"/>
-      <c r="B223" s="34"/>
-      <c r="C223" s="34"/>
-      <c r="D223" s="34"/>
-      <c r="E223" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="F223" s="34"/>
-      <c r="G223" s="34"/>
+    <row r="223" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A223" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B223" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C223" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D223" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G223" s="33"/>
     </row>
     <row r="224" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A224" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B224" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C224" s="33" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C224" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="D224" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E224" s="32"/>
-      <c r="F224" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G224" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="E224" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F224" s="7"/>
+      <c r="G224" s="7"/>
     </row>
     <row r="225" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A225" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B225" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C225" s="33" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C225" s="32" t="s">
+        <v>213</v>
       </c>
       <c r="D225" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E225" s="33"/>
-      <c r="F225" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E225" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F225" s="7"/>
       <c r="G225" s="33"/>
     </row>
     <row r="226" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -6642,37 +6635,37 @@
         <v>160</v>
       </c>
       <c r="B226" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="D226" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E226" s="33" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="F226" s="7"/>
-      <c r="G226" s="7"/>
+      <c r="G226" s="33"/>
     </row>
     <row r="227" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A227" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B227" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C227" s="32" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D227" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E227" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="F227" s="7"/>
+      <c r="E227" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="F227" s="33"/>
       <c r="G227" s="33"/>
     </row>
     <row r="228" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -6680,18 +6673,18 @@
         <v>160</v>
       </c>
       <c r="B228" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C228" s="32" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D228" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E228" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="F228" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="F228" s="33"/>
       <c r="G228" s="33"/>
     </row>
     <row r="229" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -6699,84 +6692,84 @@
         <v>160</v>
       </c>
       <c r="B229" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C229" s="32" t="s">
-        <v>231</v>
+        <v>21</v>
+      </c>
+      <c r="C229" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D229" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E229" s="33" t="s">
-        <v>235</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E229" s="33"/>
       <c r="F229" s="33"/>
       <c r="G229" s="33"/>
     </row>
-    <row r="230" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A230" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B230" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C230" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D230" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E230" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="F230" s="33"/>
-      <c r="G230" s="33"/>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" s="34"/>
+      <c r="B230" s="34"/>
+      <c r="C230" s="34"/>
+      <c r="D230" s="34"/>
+      <c r="E230" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F230" s="34"/>
+      <c r="G230" s="34"/>
     </row>
     <row r="231" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A231" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B231" s="33" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C231" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D231" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E231" s="33"/>
-      <c r="F231" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E231" s="32"/>
+      <c r="F231" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G231" s="33"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A232" s="34"/>
-      <c r="B232" s="34"/>
-      <c r="C232" s="34"/>
-      <c r="D232" s="34"/>
-      <c r="E232" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="F232" s="34"/>
-      <c r="G232" s="34"/>
+    <row r="232" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A232" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B232" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C232" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D232" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E232" s="33"/>
+      <c r="F232" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G232" s="33"/>
     </row>
     <row r="233" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A233" s="25" t="s">
         <v>161</v>
       </c>
       <c r="B233" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C233" s="33" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C233" s="32" t="s">
+        <v>204</v>
       </c>
       <c r="D233" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E233" s="32"/>
-      <c r="F233" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E233" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="F233" s="7"/>
       <c r="G233" s="33"/>
     </row>
     <row r="234" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -6784,18 +6777,18 @@
         <v>161</v>
       </c>
       <c r="B234" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C234" s="33" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C234" s="32" t="s">
+        <v>236</v>
       </c>
       <c r="D234" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E234" s="33"/>
-      <c r="F234" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E234" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="F234" s="7"/>
       <c r="G234" s="33"/>
     </row>
     <row r="235" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -6803,37 +6796,37 @@
         <v>161</v>
       </c>
       <c r="B235" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="D235" s="33" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E235" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="F235" s="7"/>
+        <v>240</v>
+      </c>
+      <c r="F235" s="33"/>
       <c r="G235" s="33"/>
     </row>
-    <row r="236" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A236" s="25" t="s">
         <v>161</v>
       </c>
       <c r="B236" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D236" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E236" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="F236" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="E236" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="F236" s="33"/>
       <c r="G236" s="33"/>
     </row>
     <row r="237" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -6841,188 +6834,188 @@
         <v>161</v>
       </c>
       <c r="B237" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C237" s="32" t="s">
-        <v>238</v>
+        <v>22</v>
+      </c>
+      <c r="C237" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D237" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E237" s="33" t="s">
-        <v>240</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E237" s="35"/>
       <c r="F237" s="33"/>
       <c r="G237" s="33"/>
     </row>
-    <row r="238" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A238" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B238" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C238" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="D238" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E238" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="F238" s="33"/>
-      <c r="G238" s="33"/>
-    </row>
-    <row r="239" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238" s="34"/>
+      <c r="B238" s="34"/>
+      <c r="C238" s="34"/>
+      <c r="D238" s="34"/>
+      <c r="E238" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F238" s="34"/>
+      <c r="G238" s="34"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B239" s="33" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C239" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D239" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E239" s="35"/>
-      <c r="F239" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E239" s="32"/>
+      <c r="F239" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G239" s="33"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A240" s="34"/>
-      <c r="B240" s="34"/>
-      <c r="C240" s="34"/>
-      <c r="D240" s="34"/>
-      <c r="E240" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="F240" s="34"/>
-      <c r="G240" s="34"/>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B240" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C240" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D240" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E240" s="33"/>
+      <c r="F240" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G240" s="33"/>
+    </row>
+    <row r="241" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A241" s="25" t="s">
         <v>162</v>
       </c>
       <c r="B241" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C241" s="33" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C241" s="32" t="s">
+        <v>242</v>
       </c>
       <c r="D241" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E241" s="32"/>
-      <c r="F241" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E241" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="F241" s="33"/>
       <c r="G241" s="33"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A242" s="25" t="s">
         <v>162</v>
       </c>
       <c r="B242" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C242" s="33" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C242" s="32" t="s">
+        <v>247</v>
       </c>
       <c r="D242" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E242" s="33"/>
-      <c r="F242" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E242" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="F242" s="33"/>
       <c r="G242" s="33"/>
     </row>
-    <row r="243" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="25" t="s">
         <v>162</v>
       </c>
       <c r="B243" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C243" s="32" t="s">
-        <v>242</v>
+        <v>24</v>
+      </c>
+      <c r="C243" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D243" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E243" s="35" t="s">
-        <v>243</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E243" s="35"/>
       <c r="F243" s="33"/>
       <c r="G243" s="33"/>
     </row>
-    <row r="244" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A244" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B244" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C244" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="D244" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E244" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="F244" s="33"/>
-      <c r="G244" s="33"/>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244" s="34"/>
+      <c r="B244" s="34"/>
+      <c r="C244" s="34"/>
+      <c r="D244" s="34"/>
+      <c r="E244" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F244" s="34"/>
+      <c r="G244" s="34"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A245" s="25" t="s">
-        <v>162</v>
+      <c r="A245" s="32" t="s">
+        <v>244</v>
       </c>
       <c r="B245" s="33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C245" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D245" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E245" s="35"/>
-      <c r="F245" s="33"/>
+        <v>30</v>
+      </c>
+      <c r="E245" s="33"/>
+      <c r="F245" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G245" s="33"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A246" s="34"/>
-      <c r="B246" s="34"/>
-      <c r="C246" s="34"/>
-      <c r="D246" s="34"/>
-      <c r="E246" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="F246" s="34"/>
-      <c r="G246" s="34"/>
+      <c r="A246" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B246" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C246" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D246" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246" s="33"/>
+      <c r="F246" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G246" s="33"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="32" t="s">
         <v>244</v>
       </c>
       <c r="B247" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C247" s="33" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D247" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E247" s="33"/>
-      <c r="F247" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E247" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="F247" s="33"/>
       <c r="G247" s="33"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
@@ -7030,18 +7023,18 @@
         <v>244</v>
       </c>
       <c r="B248" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C248" s="33" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D248" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E248" s="33"/>
-      <c r="F248" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E248" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F248" s="33"/>
       <c r="G248" s="33"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -7049,16 +7042,16 @@
         <v>244</v>
       </c>
       <c r="B249" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C249" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D249" s="33" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E249" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="33"/>
@@ -7068,16 +7061,16 @@
         <v>244</v>
       </c>
       <c r="B250" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C250" s="33" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D250" s="33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E250" s="33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="33"/>
@@ -7087,16 +7080,16 @@
         <v>244</v>
       </c>
       <c r="B251" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C251" s="33" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D251" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E251" s="33" t="s">
-        <v>57</v>
+        <v>302</v>
+      </c>
+      <c r="E251" s="35" t="s">
+        <v>249</v>
       </c>
       <c r="F251" s="33"/>
       <c r="G251" s="33"/>
@@ -7106,16 +7099,16 @@
         <v>244</v>
       </c>
       <c r="B252" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C252" s="33" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="C252" s="32" t="s">
+        <v>250</v>
       </c>
       <c r="D252" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E252" s="33" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="E252" s="35" t="s">
+        <v>249</v>
       </c>
       <c r="F252" s="33"/>
       <c r="G252" s="33"/>
@@ -7125,16 +7118,16 @@
         <v>244</v>
       </c>
       <c r="B253" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C253" s="33" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D253" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="E253" s="35" t="s">
-        <v>249</v>
+      <c r="E253" s="33" t="s">
+        <v>253</v>
       </c>
       <c r="F253" s="33"/>
       <c r="G253" s="33"/>
@@ -7144,16 +7137,16 @@
         <v>244</v>
       </c>
       <c r="B254" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C254" s="32" t="s">
-        <v>250</v>
+        <v>13</v>
+      </c>
+      <c r="C254" s="33" t="s">
+        <v>251</v>
       </c>
       <c r="D254" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E254" s="35" t="s">
-        <v>249</v>
+      <c r="E254" s="33" t="s">
+        <v>253</v>
       </c>
       <c r="F254" s="33"/>
       <c r="G254" s="33"/>
@@ -7163,7 +7156,7 @@
         <v>244</v>
       </c>
       <c r="B255" s="33" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C255" s="33" t="s">
         <v>112</v>
@@ -7172,7 +7165,7 @@
         <v>302</v>
       </c>
       <c r="E255" s="33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F255" s="33"/>
       <c r="G255" s="33"/>
@@ -7182,16 +7175,16 @@
         <v>244</v>
       </c>
       <c r="B256" s="33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C256" s="33" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D256" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E256" s="33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="33"/>
@@ -7201,84 +7194,82 @@
         <v>244</v>
       </c>
       <c r="B257" s="33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C257" s="33" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="D257" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="E257" s="33" t="s">
-        <v>254</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E257" s="33"/>
       <c r="F257" s="33"/>
       <c r="G257" s="33"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A258" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="B258" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C258" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="D258" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E258" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="F258" s="33"/>
-      <c r="G258" s="33"/>
+      <c r="A258" s="34"/>
+      <c r="B258" s="34"/>
+      <c r="C258" s="34"/>
+      <c r="D258" s="34"/>
+      <c r="E258" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F258" s="8"/>
+      <c r="G258" s="8"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B259" s="33" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C259" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D259" s="33" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E259" s="33"/>
-      <c r="F259" s="33"/>
-      <c r="G259" s="33"/>
+      <c r="F259" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G259" s="7"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A260" s="34"/>
-      <c r="B260" s="34"/>
-      <c r="C260" s="34"/>
-      <c r="D260" s="34"/>
-      <c r="E260" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="F260" s="8"/>
-      <c r="G260" s="8"/>
+      <c r="A260" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B260" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C260" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D260" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E260" s="33"/>
+      <c r="F260" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G260" s="7"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="32" t="s">
         <v>245</v>
       </c>
       <c r="B261" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C261" s="33" t="s">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="D261" s="33" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="E261" s="33"/>
-      <c r="F261" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F261" s="7"/>
       <c r="G261" s="7"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
@@ -7286,34 +7277,36 @@
         <v>245</v>
       </c>
       <c r="B262" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C262" s="33" t="s">
-        <v>32</v>
+        <v>278</v>
       </c>
       <c r="D262" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E262" s="33"/>
-      <c r="F262" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E262" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="F262" s="7"/>
       <c r="G262" s="7"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A263" s="32" t="s">
         <v>245</v>
       </c>
       <c r="B263" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C263" s="33" t="s">
-        <v>277</v>
+        <v>24</v>
+      </c>
+      <c r="C263" s="32" t="s">
+        <v>279</v>
       </c>
       <c r="D263" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="E263" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E263" s="35" t="s">
+        <v>284</v>
+      </c>
       <c r="F263" s="7"/>
       <c r="G263" s="7"/>
     </row>
@@ -7322,105 +7315,103 @@
         <v>245</v>
       </c>
       <c r="B264" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C264" s="33" t="s">
-        <v>278</v>
+        <v>23</v>
+      </c>
+      <c r="C264" s="32" t="s">
+        <v>285</v>
       </c>
       <c r="D264" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E264" s="33" t="s">
-        <v>282</v>
+        <v>34</v>
+      </c>
+      <c r="E264" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="F264" s="7"/>
       <c r="G264" s="7"/>
     </row>
-    <row r="265" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="32" t="s">
         <v>245</v>
       </c>
       <c r="B265" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C265" s="32" t="s">
-        <v>279</v>
+        <v>22</v>
+      </c>
+      <c r="C265" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="D265" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E265" s="35" t="s">
-        <v>284</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E265" s="33"/>
       <c r="F265" s="7"/>
       <c r="G265" s="7"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A266" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="B266" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C266" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="D266" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E266" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F266" s="7"/>
-      <c r="G266" s="7"/>
+    <row r="266" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="34"/>
+      <c r="B266" s="34"/>
+      <c r="C266" s="34"/>
+      <c r="D266" s="34"/>
+      <c r="E266" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F266" s="34"/>
+      <c r="G266" s="37" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B267" s="33" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C267" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D267" s="33" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E267" s="33"/>
-      <c r="F267" s="7"/>
+      <c r="F267" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G267" s="7"/>
     </row>
-    <row r="268" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="34"/>
-      <c r="B268" s="34"/>
-      <c r="C268" s="34"/>
-      <c r="D268" s="34"/>
-      <c r="E268" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="F268" s="34"/>
-      <c r="G268" s="37" t="s">
-        <v>191</v>
-      </c>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="B268" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C268" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D268" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E268" s="33"/>
+      <c r="F268" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G268" s="7"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="32" t="s">
         <v>246</v>
       </c>
       <c r="B269" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C269" s="33" t="s">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="D269" s="33" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="E269" s="33"/>
-      <c r="F269" s="33" t="s">
-        <v>9</v>
-      </c>
+      <c r="F269" s="7"/>
       <c r="G269" s="7"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
@@ -7428,18 +7419,18 @@
         <v>246</v>
       </c>
       <c r="B270" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C270" s="33" t="s">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="D270" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E270" s="33"/>
-      <c r="F270" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E270" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="F270" s="7"/>
       <c r="G270" s="7"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
@@ -7447,15 +7438,17 @@
         <v>246</v>
       </c>
       <c r="B271" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C271" s="33" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D271" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="E271" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E271" s="33" t="s">
+        <v>286</v>
+      </c>
       <c r="F271" s="7"/>
       <c r="G271" s="7"/>
     </row>
@@ -7464,86 +7457,86 @@
         <v>246</v>
       </c>
       <c r="B272" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C272" s="33" t="s">
-        <v>280</v>
+        <v>39</v>
       </c>
       <c r="D272" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E272" s="33" t="s">
-        <v>283</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E272" s="35"/>
       <c r="F272" s="7"/>
       <c r="G272" s="7"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A273" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="B273" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C273" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="D273" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E273" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="F273" s="7"/>
-      <c r="G273" s="7"/>
+    <row r="273" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="8"/>
+      <c r="D273" s="8"/>
+      <c r="E273" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F273" s="34"/>
+      <c r="G273" s="37" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A274" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="B274" s="33" t="s">
-        <v>23</v>
+      <c r="A274" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C274" s="33" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D274" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E274" s="35"/>
-      <c r="F274" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="E274" s="33"/>
+      <c r="F274" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="G274" s="7"/>
     </row>
-    <row r="275" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="8"/>
-      <c r="B275" s="8"/>
-      <c r="C275" s="8"/>
-      <c r="D275" s="8"/>
-      <c r="E275" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="F275" s="34"/>
-      <c r="G275" s="37" t="s">
-        <v>191</v>
-      </c>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A275" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C275" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D275" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E275" s="33"/>
+      <c r="F275" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G275" s="7"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
         <v>296</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C276" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D276" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E276" s="33"/>
-      <c r="F276" s="33" t="s">
-        <v>9</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D276" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E276" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="F276" s="7"/>
       <c r="G276" s="7"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
@@ -7551,18 +7544,18 @@
         <v>296</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C277" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D277" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E277" s="33"/>
-      <c r="F277" s="33" t="s">
-        <v>11</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E277" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="F277" s="7"/>
       <c r="G277" s="7"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
@@ -7570,62 +7563,42 @@
         <v>296</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>298</v>
+        <v>39</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E278" s="39" t="s">
-        <v>299</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E278" s="39"/>
       <c r="F278" s="7"/>
       <c r="G278" s="7"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A279" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B279" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="D279" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E279" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="F279" s="7"/>
-      <c r="G279" s="7"/>
+      <c r="A279" s="12"/>
+      <c r="B279" s="12"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="12"/>
+      <c r="E279" s="13"/>
+      <c r="F279" s="12"/>
+      <c r="G279" s="12"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A280" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B280" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D280" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E280" s="39"/>
-      <c r="F280" s="7"/>
-      <c r="G280" s="7"/>
+      <c r="A280" s="12"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="12"/>
+      <c r="E280" s="12"/>
+      <c r="F280" s="12"/>
+      <c r="G280" s="12"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A281" s="12"/>
-      <c r="B281" s="12"/>
-      <c r="C281" s="12"/>
-      <c r="D281" s="12"/>
-      <c r="E281" s="13"/>
+      <c r="A281" s="42"/>
+      <c r="B281" s="42"/>
+      <c r="C281" s="42"/>
+      <c r="D281" s="42"/>
+      <c r="E281" s="42"/>
       <c r="F281" s="12"/>
       <c r="G281" s="12"/>
     </row>
@@ -7639,11 +7612,11 @@
       <c r="G282" s="12"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A283" s="42"/>
-      <c r="B283" s="42"/>
-      <c r="C283" s="42"/>
-      <c r="D283" s="42"/>
-      <c r="E283" s="42"/>
+      <c r="A283" s="12"/>
+      <c r="B283" s="12"/>
+      <c r="C283" s="12"/>
+      <c r="D283" s="12"/>
+      <c r="E283" s="12"/>
       <c r="F283" s="12"/>
       <c r="G283" s="12"/>
     </row>
@@ -7805,7 +7778,7 @@
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
       <c r="D301" s="12"/>
-      <c r="E301" s="12"/>
+      <c r="E301" s="13"/>
       <c r="F301" s="12"/>
       <c r="G301" s="12"/>
     </row>
@@ -7814,7 +7787,7 @@
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
       <c r="D302" s="12"/>
-      <c r="E302" s="12"/>
+      <c r="E302" s="13"/>
       <c r="F302" s="12"/>
       <c r="G302" s="12"/>
     </row>
@@ -7841,7 +7814,7 @@
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
       <c r="D305" s="12"/>
-      <c r="E305" s="13"/>
+      <c r="E305" s="12"/>
       <c r="F305" s="12"/>
       <c r="G305" s="12"/>
     </row>
@@ -7850,7 +7823,7 @@
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
       <c r="D306" s="12"/>
-      <c r="E306" s="13"/>
+      <c r="E306" s="12"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
     </row>
@@ -7859,7 +7832,7 @@
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
       <c r="D307" s="12"/>
-      <c r="E307" s="12"/>
+      <c r="E307" s="13"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
     </row>
@@ -7868,7 +7841,7 @@
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
       <c r="D308" s="12"/>
-      <c r="E308" s="12"/>
+      <c r="E308" s="13"/>
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
     </row>
@@ -8001,7 +7974,7 @@
     <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="12"/>
       <c r="B323" s="12"/>
-      <c r="C323" s="12"/>
+      <c r="C323" s="14"/>
       <c r="D323" s="12"/>
       <c r="E323" s="13"/>
       <c r="F323" s="12"/>
@@ -8012,16 +7985,16 @@
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
       <c r="D324" s="12"/>
-      <c r="E324" s="13"/>
+      <c r="E324" s="12"/>
       <c r="F324" s="12"/>
       <c r="G324" s="12"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="12"/>
       <c r="B325" s="12"/>
-      <c r="C325" s="14"/>
+      <c r="C325" s="12"/>
       <c r="D325" s="12"/>
-      <c r="E325" s="13"/>
+      <c r="E325" s="12"/>
       <c r="F325" s="12"/>
       <c r="G325" s="12"/>
     </row>
@@ -8084,7 +8057,7 @@
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
       <c r="D332" s="12"/>
-      <c r="E332" s="12"/>
+      <c r="E332" s="13"/>
       <c r="F332" s="12"/>
       <c r="G332" s="12"/>
     </row>
@@ -8112,8 +8085,8 @@
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
       <c r="E335" s="12"/>
-      <c r="F335" s="12"/>
-      <c r="G335" s="12"/>
+      <c r="F335" s="42"/>
+      <c r="G335" s="42"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="12"/>
@@ -8130,15 +8103,15 @@
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
       <c r="E337" s="12"/>
-      <c r="F337" s="42"/>
-      <c r="G337" s="42"/>
+      <c r="F337" s="12"/>
+      <c r="G337" s="12"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="12"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
       <c r="D338" s="12"/>
-      <c r="E338" s="13"/>
+      <c r="E338" s="12"/>
       <c r="F338" s="12"/>
       <c r="G338" s="12"/>
     </row>
@@ -8156,7 +8129,7 @@
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
       <c r="D340" s="12"/>
-      <c r="E340" s="12"/>
+      <c r="E340" s="13"/>
       <c r="F340" s="12"/>
       <c r="G340" s="12"/>
     </row>
@@ -8165,7 +8138,7 @@
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
       <c r="D341" s="12"/>
-      <c r="E341" s="12"/>
+      <c r="E341" s="13"/>
       <c r="F341" s="12"/>
       <c r="G341" s="12"/>
     </row>
@@ -8237,16 +8210,16 @@
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
       <c r="D349" s="12"/>
-      <c r="E349" s="13"/>
+      <c r="E349" s="12"/>
       <c r="F349" s="12"/>
       <c r="G349" s="12"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A350" s="12"/>
-      <c r="B350" s="12"/>
-      <c r="C350" s="12"/>
-      <c r="D350" s="12"/>
-      <c r="E350" s="13"/>
+      <c r="A350" s="42"/>
+      <c r="B350" s="42"/>
+      <c r="C350" s="42"/>
+      <c r="D350" s="42"/>
+      <c r="E350" s="42"/>
       <c r="F350" s="12"/>
       <c r="G350" s="12"/>
     </row>
@@ -8256,15 +8229,15 @@
       <c r="C351" s="12"/>
       <c r="D351" s="12"/>
       <c r="E351" s="12"/>
-      <c r="F351" s="12"/>
-      <c r="G351" s="12"/>
+      <c r="F351" s="42"/>
+      <c r="G351" s="42"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A352" s="42"/>
-      <c r="B352" s="42"/>
-      <c r="C352" s="42"/>
-      <c r="D352" s="42"/>
-      <c r="E352" s="42"/>
+      <c r="A352" s="12"/>
+      <c r="B352" s="12"/>
+      <c r="C352" s="12"/>
+      <c r="D352" s="12"/>
+      <c r="E352" s="12"/>
       <c r="F352" s="12"/>
       <c r="G352" s="12"/>
     </row>
@@ -8274,8 +8247,8 @@
       <c r="C353" s="12"/>
       <c r="D353" s="12"/>
       <c r="E353" s="12"/>
-      <c r="F353" s="42"/>
-      <c r="G353" s="42"/>
+      <c r="F353" s="12"/>
+      <c r="G353" s="12"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="12"/>
@@ -8336,7 +8309,7 @@
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
       <c r="D360" s="12"/>
-      <c r="E360" s="12"/>
+      <c r="E360" s="13"/>
       <c r="F360" s="12"/>
       <c r="G360" s="12"/>
     </row>
@@ -8345,7 +8318,7 @@
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
       <c r="D361" s="12"/>
-      <c r="E361" s="12"/>
+      <c r="E361" s="13"/>
       <c r="F361" s="12"/>
       <c r="G361" s="12"/>
     </row>
@@ -8381,16 +8354,16 @@
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
       <c r="D365" s="12"/>
-      <c r="E365" s="13"/>
+      <c r="E365" s="12"/>
       <c r="F365" s="12"/>
       <c r="G365" s="12"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A366" s="12"/>
-      <c r="B366" s="12"/>
-      <c r="C366" s="12"/>
-      <c r="D366" s="12"/>
-      <c r="E366" s="13"/>
+      <c r="A366" s="42"/>
+      <c r="B366" s="42"/>
+      <c r="C366" s="42"/>
+      <c r="D366" s="42"/>
+      <c r="E366" s="42"/>
       <c r="F366" s="12"/>
       <c r="G366" s="12"/>
     </row>
@@ -8404,13 +8377,13 @@
       <c r="G367" s="12"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A368" s="42"/>
-      <c r="B368" s="42"/>
-      <c r="C368" s="42"/>
-      <c r="D368" s="42"/>
-      <c r="E368" s="42"/>
-      <c r="F368" s="12"/>
-      <c r="G368" s="12"/>
+      <c r="A368" s="12"/>
+      <c r="B368" s="12"/>
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
+      <c r="E368" s="12"/>
+      <c r="F368" s="42"/>
+      <c r="G368" s="42"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="12"/>
@@ -8427,8 +8400,8 @@
       <c r="C370" s="12"/>
       <c r="D370" s="12"/>
       <c r="E370" s="12"/>
-      <c r="F370" s="42"/>
-      <c r="G370" s="42"/>
+      <c r="F370" s="12"/>
+      <c r="G370" s="12"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="12"/>
@@ -8489,7 +8462,7 @@
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
       <c r="D377" s="12"/>
-      <c r="E377" s="12"/>
+      <c r="E377" s="13"/>
       <c r="F377" s="12"/>
       <c r="G377" s="12"/>
     </row>
@@ -8498,7 +8471,7 @@
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
       <c r="D378" s="12"/>
-      <c r="E378" s="12"/>
+      <c r="E378" s="13"/>
       <c r="F378" s="12"/>
       <c r="G378" s="12"/>
     </row>
@@ -8534,16 +8507,16 @@
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
       <c r="D382" s="12"/>
-      <c r="E382" s="13"/>
+      <c r="E382" s="12"/>
       <c r="F382" s="12"/>
       <c r="G382" s="12"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A383" s="12"/>
-      <c r="B383" s="12"/>
-      <c r="C383" s="12"/>
-      <c r="D383" s="12"/>
-      <c r="E383" s="13"/>
+      <c r="A383" s="42"/>
+      <c r="B383" s="42"/>
+      <c r="C383" s="42"/>
+      <c r="D383" s="42"/>
+      <c r="E383" s="42"/>
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
     </row>
@@ -8557,11 +8530,11 @@
       <c r="G384" s="12"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A385" s="42"/>
-      <c r="B385" s="42"/>
-      <c r="C385" s="42"/>
-      <c r="D385" s="42"/>
-      <c r="E385" s="42"/>
+      <c r="A385" s="12"/>
+      <c r="B385" s="12"/>
+      <c r="C385" s="12"/>
+      <c r="D385" s="12"/>
+      <c r="E385" s="12"/>
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
     </row>
@@ -8598,8 +8571,8 @@
       <c r="C389" s="12"/>
       <c r="D389" s="12"/>
       <c r="E389" s="12"/>
-      <c r="F389" s="12"/>
-      <c r="G389" s="12"/>
+      <c r="F389" s="42"/>
+      <c r="G389" s="42"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="12"/>
@@ -8616,8 +8589,8 @@
       <c r="C391" s="12"/>
       <c r="D391" s="12"/>
       <c r="E391" s="12"/>
-      <c r="F391" s="42"/>
-      <c r="G391" s="42"/>
+      <c r="F391" s="12"/>
+      <c r="G391" s="12"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="12"/>
@@ -8712,11 +8685,11 @@
     <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="12"/>
       <c r="B402" s="12"/>
-      <c r="C402" s="12"/>
+      <c r="C402" s="14"/>
       <c r="D402" s="12"/>
       <c r="E402" s="12"/>
-      <c r="F402" s="12"/>
-      <c r="G402" s="12"/>
+      <c r="F402" s="42"/>
+      <c r="G402" s="42"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" s="12"/>
@@ -8728,13 +8701,13 @@
       <c r="G403" s="12"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A404" s="12"/>
-      <c r="B404" s="12"/>
-      <c r="C404" s="14"/>
-      <c r="D404" s="12"/>
-      <c r="E404" s="12"/>
-      <c r="F404" s="42"/>
-      <c r="G404" s="42"/>
+      <c r="A404" s="42"/>
+      <c r="B404" s="42"/>
+      <c r="C404" s="42"/>
+      <c r="D404" s="42"/>
+      <c r="E404" s="42"/>
+      <c r="F404" s="12"/>
+      <c r="G404" s="12"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="12"/>
@@ -8746,11 +8719,11 @@
       <c r="G405" s="12"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A406" s="42"/>
-      <c r="B406" s="42"/>
-      <c r="C406" s="42"/>
-      <c r="D406" s="42"/>
-      <c r="E406" s="42"/>
+      <c r="A406" s="12"/>
+      <c r="B406" s="12"/>
+      <c r="C406" s="12"/>
+      <c r="D406" s="12"/>
+      <c r="E406" s="12"/>
       <c r="F406" s="12"/>
       <c r="G406" s="12"/>
     </row>
@@ -8845,11 +8818,11 @@
       <c r="G416" s="12"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A417" s="12"/>
-      <c r="B417" s="12"/>
-      <c r="C417" s="12"/>
-      <c r="D417" s="12"/>
-      <c r="E417" s="12"/>
+      <c r="A417" s="42"/>
+      <c r="B417" s="42"/>
+      <c r="C417" s="42"/>
+      <c r="D417" s="42"/>
+      <c r="E417" s="42"/>
       <c r="F417" s="12"/>
       <c r="G417" s="12"/>
     </row>
@@ -8863,11 +8836,11 @@
       <c r="G418" s="12"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A419" s="42"/>
-      <c r="B419" s="42"/>
-      <c r="C419" s="42"/>
-      <c r="D419" s="42"/>
-      <c r="E419" s="42"/>
+      <c r="A419" s="12"/>
+      <c r="B419" s="12"/>
+      <c r="C419" s="12"/>
+      <c r="D419" s="12"/>
+      <c r="E419" s="12"/>
       <c r="F419" s="12"/>
       <c r="G419" s="12"/>
     </row>
@@ -8895,8 +8868,8 @@
       <c r="C422" s="12"/>
       <c r="D422" s="12"/>
       <c r="E422" s="12"/>
-      <c r="F422" s="12"/>
-      <c r="G422" s="12"/>
+      <c r="F422" s="42"/>
+      <c r="G422" s="42"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" s="12"/>
@@ -8913,8 +8886,8 @@
       <c r="C424" s="12"/>
       <c r="D424" s="12"/>
       <c r="E424" s="12"/>
-      <c r="F424" s="42"/>
-      <c r="G424" s="42"/>
+      <c r="F424" s="12"/>
+      <c r="G424" s="12"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" s="12"/>
@@ -9025,11 +8998,11 @@
       <c r="G436" s="12"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A437" s="12"/>
-      <c r="B437" s="12"/>
-      <c r="C437" s="12"/>
-      <c r="D437" s="12"/>
-      <c r="E437" s="12"/>
+      <c r="A437" s="42"/>
+      <c r="B437" s="42"/>
+      <c r="C437" s="42"/>
+      <c r="D437" s="42"/>
+      <c r="E437" s="42"/>
       <c r="F437" s="12"/>
       <c r="G437" s="12"/>
     </row>
@@ -9043,11 +9016,11 @@
       <c r="G438" s="12"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A439" s="42"/>
-      <c r="B439" s="42"/>
-      <c r="C439" s="42"/>
-      <c r="D439" s="42"/>
-      <c r="E439" s="42"/>
+      <c r="A439" s="12"/>
+      <c r="B439" s="12"/>
+      <c r="C439" s="12"/>
+      <c r="D439" s="12"/>
+      <c r="E439" s="12"/>
       <c r="F439" s="12"/>
       <c r="G439" s="12"/>
     </row>
@@ -9146,7 +9119,7 @@
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
       <c r="D450" s="12"/>
-      <c r="E450" s="12"/>
+      <c r="E450" s="13"/>
       <c r="F450" s="12"/>
       <c r="G450" s="12"/>
     </row>
@@ -9155,7 +9128,7 @@
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
       <c r="D451" s="12"/>
-      <c r="E451" s="12"/>
+      <c r="E451" s="13"/>
       <c r="F451" s="12"/>
       <c r="G451" s="12"/>
     </row>
@@ -9200,7 +9173,7 @@
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
       <c r="D456" s="12"/>
-      <c r="E456" s="13"/>
+      <c r="E456" s="12"/>
       <c r="F456" s="12"/>
       <c r="G456" s="12"/>
     </row>
@@ -9209,9 +9182,9 @@
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
       <c r="D457" s="12"/>
-      <c r="E457" s="13"/>
-      <c r="F457" s="12"/>
-      <c r="G457" s="12"/>
+      <c r="E457" s="12"/>
+      <c r="F457" s="42"/>
+      <c r="G457" s="42"/>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="12"/>
@@ -9228,8 +9201,8 @@
       <c r="C459" s="12"/>
       <c r="D459" s="12"/>
       <c r="E459" s="12"/>
-      <c r="F459" s="42"/>
-      <c r="G459" s="42"/>
+      <c r="F459" s="12"/>
+      <c r="G459" s="12"/>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" s="12"/>
@@ -9308,7 +9281,7 @@
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
       <c r="D468" s="12"/>
-      <c r="E468" s="12"/>
+      <c r="E468" s="13"/>
       <c r="F468" s="12"/>
       <c r="G468" s="12"/>
     </row>
@@ -9326,7 +9299,7 @@
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
       <c r="D470" s="12"/>
-      <c r="E470" s="13"/>
+      <c r="E470" s="12"/>
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
     </row>
@@ -9340,11 +9313,11 @@
       <c r="G471" s="12"/>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A472" s="12"/>
-      <c r="B472" s="12"/>
-      <c r="C472" s="12"/>
-      <c r="D472" s="12"/>
-      <c r="E472" s="12"/>
+      <c r="A472" s="42"/>
+      <c r="B472" s="42"/>
+      <c r="C472" s="42"/>
+      <c r="D472" s="42"/>
+      <c r="E472" s="42"/>
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
     </row>
@@ -9358,11 +9331,11 @@
       <c r="G473" s="12"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A474" s="42"/>
-      <c r="B474" s="42"/>
-      <c r="C474" s="42"/>
-      <c r="D474" s="42"/>
-      <c r="E474" s="42"/>
+      <c r="A474" s="12"/>
+      <c r="B474" s="12"/>
+      <c r="C474" s="12"/>
+      <c r="D474" s="12"/>
+      <c r="E474" s="12"/>
       <c r="F474" s="12"/>
       <c r="G474" s="12"/>
     </row>
@@ -9390,8 +9363,8 @@
       <c r="C477" s="12"/>
       <c r="D477" s="12"/>
       <c r="E477" s="12"/>
-      <c r="F477" s="12"/>
-      <c r="G477" s="12"/>
+      <c r="F477" s="42"/>
+      <c r="G477" s="42"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" s="12"/>
@@ -9408,8 +9381,8 @@
       <c r="C479" s="12"/>
       <c r="D479" s="12"/>
       <c r="E479" s="12"/>
-      <c r="F479" s="42"/>
-      <c r="G479" s="42"/>
+      <c r="F479" s="12"/>
+      <c r="G479" s="12"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" s="12"/>
@@ -9452,7 +9425,7 @@
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
       <c r="D484" s="12"/>
-      <c r="E484" s="12"/>
+      <c r="E484" s="13"/>
       <c r="F484" s="12"/>
       <c r="G484" s="12"/>
     </row>
@@ -9461,7 +9434,7 @@
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
       <c r="D485" s="12"/>
-      <c r="E485" s="12"/>
+      <c r="E485" s="13"/>
       <c r="F485" s="12"/>
       <c r="G485" s="12"/>
     </row>
@@ -9497,16 +9470,16 @@
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
       <c r="D489" s="12"/>
-      <c r="E489" s="13"/>
-      <c r="F489" s="12"/>
-      <c r="G489" s="12"/>
+      <c r="E489" s="12"/>
+      <c r="F489" s="42"/>
+      <c r="G489" s="42"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" s="12"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
       <c r="D490" s="12"/>
-      <c r="E490" s="13"/>
+      <c r="E490" s="12"/>
       <c r="F490" s="12"/>
       <c r="G490" s="12"/>
     </row>
@@ -9516,15 +9489,15 @@
       <c r="C491" s="12"/>
       <c r="D491" s="12"/>
       <c r="E491" s="12"/>
-      <c r="F491" s="42"/>
-      <c r="G491" s="42"/>
+      <c r="F491" s="12"/>
+      <c r="G491" s="12"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A492" s="12"/>
-      <c r="B492" s="12"/>
-      <c r="C492" s="12"/>
-      <c r="D492" s="12"/>
-      <c r="E492" s="12"/>
+      <c r="A492" s="42"/>
+      <c r="B492" s="42"/>
+      <c r="C492" s="42"/>
+      <c r="D492" s="42"/>
+      <c r="E492" s="42"/>
       <c r="F492" s="12"/>
       <c r="G492" s="12"/>
     </row>
@@ -9538,11 +9511,11 @@
       <c r="G493" s="12"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A494" s="42"/>
-      <c r="B494" s="42"/>
-      <c r="C494" s="42"/>
-      <c r="D494" s="42"/>
-      <c r="E494" s="42"/>
+      <c r="A494" s="12"/>
+      <c r="B494" s="12"/>
+      <c r="C494" s="12"/>
+      <c r="D494" s="12"/>
+      <c r="E494" s="12"/>
       <c r="F494" s="12"/>
       <c r="G494" s="12"/>
     </row>
@@ -9628,11 +9601,11 @@
       <c r="G503" s="12"/>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A504" s="12"/>
-      <c r="B504" s="12"/>
-      <c r="C504" s="12"/>
-      <c r="D504" s="12"/>
-      <c r="E504" s="12"/>
+      <c r="A504" s="42"/>
+      <c r="B504" s="42"/>
+      <c r="C504" s="42"/>
+      <c r="D504" s="42"/>
+      <c r="E504" s="42"/>
       <c r="F504" s="12"/>
       <c r="G504" s="12"/>
     </row>
@@ -9646,11 +9619,11 @@
       <c r="G505" s="12"/>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A506" s="42"/>
-      <c r="B506" s="42"/>
-      <c r="C506" s="42"/>
-      <c r="D506" s="42"/>
-      <c r="E506" s="42"/>
+      <c r="A506" s="12"/>
+      <c r="B506" s="12"/>
+      <c r="C506" s="12"/>
+      <c r="D506" s="12"/>
+      <c r="E506" s="12"/>
       <c r="F506" s="12"/>
       <c r="G506" s="12"/>
     </row>
@@ -9687,8 +9660,8 @@
       <c r="C510" s="12"/>
       <c r="D510" s="12"/>
       <c r="E510" s="12"/>
-      <c r="F510" s="12"/>
-      <c r="G510" s="12"/>
+      <c r="F510" s="42"/>
+      <c r="G510" s="42"/>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" s="12"/>
@@ -9705,8 +9678,8 @@
       <c r="C512" s="12"/>
       <c r="D512" s="12"/>
       <c r="E512" s="12"/>
-      <c r="F512" s="42"/>
-      <c r="G512" s="42"/>
+      <c r="F512" s="12"/>
+      <c r="G512" s="12"/>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" s="12"/>
@@ -9817,11 +9790,11 @@
       <c r="G524" s="12"/>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A525" s="12"/>
-      <c r="B525" s="12"/>
-      <c r="C525" s="12"/>
-      <c r="D525" s="12"/>
-      <c r="E525" s="12"/>
+      <c r="A525" s="42"/>
+      <c r="B525" s="42"/>
+      <c r="C525" s="42"/>
+      <c r="D525" s="42"/>
+      <c r="E525" s="42"/>
       <c r="F525" s="12"/>
       <c r="G525" s="12"/>
     </row>
@@ -9835,11 +9808,11 @@
       <c r="G526" s="12"/>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A527" s="42"/>
-      <c r="B527" s="42"/>
-      <c r="C527" s="42"/>
-      <c r="D527" s="42"/>
-      <c r="E527" s="42"/>
+      <c r="A527" s="12"/>
+      <c r="B527" s="12"/>
+      <c r="C527" s="12"/>
+      <c r="D527" s="12"/>
+      <c r="E527" s="12"/>
       <c r="F527" s="12"/>
       <c r="G527" s="12"/>
     </row>
@@ -9939,8 +9912,8 @@
       <c r="C538" s="12"/>
       <c r="D538" s="12"/>
       <c r="E538" s="12"/>
-      <c r="F538" s="12"/>
-      <c r="G538" s="12"/>
+      <c r="F538" s="42"/>
+      <c r="G538" s="42"/>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A539" s="12"/>
@@ -9957,8 +9930,8 @@
       <c r="C540" s="12"/>
       <c r="D540" s="12"/>
       <c r="E540" s="12"/>
-      <c r="F540" s="42"/>
-      <c r="G540" s="42"/>
+      <c r="F540" s="12"/>
+      <c r="G540" s="12"/>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A541" s="12"/>
@@ -9992,7 +9965,7 @@
       <c r="B544" s="12"/>
       <c r="C544" s="12"/>
       <c r="D544" s="12"/>
-      <c r="E544" s="12"/>
+      <c r="E544" s="13"/>
       <c r="F544" s="12"/>
       <c r="G544" s="12"/>
     </row>
@@ -10001,7 +9974,7 @@
       <c r="B545" s="12"/>
       <c r="C545" s="12"/>
       <c r="D545" s="12"/>
-      <c r="E545" s="12"/>
+      <c r="E545" s="13"/>
       <c r="F545" s="12"/>
       <c r="G545" s="12"/>
     </row>
@@ -10010,7 +9983,7 @@
       <c r="B546" s="12"/>
       <c r="C546" s="12"/>
       <c r="D546" s="12"/>
-      <c r="E546" s="13"/>
+      <c r="E546" s="12"/>
       <c r="F546" s="12"/>
       <c r="G546" s="12"/>
     </row>
@@ -10019,7 +9992,7 @@
       <c r="B547" s="12"/>
       <c r="C547" s="12"/>
       <c r="D547" s="12"/>
-      <c r="E547" s="13"/>
+      <c r="E547" s="12"/>
       <c r="F547" s="12"/>
       <c r="G547" s="12"/>
     </row>
@@ -10069,11 +10042,11 @@
       <c r="G552" s="12"/>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A553" s="12"/>
-      <c r="B553" s="12"/>
-      <c r="C553" s="12"/>
-      <c r="D553" s="12"/>
-      <c r="E553" s="12"/>
+      <c r="A553" s="42"/>
+      <c r="B553" s="42"/>
+      <c r="C553" s="42"/>
+      <c r="D553" s="42"/>
+      <c r="E553" s="42"/>
       <c r="F553" s="12"/>
       <c r="G553" s="12"/>
     </row>
@@ -10087,11 +10060,11 @@
       <c r="G554" s="12"/>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A555" s="42"/>
-      <c r="B555" s="42"/>
-      <c r="C555" s="42"/>
-      <c r="D555" s="42"/>
-      <c r="E555" s="42"/>
+      <c r="A555" s="12"/>
+      <c r="B555" s="12"/>
+      <c r="C555" s="12"/>
+      <c r="D555" s="12"/>
+      <c r="E555" s="12"/>
       <c r="F555" s="12"/>
       <c r="G555" s="12"/>
     </row>
@@ -10182,7 +10155,7 @@
       <c r="C565" s="12"/>
       <c r="D565" s="12"/>
       <c r="E565" s="12"/>
-      <c r="F565" s="12"/>
+      <c r="F565" s="13"/>
       <c r="G565" s="12"/>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.35">
@@ -10191,7 +10164,7 @@
       <c r="C566" s="12"/>
       <c r="D566" s="12"/>
       <c r="E566" s="12"/>
-      <c r="F566" s="12"/>
+      <c r="F566" s="13"/>
       <c r="G566" s="12"/>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.35">
@@ -10236,8 +10209,8 @@
       <c r="C571" s="12"/>
       <c r="D571" s="12"/>
       <c r="E571" s="12"/>
-      <c r="F571" s="13"/>
-      <c r="G571" s="12"/>
+      <c r="F571" s="42"/>
+      <c r="G571" s="42"/>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" s="12"/>
@@ -10245,7 +10218,7 @@
       <c r="C572" s="12"/>
       <c r="D572" s="12"/>
       <c r="E572" s="12"/>
-      <c r="F572" s="13"/>
+      <c r="F572" s="12"/>
       <c r="G572" s="12"/>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.35">
@@ -10254,8 +10227,8 @@
       <c r="C573" s="12"/>
       <c r="D573" s="12"/>
       <c r="E573" s="12"/>
-      <c r="F573" s="42"/>
-      <c r="G573" s="42"/>
+      <c r="F573" s="12"/>
+      <c r="G573" s="12"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" s="12"/>
@@ -10366,11 +10339,11 @@
       <c r="G585" s="12"/>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A586" s="12"/>
-      <c r="B586" s="12"/>
-      <c r="C586" s="12"/>
-      <c r="D586" s="12"/>
-      <c r="E586" s="12"/>
+      <c r="A586" s="42"/>
+      <c r="B586" s="42"/>
+      <c r="C586" s="42"/>
+      <c r="D586" s="42"/>
+      <c r="E586" s="42"/>
       <c r="F586" s="12"/>
       <c r="G586" s="12"/>
     </row>
@@ -10384,11 +10357,11 @@
       <c r="G587" s="12"/>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A588" s="42"/>
-      <c r="B588" s="42"/>
-      <c r="C588" s="42"/>
-      <c r="D588" s="42"/>
-      <c r="E588" s="42"/>
+      <c r="A588" s="12"/>
+      <c r="B588" s="12"/>
+      <c r="C588" s="12"/>
+      <c r="D588" s="12"/>
+      <c r="E588" s="12"/>
       <c r="F588" s="12"/>
       <c r="G588" s="12"/>
     </row>
@@ -10578,8 +10551,8 @@
       <c r="C609" s="12"/>
       <c r="D609" s="12"/>
       <c r="E609" s="12"/>
-      <c r="F609" s="12"/>
-      <c r="G609" s="12"/>
+      <c r="F609" s="42"/>
+      <c r="G609" s="42"/>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A610" s="12"/>
@@ -10596,8 +10569,8 @@
       <c r="C611" s="12"/>
       <c r="D611" s="12"/>
       <c r="E611" s="12"/>
-      <c r="F611" s="42"/>
-      <c r="G611" s="42"/>
+      <c r="F611" s="12"/>
+      <c r="G611" s="12"/>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A612" s="12"/>
@@ -10708,11 +10681,11 @@
       <c r="G623" s="12"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A624" s="12"/>
-      <c r="B624" s="12"/>
-      <c r="C624" s="12"/>
-      <c r="D624" s="12"/>
-      <c r="E624" s="12"/>
+      <c r="A624" s="42"/>
+      <c r="B624" s="42"/>
+      <c r="C624" s="42"/>
+      <c r="D624" s="42"/>
+      <c r="E624" s="42"/>
       <c r="F624" s="12"/>
       <c r="G624" s="12"/>
     </row>
@@ -10726,11 +10699,11 @@
       <c r="G625" s="12"/>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A626" s="42"/>
-      <c r="B626" s="42"/>
-      <c r="C626" s="42"/>
-      <c r="D626" s="42"/>
-      <c r="E626" s="42"/>
+      <c r="A626" s="12"/>
+      <c r="B626" s="12"/>
+      <c r="C626" s="12"/>
+      <c r="D626" s="12"/>
+      <c r="E626" s="12"/>
       <c r="F626" s="12"/>
       <c r="G626" s="12"/>
     </row>
@@ -10902,8 +10875,8 @@
       <c r="C645" s="12"/>
       <c r="D645" s="12"/>
       <c r="E645" s="12"/>
-      <c r="F645" s="12"/>
-      <c r="G645" s="12"/>
+      <c r="F645" s="42"/>
+      <c r="G645" s="42"/>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A646" s="12"/>
@@ -10920,8 +10893,8 @@
       <c r="C647" s="12"/>
       <c r="D647" s="12"/>
       <c r="E647" s="12"/>
-      <c r="F647" s="42"/>
-      <c r="G647" s="42"/>
+      <c r="F647" s="12"/>
+      <c r="G647" s="12"/>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A648" s="12"/>
@@ -11032,11 +11005,11 @@
       <c r="G659" s="12"/>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A660" s="12"/>
-      <c r="B660" s="12"/>
-      <c r="C660" s="12"/>
-      <c r="D660" s="12"/>
-      <c r="E660" s="12"/>
+      <c r="A660" s="42"/>
+      <c r="B660" s="42"/>
+      <c r="C660" s="42"/>
+      <c r="D660" s="42"/>
+      <c r="E660" s="42"/>
       <c r="F660" s="12"/>
       <c r="G660" s="12"/>
     </row>
@@ -11050,11 +11023,11 @@
       <c r="G661" s="12"/>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A662" s="42"/>
-      <c r="B662" s="42"/>
-      <c r="C662" s="42"/>
-      <c r="D662" s="42"/>
-      <c r="E662" s="42"/>
+      <c r="A662" s="12"/>
+      <c r="B662" s="12"/>
+      <c r="C662" s="12"/>
+      <c r="D662" s="12"/>
+      <c r="E662" s="12"/>
       <c r="F662" s="12"/>
       <c r="G662" s="12"/>
     </row>
@@ -11163,8 +11136,8 @@
       <c r="C674" s="12"/>
       <c r="D674" s="12"/>
       <c r="E674" s="12"/>
-      <c r="F674" s="12"/>
-      <c r="G674" s="12"/>
+      <c r="F674" s="42"/>
+      <c r="G674" s="42"/>
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A675" s="12"/>
@@ -11181,8 +11154,8 @@
       <c r="C676" s="12"/>
       <c r="D676" s="12"/>
       <c r="E676" s="12"/>
-      <c r="F676" s="42"/>
-      <c r="G676" s="42"/>
+      <c r="F676" s="12"/>
+      <c r="G676" s="12"/>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A677" s="12"/>
@@ -11293,11 +11266,11 @@
       <c r="G688" s="12"/>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A689" s="12"/>
-      <c r="B689" s="12"/>
-      <c r="C689" s="12"/>
-      <c r="D689" s="12"/>
-      <c r="E689" s="12"/>
+      <c r="A689" s="42"/>
+      <c r="B689" s="42"/>
+      <c r="C689" s="42"/>
+      <c r="D689" s="42"/>
+      <c r="E689" s="42"/>
       <c r="F689" s="12"/>
       <c r="G689" s="12"/>
     </row>
@@ -11311,11 +11284,11 @@
       <c r="G690" s="12"/>
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A691" s="42"/>
-      <c r="B691" s="42"/>
-      <c r="C691" s="42"/>
-      <c r="D691" s="42"/>
-      <c r="E691" s="42"/>
+      <c r="A691" s="12"/>
+      <c r="B691" s="12"/>
+      <c r="C691" s="12"/>
+      <c r="D691" s="12"/>
+      <c r="E691" s="12"/>
       <c r="F691" s="12"/>
       <c r="G691" s="12"/>
     </row>
@@ -11343,8 +11316,8 @@
       <c r="C694" s="12"/>
       <c r="D694" s="12"/>
       <c r="E694" s="12"/>
-      <c r="F694" s="12"/>
-      <c r="G694" s="12"/>
+      <c r="F694" s="42"/>
+      <c r="G694" s="42"/>
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A695" s="12"/>
@@ -11361,8 +11334,8 @@
       <c r="C696" s="12"/>
       <c r="D696" s="12"/>
       <c r="E696" s="12"/>
-      <c r="F696" s="42"/>
-      <c r="G696" s="42"/>
+      <c r="F696" s="12"/>
+      <c r="G696" s="12"/>
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A697" s="12"/>
@@ -11396,7 +11369,7 @@
       <c r="B700" s="12"/>
       <c r="C700" s="12"/>
       <c r="D700" s="12"/>
-      <c r="E700" s="12"/>
+      <c r="E700" s="13"/>
       <c r="F700" s="12"/>
       <c r="G700" s="12"/>
     </row>
@@ -11405,7 +11378,7 @@
       <c r="B701" s="12"/>
       <c r="C701" s="12"/>
       <c r="D701" s="12"/>
-      <c r="E701" s="12"/>
+      <c r="E701" s="13"/>
       <c r="F701" s="12"/>
       <c r="G701" s="12"/>
     </row>
@@ -11432,7 +11405,7 @@
       <c r="B704" s="12"/>
       <c r="C704" s="12"/>
       <c r="D704" s="12"/>
-      <c r="E704" s="13"/>
+      <c r="E704" s="12"/>
       <c r="F704" s="12"/>
       <c r="G704" s="12"/>
     </row>
@@ -11441,7 +11414,7 @@
       <c r="B705" s="12"/>
       <c r="C705" s="12"/>
       <c r="D705" s="12"/>
-      <c r="E705" s="13"/>
+      <c r="E705" s="12"/>
       <c r="F705" s="12"/>
       <c r="G705" s="12"/>
     </row>
@@ -11473,11 +11446,11 @@
       <c r="G708" s="12"/>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A709" s="12"/>
-      <c r="B709" s="12"/>
-      <c r="C709" s="12"/>
-      <c r="D709" s="12"/>
-      <c r="E709" s="12"/>
+      <c r="A709" s="42"/>
+      <c r="B709" s="42"/>
+      <c r="C709" s="42"/>
+      <c r="D709" s="42"/>
+      <c r="E709" s="42"/>
       <c r="F709" s="12"/>
       <c r="G709" s="12"/>
     </row>
@@ -11491,11 +11464,11 @@
       <c r="G710" s="12"/>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A711" s="42"/>
-      <c r="B711" s="42"/>
-      <c r="C711" s="42"/>
-      <c r="D711" s="42"/>
-      <c r="E711" s="42"/>
+      <c r="A711" s="12"/>
+      <c r="B711" s="12"/>
+      <c r="C711" s="12"/>
+      <c r="D711" s="12"/>
+      <c r="E711" s="12"/>
       <c r="F711" s="12"/>
       <c r="G711" s="12"/>
     </row>
@@ -11550,8 +11523,8 @@
       <c r="C717" s="12"/>
       <c r="D717" s="12"/>
       <c r="E717" s="12"/>
-      <c r="F717" s="12"/>
-      <c r="G717" s="12"/>
+      <c r="F717" s="42"/>
+      <c r="G717" s="42"/>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A718" s="12"/>
@@ -11559,8 +11532,8 @@
       <c r="C718" s="12"/>
       <c r="D718" s="12"/>
       <c r="E718" s="12"/>
-      <c r="F718" s="12"/>
-      <c r="G718" s="12"/>
+      <c r="F718" s="42"/>
+      <c r="G718" s="42"/>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A719" s="12"/>
@@ -11568,8 +11541,8 @@
       <c r="C719" s="12"/>
       <c r="D719" s="12"/>
       <c r="E719" s="12"/>
-      <c r="F719" s="42"/>
-      <c r="G719" s="42"/>
+      <c r="F719" s="12"/>
+      <c r="G719" s="12"/>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A720" s="12"/>
@@ -11577,8 +11550,8 @@
       <c r="C720" s="12"/>
       <c r="D720" s="12"/>
       <c r="E720" s="12"/>
-      <c r="F720" s="42"/>
-      <c r="G720" s="42"/>
+      <c r="F720" s="12"/>
+      <c r="G720" s="12"/>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A721" s="12"/>
@@ -11625,7 +11598,7 @@
       <c r="F725" s="12"/>
       <c r="G725" s="12"/>
     </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="12"/>
       <c r="B726" s="12"/>
       <c r="C726" s="12"/>
@@ -11640,10 +11613,10 @@
       <c r="C727" s="12"/>
       <c r="D727" s="12"/>
       <c r="E727" s="12"/>
-      <c r="F727" s="12"/>
-      <c r="G727" s="12"/>
-    </row>
-    <row r="728" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F727" s="42"/>
+      <c r="G727" s="42"/>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A728" s="12"/>
       <c r="B728" s="12"/>
       <c r="C728" s="12"/>
@@ -11658,8 +11631,8 @@
       <c r="C729" s="12"/>
       <c r="D729" s="12"/>
       <c r="E729" s="12"/>
-      <c r="F729" s="42"/>
-      <c r="G729" s="42"/>
+      <c r="F729" s="12"/>
+      <c r="G729" s="12"/>
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A730" s="12"/>
@@ -11680,38 +11653,38 @@
       <c r="G731" s="12"/>
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A732" s="12"/>
-      <c r="B732" s="12"/>
-      <c r="C732" s="12"/>
-      <c r="D732" s="12"/>
-      <c r="E732" s="12"/>
+      <c r="A732" s="42"/>
+      <c r="B732" s="42"/>
+      <c r="C732" s="42"/>
+      <c r="D732" s="42"/>
+      <c r="E732" s="42"/>
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A733" s="12"/>
-      <c r="B733" s="12"/>
-      <c r="C733" s="12"/>
-      <c r="D733" s="12"/>
-      <c r="E733" s="12"/>
+      <c r="A733" s="42"/>
+      <c r="B733" s="42"/>
+      <c r="C733" s="42"/>
+      <c r="D733" s="42"/>
+      <c r="E733" s="42"/>
       <c r="F733" s="12"/>
       <c r="G733" s="12"/>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A734" s="42"/>
-      <c r="B734" s="42"/>
-      <c r="C734" s="42"/>
-      <c r="D734" s="42"/>
-      <c r="E734" s="42"/>
+      <c r="A734" s="12"/>
+      <c r="B734" s="12"/>
+      <c r="C734" s="12"/>
+      <c r="D734" s="12"/>
+      <c r="E734" s="12"/>
       <c r="F734" s="12"/>
       <c r="G734" s="12"/>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A735" s="42"/>
-      <c r="B735" s="42"/>
-      <c r="C735" s="42"/>
-      <c r="D735" s="42"/>
-      <c r="E735" s="42"/>
+      <c r="A735" s="12"/>
+      <c r="B735" s="12"/>
+      <c r="C735" s="12"/>
+      <c r="D735" s="12"/>
+      <c r="E735" s="12"/>
       <c r="F735" s="12"/>
       <c r="G735" s="12"/>
     </row>
@@ -11721,8 +11694,8 @@
       <c r="C736" s="12"/>
       <c r="D736" s="12"/>
       <c r="E736" s="12"/>
-      <c r="F736" s="12"/>
-      <c r="G736" s="12"/>
+      <c r="F736" s="42"/>
+      <c r="G736" s="42"/>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A737" s="12"/>
@@ -11739,8 +11712,8 @@
       <c r="C738" s="12"/>
       <c r="D738" s="12"/>
       <c r="E738" s="12"/>
-      <c r="F738" s="42"/>
-      <c r="G738" s="42"/>
+      <c r="F738" s="12"/>
+      <c r="G738" s="12"/>
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A739" s="12"/>
@@ -11770,11 +11743,11 @@
       <c r="G741" s="12"/>
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A742" s="12"/>
-      <c r="B742" s="12"/>
-      <c r="C742" s="12"/>
-      <c r="D742" s="12"/>
-      <c r="E742" s="12"/>
+      <c r="A742" s="42"/>
+      <c r="B742" s="42"/>
+      <c r="C742" s="42"/>
+      <c r="D742" s="42"/>
+      <c r="E742" s="42"/>
       <c r="F742" s="12"/>
       <c r="G742" s="12"/>
     </row>
@@ -11788,11 +11761,11 @@
       <c r="G743" s="12"/>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A744" s="42"/>
-      <c r="B744" s="42"/>
-      <c r="C744" s="42"/>
-      <c r="D744" s="42"/>
-      <c r="E744" s="42"/>
+      <c r="A744" s="12"/>
+      <c r="B744" s="12"/>
+      <c r="C744" s="12"/>
+      <c r="D744" s="12"/>
+      <c r="E744" s="12"/>
       <c r="F744" s="12"/>
       <c r="G744" s="12"/>
     </row>
@@ -11851,11 +11824,11 @@
       <c r="G750" s="12"/>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A751" s="12"/>
-      <c r="B751" s="12"/>
-      <c r="C751" s="12"/>
-      <c r="D751" s="12"/>
-      <c r="E751" s="12"/>
+      <c r="A751" s="42"/>
+      <c r="B751" s="42"/>
+      <c r="C751" s="42"/>
+      <c r="D751" s="42"/>
+      <c r="E751" s="42"/>
       <c r="F751" s="12"/>
       <c r="G751" s="12"/>
     </row>
@@ -11869,11 +11842,11 @@
       <c r="G752" s="12"/>
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A753" s="42"/>
-      <c r="B753" s="42"/>
-      <c r="C753" s="42"/>
-      <c r="D753" s="42"/>
-      <c r="E753" s="42"/>
+      <c r="A753" s="12"/>
+      <c r="B753" s="12"/>
+      <c r="C753" s="12"/>
+      <c r="D753" s="12"/>
+      <c r="E753" s="12"/>
       <c r="F753" s="12"/>
       <c r="G753" s="12"/>
     </row>
@@ -11901,8 +11874,8 @@
       <c r="C756" s="12"/>
       <c r="D756" s="12"/>
       <c r="E756" s="12"/>
-      <c r="F756" s="12"/>
-      <c r="G756" s="12"/>
+      <c r="F756" s="42"/>
+      <c r="G756" s="42"/>
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A757" s="12"/>
@@ -11919,8 +11892,8 @@
       <c r="C758" s="12"/>
       <c r="D758" s="12"/>
       <c r="E758" s="12"/>
-      <c r="F758" s="42"/>
-      <c r="G758" s="42"/>
+      <c r="F758" s="12"/>
+      <c r="G758" s="12"/>
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A759" s="12"/>
@@ -12031,11 +12004,11 @@
       <c r="G770" s="12"/>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A771" s="12"/>
-      <c r="B771" s="12"/>
-      <c r="C771" s="12"/>
-      <c r="D771" s="12"/>
-      <c r="E771" s="12"/>
+      <c r="A771" s="42"/>
+      <c r="B771" s="42"/>
+      <c r="C771" s="42"/>
+      <c r="D771" s="42"/>
+      <c r="E771" s="42"/>
       <c r="F771" s="12"/>
       <c r="G771" s="12"/>
     </row>
@@ -12049,11 +12022,11 @@
       <c r="G772" s="12"/>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A773" s="42"/>
-      <c r="B773" s="42"/>
-      <c r="C773" s="42"/>
-      <c r="D773" s="42"/>
-      <c r="E773" s="42"/>
+      <c r="A773" s="12"/>
+      <c r="B773" s="12"/>
+      <c r="C773" s="12"/>
+      <c r="D773" s="12"/>
+      <c r="E773" s="12"/>
       <c r="F773" s="12"/>
       <c r="G773" s="12"/>
     </row>
@@ -12144,8 +12117,6 @@
       <c r="C783" s="12"/>
       <c r="D783" s="12"/>
       <c r="E783" s="12"/>
-      <c r="F783" s="12"/>
-      <c r="G783" s="12"/>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A784" s="12"/>
@@ -12153,8 +12124,6 @@
       <c r="C784" s="12"/>
       <c r="D784" s="12"/>
       <c r="E784" s="12"/>
-      <c r="F784" s="12"/>
-      <c r="G784" s="12"/>
     </row>
     <row r="785" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A785" s="12"/>
@@ -12246,20 +12215,6 @@
       <c r="C797" s="12"/>
       <c r="D797" s="12"/>
       <c r="E797" s="12"/>
-    </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A798" s="12"/>
-      <c r="B798" s="12"/>
-      <c r="C798" s="12"/>
-      <c r="D798" s="12"/>
-      <c r="E798" s="12"/>
-    </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A799" s="12"/>
-      <c r="B799" s="12"/>
-      <c r="C799" s="12"/>
-      <c r="D799" s="12"/>
-      <c r="E799" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -12284,7 +12239,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>2</v>
@@ -12353,9 +12308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/src/test/java/com/born/xls/My Account.xlsx
+++ b/src/test/java/com/born/xls/My Account.xlsx
@@ -2227,7 +2227,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
